--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -62,7 +62,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -189,11 +189,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +277,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="VPE" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Avaliacao-Vice-Presidente-Externo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Avaliacao-Membro-RH" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -62,7 +62,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -189,75 +189,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00CCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00CCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00CCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00CCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00CCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00CCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00CCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -277,13 +213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -1726,7 +1726,7 @@
       <c r="A4" s="7" t="n"/>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Goncalo Figueiredo</t>
         </is>
       </c>
       <c r="D4" s="7" t="n"/>
@@ -1793,7 +1793,7 @@
       <c r="A5" s="7" t="n"/>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Ines Cabral</t>
         </is>
       </c>
       <c r="D5" s="7" t="n"/>
@@ -2271,7 +2271,7 @@
       <c r="A12" s="7" t="n"/>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Goncalo Figueiredo</t>
         </is>
       </c>
       <c r="D12" s="7" t="n"/>
@@ -2338,7 +2338,7 @@
       <c r="A13" s="7" t="n"/>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Ines Cabral</t>
         </is>
       </c>
       <c r="D13" s="7" t="n"/>
@@ -2816,7 +2816,7 @@
       <c r="A20" s="7" t="n"/>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Goncalo Figueiredo</t>
         </is>
       </c>
       <c r="D20" s="7" t="n"/>
@@ -2883,7 +2883,7 @@
       <c r="A21" s="7" t="n"/>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Ines Cabral</t>
         </is>
       </c>
       <c r="D21" s="7" t="n"/>
@@ -3361,7 +3361,7 @@
       <c r="A28" s="7" t="n"/>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Goncalo Figueiredo</t>
         </is>
       </c>
       <c r="D28" s="7" t="n"/>
@@ -3428,7 +3428,7 @@
       <c r="A29" s="7" t="n"/>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Ines Cabral</t>
         </is>
       </c>
       <c r="D29" s="7" t="n"/>
@@ -3906,7 +3906,7 @@
       <c r="A36" s="7" t="n"/>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Goncalo Figueiredo</t>
         </is>
       </c>
       <c r="D36" s="7" t="n"/>
@@ -3973,7 +3973,7 @@
       <c r="A37" s="7" t="n"/>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Ines Cabral</t>
         </is>
       </c>
       <c r="D37" s="7" t="n"/>
@@ -4451,7 +4451,7 @@
       <c r="A44" s="7" t="n"/>
       <c r="C44" s="5" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Goncalo Figueiredo</t>
         </is>
       </c>
       <c r="D44" s="7" t="n"/>
@@ -4518,7 +4518,7 @@
       <c r="A45" s="7" t="n"/>
       <c r="C45" s="5" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Ines Cabral</t>
         </is>
       </c>
       <c r="D45" s="7" t="n"/>
@@ -4996,7 +4996,7 @@
       <c r="A52" s="7" t="n"/>
       <c r="C52" s="5" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Goncalo Figueiredo</t>
         </is>
       </c>
       <c r="D52" s="7" t="n"/>
@@ -5063,7 +5063,7 @@
       <c r="A53" s="7" t="n"/>
       <c r="C53" s="5" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Ines Cabral</t>
         </is>
       </c>
       <c r="D53" s="7" t="n"/>
@@ -5541,7 +5541,7 @@
       <c r="A60" s="7" t="n"/>
       <c r="C60" s="5" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Goncalo Figueiredo</t>
         </is>
       </c>
       <c r="D60" s="7" t="n"/>
@@ -5608,7 +5608,7 @@
       <c r="A61" s="7" t="n"/>
       <c r="C61" s="5" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Ines Cabral</t>
         </is>
       </c>
       <c r="D61" s="7" t="n"/>
@@ -6086,7 +6086,7 @@
       <c r="A68" s="7" t="n"/>
       <c r="C68" s="5" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Goncalo Figueiredo</t>
         </is>
       </c>
       <c r="D68" s="7" t="n"/>
@@ -6153,7 +6153,7 @@
       <c r="A69" s="7" t="n"/>
       <c r="C69" s="5" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Ines Cabral</t>
         </is>
       </c>
       <c r="D69" s="7" t="n"/>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Avaliacao-Vice-Presidente-Externo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Avaliacao-Membro-RH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Av-Sem-Membros" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Avaliacao-Vice-Presidente-Externo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Avaliacao-Membro-RH" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Avaliacao-Membros-MKT" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -62,7 +64,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -146,6 +148,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -193,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -210,9 +276,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -596,6 +678,415 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Avaliação de desempenho</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="8" t="n"/>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Avaliador</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Avaliado</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>1. O membro conseguiu alcançar os objetivos, estabelecidos a priori, das tarefas pelas quais foi responsável.</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>2. O membro cumpriu o prazo de entrega das suas tarefas.</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>3. O membro, caso necessário, desenvolveu conhecimento técnico especifico para completar a sua tarefa.</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>4. O membro foi capaz de comunicar com os seus colegas de forma clara e concisa, conseguindo defender a sua opinião mas respeitando a opinião dos outros, mantendo uma boa relação interpessoal e tendo sempre em mente o melhor interesse do Projeto.</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>5. O membro cooperou com os seus colegas para alcançar os objetivos das suas tarefas e, ultimamente, do Projeto.</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>6. O membro tinha noção do que era prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>7. O membro executou as suas tarefas de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
+        </is>
+      </c>
+      <c r="L2" s="6" t="inlineStr">
+        <is>
+          <t>1. Sentes que o Projeto que realizaste está a correr (ou correu) bem ou mal? Porquê?</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>1. Observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Inês Geraldes</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="n"/>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="n"/>
+      <c r="E3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
+        <is>
+          <t>Não correu, mas está a correr. Os membros em questão não poderão dar tudo face às tarefas que tinham, mas mesmo assim estiveram sempre lá para o projeto.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n"/>
+      <c r="B4" s="13" t="n"/>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Ines Bastos</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" s="14" t="n"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Cláudia Santos</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bem, algum atraso em tarefas pendentes mas over all view, uma boa gestão </t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="n"/>
+      <c r="B6" s="13" t="n"/>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Ines Bastos</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="14" t="n"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr">
+        <is>
+          <t>O projeto não andou ao ritmo que devia por causa das sucessivas mudanças na equipa.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Ines Bastos</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="I5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I8"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="J3"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="K7"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="J6"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="J4"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A3:B4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -776,13 +1267,13 @@
           <t>Liliana Freitas</t>
         </is>
       </c>
-      <c r="B3" s="10" t="n"/>
+      <c r="B3" s="11" t="n"/>
       <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Pedro Machado</t>
         </is>
       </c>
-      <c r="D3" s="10" t="n"/>
+      <c r="D3" s="11" t="n"/>
       <c r="E3" s="5" t="n">
         <v>6</v>
       </c>
@@ -864,13 +1355,13 @@
           <t>Francisco Sousa</t>
         </is>
       </c>
-      <c r="B4" s="10" t="n"/>
+      <c r="B4" s="11" t="n"/>
       <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Pedro Machado</t>
         </is>
       </c>
-      <c r="D4" s="10" t="n"/>
+      <c r="D4" s="11" t="n"/>
       <c r="E4" s="5" t="n">
         <v>6</v>
       </c>
@@ -952,13 +1443,13 @@
           <t>Joana Alves</t>
         </is>
       </c>
-      <c r="B5" s="10" t="n"/>
+      <c r="B5" s="11" t="n"/>
       <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Pedro Machado</t>
         </is>
       </c>
-      <c r="D5" s="10" t="n"/>
+      <c r="D5" s="11" t="n"/>
       <c r="E5" s="5" t="n">
         <v>6</v>
       </c>
@@ -1040,13 +1531,13 @@
           <t>Pedro Machado</t>
         </is>
       </c>
-      <c r="B6" s="10" t="n"/>
+      <c r="B6" s="11" t="n"/>
       <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Pedro Machado</t>
         </is>
       </c>
-      <c r="D6" s="10" t="n"/>
+      <c r="D6" s="11" t="n"/>
       <c r="E6" s="5" t="n">
         <v>6</v>
       </c>
@@ -1128,13 +1619,13 @@
           <t>Catarina Oliveira</t>
         </is>
       </c>
-      <c r="B7" s="10" t="n"/>
+      <c r="B7" s="11" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Pedro Machado</t>
         </is>
       </c>
-      <c r="D7" s="10" t="n"/>
+      <c r="D7" s="11" t="n"/>
       <c r="E7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1216,13 +1707,13 @@
           <t>Filipe Araújo</t>
         </is>
       </c>
-      <c r="B8" s="10" t="n"/>
+      <c r="B8" s="11" t="n"/>
       <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Pedro Machado</t>
         </is>
       </c>
-      <c r="D8" s="10" t="n"/>
+      <c r="D8" s="11" t="n"/>
       <c r="E8" s="5" t="n">
         <v>6</v>
       </c>
@@ -1488,7 +1979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1508,29 +1999,29 @@
           <t>Avaliação de desempenho</t>
         </is>
       </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="8" t="n"/>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="8" t="n"/>
+      <c r="O1" s="8" t="n"/>
+      <c r="P1" s="8" t="n"/>
+      <c r="Q1" s="8" t="n"/>
+      <c r="R1" s="8" t="n"/>
+      <c r="S1" s="8" t="n"/>
+      <c r="T1" s="8" t="n"/>
+      <c r="U1" s="8" t="n"/>
+      <c r="V1" s="8" t="n"/>
+      <c r="W1" s="8" t="n"/>
+      <c r="X1" s="9" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -1538,13 +2029,11 @@
           <t>Avaliador</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Avaliado</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n"/>
       <c r="E2" s="5" t="inlineStr">
         <is>
           <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
@@ -1652,13 +2141,13 @@
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="B3" s="7" t="n"/>
+      <c r="B3" s="10" t="n"/>
       <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D3" s="7" t="n"/>
+      <c r="D3" s="11" t="n"/>
       <c r="E3" s="5" t="n">
         <v>6</v>
       </c>
@@ -1723,13 +2212,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n"/>
+      <c r="A4" s="15" t="n"/>
+      <c r="B4" s="16" t="n"/>
       <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D4" s="7" t="n"/>
+      <c r="D4" s="11" t="n"/>
       <c r="E4" s="5" t="n">
         <v>5</v>
       </c>
@@ -1787,16 +2277,17 @@
       <c r="W4" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X4" s="7" t="n"/>
+      <c r="X4" s="17" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n"/>
+      <c r="A5" s="15" t="n"/>
+      <c r="B5" s="16" t="n"/>
       <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D5" s="7" t="n"/>
+      <c r="D5" s="11" t="n"/>
       <c r="E5" s="5" t="n">
         <v>5</v>
       </c>
@@ -1854,16 +2345,17 @@
       <c r="W5" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X5" s="7" t="n"/>
+      <c r="X5" s="17" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n"/>
+      <c r="A6" s="15" t="n"/>
+      <c r="B6" s="16" t="n"/>
       <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D6" s="7" t="n"/>
+      <c r="D6" s="11" t="n"/>
       <c r="E6" s="5" t="n">
         <v>6</v>
       </c>
@@ -1921,16 +2413,17 @@
       <c r="W6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X6" s="7" t="n"/>
+      <c r="X6" s="17" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
+      <c r="A7" s="15" t="n"/>
+      <c r="B7" s="16" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D7" s="7" t="n"/>
+      <c r="D7" s="11" t="n"/>
       <c r="E7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1988,16 +2481,17 @@
       <c r="W7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X7" s="7" t="n"/>
+      <c r="X7" s="17" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n"/>
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="16" t="n"/>
       <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="11" t="n"/>
       <c r="E8" s="5" t="n">
         <v>6</v>
       </c>
@@ -2055,16 +2549,17 @@
       <c r="W8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X8" s="7" t="n"/>
+      <c r="X8" s="17" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n"/>
+      <c r="A9" s="15" t="n"/>
+      <c r="B9" s="16" t="n"/>
       <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D9" s="7" t="n"/>
+      <c r="D9" s="11" t="n"/>
       <c r="E9" s="5" t="n">
         <v>5</v>
       </c>
@@ -2122,16 +2617,17 @@
       <c r="W9" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X9" s="7" t="n"/>
+      <c r="X9" s="17" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="13" t="n"/>
       <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D10" s="7" t="n"/>
+      <c r="D10" s="11" t="n"/>
       <c r="E10" s="5" t="n">
         <v>5</v>
       </c>
@@ -2189,7 +2685,7 @@
       <c r="W10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X10" s="7" t="n"/>
+      <c r="X10" s="14" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
@@ -2197,13 +2693,13 @@
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
+      <c r="B11" s="10" t="n"/>
       <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="11" t="n"/>
       <c r="E11" s="5" t="n">
         <v>6</v>
       </c>
@@ -2268,13 +2764,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="15" t="n"/>
+      <c r="B12" s="16" t="n"/>
       <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="11" t="n"/>
       <c r="E12" s="5" t="n">
         <v>4</v>
       </c>
@@ -2332,16 +2829,17 @@
       <c r="W12" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X12" s="7" t="n"/>
+      <c r="X12" s="17" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n"/>
+      <c r="A13" s="15" t="n"/>
+      <c r="B13" s="16" t="n"/>
       <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D13" s="7" t="n"/>
+      <c r="D13" s="11" t="n"/>
       <c r="E13" s="5" t="n">
         <v>4</v>
       </c>
@@ -2399,16 +2897,17 @@
       <c r="W13" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X13" s="7" t="n"/>
+      <c r="X13" s="17" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
+      <c r="A14" s="15" t="n"/>
+      <c r="B14" s="16" t="n"/>
       <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D14" s="7" t="n"/>
+      <c r="D14" s="11" t="n"/>
       <c r="E14" s="5" t="n">
         <v>5</v>
       </c>
@@ -2466,16 +2965,17 @@
       <c r="W14" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X14" s="7" t="n"/>
+      <c r="X14" s="17" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n"/>
+      <c r="A15" s="15" t="n"/>
+      <c r="B15" s="16" t="n"/>
       <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D15" s="7" t="n"/>
+      <c r="D15" s="11" t="n"/>
       <c r="E15" s="5" t="n">
         <v>6</v>
       </c>
@@ -2533,16 +3033,17 @@
       <c r="W15" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X15" s="7" t="n"/>
+      <c r="X15" s="17" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n"/>
+      <c r="A16" s="15" t="n"/>
+      <c r="B16" s="16" t="n"/>
       <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D16" s="7" t="n"/>
+      <c r="D16" s="11" t="n"/>
       <c r="E16" s="5" t="n">
         <v>6</v>
       </c>
@@ -2600,16 +3101,17 @@
       <c r="W16" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X16" s="7" t="n"/>
+      <c r="X16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n"/>
+      <c r="A17" s="15" t="n"/>
+      <c r="B17" s="16" t="n"/>
       <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D17" s="7" t="n"/>
+      <c r="D17" s="11" t="n"/>
       <c r="E17" s="5" t="n">
         <v>5</v>
       </c>
@@ -2667,16 +3169,17 @@
       <c r="W17" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X17" s="7" t="n"/>
+      <c r="X17" s="17" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n"/>
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="13" t="n"/>
       <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D18" s="7" t="n"/>
+      <c r="D18" s="11" t="n"/>
       <c r="E18" s="5" t="n">
         <v>6</v>
       </c>
@@ -2734,7 +3237,7 @@
       <c r="W18" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X18" s="7" t="n"/>
+      <c r="X18" s="14" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
@@ -2742,13 +3245,13 @@
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="B19" s="7" t="n"/>
+      <c r="B19" s="10" t="n"/>
       <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D19" s="7" t="n"/>
+      <c r="D19" s="11" t="n"/>
       <c r="E19" s="5" t="n">
         <v>6</v>
       </c>
@@ -2813,13 +3316,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n"/>
+      <c r="A20" s="15" t="n"/>
+      <c r="B20" s="16" t="n"/>
       <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D20" s="7" t="n"/>
+      <c r="D20" s="11" t="n"/>
       <c r="E20" s="5" t="n">
         <v>3</v>
       </c>
@@ -2877,16 +3381,17 @@
       <c r="W20" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="X20" s="7" t="n"/>
+      <c r="X20" s="17" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n"/>
+      <c r="A21" s="15" t="n"/>
+      <c r="B21" s="16" t="n"/>
       <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D21" s="7" t="n"/>
+      <c r="D21" s="11" t="n"/>
       <c r="E21" s="5" t="n">
         <v>5</v>
       </c>
@@ -2944,16 +3449,17 @@
       <c r="W21" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X21" s="7" t="n"/>
+      <c r="X21" s="17" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n"/>
+      <c r="A22" s="15" t="n"/>
+      <c r="B22" s="16" t="n"/>
       <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D22" s="7" t="n"/>
+      <c r="D22" s="11" t="n"/>
       <c r="E22" s="5" t="n">
         <v>6</v>
       </c>
@@ -3011,16 +3517,17 @@
       <c r="W22" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X22" s="7" t="n"/>
+      <c r="X22" s="17" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n"/>
+      <c r="A23" s="15" t="n"/>
+      <c r="B23" s="16" t="n"/>
       <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D23" s="7" t="n"/>
+      <c r="D23" s="11" t="n"/>
       <c r="E23" s="5" t="n">
         <v>6</v>
       </c>
@@ -3078,16 +3585,17 @@
       <c r="W23" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X23" s="7" t="n"/>
+      <c r="X23" s="17" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n"/>
+      <c r="A24" s="15" t="n"/>
+      <c r="B24" s="16" t="n"/>
       <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D24" s="7" t="n"/>
+      <c r="D24" s="11" t="n"/>
       <c r="E24" s="5" t="n">
         <v>6</v>
       </c>
@@ -3145,16 +3653,17 @@
       <c r="W24" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X24" s="7" t="n"/>
+      <c r="X24" s="17" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n"/>
+      <c r="A25" s="15" t="n"/>
+      <c r="B25" s="16" t="n"/>
       <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D25" s="7" t="n"/>
+      <c r="D25" s="11" t="n"/>
       <c r="E25" s="5" t="n">
         <v>6</v>
       </c>
@@ -3212,16 +3721,17 @@
       <c r="W25" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X25" s="7" t="n"/>
+      <c r="X25" s="17" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n"/>
+      <c r="A26" s="12" t="n"/>
+      <c r="B26" s="13" t="n"/>
       <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D26" s="7" t="n"/>
+      <c r="D26" s="11" t="n"/>
       <c r="E26" s="5" t="n">
         <v>5</v>
       </c>
@@ -3279,7 +3789,7 @@
       <c r="W26" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X26" s="7" t="n"/>
+      <c r="X26" s="14" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
@@ -3287,13 +3797,13 @@
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="B27" s="7" t="n"/>
+      <c r="B27" s="10" t="n"/>
       <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D27" s="7" t="n"/>
+      <c r="D27" s="11" t="n"/>
       <c r="E27" s="5" t="n">
         <v>6</v>
       </c>
@@ -3358,13 +3868,14 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n"/>
+      <c r="A28" s="15" t="n"/>
+      <c r="B28" s="16" t="n"/>
       <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D28" s="7" t="n"/>
+      <c r="D28" s="11" t="n"/>
       <c r="E28" s="5" t="n">
         <v>6</v>
       </c>
@@ -3422,16 +3933,17 @@
       <c r="W28" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X28" s="7" t="n"/>
+      <c r="X28" s="17" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n"/>
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="16" t="n"/>
       <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D29" s="7" t="n"/>
+      <c r="D29" s="11" t="n"/>
       <c r="E29" s="5" t="n">
         <v>6</v>
       </c>
@@ -3489,16 +4001,17 @@
       <c r="W29" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X29" s="7" t="n"/>
+      <c r="X29" s="17" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="n"/>
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="16" t="n"/>
       <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D30" s="7" t="n"/>
+      <c r="D30" s="11" t="n"/>
       <c r="E30" s="5" t="n">
         <v>6</v>
       </c>
@@ -3556,16 +4069,17 @@
       <c r="W30" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X30" s="7" t="n"/>
+      <c r="X30" s="17" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="n"/>
+      <c r="A31" s="15" t="n"/>
+      <c r="B31" s="16" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D31" s="7" t="n"/>
+      <c r="D31" s="11" t="n"/>
       <c r="E31" s="5" t="n">
         <v>6</v>
       </c>
@@ -3623,16 +4137,17 @@
       <c r="W31" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X31" s="7" t="n"/>
+      <c r="X31" s="17" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="n"/>
+      <c r="A32" s="15" t="n"/>
+      <c r="B32" s="16" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D32" s="7" t="n"/>
+      <c r="D32" s="11" t="n"/>
       <c r="E32" s="5" t="n">
         <v>6</v>
       </c>
@@ -3690,16 +4205,17 @@
       <c r="W32" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X32" s="7" t="n"/>
+      <c r="X32" s="17" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="n"/>
+      <c r="A33" s="15" t="n"/>
+      <c r="B33" s="16" t="n"/>
       <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D33" s="7" t="n"/>
+      <c r="D33" s="11" t="n"/>
       <c r="E33" s="5" t="n">
         <v>6</v>
       </c>
@@ -3757,16 +4273,17 @@
       <c r="W33" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X33" s="7" t="n"/>
+      <c r="X33" s="17" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="n"/>
+      <c r="A34" s="12" t="n"/>
+      <c r="B34" s="13" t="n"/>
       <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D34" s="7" t="n"/>
+      <c r="D34" s="11" t="n"/>
       <c r="E34" s="5" t="n">
         <v>6</v>
       </c>
@@ -3824,7 +4341,7 @@
       <c r="W34" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X34" s="7" t="n"/>
+      <c r="X34" s="14" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
@@ -3832,13 +4349,13 @@
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="B35" s="7" t="n"/>
+      <c r="B35" s="10" t="n"/>
       <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D35" s="7" t="n"/>
+      <c r="D35" s="11" t="n"/>
       <c r="E35" s="5" t="n">
         <v>6</v>
       </c>
@@ -3903,13 +4420,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="n"/>
+      <c r="A36" s="15" t="n"/>
+      <c r="B36" s="16" t="n"/>
       <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D36" s="7" t="n"/>
+      <c r="D36" s="11" t="n"/>
       <c r="E36" s="5" t="n">
         <v>5</v>
       </c>
@@ -3967,16 +4485,17 @@
       <c r="W36" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X36" s="7" t="n"/>
+      <c r="X36" s="17" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="n"/>
+      <c r="A37" s="15" t="n"/>
+      <c r="B37" s="16" t="n"/>
       <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D37" s="7" t="n"/>
+      <c r="D37" s="11" t="n"/>
       <c r="E37" s="5" t="n">
         <v>6</v>
       </c>
@@ -4034,16 +4553,17 @@
       <c r="W37" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X37" s="7" t="n"/>
+      <c r="X37" s="17" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="n"/>
+      <c r="A38" s="15" t="n"/>
+      <c r="B38" s="16" t="n"/>
       <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D38" s="7" t="n"/>
+      <c r="D38" s="11" t="n"/>
       <c r="E38" s="5" t="n">
         <v>5</v>
       </c>
@@ -4101,16 +4621,17 @@
       <c r="W38" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X38" s="7" t="n"/>
+      <c r="X38" s="17" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="n"/>
+      <c r="A39" s="15" t="n"/>
+      <c r="B39" s="16" t="n"/>
       <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D39" s="7" t="n"/>
+      <c r="D39" s="11" t="n"/>
       <c r="E39" s="5" t="n">
         <v>6</v>
       </c>
@@ -4168,16 +4689,17 @@
       <c r="W39" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X39" s="7" t="n"/>
+      <c r="X39" s="17" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="n"/>
+      <c r="A40" s="15" t="n"/>
+      <c r="B40" s="16" t="n"/>
       <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D40" s="7" t="n"/>
+      <c r="D40" s="11" t="n"/>
       <c r="E40" s="5" t="n">
         <v>6</v>
       </c>
@@ -4235,16 +4757,17 @@
       <c r="W40" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X40" s="7" t="n"/>
+      <c r="X40" s="17" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="n"/>
+      <c r="A41" s="15" t="n"/>
+      <c r="B41" s="16" t="n"/>
       <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D41" s="7" t="n"/>
+      <c r="D41" s="11" t="n"/>
       <c r="E41" s="5" t="n">
         <v>5</v>
       </c>
@@ -4302,16 +4825,17 @@
       <c r="W41" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X41" s="7" t="n"/>
+      <c r="X41" s="17" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="n"/>
+      <c r="A42" s="12" t="n"/>
+      <c r="B42" s="13" t="n"/>
       <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D42" s="7" t="n"/>
+      <c r="D42" s="11" t="n"/>
       <c r="E42" s="5" t="n">
         <v>5</v>
       </c>
@@ -4369,7 +4893,7 @@
       <c r="W42" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X42" s="7" t="n"/>
+      <c r="X42" s="14" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="inlineStr">
@@ -4377,13 +4901,13 @@
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="B43" s="7" t="n"/>
+      <c r="B43" s="10" t="n"/>
       <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D43" s="7" t="n"/>
+      <c r="D43" s="11" t="n"/>
       <c r="E43" s="5" t="n">
         <v>6</v>
       </c>
@@ -4448,13 +4972,14 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="n"/>
+      <c r="A44" s="15" t="n"/>
+      <c r="B44" s="16" t="n"/>
       <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D44" s="7" t="n"/>
+      <c r="D44" s="11" t="n"/>
       <c r="E44" s="5" t="n">
         <v>5</v>
       </c>
@@ -4512,16 +5037,17 @@
       <c r="W44" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X44" s="7" t="n"/>
+      <c r="X44" s="17" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="n"/>
+      <c r="A45" s="15" t="n"/>
+      <c r="B45" s="16" t="n"/>
       <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D45" s="7" t="n"/>
+      <c r="D45" s="11" t="n"/>
       <c r="E45" s="5" t="n">
         <v>5</v>
       </c>
@@ -4579,16 +5105,17 @@
       <c r="W45" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X45" s="7" t="n"/>
+      <c r="X45" s="17" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="n"/>
+      <c r="A46" s="15" t="n"/>
+      <c r="B46" s="16" t="n"/>
       <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D46" s="7" t="n"/>
+      <c r="D46" s="11" t="n"/>
       <c r="E46" s="5" t="n">
         <v>5</v>
       </c>
@@ -4646,16 +5173,17 @@
       <c r="W46" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X46" s="7" t="n"/>
+      <c r="X46" s="17" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="n"/>
+      <c r="A47" s="15" t="n"/>
+      <c r="B47" s="16" t="n"/>
       <c r="C47" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D47" s="7" t="n"/>
+      <c r="D47" s="11" t="n"/>
       <c r="E47" s="5" t="n">
         <v>6</v>
       </c>
@@ -4713,16 +5241,17 @@
       <c r="W47" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X47" s="7" t="n"/>
+      <c r="X47" s="17" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="n"/>
+      <c r="A48" s="15" t="n"/>
+      <c r="B48" s="16" t="n"/>
       <c r="C48" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D48" s="7" t="n"/>
+      <c r="D48" s="11" t="n"/>
       <c r="E48" s="5" t="n">
         <v>6</v>
       </c>
@@ -4780,16 +5309,17 @@
       <c r="W48" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X48" s="7" t="n"/>
+      <c r="X48" s="17" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="n"/>
+      <c r="A49" s="15" t="n"/>
+      <c r="B49" s="16" t="n"/>
       <c r="C49" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D49" s="7" t="n"/>
+      <c r="D49" s="11" t="n"/>
       <c r="E49" s="5" t="n">
         <v>5</v>
       </c>
@@ -4847,16 +5377,17 @@
       <c r="W49" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X49" s="7" t="n"/>
+      <c r="X49" s="17" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="n"/>
+      <c r="A50" s="12" t="n"/>
+      <c r="B50" s="13" t="n"/>
       <c r="C50" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D50" s="7" t="n"/>
+      <c r="D50" s="11" t="n"/>
       <c r="E50" s="5" t="n">
         <v>6</v>
       </c>
@@ -4914,7 +5445,7 @@
       <c r="W50" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X50" s="7" t="n"/>
+      <c r="X50" s="14" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
@@ -4922,13 +5453,13 @@
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="B51" s="7" t="n"/>
+      <c r="B51" s="10" t="n"/>
       <c r="C51" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D51" s="7" t="n"/>
+      <c r="D51" s="11" t="n"/>
       <c r="E51" s="5" t="n">
         <v>6</v>
       </c>
@@ -4993,13 +5524,14 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="n"/>
+      <c r="A52" s="15" t="n"/>
+      <c r="B52" s="16" t="n"/>
       <c r="C52" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D52" s="7" t="n"/>
+      <c r="D52" s="11" t="n"/>
       <c r="E52" s="5" t="n">
         <v>4</v>
       </c>
@@ -5057,16 +5589,17 @@
       <c r="W52" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X52" s="7" t="n"/>
+      <c r="X52" s="17" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="n"/>
+      <c r="A53" s="15" t="n"/>
+      <c r="B53" s="16" t="n"/>
       <c r="C53" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D53" s="7" t="n"/>
+      <c r="D53" s="11" t="n"/>
       <c r="E53" s="5" t="n">
         <v>6</v>
       </c>
@@ -5124,16 +5657,17 @@
       <c r="W53" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X53" s="7" t="n"/>
+      <c r="X53" s="17" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="n"/>
+      <c r="A54" s="15" t="n"/>
+      <c r="B54" s="16" t="n"/>
       <c r="C54" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D54" s="7" t="n"/>
+      <c r="D54" s="11" t="n"/>
       <c r="E54" s="5" t="n">
         <v>6</v>
       </c>
@@ -5191,16 +5725,17 @@
       <c r="W54" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X54" s="7" t="n"/>
+      <c r="X54" s="17" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="n"/>
+      <c r="A55" s="15" t="n"/>
+      <c r="B55" s="16" t="n"/>
       <c r="C55" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D55" s="7" t="n"/>
+      <c r="D55" s="11" t="n"/>
       <c r="E55" s="5" t="n">
         <v>6</v>
       </c>
@@ -5258,16 +5793,17 @@
       <c r="W55" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X55" s="7" t="n"/>
+      <c r="X55" s="17" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="n"/>
+      <c r="A56" s="15" t="n"/>
+      <c r="B56" s="16" t="n"/>
       <c r="C56" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D56" s="7" t="n"/>
+      <c r="D56" s="11" t="n"/>
       <c r="E56" s="5" t="n">
         <v>6</v>
       </c>
@@ -5325,16 +5861,17 @@
       <c r="W56" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X56" s="7" t="n"/>
+      <c r="X56" s="17" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="n"/>
+      <c r="A57" s="15" t="n"/>
+      <c r="B57" s="16" t="n"/>
       <c r="C57" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D57" s="7" t="n"/>
+      <c r="D57" s="11" t="n"/>
       <c r="E57" s="5" t="n">
         <v>6</v>
       </c>
@@ -5392,16 +5929,17 @@
       <c r="W57" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X57" s="7" t="n"/>
+      <c r="X57" s="17" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="n"/>
+      <c r="A58" s="12" t="n"/>
+      <c r="B58" s="13" t="n"/>
       <c r="C58" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D58" s="7" t="n"/>
+      <c r="D58" s="11" t="n"/>
       <c r="E58" s="5" t="n">
         <v>6</v>
       </c>
@@ -5459,7 +5997,7 @@
       <c r="W58" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X58" s="7" t="n"/>
+      <c r="X58" s="14" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="inlineStr">
@@ -5467,13 +6005,13 @@
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="B59" s="7" t="n"/>
+      <c r="B59" s="10" t="n"/>
       <c r="C59" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D59" s="7" t="n"/>
+      <c r="D59" s="11" t="n"/>
       <c r="E59" s="5" t="n">
         <v>6</v>
       </c>
@@ -5538,13 +6076,14 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="n"/>
+      <c r="A60" s="15" t="n"/>
+      <c r="B60" s="16" t="n"/>
       <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D60" s="7" t="n"/>
+      <c r="D60" s="11" t="n"/>
       <c r="E60" s="5" t="n">
         <v>4</v>
       </c>
@@ -5602,16 +6141,17 @@
       <c r="W60" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="X60" s="7" t="n"/>
+      <c r="X60" s="17" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="n"/>
+      <c r="A61" s="15" t="n"/>
+      <c r="B61" s="16" t="n"/>
       <c r="C61" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D61" s="7" t="n"/>
+      <c r="D61" s="11" t="n"/>
       <c r="E61" s="5" t="n">
         <v>4</v>
       </c>
@@ -5669,16 +6209,17 @@
       <c r="W61" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X61" s="7" t="n"/>
+      <c r="X61" s="17" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="n"/>
+      <c r="A62" s="15" t="n"/>
+      <c r="B62" s="16" t="n"/>
       <c r="C62" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D62" s="7" t="n"/>
+      <c r="D62" s="11" t="n"/>
       <c r="E62" s="5" t="n">
         <v>6</v>
       </c>
@@ -5736,16 +6277,17 @@
       <c r="W62" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X62" s="7" t="n"/>
+      <c r="X62" s="17" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="n"/>
+      <c r="A63" s="15" t="n"/>
+      <c r="B63" s="16" t="n"/>
       <c r="C63" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D63" s="7" t="n"/>
+      <c r="D63" s="11" t="n"/>
       <c r="E63" s="5" t="n">
         <v>6</v>
       </c>
@@ -5803,16 +6345,17 @@
       <c r="W63" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X63" s="7" t="n"/>
+      <c r="X63" s="17" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="n"/>
+      <c r="A64" s="15" t="n"/>
+      <c r="B64" s="16" t="n"/>
       <c r="C64" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D64" s="7" t="n"/>
+      <c r="D64" s="11" t="n"/>
       <c r="E64" s="5" t="n">
         <v>6</v>
       </c>
@@ -5870,16 +6413,17 @@
       <c r="W64" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X64" s="7" t="n"/>
+      <c r="X64" s="17" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="n"/>
+      <c r="A65" s="15" t="n"/>
+      <c r="B65" s="16" t="n"/>
       <c r="C65" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D65" s="7" t="n"/>
+      <c r="D65" s="11" t="n"/>
       <c r="E65" s="5" t="n">
         <v>5</v>
       </c>
@@ -5937,16 +6481,17 @@
       <c r="W65" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X65" s="7" t="n"/>
+      <c r="X65" s="17" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="n"/>
+      <c r="A66" s="12" t="n"/>
+      <c r="B66" s="13" t="n"/>
       <c r="C66" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D66" s="7" t="n"/>
+      <c r="D66" s="11" t="n"/>
       <c r="E66" s="5" t="n">
         <v>4</v>
       </c>
@@ -6004,7 +6549,7 @@
       <c r="W66" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X66" s="7" t="n"/>
+      <c r="X66" s="14" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
@@ -6012,13 +6557,13 @@
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="B67" s="7" t="n"/>
+      <c r="B67" s="10" t="n"/>
       <c r="C67" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D67" s="7" t="n"/>
+      <c r="D67" s="11" t="n"/>
       <c r="E67" s="5" t="n">
         <v>6</v>
       </c>
@@ -6083,13 +6628,14 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="n"/>
+      <c r="A68" s="15" t="n"/>
+      <c r="B68" s="16" t="n"/>
       <c r="C68" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D68" s="7" t="n"/>
+      <c r="D68" s="11" t="n"/>
       <c r="E68" s="5" t="n">
         <v>4</v>
       </c>
@@ -6147,16 +6693,17 @@
       <c r="W68" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X68" s="7" t="n"/>
+      <c r="X68" s="17" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="n"/>
+      <c r="A69" s="15" t="n"/>
+      <c r="B69" s="16" t="n"/>
       <c r="C69" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D69" s="7" t="n"/>
+      <c r="D69" s="11" t="n"/>
       <c r="E69" s="5" t="n">
         <v>4</v>
       </c>
@@ -6214,16 +6761,17 @@
       <c r="W69" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X69" s="7" t="n"/>
+      <c r="X69" s="17" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="n"/>
+      <c r="A70" s="15" t="n"/>
+      <c r="B70" s="16" t="n"/>
       <c r="C70" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D70" s="7" t="n"/>
+      <c r="D70" s="11" t="n"/>
       <c r="E70" s="5" t="n">
         <v>6</v>
       </c>
@@ -6281,16 +6829,17 @@
       <c r="W70" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X70" s="7" t="n"/>
+      <c r="X70" s="17" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="n"/>
+      <c r="A71" s="15" t="n"/>
+      <c r="B71" s="16" t="n"/>
       <c r="C71" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D71" s="7" t="n"/>
+      <c r="D71" s="11" t="n"/>
       <c r="E71" s="5" t="n">
         <v>6</v>
       </c>
@@ -6348,16 +6897,17 @@
       <c r="W71" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X71" s="7" t="n"/>
+      <c r="X71" s="17" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="n"/>
+      <c r="A72" s="15" t="n"/>
+      <c r="B72" s="16" t="n"/>
       <c r="C72" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D72" s="7" t="n"/>
+      <c r="D72" s="11" t="n"/>
       <c r="E72" s="5" t="n">
         <v>6</v>
       </c>
@@ -6415,16 +6965,17 @@
       <c r="W72" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X72" s="7" t="n"/>
+      <c r="X72" s="17" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="n"/>
+      <c r="A73" s="15" t="n"/>
+      <c r="B73" s="16" t="n"/>
       <c r="C73" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D73" s="7" t="n"/>
+      <c r="D73" s="11" t="n"/>
       <c r="E73" s="5" t="n">
         <v>5</v>
       </c>
@@ -6482,16 +7033,17 @@
       <c r="W73" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X73" s="7" t="n"/>
+      <c r="X73" s="17" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="n"/>
+      <c r="A74" s="12" t="n"/>
+      <c r="B74" s="13" t="n"/>
       <c r="C74" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D74" s="7" t="n"/>
+      <c r="D74" s="11" t="n"/>
       <c r="E74" s="5" t="n">
         <v>4</v>
       </c>
@@ -6549,7 +7101,7 @@
       <c r="W74" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X74" s="7" t="n"/>
+      <c r="X74" s="14" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1481">
@@ -7678,8 +8230,8 @@
     <mergeCell ref="E60"/>
     <mergeCell ref="M22"/>
     <mergeCell ref="O50"/>
+    <mergeCell ref="P16"/>
     <mergeCell ref="M15"/>
-    <mergeCell ref="P16"/>
     <mergeCell ref="W12"/>
     <mergeCell ref="L41"/>
     <mergeCell ref="F27"/>
@@ -8037,4 +8589,6922 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="18" t="inlineStr">
+        <is>
+          <t>Avaliação de desempenho</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="4" t="n"/>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="4" t="n"/>
+      <c r="H1" s="4" t="n"/>
+      <c r="I1" s="4" t="n"/>
+      <c r="J1" s="4" t="n"/>
+      <c r="K1" s="4" t="n"/>
+      <c r="L1" s="4" t="n"/>
+      <c r="M1" s="4" t="n"/>
+      <c r="N1" s="4" t="n"/>
+      <c r="O1" s="4" t="n"/>
+      <c r="P1" s="4" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Avaliador</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Avaliado</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="19" t="inlineStr">
+        <is>
+          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
+        </is>
+      </c>
+      <c r="F3" s="19" t="inlineStr">
+        <is>
+          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
+        </is>
+      </c>
+      <c r="G3" s="19" t="inlineStr">
+        <is>
+          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
+        </is>
+      </c>
+      <c r="H3" s="19" t="inlineStr">
+        <is>
+          <t>4. O membro aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
+        </is>
+      </c>
+      <c r="I3" s="19" t="inlineStr">
+        <is>
+          <t>5. O membro tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
+        </is>
+      </c>
+      <c r="J3" s="19" t="inlineStr">
+        <is>
+          <t>6. O membro procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
+        </is>
+      </c>
+      <c r="K3" s="20" t="inlineStr">
+        <is>
+          <t>1. O membro é capaz de publicitar a EPIC Júnior de uma forma correta e precisa.</t>
+        </is>
+      </c>
+      <c r="L3" s="20" t="inlineStr">
+        <is>
+          <t>2. O membro consegue elaborar designs para diferentes tipos de divulgação, procurando manter os componentes que constroem a imagem pública da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="M3" s="19" t="inlineStr">
+        <is>
+          <t>1. O membro sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="N3" s="20" t="inlineStr">
+        <is>
+          <t>1. O membro cumpre os objetivos das tarefas pelos quais é responsável.</t>
+        </is>
+      </c>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>2. O membro respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="P3" s="19" t="inlineStr">
+        <is>
+          <t>Observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="inlineStr">
+        <is>
+          <t>Letícia Santos</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simoes</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="19" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="C5" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="C6" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="C9" s="19" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="C10" s="19" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="C11" s="19" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="C13" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simoes</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" s="19" t="inlineStr">
+        <is>
+          <t>No caso de novos membros, como eu, senti que não tinha como avaliar sem ser com um 6 em tudo pelo facto de ainda não termos sido colocados em todas as situações descritas, como comunicar com clientes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="C18" s="19" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+      <c r="C19" s="19" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+      <c r="C20" s="19" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M20" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N20" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+      <c r="C21" s="19" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O21" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="C22" s="19" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="C23" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N23" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+      <c r="C24" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="C25" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M25" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="19" t="inlineStr">
+        <is>
+          <t>Márcia Costa</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simoes</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O26" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" s="19" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M27" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="C28" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M28" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N28" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="C29" s="19" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L29" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M29" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N29" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+      <c r="C30" s="19" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M30" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N30" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="C31" s="19" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K31" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M31" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N31" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="C32" s="19" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M32" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O32" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+      <c r="C33" s="19" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N33" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="C34" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L34" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N34" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O34" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="C35" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L35" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M35" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N35" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O35" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+      <c r="C36" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N36" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O36" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simoes</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M37" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N37" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O37" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" s="19" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="C38" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F38" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J38" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N38" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n"/>
+      <c r="C39" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F39" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K39" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M39" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N39" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="C40" s="19" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H40" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J40" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K40" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N40" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="C41" s="19" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n"/>
+      <c r="E41" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I41" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K41" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L41" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M41" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N41" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O41" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n"/>
+      <c r="C42" s="19" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G42" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M42" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N42" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O42" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
+      <c r="C43" s="19" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H43" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M43" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N43" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O43" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n"/>
+      <c r="C44" s="19" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J44" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M44" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N44" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O44" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n"/>
+      <c r="C45" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J45" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K45" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L45" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M45" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N45" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O45" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n"/>
+      <c r="C46" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H46" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I46" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K46" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M46" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N46" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="C47" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F47" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K47" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M47" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N47" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="19" t="inlineStr">
+        <is>
+          <t>Joana Alves</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n"/>
+      <c r="C48" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simoes</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L48" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M48" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P48" s="19" t="inlineStr">
+        <is>
+          <t>Senti algumas dúvidas na avaliação dos novos membros, porque acho que precisava de mais algum tempo para avaliar corretamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n"/>
+      <c r="C49" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n"/>
+      <c r="E49" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G49" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L49" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M49" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n"/>
+      <c r="C50" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I50" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L50" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M50" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N50" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O50" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n"/>
+      <c r="C51" s="19" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F51" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I51" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J51" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L51" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M51" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N51" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O51" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n"/>
+      <c r="C52" s="19" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n"/>
+      <c r="E52" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L52" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O52" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n"/>
+      <c r="C53" s="19" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n"/>
+      <c r="E53" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G53" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I53" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L53" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M53" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N53" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O53" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n"/>
+      <c r="C54" s="19" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K54" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M54" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n"/>
+      <c r="C55" s="19" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n"/>
+      <c r="E55" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L55" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M55" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O55" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n"/>
+      <c r="C56" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n"/>
+      <c r="E56" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L56" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n"/>
+      <c r="C57" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G57" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H57" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L57" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M57" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O57" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n"/>
+      <c r="C58" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n"/>
+      <c r="E58" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G58" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I58" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L58" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M58" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O58" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="19" t="inlineStr">
+        <is>
+          <t>Inês Geraldes</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n"/>
+      <c r="C59" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simoes</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n"/>
+      <c r="E59" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F59" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G59" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J59" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K59" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L59" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M59" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N59" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O59" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P59" s="19" t="inlineStr">
+        <is>
+          <t>Poderia ter uma opção de não sei por o menbro nunca ter estado nesta situação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n"/>
+      <c r="C60" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n"/>
+      <c r="E60" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I60" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J60" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K60" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L60" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M60" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N60" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O60" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n"/>
+      <c r="C61" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n"/>
+      <c r="E61" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F61" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H61" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I61" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K61" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L61" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M61" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N61" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O61" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P61" s="2" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n"/>
+      <c r="C62" s="19" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n"/>
+      <c r="E62" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F62" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G62" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H62" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I62" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J62" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K62" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L62" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M62" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N62" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O62" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n"/>
+      <c r="C63" s="19" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n"/>
+      <c r="E63" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F63" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H63" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I63" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J63" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L63" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M63" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O63" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n"/>
+      <c r="C64" s="19" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n"/>
+      <c r="E64" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F64" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G64" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H64" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I64" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K64" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L64" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M64" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N64" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O64" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n"/>
+      <c r="C65" s="19" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n"/>
+      <c r="E65" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F65" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J65" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K65" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L65" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M65" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N65" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O65" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P65" s="2" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n"/>
+      <c r="C66" s="19" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n"/>
+      <c r="E66" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G66" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H66" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I66" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L66" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M66" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O66" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n"/>
+      <c r="C67" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n"/>
+      <c r="E67" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G67" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I67" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K67" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L67" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O67" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P67" s="2" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n"/>
+      <c r="C68" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n"/>
+      <c r="E68" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G68" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I68" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L68" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M68" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O68" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n"/>
+      <c r="C69" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n"/>
+      <c r="E69" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I69" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J69" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K69" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L69" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M69" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O69" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="P69" s="2" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="19" t="inlineStr">
+        <is>
+          <t>Inês Faria</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n"/>
+      <c r="C70" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simoes</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n"/>
+      <c r="E70" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F70" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G70" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H70" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I70" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K70" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L70" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M70" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N70" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O70" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P70" s="19" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n"/>
+      <c r="C71" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n"/>
+      <c r="E71" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F71" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G71" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H71" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K71" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L71" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M71" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N71" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O71" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P71" s="2" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n"/>
+      <c r="C72" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n"/>
+      <c r="E72" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F72" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G72" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I72" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J72" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K72" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L72" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M72" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N72" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O72" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n"/>
+      <c r="C73" s="19" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n"/>
+      <c r="E73" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F73" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G73" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K73" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L73" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M73" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N73" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O73" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P73" s="2" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n"/>
+      <c r="C74" s="19" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n"/>
+      <c r="E74" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F74" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G74" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H74" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K74" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L74" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M74" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N74" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O74" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n"/>
+      <c r="C75" s="19" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n"/>
+      <c r="E75" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F75" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G75" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H75" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I75" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J75" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K75" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L75" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M75" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N75" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O75" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P75" s="2" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n"/>
+      <c r="C76" s="19" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n"/>
+      <c r="E76" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H76" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I76" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J76" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K76" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L76" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M76" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N76" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O76" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n"/>
+      <c r="C77" s="19" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n"/>
+      <c r="E77" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F77" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H77" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K77" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L77" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M77" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N77" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O77" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n"/>
+      <c r="C78" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n"/>
+      <c r="E78" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F78" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H78" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I78" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K78" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L78" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M78" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N78" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O78" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n"/>
+      <c r="C79" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n"/>
+      <c r="E79" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F79" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H79" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I79" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J79" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K79" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L79" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M79" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N79" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O79" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n"/>
+      <c r="C80" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n"/>
+      <c r="E80" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F80" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G80" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H80" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I80" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K80" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L80" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M80" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N80" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O80" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simões</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n"/>
+      <c r="C81" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simoes</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n"/>
+      <c r="E81" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F81" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H81" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I81" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K81" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L81" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M81" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N81" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O81" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P81" s="19" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n"/>
+      <c r="C82" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n"/>
+      <c r="E82" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F82" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G82" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H82" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I82" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K82" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L82" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M82" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N82" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O82" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n"/>
+      <c r="C83" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n"/>
+      <c r="E83" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F83" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H83" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I83" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J83" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K83" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L83" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M83" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N83" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O83" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n"/>
+      <c r="C84" s="19" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n"/>
+      <c r="E84" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F84" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G84" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I84" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J84" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K84" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L84" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M84" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N84" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O84" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n"/>
+      <c r="C85" s="19" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n"/>
+      <c r="E85" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F85" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G85" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H85" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I85" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K85" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L85" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M85" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N85" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O85" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n"/>
+      <c r="C86" s="19" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n"/>
+      <c r="E86" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G86" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H86" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I86" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K86" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L86" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M86" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N86" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O86" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n"/>
+      <c r="C87" s="19" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n"/>
+      <c r="E87" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F87" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G87" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H87" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I87" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J87" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K87" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L87" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M87" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N87" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O87" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n"/>
+      <c r="C88" s="19" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n"/>
+      <c r="E88" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F88" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G88" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H88" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I88" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L88" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M88" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N88" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O88" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n"/>
+      <c r="C89" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n"/>
+      <c r="E89" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F89" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H89" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I89" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K89" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L89" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M89" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N89" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O89" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n"/>
+      <c r="C90" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n"/>
+      <c r="E90" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F90" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G90" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I90" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J90" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K90" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L90" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M90" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N90" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O90" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n"/>
+      <c r="C91" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n"/>
+      <c r="E91" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F91" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H91" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I91" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J91" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K91" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L91" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M91" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N91" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O91" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n"/>
+      <c r="C92" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simoes</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n"/>
+      <c r="E92" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H92" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I92" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J92" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K92" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L92" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M92" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N92" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O92" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P92" s="19" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n"/>
+      <c r="C93" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n"/>
+      <c r="E93" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H93" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I93" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J93" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K93" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L93" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M93" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N93" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O93" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n"/>
+      <c r="C94" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n"/>
+      <c r="E94" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F94" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H94" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I94" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J94" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K94" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L94" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M94" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N94" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O94" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n"/>
+      <c r="C95" s="19" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n"/>
+      <c r="E95" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F95" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G95" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H95" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I95" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J95" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K95" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L95" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M95" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N95" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O95" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n"/>
+      <c r="C96" s="19" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n"/>
+      <c r="E96" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G96" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H96" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I96" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J96" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K96" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L96" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M96" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N96" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O96" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n"/>
+      <c r="C97" s="19" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n"/>
+      <c r="E97" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F97" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G97" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H97" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I97" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J97" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K97" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L97" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M97" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N97" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O97" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n"/>
+      <c r="C98" s="19" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n"/>
+      <c r="E98" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F98" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G98" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H98" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I98" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K98" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L98" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M98" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N98" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O98" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n"/>
+      <c r="C99" s="19" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n"/>
+      <c r="E99" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F99" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G99" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H99" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I99" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J99" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K99" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L99" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M99" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N99" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O99" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n"/>
+      <c r="C100" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n"/>
+      <c r="E100" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F100" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G100" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H100" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I100" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J100" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K100" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L100" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M100" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N100" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O100" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n"/>
+      <c r="C101" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n"/>
+      <c r="E101" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F101" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G101" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H101" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I101" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K101" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L101" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M101" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N101" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O101" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P101" s="2" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n"/>
+      <c r="C102" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n"/>
+      <c r="E102" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F102" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G102" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H102" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I102" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J102" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K102" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L102" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M102" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N102" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O102" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n"/>
+      <c r="C103" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simoes</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n"/>
+      <c r="E103" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F103" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G103" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H103" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I103" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J103" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K103" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L103" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M103" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O103" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P103" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Letícia - Tem sido incrível ver uma abordagem tão diferente aos conteúdos das redes sociais. A Letícia é sem dúvida uma rajada de ar fresco a nível de designs e ideias, adoro muito.
+Raquel - Acho que tem muito para dar. Precisa de confiar mais em si e não desistir. Tenho a certeza que aquela cabeça está cheia de ideias inovadoras prontas a serem lançadas ao mundo, se ela deixar.
+Márcia - Adoro trabalhar com ela, acho que está super empenhada e entusiasmada. Espero que mantenha esta proatividade e empenho para tudo, é algo que a distingue.
+Inês Geraldes - Adoro ver as ideias dela, o entusiasmo e empenho em trazer sempre coisas novas. Ela é uma mais valia para TODA a EPIC Júnior.
+Cláudia - É uma pessoa que tanto é profissional, como é uma brincalhona. Ela é o balanço perfeito disso e torna todos os ambientes onde está super tranquilos, adoro trabalhar com a Cláudia (tanto como membro como agora como chefe)
+Mariana - Apesar de que acabou de entrar, desenvolveu já o profissionalismo, a proatividade e interesse dignos de um membro épico 
+Inês Faria - É uma rapariga incrível que eu adoro trabalhar. É super divertida e torna todo o ambiente descontraído e bom de trabalhar. Acho que vai crescer para um membro incrível
+(só não deixo nenhum comentário sobre a Beatriz Simões e a Margarida porque ainda não trabalhei com elas diretamente) </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n"/>
+      <c r="C104" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n"/>
+      <c r="E104" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F104" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G104" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H104" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I104" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J104" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K104" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L104" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M104" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N104" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O104" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n"/>
+      <c r="C105" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n"/>
+      <c r="E105" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F105" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G105" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H105" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I105" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J105" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K105" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L105" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M105" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N105" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O105" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n"/>
+      <c r="C106" s="19" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n"/>
+      <c r="E106" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F106" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G106" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H106" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I106" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J106" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K106" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L106" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M106" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N106" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O106" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n"/>
+      <c r="C107" s="19" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n"/>
+      <c r="E107" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F107" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G107" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H107" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I107" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J107" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K107" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L107" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M107" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O107" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n"/>
+      <c r="C108" s="19" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n"/>
+      <c r="E108" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F108" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G108" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H108" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I108" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J108" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K108" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L108" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M108" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N108" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O108" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n"/>
+      <c r="C109" s="19" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n"/>
+      <c r="E109" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F109" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G109" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H109" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I109" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J109" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K109" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L109" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M109" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O109" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n"/>
+      <c r="C110" s="19" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n"/>
+      <c r="E110" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F110" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G110" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H110" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I110" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J110" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K110" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L110" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M110" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N110" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O110" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n"/>
+      <c r="C111" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n"/>
+      <c r="E111" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F111" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G111" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H111" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I111" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J111" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K111" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L111" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M111" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O111" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n"/>
+      <c r="C112" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n"/>
+      <c r="E112" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F112" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H112" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I112" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J112" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K112" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L112" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M112" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N112" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O112" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n"/>
+      <c r="C113" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n"/>
+      <c r="E113" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F113" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G113" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H113" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I113" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J113" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K113" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L113" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M113" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O113" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="19" t="inlineStr">
+        <is>
+          <t>Cláudia Santos</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n"/>
+      <c r="C114" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Simoes</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n"/>
+      <c r="E114" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F114" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J114" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K114" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L114" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M114" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N114" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O114" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P114" s="19" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n"/>
+      <c r="C115" s="19" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n"/>
+      <c r="E115" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F115" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I115" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J115" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K115" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L115" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M115" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N115" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O115" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n"/>
+      <c r="C116" s="19" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n"/>
+      <c r="E116" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F116" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H116" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I116" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J116" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K116" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L116" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M116" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N116" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O116" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n"/>
+      <c r="C117" s="19" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n"/>
+      <c r="E117" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F117" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G117" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H117" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I117" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J117" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K117" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L117" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M117" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N117" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O117" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n"/>
+      <c r="C118" s="19" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n"/>
+      <c r="E118" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F118" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G118" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H118" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I118" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J118" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K118" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L118" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M118" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N118" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O118" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n"/>
+      <c r="C119" s="19" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n"/>
+      <c r="E119" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F119" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G119" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I119" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J119" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K119" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L119" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M119" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N119" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O119" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n"/>
+      <c r="C120" s="19" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n"/>
+      <c r="E120" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F120" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G120" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H120" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I120" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J120" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K120" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L120" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M120" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N120" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O120" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n"/>
+      <c r="C121" s="19" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n"/>
+      <c r="E121" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F121" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G121" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H121" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I121" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J121" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K121" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L121" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M121" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N121" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O121" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n"/>
+      <c r="C122" s="19" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n"/>
+      <c r="E122" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F122" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G122" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I122" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J122" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K122" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L122" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M122" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N122" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O122" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n"/>
+      <c r="C123" s="19" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n"/>
+      <c r="E123" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F123" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G123" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H123" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I123" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J123" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K123" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L123" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M123" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N123" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O123" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n"/>
+      <c r="C124" s="19" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n"/>
+      <c r="E124" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F124" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G124" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H124" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I124" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J124" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K124" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L124" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M124" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N124" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O124" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P124" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1489">
+    <mergeCell ref="E70"/>
+    <mergeCell ref="K98"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="J3"/>
+    <mergeCell ref="L59"/>
+    <mergeCell ref="I50"/>
+    <mergeCell ref="L86"/>
+    <mergeCell ref="L61"/>
+    <mergeCell ref="K108"/>
+    <mergeCell ref="I45"/>
+    <mergeCell ref="K20"/>
+    <mergeCell ref="I47"/>
+    <mergeCell ref="K109"/>
+    <mergeCell ref="K22"/>
+    <mergeCell ref="M84"/>
+    <mergeCell ref="O113"/>
+    <mergeCell ref="K111"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="M86"/>
+    <mergeCell ref="L114"/>
+    <mergeCell ref="J41"/>
+    <mergeCell ref="J16"/>
+    <mergeCell ref="M80"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J43"/>
+    <mergeCell ref="L105"/>
+    <mergeCell ref="L99"/>
+    <mergeCell ref="K38"/>
+    <mergeCell ref="N49"/>
+    <mergeCell ref="F123"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="F116"/>
+    <mergeCell ref="J67"/>
+    <mergeCell ref="K33"/>
+    <mergeCell ref="F118"/>
+    <mergeCell ref="J69"/>
+    <mergeCell ref="K35"/>
+    <mergeCell ref="M70"/>
+    <mergeCell ref="N77"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="J98"/>
+    <mergeCell ref="M99"/>
+    <mergeCell ref="G53"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="L4"/>
+    <mergeCell ref="K59"/>
+    <mergeCell ref="I117"/>
+    <mergeCell ref="O40"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="K61"/>
+    <mergeCell ref="H24"/>
+    <mergeCell ref="H18"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="H26"/>
+    <mergeCell ref="J82"/>
+    <mergeCell ref="L57"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="N121"/>
+    <mergeCell ref="N115"/>
+    <mergeCell ref="I41"/>
+    <mergeCell ref="I16"/>
+    <mergeCell ref="I43"/>
+    <mergeCell ref="K105"/>
+    <mergeCell ref="N116"/>
+    <mergeCell ref="K107"/>
+    <mergeCell ref="H37"/>
+    <mergeCell ref="O58"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F61"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="O115"/>
+    <mergeCell ref="I69"/>
+    <mergeCell ref="L70"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="I77"/>
+    <mergeCell ref="H117"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="J65"/>
+    <mergeCell ref="H119"/>
+    <mergeCell ref="I87"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E108"/>
+    <mergeCell ref="L123"/>
+    <mergeCell ref="G24"/>
+    <mergeCell ref="J25"/>
+    <mergeCell ref="G51"/>
+    <mergeCell ref="G26"/>
+    <mergeCell ref="I88"/>
+    <mergeCell ref="I82"/>
+    <mergeCell ref="L124"/>
+    <mergeCell ref="K57"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="H20"/>
+    <mergeCell ref="O10"/>
+    <mergeCell ref="J112"/>
+    <mergeCell ref="G42"/>
+    <mergeCell ref="J84"/>
+    <mergeCell ref="M123"/>
+    <mergeCell ref="J78"/>
+    <mergeCell ref="O39"/>
+    <mergeCell ref="K60"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="O5"/>
+    <mergeCell ref="H51"/>
+    <mergeCell ref="J80"/>
+    <mergeCell ref="J107"/>
+    <mergeCell ref="K75"/>
+    <mergeCell ref="G37"/>
+    <mergeCell ref="N58"/>
+    <mergeCell ref="J79"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="I14"/>
+    <mergeCell ref="K70"/>
+    <mergeCell ref="H77"/>
+    <mergeCell ref="J106"/>
+    <mergeCell ref="E32"/>
+    <mergeCell ref="H33"/>
+    <mergeCell ref="O23"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="H35"/>
+    <mergeCell ref="G96"/>
+    <mergeCell ref="F29"/>
+    <mergeCell ref="G98"/>
+    <mergeCell ref="O18"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="H59"/>
+    <mergeCell ref="F24"/>
+    <mergeCell ref="I25"/>
+    <mergeCell ref="H89"/>
+    <mergeCell ref="F32"/>
+    <mergeCell ref="H61"/>
+    <mergeCell ref="F26"/>
+    <mergeCell ref="H88"/>
+    <mergeCell ref="G108"/>
+    <mergeCell ref="H90"/>
+    <mergeCell ref="E45"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="O42"/>
+    <mergeCell ref="G20"/>
+    <mergeCell ref="G109"/>
+    <mergeCell ref="G22"/>
+    <mergeCell ref="I84"/>
+    <mergeCell ref="G111"/>
+    <mergeCell ref="F44"/>
+    <mergeCell ref="I86"/>
+    <mergeCell ref="I80"/>
+    <mergeCell ref="F16"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="M60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="J49"/>
+    <mergeCell ref="O88"/>
+    <mergeCell ref="O124"/>
+    <mergeCell ref="G33"/>
+    <mergeCell ref="N29"/>
+    <mergeCell ref="G35"/>
+    <mergeCell ref="F96"/>
+    <mergeCell ref="N31"/>
+    <mergeCell ref="F98"/>
+    <mergeCell ref="I99"/>
+    <mergeCell ref="M50"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="G59"/>
+    <mergeCell ref="E117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="G67"/>
+    <mergeCell ref="G61"/>
+    <mergeCell ref="O20"/>
+    <mergeCell ref="N42"/>
+    <mergeCell ref="O22"/>
+    <mergeCell ref="F109"/>
+    <mergeCell ref="N44"/>
+    <mergeCell ref="H57"/>
+    <mergeCell ref="F22"/>
+    <mergeCell ref="O51"/>
+    <mergeCell ref="H84"/>
+    <mergeCell ref="J113"/>
+    <mergeCell ref="O47"/>
+    <mergeCell ref="F111"/>
+    <mergeCell ref="J121"/>
+    <mergeCell ref="H86"/>
+    <mergeCell ref="J115"/>
+    <mergeCell ref="E41"/>
+    <mergeCell ref="E16"/>
+    <mergeCell ref="O38"/>
+    <mergeCell ref="O76"/>
+    <mergeCell ref="E43"/>
+    <mergeCell ref="E18"/>
+    <mergeCell ref="G105"/>
+    <mergeCell ref="N95"/>
+    <mergeCell ref="J116"/>
+    <mergeCell ref="I49"/>
+    <mergeCell ref="L32"/>
+    <mergeCell ref="O33"/>
+    <mergeCell ref="G107"/>
+    <mergeCell ref="F40"/>
+    <mergeCell ref="N97"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="N96"/>
+    <mergeCell ref="F41"/>
+    <mergeCell ref="E69"/>
+    <mergeCell ref="F35"/>
+    <mergeCell ref="H70"/>
+    <mergeCell ref="N98"/>
+    <mergeCell ref="M31"/>
+    <mergeCell ref="E77"/>
+    <mergeCell ref="O59"/>
+    <mergeCell ref="H99"/>
+    <mergeCell ref="O95"/>
+    <mergeCell ref="L50"/>
+    <mergeCell ref="O89"/>
+    <mergeCell ref="A37:B47"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="O61"/>
+    <mergeCell ref="H101"/>
+    <mergeCell ref="O122"/>
+    <mergeCell ref="L52"/>
+    <mergeCell ref="N27"/>
+    <mergeCell ref="N20"/>
+    <mergeCell ref="F69"/>
+    <mergeCell ref="F25"/>
+    <mergeCell ref="N109"/>
+    <mergeCell ref="N22"/>
+    <mergeCell ref="E88"/>
+    <mergeCell ref="E82"/>
+    <mergeCell ref="G57"/>
+    <mergeCell ref="I121"/>
+    <mergeCell ref="N38"/>
+    <mergeCell ref="G58"/>
+    <mergeCell ref="I123"/>
+    <mergeCell ref="F105"/>
+    <mergeCell ref="K39"/>
+    <mergeCell ref="N40"/>
+    <mergeCell ref="F107"/>
+    <mergeCell ref="F82"/>
+    <mergeCell ref="M103"/>
+    <mergeCell ref="J58"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="N35"/>
+    <mergeCell ref="M96"/>
+    <mergeCell ref="E14"/>
+    <mergeCell ref="G70"/>
+    <mergeCell ref="M98"/>
+    <mergeCell ref="N66"/>
+    <mergeCell ref="K21"/>
+    <mergeCell ref="L3"/>
+    <mergeCell ref="N68"/>
+    <mergeCell ref="K50"/>
+    <mergeCell ref="N61"/>
+    <mergeCell ref="K58"/>
+    <mergeCell ref="J86"/>
+    <mergeCell ref="K52"/>
+    <mergeCell ref="M27"/>
+    <mergeCell ref="P81:P91"/>
+    <mergeCell ref="M116"/>
+    <mergeCell ref="O91"/>
+    <mergeCell ref="E25"/>
+    <mergeCell ref="O85"/>
+    <mergeCell ref="L21"/>
+    <mergeCell ref="O57"/>
+    <mergeCell ref="L48"/>
+    <mergeCell ref="O86"/>
+    <mergeCell ref="N112"/>
+    <mergeCell ref="N122"/>
+    <mergeCell ref="H121"/>
+    <mergeCell ref="L43"/>
+    <mergeCell ref="N105"/>
+    <mergeCell ref="M11"/>
+    <mergeCell ref="P92:P102"/>
+    <mergeCell ref="E84"/>
+    <mergeCell ref="H123"/>
+    <mergeCell ref="E78"/>
+    <mergeCell ref="N107"/>
+    <mergeCell ref="L74"/>
+    <mergeCell ref="M40"/>
+    <mergeCell ref="O75"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="E86"/>
+    <mergeCell ref="E80"/>
+    <mergeCell ref="L76"/>
+    <mergeCell ref="O104"/>
+    <mergeCell ref="M41"/>
+    <mergeCell ref="L69"/>
+    <mergeCell ref="N9"/>
+    <mergeCell ref="O70"/>
+    <mergeCell ref="E81"/>
+    <mergeCell ref="F49"/>
+    <mergeCell ref="K10"/>
+    <mergeCell ref="M66"/>
+    <mergeCell ref="K124"/>
+    <mergeCell ref="N4"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F78"/>
+    <mergeCell ref="E106"/>
+    <mergeCell ref="O101"/>
+    <mergeCell ref="J29"/>
+    <mergeCell ref="M68"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="L87"/>
+    <mergeCell ref="A103:B113"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E107"/>
+    <mergeCell ref="N62"/>
+    <mergeCell ref="J24"/>
+    <mergeCell ref="L89"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="N64"/>
+    <mergeCell ref="J26"/>
+    <mergeCell ref="L88"/>
+    <mergeCell ref="N57"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="K48"/>
+    <mergeCell ref="K23"/>
+    <mergeCell ref="M112"/>
+    <mergeCell ref="J42"/>
+    <mergeCell ref="M122"/>
+    <mergeCell ref="L17"/>
+    <mergeCell ref="M114"/>
+    <mergeCell ref="J44"/>
+    <mergeCell ref="L19"/>
+    <mergeCell ref="M107"/>
+    <mergeCell ref="N75"/>
+    <mergeCell ref="J37"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="K76"/>
+    <mergeCell ref="L14"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="K67"/>
+    <mergeCell ref="J95"/>
+    <mergeCell ref="E49"/>
+    <mergeCell ref="K77"/>
+    <mergeCell ref="H32"/>
+    <mergeCell ref="J124"/>
+    <mergeCell ref="G113"/>
+    <mergeCell ref="J96"/>
+    <mergeCell ref="J90"/>
+    <mergeCell ref="I29"/>
+    <mergeCell ref="L65"/>
+    <mergeCell ref="I31"/>
+    <mergeCell ref="K87"/>
+    <mergeCell ref="K95"/>
+    <mergeCell ref="H50"/>
+    <mergeCell ref="K89"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="M64"/>
+    <mergeCell ref="I26"/>
+    <mergeCell ref="K88"/>
+    <mergeCell ref="E51"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M65"/>
+    <mergeCell ref="J20"/>
+    <mergeCell ref="I42"/>
+    <mergeCell ref="J22"/>
+    <mergeCell ref="L84"/>
+    <mergeCell ref="L122"/>
+    <mergeCell ref="O123"/>
+    <mergeCell ref="K17"/>
+    <mergeCell ref="I44"/>
+    <mergeCell ref="J51"/>
+    <mergeCell ref="L80"/>
+    <mergeCell ref="K19"/>
+    <mergeCell ref="E121"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="M83"/>
+    <mergeCell ref="J38"/>
+    <mergeCell ref="M49"/>
+    <mergeCell ref="E123"/>
+    <mergeCell ref="G39"/>
+    <mergeCell ref="J40"/>
+    <mergeCell ref="J77"/>
+    <mergeCell ref="M78"/>
+    <mergeCell ref="L106"/>
+    <mergeCell ref="I103"/>
+    <mergeCell ref="I97"/>
+    <mergeCell ref="E118"/>
+    <mergeCell ref="J35"/>
+    <mergeCell ref="I96"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="P59:P69"/>
+    <mergeCell ref="F115"/>
+    <mergeCell ref="I98"/>
+    <mergeCell ref="G65"/>
+    <mergeCell ref="J66"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="G50"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="J61"/>
+    <mergeCell ref="J122"/>
+    <mergeCell ref="J97"/>
+    <mergeCell ref="G52"/>
+    <mergeCell ref="I27"/>
+    <mergeCell ref="I116"/>
+    <mergeCell ref="O9"/>
+    <mergeCell ref="K91"/>
+    <mergeCell ref="H21"/>
+    <mergeCell ref="I22"/>
+    <mergeCell ref="K84"/>
+    <mergeCell ref="K86"/>
+    <mergeCell ref="L54"/>
+    <mergeCell ref="H16"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="L56"/>
+    <mergeCell ref="J105"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I38"/>
+    <mergeCell ref="L49"/>
+    <mergeCell ref="I40"/>
+    <mergeCell ref="N113"/>
+    <mergeCell ref="H67"/>
+    <mergeCell ref="H103"/>
+    <mergeCell ref="K104"/>
+    <mergeCell ref="K114"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="J9"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="H98"/>
+    <mergeCell ref="K99"/>
+    <mergeCell ref="I66"/>
+    <mergeCell ref="L102"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="J4"/>
+    <mergeCell ref="I68"/>
+    <mergeCell ref="F23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="I67"/>
+    <mergeCell ref="F58"/>
+    <mergeCell ref="H87"/>
+    <mergeCell ref="F52"/>
+    <mergeCell ref="F60"/>
+    <mergeCell ref="H116"/>
+    <mergeCell ref="F53"/>
+    <mergeCell ref="H82"/>
+    <mergeCell ref="G21"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="J57"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="J93"/>
+    <mergeCell ref="G23"/>
+    <mergeCell ref="H113"/>
+    <mergeCell ref="L121"/>
+    <mergeCell ref="F42"/>
+    <mergeCell ref="I122"/>
+    <mergeCell ref="K56"/>
+    <mergeCell ref="N39"/>
+    <mergeCell ref="I114"/>
+    <mergeCell ref="E99"/>
+    <mergeCell ref="H19"/>
+    <mergeCell ref="I107"/>
+    <mergeCell ref="M120"/>
+    <mergeCell ref="E101"/>
+    <mergeCell ref="H12"/>
+    <mergeCell ref="O8"/>
+    <mergeCell ref="H48"/>
+    <mergeCell ref="G76"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="M115"/>
+    <mergeCell ref="I9"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="G77"/>
+    <mergeCell ref="H43"/>
+    <mergeCell ref="F10"/>
+    <mergeCell ref="I11"/>
+    <mergeCell ref="N50"/>
+    <mergeCell ref="F124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="H74"/>
+    <mergeCell ref="E29"/>
+    <mergeCell ref="H68"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="E31"/>
+    <mergeCell ref="G87"/>
+    <mergeCell ref="O46"/>
+    <mergeCell ref="O21"/>
+    <mergeCell ref="G95"/>
+    <mergeCell ref="G89"/>
+    <mergeCell ref="E26"/>
+    <mergeCell ref="G88"/>
+    <mergeCell ref="O48"/>
+    <mergeCell ref="G90"/>
+    <mergeCell ref="I65"/>
+    <mergeCell ref="K121"/>
+    <mergeCell ref="H112"/>
+    <mergeCell ref="G115"/>
+    <mergeCell ref="E42"/>
+    <mergeCell ref="H122"/>
+    <mergeCell ref="K123"/>
+    <mergeCell ref="G17"/>
+    <mergeCell ref="M39"/>
+    <mergeCell ref="H114"/>
+    <mergeCell ref="E44"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F51"/>
+    <mergeCell ref="G19"/>
+    <mergeCell ref="O103"/>
+    <mergeCell ref="N8"/>
+    <mergeCell ref="M28"/>
+    <mergeCell ref="G14"/>
+    <mergeCell ref="N10"/>
+    <mergeCell ref="F67"/>
+    <mergeCell ref="M57"/>
+    <mergeCell ref="F77"/>
+    <mergeCell ref="I78"/>
+    <mergeCell ref="M29"/>
+    <mergeCell ref="M23"/>
+    <mergeCell ref="E97"/>
+    <mergeCell ref="O121"/>
+    <mergeCell ref="E96"/>
+    <mergeCell ref="M58"/>
+    <mergeCell ref="O87"/>
+    <mergeCell ref="O6"/>
+    <mergeCell ref="E98"/>
+    <mergeCell ref="P48:P58"/>
+    <mergeCell ref="A92:B102"/>
+    <mergeCell ref="O116"/>
+    <mergeCell ref="F59"/>
+    <mergeCell ref="N46"/>
+    <mergeCell ref="N21"/>
+    <mergeCell ref="F95"/>
+    <mergeCell ref="N48"/>
+    <mergeCell ref="N23"/>
+    <mergeCell ref="F97"/>
+    <mergeCell ref="L104"/>
+    <mergeCell ref="H72"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F90"/>
+    <mergeCell ref="M42"/>
+    <mergeCell ref="E116"/>
+    <mergeCell ref="H65"/>
+    <mergeCell ref="O17"/>
+    <mergeCell ref="O11"/>
+    <mergeCell ref="E22"/>
+    <mergeCell ref="G84"/>
+    <mergeCell ref="N74"/>
+    <mergeCell ref="G86"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="N76"/>
+    <mergeCell ref="F108"/>
+    <mergeCell ref="J59"/>
+    <mergeCell ref="H83"/>
+    <mergeCell ref="F20"/>
+    <mergeCell ref="H49"/>
+    <mergeCell ref="M10"/>
+    <mergeCell ref="H85"/>
+    <mergeCell ref="L30"/>
+    <mergeCell ref="N92"/>
+    <mergeCell ref="O74"/>
+    <mergeCell ref="L29"/>
+    <mergeCell ref="G114"/>
+    <mergeCell ref="H80"/>
+    <mergeCell ref="L31"/>
+    <mergeCell ref="N87"/>
+    <mergeCell ref="N6"/>
+    <mergeCell ref="G99"/>
+    <mergeCell ref="E66"/>
+    <mergeCell ref="N89"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="E68"/>
+    <mergeCell ref="I46"/>
+    <mergeCell ref="E67"/>
+    <mergeCell ref="M48"/>
+    <mergeCell ref="O112"/>
+    <mergeCell ref="L42"/>
+    <mergeCell ref="K106"/>
+    <mergeCell ref="N17"/>
+    <mergeCell ref="F66"/>
+    <mergeCell ref="O114"/>
+    <mergeCell ref="P4:P14"/>
+    <mergeCell ref="M81"/>
+    <mergeCell ref="J11"/>
+    <mergeCell ref="N19"/>
+    <mergeCell ref="F93"/>
+    <mergeCell ref="O109"/>
+    <mergeCell ref="L100"/>
+    <mergeCell ref="M38"/>
+    <mergeCell ref="M76"/>
+    <mergeCell ref="I59"/>
+    <mergeCell ref="J39"/>
+    <mergeCell ref="L95"/>
+    <mergeCell ref="K34"/>
+    <mergeCell ref="I120"/>
+    <mergeCell ref="L103"/>
+    <mergeCell ref="L97"/>
+    <mergeCell ref="K36"/>
+    <mergeCell ref="N37"/>
+    <mergeCell ref="I113"/>
+    <mergeCell ref="K29"/>
+    <mergeCell ref="F104"/>
+    <mergeCell ref="M94"/>
+    <mergeCell ref="F114"/>
+    <mergeCell ref="I115"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="K31"/>
+    <mergeCell ref="F106"/>
+    <mergeCell ref="M6"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="M95"/>
+    <mergeCell ref="M89"/>
+    <mergeCell ref="O64"/>
+    <mergeCell ref="M97"/>
+    <mergeCell ref="O72"/>
+    <mergeCell ref="L27"/>
+    <mergeCell ref="N83"/>
+    <mergeCell ref="P70:P80"/>
+    <mergeCell ref="K49"/>
+    <mergeCell ref="N91"/>
+    <mergeCell ref="N85"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="M113"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="O54"/>
+    <mergeCell ref="M108"/>
+    <mergeCell ref="E65"/>
+    <mergeCell ref="G121"/>
+    <mergeCell ref="L55"/>
+    <mergeCell ref="N111"/>
+    <mergeCell ref="L38"/>
+    <mergeCell ref="G123"/>
+    <mergeCell ref="N119"/>
+    <mergeCell ref="F56"/>
+    <mergeCell ref="I39"/>
+    <mergeCell ref="L40"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="H120"/>
+    <mergeCell ref="K103"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F57"/>
+    <mergeCell ref="N114"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="J10"/>
+    <mergeCell ref="L66"/>
+    <mergeCell ref="I57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="L68"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F75"/>
+    <mergeCell ref="I58"/>
+    <mergeCell ref="K27"/>
+    <mergeCell ref="I83"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="M91"/>
+    <mergeCell ref="J21"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="M93"/>
+    <mergeCell ref="J48"/>
+    <mergeCell ref="J23"/>
+    <mergeCell ref="N54"/>
+    <mergeCell ref="L112"/>
+    <mergeCell ref="K55"/>
+    <mergeCell ref="N56"/>
+    <mergeCell ref="G38"/>
+    <mergeCell ref="K46"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="J74"/>
+    <mergeCell ref="K40"/>
+    <mergeCell ref="M75"/>
+    <mergeCell ref="J103"/>
+    <mergeCell ref="M104"/>
+    <mergeCell ref="K71"/>
+    <mergeCell ref="I8"/>
+    <mergeCell ref="L9"/>
+    <mergeCell ref="M106"/>
+    <mergeCell ref="K73"/>
+    <mergeCell ref="I10"/>
+    <mergeCell ref="L11"/>
+    <mergeCell ref="K66"/>
+    <mergeCell ref="H30"/>
+    <mergeCell ref="J92"/>
+    <mergeCell ref="K74"/>
+    <mergeCell ref="H29"/>
+    <mergeCell ref="K68"/>
+    <mergeCell ref="O19"/>
+    <mergeCell ref="N110"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="H31"/>
+    <mergeCell ref="H58"/>
+    <mergeCell ref="J87"/>
+    <mergeCell ref="G122"/>
+    <mergeCell ref="J6"/>
+    <mergeCell ref="J123"/>
+    <mergeCell ref="H60"/>
+    <mergeCell ref="J89"/>
+    <mergeCell ref="I28"/>
+    <mergeCell ref="L64"/>
+    <mergeCell ref="I21"/>
+    <mergeCell ref="E46"/>
+    <mergeCell ref="I48"/>
+    <mergeCell ref="I23"/>
+    <mergeCell ref="K112"/>
+    <mergeCell ref="H42"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G106"/>
+    <mergeCell ref="J17"/>
+    <mergeCell ref="M56"/>
+    <mergeCell ref="I81"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="J19"/>
+    <mergeCell ref="O120"/>
+    <mergeCell ref="L75"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="I76"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G34"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E113"/>
+    <mergeCell ref="J47"/>
+    <mergeCell ref="G29"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I94"/>
+    <mergeCell ref="E115"/>
+    <mergeCell ref="J76"/>
+    <mergeCell ref="G31"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="I95"/>
+    <mergeCell ref="I89"/>
+    <mergeCell ref="K64"/>
+    <mergeCell ref="K72"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="G49"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="I17"/>
+    <mergeCell ref="J114"/>
+    <mergeCell ref="I19"/>
+    <mergeCell ref="G75"/>
+    <mergeCell ref="K83"/>
+    <mergeCell ref="J111"/>
+    <mergeCell ref="O34"/>
+    <mergeCell ref="O28"/>
+    <mergeCell ref="E39"/>
+    <mergeCell ref="H40"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="O36"/>
+    <mergeCell ref="O30"/>
+    <mergeCell ref="O29"/>
+    <mergeCell ref="G103"/>
+    <mergeCell ref="F36"/>
+    <mergeCell ref="O65"/>
+    <mergeCell ref="N93"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="O31"/>
+    <mergeCell ref="H100"/>
+    <mergeCell ref="H66"/>
+    <mergeCell ref="F31"/>
+    <mergeCell ref="O62"/>
+    <mergeCell ref="O56"/>
+    <mergeCell ref="E57"/>
+    <mergeCell ref="F39"/>
+    <mergeCell ref="H95"/>
+    <mergeCell ref="I63"/>
+    <mergeCell ref="L46"/>
+    <mergeCell ref="E58"/>
+    <mergeCell ref="H97"/>
+    <mergeCell ref="F64"/>
+    <mergeCell ref="N104"/>
+    <mergeCell ref="J72"/>
+    <mergeCell ref="M9"/>
+    <mergeCell ref="E83"/>
+    <mergeCell ref="N106"/>
+    <mergeCell ref="I91"/>
+    <mergeCell ref="F21"/>
+    <mergeCell ref="I93"/>
+    <mergeCell ref="F50"/>
+    <mergeCell ref="E114"/>
+    <mergeCell ref="H115"/>
+    <mergeCell ref="J54"/>
+    <mergeCell ref="I118"/>
+    <mergeCell ref="H27"/>
+    <mergeCell ref="G55"/>
+    <mergeCell ref="J56"/>
+    <mergeCell ref="N34"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="I119"/>
+    <mergeCell ref="G46"/>
+    <mergeCell ref="G40"/>
+    <mergeCell ref="N36"/>
+    <mergeCell ref="F103"/>
+    <mergeCell ref="I104"/>
+    <mergeCell ref="G71"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="H9"/>
+    <mergeCell ref="I106"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="G66"/>
+    <mergeCell ref="G74"/>
+    <mergeCell ref="G68"/>
+    <mergeCell ref="O55"/>
+    <mergeCell ref="F121"/>
+    <mergeCell ref="O27"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="H91"/>
+    <mergeCell ref="E21"/>
+    <mergeCell ref="O53"/>
+    <mergeCell ref="H93"/>
+    <mergeCell ref="E23"/>
+    <mergeCell ref="I54"/>
+    <mergeCell ref="N102"/>
+    <mergeCell ref="I56"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="L39"/>
+    <mergeCell ref="M7"/>
+    <mergeCell ref="K120"/>
+    <mergeCell ref="F46"/>
+    <mergeCell ref="N103"/>
+    <mergeCell ref="O71"/>
+    <mergeCell ref="M36"/>
+    <mergeCell ref="E110"/>
+    <mergeCell ref="M8"/>
+    <mergeCell ref="F48"/>
+    <mergeCell ref="E76"/>
+    <mergeCell ref="H104"/>
+    <mergeCell ref="L72"/>
+    <mergeCell ref="O73"/>
+    <mergeCell ref="O100"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="O66"/>
+    <mergeCell ref="H106"/>
+    <mergeCell ref="F73"/>
+    <mergeCell ref="O102"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="O68"/>
+    <mergeCell ref="N7"/>
+    <mergeCell ref="E92"/>
+    <mergeCell ref="F74"/>
+    <mergeCell ref="O97"/>
+    <mergeCell ref="E94"/>
+    <mergeCell ref="K122"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F76"/>
+    <mergeCell ref="J27"/>
+    <mergeCell ref="L83"/>
+    <mergeCell ref="M21"/>
+    <mergeCell ref="E95"/>
+    <mergeCell ref="E89"/>
+    <mergeCell ref="L85"/>
+    <mergeCell ref="N60"/>
+    <mergeCell ref="E124"/>
+    <mergeCell ref="F92"/>
+    <mergeCell ref="E120"/>
+    <mergeCell ref="N55"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F87"/>
+    <mergeCell ref="N47"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="F89"/>
+    <mergeCell ref="M110"/>
+    <mergeCell ref="H64"/>
+    <mergeCell ref="E19"/>
+    <mergeCell ref="L15"/>
+    <mergeCell ref="N71"/>
+    <mergeCell ref="L8"/>
+    <mergeCell ref="G83"/>
+    <mergeCell ref="N73"/>
+    <mergeCell ref="L10"/>
+    <mergeCell ref="J91"/>
+    <mergeCell ref="K65"/>
+    <mergeCell ref="M121"/>
+    <mergeCell ref="E47"/>
+    <mergeCell ref="O98"/>
+    <mergeCell ref="L28"/>
+    <mergeCell ref="N3"/>
+    <mergeCell ref="E63"/>
+    <mergeCell ref="H46"/>
+    <mergeCell ref="K85"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N5"/>
+    <mergeCell ref="O93"/>
+    <mergeCell ref="L23"/>
+    <mergeCell ref="P114:P124"/>
+    <mergeCell ref="J104"/>
+    <mergeCell ref="F72"/>
+    <mergeCell ref="L79"/>
+    <mergeCell ref="M45"/>
+    <mergeCell ref="M17"/>
+    <mergeCell ref="L81"/>
+    <mergeCell ref="M47"/>
+    <mergeCell ref="M19"/>
+    <mergeCell ref="O119"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="L110"/>
+    <mergeCell ref="O111"/>
+    <mergeCell ref="A59:B69"/>
+    <mergeCell ref="E122"/>
+    <mergeCell ref="K15"/>
+    <mergeCell ref="N16"/>
+    <mergeCell ref="M44"/>
+    <mergeCell ref="N51"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F83"/>
+    <mergeCell ref="M79"/>
+    <mergeCell ref="O108"/>
+    <mergeCell ref="J34"/>
+    <mergeCell ref="M73"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F85"/>
+    <mergeCell ref="J36"/>
+    <mergeCell ref="L92"/>
+    <mergeCell ref="M74"/>
+    <mergeCell ref="L94"/>
+    <mergeCell ref="J31"/>
+    <mergeCell ref="L6"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="J62"/>
+    <mergeCell ref="K28"/>
+    <mergeCell ref="M63"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="J64"/>
+    <mergeCell ref="K30"/>
+    <mergeCell ref="M92"/>
+    <mergeCell ref="L120"/>
+    <mergeCell ref="M5"/>
+    <mergeCell ref="G48"/>
+    <mergeCell ref="I112"/>
+    <mergeCell ref="H17"/>
+    <mergeCell ref="H11"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J75"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="N108"/>
+    <mergeCell ref="I34"/>
+    <mergeCell ref="G120"/>
+    <mergeCell ref="I36"/>
+    <mergeCell ref="L47"/>
+    <mergeCell ref="K100"/>
+    <mergeCell ref="K94"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K102"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="I62"/>
+    <mergeCell ref="L63"/>
+    <mergeCell ref="K97"/>
+    <mergeCell ref="I64"/>
+    <mergeCell ref="A81:B91"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M72"/>
+    <mergeCell ref="L91"/>
+    <mergeCell ref="A114:B124"/>
+    <mergeCell ref="K113"/>
+    <mergeCell ref="J60"/>
+    <mergeCell ref="K26"/>
+    <mergeCell ref="M88"/>
+    <mergeCell ref="L116"/>
+    <mergeCell ref="J53"/>
+    <mergeCell ref="M54"/>
+    <mergeCell ref="M90"/>
+    <mergeCell ref="L118"/>
+    <mergeCell ref="I75"/>
+    <mergeCell ref="J55"/>
+    <mergeCell ref="L117"/>
+    <mergeCell ref="F38"/>
+    <mergeCell ref="L119"/>
+    <mergeCell ref="M85"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="I110"/>
+    <mergeCell ref="F120"/>
+    <mergeCell ref="H15"/>
+    <mergeCell ref="J71"/>
+    <mergeCell ref="K37"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="M118"/>
+    <mergeCell ref="G72"/>
+    <mergeCell ref="J73"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="H10"/>
+    <mergeCell ref="M111"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="J102"/>
+    <mergeCell ref="H25"/>
+    <mergeCell ref="N53"/>
+    <mergeCell ref="H39"/>
+    <mergeCell ref="J68"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="K63"/>
+    <mergeCell ref="F122"/>
+    <mergeCell ref="O16"/>
+    <mergeCell ref="E27"/>
+    <mergeCell ref="H28"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="G91"/>
+    <mergeCell ref="G85"/>
+    <mergeCell ref="K93"/>
+    <mergeCell ref="I60"/>
+    <mergeCell ref="H23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="H54"/>
+    <mergeCell ref="A15:B25"/>
+    <mergeCell ref="H56"/>
+    <mergeCell ref="E38"/>
+    <mergeCell ref="K119"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="H110"/>
+    <mergeCell ref="E40"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="G15"/>
+    <mergeCell ref="G104"/>
+    <mergeCell ref="I79"/>
+    <mergeCell ref="I73"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="M24"/>
+    <mergeCell ref="H92"/>
+    <mergeCell ref="M53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="I74"/>
+    <mergeCell ref="F65"/>
+    <mergeCell ref="M55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="O117"/>
+    <mergeCell ref="O83"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="G28"/>
+    <mergeCell ref="N18"/>
+    <mergeCell ref="G30"/>
+    <mergeCell ref="I92"/>
+    <mergeCell ref="F91"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="M37"/>
+    <mergeCell ref="O12"/>
+    <mergeCell ref="G54"/>
+    <mergeCell ref="O14"/>
+    <mergeCell ref="E112"/>
+    <mergeCell ref="K62"/>
+    <mergeCell ref="O13"/>
+    <mergeCell ref="O7"/>
+    <mergeCell ref="H53"/>
+    <mergeCell ref="G81"/>
+    <mergeCell ref="G56"/>
+    <mergeCell ref="O15"/>
+    <mergeCell ref="H55"/>
+    <mergeCell ref="F15"/>
+    <mergeCell ref="N72"/>
+    <mergeCell ref="H52"/>
+    <mergeCell ref="I18"/>
+    <mergeCell ref="H79"/>
+    <mergeCell ref="J108"/>
+    <mergeCell ref="E34"/>
+    <mergeCell ref="O69"/>
+    <mergeCell ref="O25"/>
+    <mergeCell ref="H45"/>
+    <mergeCell ref="H81"/>
+    <mergeCell ref="E36"/>
+    <mergeCell ref="N88"/>
+    <mergeCell ref="H47"/>
+    <mergeCell ref="J109"/>
+    <mergeCell ref="G100"/>
+    <mergeCell ref="G94"/>
+    <mergeCell ref="N90"/>
+    <mergeCell ref="H76"/>
+    <mergeCell ref="A4:B14"/>
+    <mergeCell ref="G102"/>
+    <mergeCell ref="F34"/>
+    <mergeCell ref="E62"/>
+    <mergeCell ref="H63"/>
+    <mergeCell ref="P103:P113"/>
+    <mergeCell ref="G97"/>
+    <mergeCell ref="E64"/>
+    <mergeCell ref="F30"/>
+    <mergeCell ref="M51"/>
+    <mergeCell ref="I72"/>
+    <mergeCell ref="H94"/>
+    <mergeCell ref="L45"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="O110"/>
+    <mergeCell ref="N15"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="E75"/>
+    <mergeCell ref="M34"/>
+    <mergeCell ref="L98"/>
+    <mergeCell ref="O92"/>
+    <mergeCell ref="E103"/>
+    <mergeCell ref="A70:B80"/>
+    <mergeCell ref="L93"/>
+    <mergeCell ref="K32"/>
+    <mergeCell ref="N33"/>
+    <mergeCell ref="F101"/>
+    <mergeCell ref="F100"/>
+    <mergeCell ref="I111"/>
+    <mergeCell ref="N28"/>
+    <mergeCell ref="F102"/>
+    <mergeCell ref="P3"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="N30"/>
+    <mergeCell ref="G63"/>
+    <mergeCell ref="J46"/>
+    <mergeCell ref="L111"/>
+    <mergeCell ref="N86"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="K16"/>
+    <mergeCell ref="O24"/>
+    <mergeCell ref="K9"/>
+    <mergeCell ref="K45"/>
+    <mergeCell ref="N81"/>
+    <mergeCell ref="M20"/>
+    <mergeCell ref="O49"/>
+    <mergeCell ref="K11"/>
+    <mergeCell ref="F113"/>
+    <mergeCell ref="K47"/>
+    <mergeCell ref="M109"/>
+    <mergeCell ref="G93"/>
+    <mergeCell ref="E60"/>
+    <mergeCell ref="M22"/>
+    <mergeCell ref="O84"/>
+    <mergeCell ref="O50"/>
+    <mergeCell ref="M15"/>
+    <mergeCell ref="G124"/>
+    <mergeCell ref="L41"/>
+    <mergeCell ref="O80"/>
+    <mergeCell ref="A26:B36"/>
+    <mergeCell ref="F27"/>
+    <mergeCell ref="O52"/>
+    <mergeCell ref="O79"/>
+    <mergeCell ref="L34"/>
+    <mergeCell ref="N99"/>
+    <mergeCell ref="G119"/>
+    <mergeCell ref="O81"/>
+    <mergeCell ref="L36"/>
+    <mergeCell ref="O37"/>
+    <mergeCell ref="M4"/>
+    <mergeCell ref="N101"/>
+    <mergeCell ref="E71"/>
+    <mergeCell ref="N100"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="L67"/>
+    <mergeCell ref="N94"/>
+    <mergeCell ref="E79"/>
+    <mergeCell ref="H118"/>
+    <mergeCell ref="E73"/>
+    <mergeCell ref="M35"/>
+    <mergeCell ref="F55"/>
+    <mergeCell ref="L62"/>
+    <mergeCell ref="O63"/>
+    <mergeCell ref="F70"/>
+    <mergeCell ref="O99"/>
+    <mergeCell ref="I53"/>
+    <mergeCell ref="E74"/>
+    <mergeCell ref="M30"/>
+    <mergeCell ref="N120"/>
+    <mergeCell ref="I55"/>
+    <mergeCell ref="K117"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F71"/>
+    <mergeCell ref="O94"/>
+    <mergeCell ref="M61"/>
+    <mergeCell ref="F37"/>
+    <mergeCell ref="N24"/>
+    <mergeCell ref="J18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="N26"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="L107"/>
+    <mergeCell ref="L82"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F68"/>
+    <mergeCell ref="E87"/>
+    <mergeCell ref="P37:P47"/>
+    <mergeCell ref="K41"/>
+    <mergeCell ref="G62"/>
+    <mergeCell ref="N52"/>
+    <mergeCell ref="K43"/>
+    <mergeCell ref="M105"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="M101"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="M100"/>
+    <mergeCell ref="M102"/>
+    <mergeCell ref="K69"/>
+    <mergeCell ref="N70"/>
+    <mergeCell ref="K25"/>
+    <mergeCell ref="O77"/>
+    <mergeCell ref="L7"/>
+    <mergeCell ref="N63"/>
+    <mergeCell ref="J88"/>
+    <mergeCell ref="K54"/>
+    <mergeCell ref="A48:B58"/>
+    <mergeCell ref="J117"/>
+    <mergeCell ref="J83"/>
+    <mergeCell ref="J119"/>
+    <mergeCell ref="L58"/>
+    <mergeCell ref="N123"/>
+    <mergeCell ref="J85"/>
+    <mergeCell ref="L25"/>
+    <mergeCell ref="I24"/>
+    <mergeCell ref="L60"/>
+    <mergeCell ref="M26"/>
+    <mergeCell ref="I51"/>
+    <mergeCell ref="E72"/>
+    <mergeCell ref="K82"/>
+    <mergeCell ref="N124"/>
+    <mergeCell ref="O90"/>
+    <mergeCell ref="N118"/>
+    <mergeCell ref="J14"/>
+    <mergeCell ref="H38"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="M52"/>
+    <mergeCell ref="K110"/>
+    <mergeCell ref="L78"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="J15"/>
+    <mergeCell ref="L71"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="I37"/>
+    <mergeCell ref="O118"/>
+    <mergeCell ref="L73"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="K14"/>
+    <mergeCell ref="K7"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G32"/>
+    <mergeCell ref="J33"/>
+    <mergeCell ref="E109"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="M71"/>
+    <mergeCell ref="I90"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E111"/>
+    <mergeCell ref="L101"/>
+    <mergeCell ref="G27"/>
+    <mergeCell ref="J28"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="J30"/>
+    <mergeCell ref="I85"/>
+    <mergeCell ref="L5"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="M124"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="G45"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="K53"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="I20"/>
+    <mergeCell ref="G47"/>
+    <mergeCell ref="I109"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J110"/>
+    <mergeCell ref="K78"/>
+    <mergeCell ref="I15"/>
+    <mergeCell ref="L16"/>
+    <mergeCell ref="H41"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="K80"/>
+    <mergeCell ref="K79"/>
+    <mergeCell ref="H34"/>
+    <mergeCell ref="J99"/>
+    <mergeCell ref="K81"/>
+    <mergeCell ref="H36"/>
+    <mergeCell ref="O32"/>
+    <mergeCell ref="O26"/>
+    <mergeCell ref="J101"/>
+    <mergeCell ref="J100"/>
+    <mergeCell ref="J94"/>
+    <mergeCell ref="I33"/>
+    <mergeCell ref="L44"/>
+    <mergeCell ref="I35"/>
+    <mergeCell ref="H96"/>
+    <mergeCell ref="H62"/>
+    <mergeCell ref="K101"/>
+    <mergeCell ref="E53"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I30"/>
+    <mergeCell ref="K92"/>
+    <mergeCell ref="J120"/>
+    <mergeCell ref="E55"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G117"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="M67"/>
+    <mergeCell ref="E48"/>
+    <mergeCell ref="I61"/>
+    <mergeCell ref="O45"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="M69"/>
+    <mergeCell ref="G112"/>
+    <mergeCell ref="F18"/>
+    <mergeCell ref="F45"/>
+    <mergeCell ref="F17"/>
+    <mergeCell ref="F47"/>
+    <mergeCell ref="H109"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="H22"/>
+    <mergeCell ref="L113"/>
+    <mergeCell ref="H75"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="H111"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="J50"/>
+    <mergeCell ref="L115"/>
+    <mergeCell ref="G41"/>
+    <mergeCell ref="G16"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="J52"/>
+    <mergeCell ref="K18"/>
+    <mergeCell ref="L108"/>
+    <mergeCell ref="G43"/>
+    <mergeCell ref="I105"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="J81"/>
+    <mergeCell ref="G36"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="N32"/>
+    <mergeCell ref="I101"/>
+    <mergeCell ref="I100"/>
+    <mergeCell ref="K44"/>
+    <mergeCell ref="I102"/>
+    <mergeCell ref="G69"/>
+    <mergeCell ref="J70"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="J63"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="G64"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="F117"/>
+    <mergeCell ref="N45"/>
+    <mergeCell ref="F119"/>
+    <mergeCell ref="E24"/>
+    <mergeCell ref="F112"/>
+    <mergeCell ref="E17"/>
+    <mergeCell ref="G82"/>
+    <mergeCell ref="K90"/>
+    <mergeCell ref="O41"/>
+    <mergeCell ref="O35"/>
+    <mergeCell ref="O43"/>
+    <mergeCell ref="K115"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="I52"/>
+    <mergeCell ref="G110"/>
+    <mergeCell ref="M3"/>
+    <mergeCell ref="F43"/>
+    <mergeCell ref="H105"/>
+    <mergeCell ref="K116"/>
+    <mergeCell ref="H71"/>
+    <mergeCell ref="O67"/>
+    <mergeCell ref="M32"/>
+    <mergeCell ref="H107"/>
+    <mergeCell ref="E37"/>
+    <mergeCell ref="K118"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="O96"/>
+    <mergeCell ref="H102"/>
+    <mergeCell ref="I70"/>
+    <mergeCell ref="L53"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="P15:P25"/>
+    <mergeCell ref="F33"/>
+    <mergeCell ref="N117"/>
+    <mergeCell ref="I71"/>
+    <mergeCell ref="M16"/>
+    <mergeCell ref="F62"/>
+    <mergeCell ref="E90"/>
+    <mergeCell ref="F28"/>
+    <mergeCell ref="M18"/>
+    <mergeCell ref="E119"/>
+    <mergeCell ref="E91"/>
+    <mergeCell ref="E85"/>
+    <mergeCell ref="G25"/>
+    <mergeCell ref="O82"/>
+    <mergeCell ref="G60"/>
+    <mergeCell ref="E93"/>
+    <mergeCell ref="F88"/>
+    <mergeCell ref="I124"/>
+    <mergeCell ref="F54"/>
+    <mergeCell ref="N41"/>
+    <mergeCell ref="E20"/>
+    <mergeCell ref="N43"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F110"/>
+    <mergeCell ref="O4"/>
+    <mergeCell ref="G78"/>
+    <mergeCell ref="E15"/>
+    <mergeCell ref="N67"/>
+    <mergeCell ref="G80"/>
+    <mergeCell ref="E104"/>
+    <mergeCell ref="N59"/>
+    <mergeCell ref="G79"/>
+    <mergeCell ref="J118"/>
+    <mergeCell ref="G73"/>
+    <mergeCell ref="N69"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="H78"/>
+    <mergeCell ref="E33"/>
+    <mergeCell ref="M117"/>
+    <mergeCell ref="H44"/>
+    <mergeCell ref="E35"/>
+    <mergeCell ref="M119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="H73"/>
+    <mergeCell ref="G101"/>
+    <mergeCell ref="E28"/>
+    <mergeCell ref="L24"/>
+    <mergeCell ref="L18"/>
+    <mergeCell ref="E30"/>
+    <mergeCell ref="G92"/>
+    <mergeCell ref="L51"/>
+    <mergeCell ref="L26"/>
+    <mergeCell ref="E59"/>
+    <mergeCell ref="M46"/>
+    <mergeCell ref="N82"/>
+    <mergeCell ref="E61"/>
+    <mergeCell ref="H124"/>
+    <mergeCell ref="E54"/>
+    <mergeCell ref="M14"/>
+    <mergeCell ref="O106"/>
+    <mergeCell ref="E56"/>
+    <mergeCell ref="L77"/>
+    <mergeCell ref="M43"/>
+    <mergeCell ref="O78"/>
+    <mergeCell ref="O105"/>
+    <mergeCell ref="N11"/>
+    <mergeCell ref="F84"/>
+    <mergeCell ref="O107"/>
+    <mergeCell ref="L37"/>
+    <mergeCell ref="N12"/>
+    <mergeCell ref="F86"/>
+    <mergeCell ref="F80"/>
+    <mergeCell ref="G18"/>
+    <mergeCell ref="F79"/>
+    <mergeCell ref="N14"/>
+    <mergeCell ref="H108"/>
+    <mergeCell ref="P26:P36"/>
+    <mergeCell ref="E105"/>
+    <mergeCell ref="M25"/>
+    <mergeCell ref="F81"/>
+    <mergeCell ref="M77"/>
+    <mergeCell ref="J32"/>
+    <mergeCell ref="M33"/>
+    <mergeCell ref="E100"/>
+    <mergeCell ref="L96"/>
+    <mergeCell ref="M62"/>
+    <mergeCell ref="L90"/>
+    <mergeCell ref="G44"/>
+    <mergeCell ref="N65"/>
+    <mergeCell ref="E102"/>
+    <mergeCell ref="O3"/>
+    <mergeCell ref="M87"/>
+    <mergeCell ref="I108"/>
+    <mergeCell ref="F63"/>
+    <mergeCell ref="M59"/>
+    <mergeCell ref="K24"/>
+    <mergeCell ref="N25"/>
+    <mergeCell ref="F99"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="K51"/>
+    <mergeCell ref="M82"/>
+    <mergeCell ref="F94"/>
+    <mergeCell ref="J45"/>
+    <mergeCell ref="H69"/>
+    <mergeCell ref="L20"/>
+    <mergeCell ref="L109"/>
+    <mergeCell ref="K42"/>
+    <mergeCell ref="L22"/>
+    <mergeCell ref="N84"/>
+    <mergeCell ref="N78"/>
+    <mergeCell ref="O60"/>
+    <mergeCell ref="N80"/>
+    <mergeCell ref="E50"/>
+    <mergeCell ref="N79"/>
+    <mergeCell ref="E52"/>
+    <mergeCell ref="G116"/>
+    <mergeCell ref="I32"/>
+    <mergeCell ref="L33"/>
+    <mergeCell ref="O44"/>
+    <mergeCell ref="G118"/>
+    <mergeCell ref="L35"/>
+    <mergeCell ref="K96"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Avaliacao-Membros-MKT" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Avaliacao-Membro-RH" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Avaliacao" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="resultado" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36,7 +37,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -61,6 +62,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00DDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -323,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -366,6 +372,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -15268,7 +15277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="B1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15279,140 +15288,140 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>Pedro Machado</t>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beatriz Simoes</t>
+          <t>Goncalo Figueiredo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beatriz Sousa</t>
+          <t>Ines Cabral</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Catarina Oliveira</t>
+          <t>Mariana Arezes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Claudia Santos</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ines Faria</t>
+          <t>Paula Ferreira</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ines Geraldes</t>
+          <t>Paulo Vieira</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leticia Santos</t>
+          <t>Rafaela Carvalho</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marcia Costa</t>
+          <t>Pedro Machado</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Margarida Ribeiro</t>
+          <t>Beatriz Simoes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mariana Coelho</t>
+          <t>Beatriz Sousa</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Raquel Baptista</t>
+          <t>Catarina Oliveira</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Claudia Santos</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Goncalo Figueiredo</t>
+          <t>Ines Faria</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ines Cabral</t>
+          <t>Ines Geraldes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mariana Arezes</t>
+          <t>Leticia Santos</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mariana Oliveira</t>
+          <t>Marcia Costa</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Paula Ferreira</t>
+          <t>Margarida Ribeiro</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Paulo Vieira</t>
+          <t>Mariana Coelho</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rafaela Carvalho</t>
+          <t>Raquel Baptista</t>
         </is>
       </c>
     </row>
@@ -15424,4 +15433,149 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),)</f>
+        <v/>
+      </c>
+      <c r="B1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <v/>
+      </c>
+      <c r="C1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <v/>
+      </c>
+      <c r="D1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <v/>
+      </c>
+      <c r="E1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),)</f>
+        <v/>
+      </c>
+      <c r="F1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 3, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 4, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 4, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <v/>
+      </c>
+      <c r="G1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <v/>
+      </c>
+      <c r="H1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 4, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 3, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <v/>
+      </c>
+      <c r="I1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <v/>
+      </c>
+      <c r="J1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <v/>
+      </c>
+      <c r="K1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <v/>
+      </c>
+      <c r="L1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 4, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 4, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 4, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 3, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <v/>
+      </c>
+      <c r="M1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <v/>
+      </c>
+      <c r="N1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <v/>
+      </c>
+      <c r="O1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <v/>
+      </c>
+      <c r="P1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <v/>
+      </c>
+      <c r="Q1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <v/>
+      </c>
+      <c r="R1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 4, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <v/>
+      </c>
+      <c r="S1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <v/>
+      </c>
+      <c r="T1" s="28">
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Goncalo Figueiredo", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Ines Cabral", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Mariana Arezes", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Mariana Oliveira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Paula Ferreira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Paulo Vieira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Rafaela Carvalho", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Catarina Milheiro", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Ines Cabral", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Mariana Arezes", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Mariana Oliveira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Paula Ferreira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Paulo Vieira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Rafaela Carvalho", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="4" t="n"/>
+      <c r="R2" s="4" t="n"/>
+      <c r="S2" s="4" t="n"/>
+      <c r="T2" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="R1:R2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -15451,83 +15451,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4.0, ""),SE(Avaliacao!A1="Ines Cabral", 4.5, ""),SE(Avaliacao!A1="Mariana Arezes", 5.1, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.4, ""),SE(Avaliacao!A1="Paula Ferreira", 5.4, ""),SE(Avaliacao!A1="Paulo Vieira", 4.8, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.7, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="B1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3.6, ""),SE(Avaliacao!A1="Ines Cabral", 4.3, ""),SE(Avaliacao!A1="Mariana Arezes", 4.9, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.2, ""),SE(Avaliacao!A1="Paula Ferreira", 5.2, ""),SE(Avaliacao!A1="Paulo Vieira", 4.6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.6, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="C1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3.8, ""),SE(Avaliacao!A1="Ines Cabral", 4.6, ""),SE(Avaliacao!A1="Mariana Arezes", 5.1, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.2, ""),SE(Avaliacao!A1="Paula Ferreira", 5.2, ""),SE(Avaliacao!A1="Paulo Vieira", 4.5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.8, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="D1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4.1, ""),SE(Avaliacao!A1="Ines Cabral", 4.7, ""),SE(Avaliacao!A1="Mariana Arezes", 5.1, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.3, ""),SE(Avaliacao!A1="Paula Ferreira", 5.3, ""),SE(Avaliacao!A1="Paulo Vieira", 4.9, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.8, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="E1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3.5, ""),SE(Avaliacao!A1="Ines Cabral", 4.4, ""),SE(Avaliacao!A1="Mariana Arezes", 5.0, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.3, ""),SE(Avaliacao!A1="Paula Ferreira", 5.1, ""),SE(Avaliacao!A1="Paulo Vieira", 4.3, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.3, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="F1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 3, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 4, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 4, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4.2, ""),SE(Avaliacao!A1="Ines Cabral", 4.5, ""),SE(Avaliacao!A1="Mariana Arezes", 5.0, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.1, ""),SE(Avaliacao!A1="Paula Ferreira", 4.9, ""),SE(Avaliacao!A1="Paulo Vieira", 4.8, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.7, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="G1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4.1, ""),SE(Avaliacao!A1="Ines Cabral", 4.5, ""),SE(Avaliacao!A1="Mariana Arezes", 4.9, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.2, ""),SE(Avaliacao!A1="Paula Ferreira", 5.0, ""),SE(Avaliacao!A1="Paulo Vieira", 4.4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.7, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="H1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 4, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 3, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4.1, ""),SE(Avaliacao!A1="Ines Cabral", 4.9, ""),SE(Avaliacao!A1="Mariana Arezes", 5.2, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.3, ""),SE(Avaliacao!A1="Paula Ferreira", 5.2, ""),SE(Avaliacao!A1="Paulo Vieira", 4.5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.8, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="I1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3.8, ""),SE(Avaliacao!A1="Ines Cabral", 4.6, ""),SE(Avaliacao!A1="Mariana Arezes", 4.9, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.2, ""),SE(Avaliacao!A1="Paula Ferreira", 5.4, ""),SE(Avaliacao!A1="Paulo Vieira", 4.5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.8, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="J1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 4.9, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4.6, ""),SE(Avaliacao!A1="Ines Cabral", 4.9, ""),SE(Avaliacao!A1="Mariana Arezes", 5.3, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.1, ""),SE(Avaliacao!A1="Paula Ferreira", 5.1, ""),SE(Avaliacao!A1="Paulo Vieira", 5.1, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5.0, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="K1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5.4, ""),SE(Avaliacao!A1="Ines Cabral", 5.3, ""),SE(Avaliacao!A1="Mariana Arezes", 5.4, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.4, ""),SE(Avaliacao!A1="Paula Ferreira", 5.4, ""),SE(Avaliacao!A1="Paulo Vieira", 5.4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5.4, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="L1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 4, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 4, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 4, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 3, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 4, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 4.8, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4.0, ""),SE(Avaliacao!A1="Ines Cabral", 4.2, ""),SE(Avaliacao!A1="Mariana Arezes", 4.7, ""),SE(Avaliacao!A1="Mariana Oliveira", 4.7, ""),SE(Avaliacao!A1="Paula Ferreira", 4.5, ""),SE(Avaliacao!A1="Paulo Vieira", 4.2, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.3, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="M1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4.9, ""),SE(Avaliacao!A1="Ines Cabral", 5.0, ""),SE(Avaliacao!A1="Mariana Arezes", 5.3, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.3, ""),SE(Avaliacao!A1="Paula Ferreira", 5.4, ""),SE(Avaliacao!A1="Paulo Vieira", 5.1, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5.1, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="N1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5.2, ""),SE(Avaliacao!A1="Ines Cabral", 5.3, ""),SE(Avaliacao!A1="Mariana Arezes", 5.4, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.4, ""),SE(Avaliacao!A1="Paula Ferreira", 5.4, ""),SE(Avaliacao!A1="Paulo Vieira", 5.4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5.3, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="O1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4.3, ""),SE(Avaliacao!A1="Ines Cabral", 4.9, ""),SE(Avaliacao!A1="Mariana Arezes", 5.1, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.3, ""),SE(Avaliacao!A1="Paula Ferreira", 5.4, ""),SE(Avaliacao!A1="Paulo Vieira", 4.8, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.9, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="P1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3.9, ""),SE(Avaliacao!A1="Ines Cabral", 4.7, ""),SE(Avaliacao!A1="Mariana Arezes", 4.9, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.2, ""),SE(Avaliacao!A1="Paula Ferreira", 5.3, ""),SE(Avaliacao!A1="Paulo Vieira", 4.7, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.8, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="Q1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paula Ferreira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4.6, ""),SE(Avaliacao!A1="Ines Cabral", 4.7, ""),SE(Avaliacao!A1="Mariana Arezes", 5.0, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.2, ""),SE(Avaliacao!A1="Paula Ferreira", 4.9, ""),SE(Avaliacao!A1="Paulo Vieira", 5.0, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.7, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="R1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 5, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 4, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5.0, ""),SE(Avaliacao!A1="Ines Cabral", 4.9, ""),SE(Avaliacao!A1="Mariana Arezes", 5.3, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.4, ""),SE(Avaliacao!A1="Paula Ferreira", 5.2, ""),SE(Avaliacao!A1="Paulo Vieira", 5.2, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5.1, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="S1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Catarina Milheiro", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 2, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 5, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 3, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 5, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Ines Cabral", 4, ""),SE(Avaliacao!A1="Ines Cabral", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 5, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Arezes", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 5, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Mariana Oliveira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paula Ferreira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 5, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Paulo Vieira", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 5, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4, ""),SE(Avaliacao!A1="Rafaela Carvalho", 6, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 5.4, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 4.2, ""),SE(Avaliacao!A1="Ines Cabral", 4.6, ""),SE(Avaliacao!A1="Mariana Arezes", 5.2, ""),SE(Avaliacao!A1="Mariana Oliveira", 5.3, ""),SE(Avaliacao!A1="Paula Ferreira", 5.4, ""),SE(Avaliacao!A1="Paulo Vieira", 5.0, ""),SE(Avaliacao!A1="Rafaela Carvalho", 4.7, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
       <c r="T1" s="28">
-        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Goncalo Figueiredo", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Ines Cabral", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Mariana Arezes", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Mariana Oliveira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Paula Ferreira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Paulo Vieira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Rafaela Carvalho", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais., ""),SE(Avaliacao!A1="Catarina Milheiro", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Ines Cabral", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Mariana Arezes", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Mariana Oliveira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Paula Ferreira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Paulo Vieira", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Rafaela Carvalho", Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),SE(Avaliacao!A1="Catarina Milheiro", Nada a apontar, ""),SE(Avaliacao!A1="Goncalo Figueiredo", Nada a apontar, ""),SE(Avaliacao!A1="Ines Cabral", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Arezes", Nada a apontar, ""),SE(Avaliacao!A1="Mariana Oliveira", Nada a apontar, ""),SE(Avaliacao!A1="Paula Ferreira", Nada a apontar, ""),SE(Avaliacao!A1="Paulo Vieira", Nada a apontar, ""),SE(Avaliacao!A1="Rafaela Carvalho", Nada a apontar, ""),)</f>
+        <f>CONCATENAR(SE(Avaliacao!A1="Catarina Milheiro", 0.0, ""),SE(Avaliacao!A1="Goncalo Figueiredo", 0.0, ""),SE(Avaliacao!A1="Ines Cabral", 0.0, ""),SE(Avaliacao!A1="Mariana Arezes", 0.0, ""),SE(Avaliacao!A1="Mariana Oliveira", 0.0, ""),SE(Avaliacao!A1="Paula Ferreira", 0.0, ""),SE(Avaliacao!A1="Paulo Vieira", 0.0, ""),SE(Avaliacao!A1="Rafaela Carvalho", 0.0, ""),SE(Avaliacao!A1="Pedro Machado", 0.0, ""),SE(Avaliacao!A1="Beatriz Simoes", 0.0, ""),SE(Avaliacao!A1="Beatriz Sousa", 0.0, ""),SE(Avaliacao!A1="Catarina Oliveira", 0.0, ""),SE(Avaliacao!A1="Claudia Santos", 0.0, ""),SE(Avaliacao!A1="Ines Faria", 0.0, ""),SE(Avaliacao!A1="Ines Geraldes", 0.0, ""),SE(Avaliacao!A1="Leticia Santos", 0.0, ""),SE(Avaliacao!A1="Marcia Costa", 0.0, ""),SE(Avaliacao!A1="Margarida Ribeiro", 0.0, ""),SE(Avaliacao!A1="Mariana Coelho", 0.0, ""),SE(Avaliacao!A1="Raquel Baptista", 0.0, ""),)</f>
         <v/>
       </c>
     </row>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -10,9 +10,8 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Avaliacao-Vice-Presidente-Externo" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Avaliacao-Membro-RH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Avaliacao-Membros-MKT" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="resultado" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Avaliacao" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="resultado" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Avaliacao" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -75,7 +74,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -266,75 +265,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -361,22 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8276,7 +8195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P113"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8286,6399 +8205,6 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>Avaliação de desempenho</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Avaliador</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Avaliado</t>
-        </is>
-      </c>
-      <c r="E3" s="19" t="inlineStr">
-        <is>
-          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
-        </is>
-      </c>
-      <c r="F3" s="19" t="inlineStr">
-        <is>
-          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
-        </is>
-      </c>
-      <c r="G3" s="19" t="inlineStr">
-        <is>
-          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
-        </is>
-      </c>
-      <c r="H3" s="19" t="inlineStr">
-        <is>
-          <t>4. O membro aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
-        </is>
-      </c>
-      <c r="I3" s="19" t="inlineStr">
-        <is>
-          <t>5. O membro tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
-        </is>
-      </c>
-      <c r="J3" s="19" t="inlineStr">
-        <is>
-          <t>6. O membro procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
-        </is>
-      </c>
-      <c r="K3" s="20" t="inlineStr">
-        <is>
-          <t>1. O membro é capaz de publicitar a EPIC Júnior de uma forma correta e precisa.</t>
-        </is>
-      </c>
-      <c r="L3" s="20" t="inlineStr">
-        <is>
-          <t>2. O membro consegue elaborar designs para diferentes tipos de divulgação, procurando manter os componentes que constroem a imagem pública da EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="M3" s="19" t="inlineStr">
-        <is>
-          <t>1. O membro sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="N3" s="20" t="inlineStr">
-        <is>
-          <t>1. O membro cumpre os objetivos das tarefas pelos quais é responsável.</t>
-        </is>
-      </c>
-      <c r="O3" s="20" t="inlineStr">
-        <is>
-          <t>2. O membro respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="P3" s="19" t="inlineStr">
-        <is>
-          <t>Observações</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="inlineStr">
-        <is>
-          <t>Letícia Santos</t>
-        </is>
-      </c>
-      <c r="B4" s="21" t="n"/>
-      <c r="C4" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="n"/>
-      <c r="E4" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I4" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K4" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M4" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O4" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" s="19" t="inlineStr">
-        <is>
-          <t>Nada a apontar</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="n"/>
-      <c r="B5" s="23" t="n"/>
-      <c r="C5" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N5" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P5" s="24" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="22" t="n"/>
-      <c r="B6" s="23" t="n"/>
-      <c r="C6" s="19" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H6" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K6" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M6" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O6" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" s="24" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="n"/>
-      <c r="B7" s="23" t="n"/>
-      <c r="C7" s="19" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="n"/>
-      <c r="E7" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O7" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" s="24" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="22" t="n"/>
-      <c r="B8" s="23" t="n"/>
-      <c r="C8" s="19" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-      <c r="D8" s="9" t="n"/>
-      <c r="E8" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P8" s="24" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="n"/>
-      <c r="B9" s="23" t="n"/>
-      <c r="C9" s="19" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K9" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L9" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M9" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O9" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P9" s="24" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="22" t="n"/>
-      <c r="B10" s="23" t="n"/>
-      <c r="C10" s="19" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-      <c r="D10" s="9" t="n"/>
-      <c r="E10" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N10" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O10" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" s="24" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="22" t="n"/>
-      <c r="B11" s="23" t="n"/>
-      <c r="C11" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I11" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K11" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M11" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N11" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P11" s="24" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="22" t="n"/>
-      <c r="B12" s="23" t="n"/>
-      <c r="C12" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="n"/>
-      <c r="E12" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I12" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K12" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" s="24" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="25" t="n"/>
-      <c r="B13" s="26" t="n"/>
-      <c r="C13" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="D13" s="9" t="n"/>
-      <c r="E13" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I13" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M13" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N13" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O13" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" s="27" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="B14" s="21" t="n"/>
-      <c r="C14" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-      <c r="D14" s="9" t="n"/>
-      <c r="E14" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I14" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M14" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P14" s="19" t="inlineStr">
-        <is>
-          <t>No caso de novos membros, como eu, senti que não tinha como avaliar sem ser com um 6 em tudo pelo facto de ainda não termos sido colocados em todas as situações descritas, como comunicar com clientes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="22" t="n"/>
-      <c r="B15" s="23" t="n"/>
-      <c r="C15" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="D15" s="9" t="n"/>
-      <c r="E15" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M15" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O15" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" s="24" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="22" t="n"/>
-      <c r="B16" s="23" t="n"/>
-      <c r="C16" s="19" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H16" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I16" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M16" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N16" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O16" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P16" s="24" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="22" t="n"/>
-      <c r="B17" s="23" t="n"/>
-      <c r="C17" s="19" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="n"/>
-      <c r="E17" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I17" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K17" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L17" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M17" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N17" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P17" s="24" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="22" t="n"/>
-      <c r="B18" s="23" t="n"/>
-      <c r="C18" s="19" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H18" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I18" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K18" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L18" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M18" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N18" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P18" s="24" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="22" t="n"/>
-      <c r="B19" s="23" t="n"/>
-      <c r="C19" s="19" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H19" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I19" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M19" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N19" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O19" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P19" s="24" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="22" t="n"/>
-      <c r="B20" s="23" t="n"/>
-      <c r="C20" s="19" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H20" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I20" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M20" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N20" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O20" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P20" s="24" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="22" t="n"/>
-      <c r="B21" s="23" t="n"/>
-      <c r="C21" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="D21" s="9" t="n"/>
-      <c r="E21" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H21" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I21" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K21" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L21" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M21" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N21" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O21" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P21" s="24" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="22" t="n"/>
-      <c r="B22" s="23" t="n"/>
-      <c r="C22" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F22" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H22" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I22" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K22" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L22" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M22" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N22" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O22" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P22" s="24" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="25" t="n"/>
-      <c r="B23" s="26" t="n"/>
-      <c r="C23" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="D23" s="9" t="n"/>
-      <c r="E23" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F23" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H23" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I23" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K23" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M23" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N23" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O23" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P23" s="27" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="19" t="inlineStr">
-        <is>
-          <t>Márcia Costa</t>
-        </is>
-      </c>
-      <c r="B24" s="21" t="n"/>
-      <c r="C24" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-      <c r="D24" s="9" t="n"/>
-      <c r="E24" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F24" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G24" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H24" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I24" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K24" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L24" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M24" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O24" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P24" s="19" t="inlineStr">
-        <is>
-          <t>Nada a apontar</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="22" t="n"/>
-      <c r="B25" s="23" t="n"/>
-      <c r="C25" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="D25" s="9" t="n"/>
-      <c r="E25" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G25" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H25" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I25" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K25" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L25" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M25" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N25" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O25" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P25" s="24" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="22" t="n"/>
-      <c r="B26" s="23" t="n"/>
-      <c r="C26" s="19" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="n"/>
-      <c r="E26" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F26" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H26" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I26" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L26" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M26" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N26" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O26" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P26" s="24" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="22" t="n"/>
-      <c r="B27" s="23" t="n"/>
-      <c r="C27" s="19" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-      <c r="D27" s="9" t="n"/>
-      <c r="E27" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F27" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G27" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H27" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I27" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K27" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L27" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M27" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N27" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O27" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" s="24" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="22" t="n"/>
-      <c r="B28" s="23" t="n"/>
-      <c r="C28" s="19" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="n"/>
-      <c r="E28" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F28" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G28" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H28" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I28" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K28" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L28" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M28" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N28" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O28" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P28" s="24" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="22" t="n"/>
-      <c r="B29" s="23" t="n"/>
-      <c r="C29" s="19" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="n"/>
-      <c r="E29" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F29" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H29" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I29" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K29" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L29" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M29" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N29" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O29" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" s="24" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="22" t="n"/>
-      <c r="B30" s="23" t="n"/>
-      <c r="C30" s="19" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="n"/>
-      <c r="E30" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G30" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H30" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I30" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K30" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L30" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M30" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N30" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O30" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P30" s="24" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="22" t="n"/>
-      <c r="B31" s="23" t="n"/>
-      <c r="C31" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="n"/>
-      <c r="E31" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G31" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H31" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I31" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K31" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M31" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N31" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O31" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P31" s="24" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="22" t="n"/>
-      <c r="B32" s="23" t="n"/>
-      <c r="C32" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="n"/>
-      <c r="E32" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F32" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G32" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H32" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I32" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K32" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L32" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M32" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N32" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O32" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P32" s="24" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="25" t="n"/>
-      <c r="B33" s="26" t="n"/>
-      <c r="C33" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="n"/>
-      <c r="E33" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H33" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I33" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K33" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L33" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M33" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N33" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O33" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P33" s="27" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="B34" s="21" t="n"/>
-      <c r="C34" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="n"/>
-      <c r="E34" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F34" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G34" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H34" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I34" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J34" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K34" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L34" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M34" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N34" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O34" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P34" s="19" t="inlineStr">
-        <is>
-          <t>Nada a apontar</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="22" t="n"/>
-      <c r="B35" s="23" t="n"/>
-      <c r="C35" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="n"/>
-      <c r="E35" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F35" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H35" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I35" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J35" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K35" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L35" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M35" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N35" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O35" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P35" s="24" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="22" t="n"/>
-      <c r="B36" s="23" t="n"/>
-      <c r="C36" s="19" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="n"/>
-      <c r="E36" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F36" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G36" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H36" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I36" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K36" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L36" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M36" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N36" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O36" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P36" s="24" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="22" t="n"/>
-      <c r="B37" s="23" t="n"/>
-      <c r="C37" s="19" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="n"/>
-      <c r="E37" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F37" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G37" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H37" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I37" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K37" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L37" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M37" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N37" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O37" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P37" s="24" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="22" t="n"/>
-      <c r="B38" s="23" t="n"/>
-      <c r="C38" s="19" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="n"/>
-      <c r="E38" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F38" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G38" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H38" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I38" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J38" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K38" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L38" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M38" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N38" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O38" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P38" s="24" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="22" t="n"/>
-      <c r="B39" s="23" t="n"/>
-      <c r="C39" s="19" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F39" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H39" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I39" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J39" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K39" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L39" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M39" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N39" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O39" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P39" s="24" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="22" t="n"/>
-      <c r="B40" s="23" t="n"/>
-      <c r="C40" s="19" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="n"/>
-      <c r="E40" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F40" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G40" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H40" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I40" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K40" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M40" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N40" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O40" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P40" s="24" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="22" t="n"/>
-      <c r="B41" s="23" t="n"/>
-      <c r="C41" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F41" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H41" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I41" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K41" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L41" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M41" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N41" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O41" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P41" s="24" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="22" t="n"/>
-      <c r="B42" s="23" t="n"/>
-      <c r="C42" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="D42" s="9" t="n"/>
-      <c r="E42" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F42" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G42" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H42" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I42" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K42" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L42" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M42" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N42" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O42" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P42" s="24" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="25" t="n"/>
-      <c r="B43" s="26" t="n"/>
-      <c r="C43" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="D43" s="9" t="n"/>
-      <c r="E43" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F43" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H43" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I43" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K43" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L43" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M43" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N43" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O43" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P43" s="27" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="19" t="inlineStr">
-        <is>
-          <t>Joana Alves</t>
-        </is>
-      </c>
-      <c r="B44" s="21" t="n"/>
-      <c r="C44" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-      <c r="D44" s="9" t="n"/>
-      <c r="E44" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F44" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G44" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H44" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I44" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J44" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L44" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M44" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O44" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="P44" s="19" t="inlineStr">
-        <is>
-          <t>Senti algumas dúvidas na avaliação dos novos membros, porque acho que precisava de mais algum tempo para avaliar corretamente.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="22" t="n"/>
-      <c r="B45" s="23" t="n"/>
-      <c r="C45" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F45" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G45" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H45" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I45" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K45" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L45" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M45" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N45" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O45" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P45" s="24" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="22" t="n"/>
-      <c r="B46" s="23" t="n"/>
-      <c r="C46" s="19" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-      <c r="D46" s="9" t="n"/>
-      <c r="E46" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F46" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G46" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H46" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I46" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J46" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K46" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L46" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M46" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N46" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O46" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P46" s="24" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="22" t="n"/>
-      <c r="B47" s="23" t="n"/>
-      <c r="C47" s="19" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F47" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G47" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H47" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I47" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K47" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L47" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M47" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N47" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O47" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="P47" s="24" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="22" t="n"/>
-      <c r="B48" s="23" t="n"/>
-      <c r="C48" s="19" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-      <c r="D48" s="9" t="n"/>
-      <c r="E48" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F48" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G48" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H48" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I48" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K48" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L48" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M48" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N48" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O48" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P48" s="24" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="22" t="n"/>
-      <c r="B49" s="23" t="n"/>
-      <c r="C49" s="19" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-      <c r="D49" s="9" t="n"/>
-      <c r="E49" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F49" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G49" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H49" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I49" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J49" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K49" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L49" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M49" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O49" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="P49" s="24" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="22" t="n"/>
-      <c r="B50" s="23" t="n"/>
-      <c r="C50" s="19" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-      <c r="D50" s="9" t="n"/>
-      <c r="E50" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F50" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G50" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H50" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I50" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K50" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L50" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M50" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O50" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="P50" s="24" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="22" t="n"/>
-      <c r="B51" s="23" t="n"/>
-      <c r="C51" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="D51" s="9" t="n"/>
-      <c r="E51" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F51" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G51" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H51" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I51" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J51" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K51" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L51" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M51" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O51" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="P51" s="24" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="22" t="n"/>
-      <c r="B52" s="23" t="n"/>
-      <c r="C52" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F52" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G52" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H52" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I52" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K52" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L52" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M52" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O52" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="P52" s="24" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="25" t="n"/>
-      <c r="B53" s="26" t="n"/>
-      <c r="C53" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="D53" s="9" t="n"/>
-      <c r="E53" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F53" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G53" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H53" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I53" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K53" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L53" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M53" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="O53" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="P53" s="27" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="19" t="inlineStr">
-        <is>
-          <t>Inês Geraldes</t>
-        </is>
-      </c>
-      <c r="B54" s="21" t="n"/>
-      <c r="C54" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-      <c r="D54" s="9" t="n"/>
-      <c r="E54" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F54" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G54" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H54" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I54" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J54" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K54" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L54" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M54" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N54" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O54" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P54" s="19" t="inlineStr">
-        <is>
-          <t>Poderia ter uma opção de não sei por o menbro nunca ter estado nesta situação.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="22" t="n"/>
-      <c r="B55" s="23" t="n"/>
-      <c r="C55" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="D55" s="9" t="n"/>
-      <c r="E55" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F55" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G55" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H55" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I55" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J55" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K55" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L55" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M55" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N55" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O55" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P55" s="24" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="22" t="n"/>
-      <c r="B56" s="23" t="n"/>
-      <c r="C56" s="19" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-      <c r="D56" s="9" t="n"/>
-      <c r="E56" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F56" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G56" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H56" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I56" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J56" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K56" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L56" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M56" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N56" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O56" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P56" s="24" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="22" t="n"/>
-      <c r="B57" s="23" t="n"/>
-      <c r="C57" s="19" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-      <c r="D57" s="9" t="n"/>
-      <c r="E57" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F57" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G57" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H57" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I57" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K57" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L57" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M57" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N57" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O57" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P57" s="24" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="22" t="n"/>
-      <c r="B58" s="23" t="n"/>
-      <c r="C58" s="19" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-      <c r="D58" s="9" t="n"/>
-      <c r="E58" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F58" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G58" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H58" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I58" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J58" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K58" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L58" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M58" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N58" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O58" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P58" s="24" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="22" t="n"/>
-      <c r="B59" s="23" t="n"/>
-      <c r="C59" s="19" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-      <c r="D59" s="9" t="n"/>
-      <c r="E59" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F59" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G59" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H59" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I59" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K59" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L59" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M59" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N59" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O59" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P59" s="24" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="22" t="n"/>
-      <c r="B60" s="23" t="n"/>
-      <c r="C60" s="19" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-      <c r="D60" s="9" t="n"/>
-      <c r="E60" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F60" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G60" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H60" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I60" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K60" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L60" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M60" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N60" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O60" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P60" s="24" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="22" t="n"/>
-      <c r="B61" s="23" t="n"/>
-      <c r="C61" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="D61" s="9" t="n"/>
-      <c r="E61" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F61" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G61" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H61" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I61" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J61" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K61" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L61" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M61" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N61" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O61" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P61" s="24" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="22" t="n"/>
-      <c r="B62" s="23" t="n"/>
-      <c r="C62" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="D62" s="9" t="n"/>
-      <c r="E62" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F62" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G62" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H62" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I62" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J62" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K62" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L62" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M62" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N62" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O62" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P62" s="24" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="25" t="n"/>
-      <c r="B63" s="26" t="n"/>
-      <c r="C63" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="D63" s="9" t="n"/>
-      <c r="E63" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F63" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G63" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="H63" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I63" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K63" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L63" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M63" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N63" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="O63" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="P63" s="27" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="19" t="inlineStr">
-        <is>
-          <t>Inês Faria</t>
-        </is>
-      </c>
-      <c r="B64" s="21" t="n"/>
-      <c r="C64" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-      <c r="D64" s="9" t="n"/>
-      <c r="E64" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F64" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G64" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H64" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I64" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K64" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L64" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M64" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N64" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O64" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P64" s="19" t="inlineStr">
-        <is>
-          <t>Nada a apontar</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="22" t="n"/>
-      <c r="B65" s="23" t="n"/>
-      <c r="C65" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="D65" s="9" t="n"/>
-      <c r="E65" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F65" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G65" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H65" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I65" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K65" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L65" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M65" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N65" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O65" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P65" s="24" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="22" t="n"/>
-      <c r="B66" s="23" t="n"/>
-      <c r="C66" s="19" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-      <c r="D66" s="9" t="n"/>
-      <c r="E66" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F66" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G66" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H66" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I66" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K66" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L66" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M66" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N66" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O66" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P66" s="24" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="22" t="n"/>
-      <c r="B67" s="23" t="n"/>
-      <c r="C67" s="19" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-      <c r="D67" s="9" t="n"/>
-      <c r="E67" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F67" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G67" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H67" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I67" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J67" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K67" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L67" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M67" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N67" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O67" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P67" s="24" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="22" t="n"/>
-      <c r="B68" s="23" t="n"/>
-      <c r="C68" s="19" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-      <c r="D68" s="9" t="n"/>
-      <c r="E68" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F68" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G68" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H68" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I68" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K68" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L68" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M68" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N68" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O68" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P68" s="24" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="22" t="n"/>
-      <c r="B69" s="23" t="n"/>
-      <c r="C69" s="19" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-      <c r="D69" s="9" t="n"/>
-      <c r="E69" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F69" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G69" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H69" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I69" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J69" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K69" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L69" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M69" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N69" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O69" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P69" s="24" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="22" t="n"/>
-      <c r="B70" s="23" t="n"/>
-      <c r="C70" s="19" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-      <c r="D70" s="9" t="n"/>
-      <c r="E70" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F70" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G70" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H70" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I70" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K70" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L70" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M70" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N70" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O70" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P70" s="24" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="22" t="n"/>
-      <c r="B71" s="23" t="n"/>
-      <c r="C71" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="D71" s="9" t="n"/>
-      <c r="E71" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F71" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G71" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H71" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I71" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J71" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K71" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L71" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M71" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N71" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O71" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P71" s="24" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="22" t="n"/>
-      <c r="B72" s="23" t="n"/>
-      <c r="C72" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="D72" s="9" t="n"/>
-      <c r="E72" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F72" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G72" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H72" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I72" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J72" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K72" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L72" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M72" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N72" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O72" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P72" s="24" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="25" t="n"/>
-      <c r="B73" s="26" t="n"/>
-      <c r="C73" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="D73" s="9" t="n"/>
-      <c r="E73" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F73" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G73" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H73" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I73" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J73" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K73" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L73" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M73" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N73" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O73" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P73" s="27" t="n"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Simões</t>
-        </is>
-      </c>
-      <c r="B74" s="21" t="n"/>
-      <c r="C74" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-      <c r="D74" s="9" t="n"/>
-      <c r="E74" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F74" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G74" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H74" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I74" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K74" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L74" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M74" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N74" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O74" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P74" s="19" t="inlineStr">
-        <is>
-          <t>Nada a apontar</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="22" t="n"/>
-      <c r="B75" s="23" t="n"/>
-      <c r="C75" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="D75" s="9" t="n"/>
-      <c r="E75" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F75" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G75" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H75" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I75" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J75" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K75" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L75" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M75" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N75" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O75" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P75" s="24" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="22" t="n"/>
-      <c r="B76" s="23" t="n"/>
-      <c r="C76" s="19" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-      <c r="D76" s="9" t="n"/>
-      <c r="E76" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F76" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G76" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H76" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I76" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J76" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K76" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L76" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M76" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N76" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O76" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P76" s="24" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="22" t="n"/>
-      <c r="B77" s="23" t="n"/>
-      <c r="C77" s="19" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-      <c r="D77" s="9" t="n"/>
-      <c r="E77" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F77" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G77" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H77" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I77" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J77" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K77" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L77" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M77" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N77" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O77" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P77" s="24" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="22" t="n"/>
-      <c r="B78" s="23" t="n"/>
-      <c r="C78" s="19" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-      <c r="D78" s="9" t="n"/>
-      <c r="E78" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F78" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G78" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H78" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I78" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J78" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K78" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L78" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M78" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N78" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O78" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P78" s="24" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="22" t="n"/>
-      <c r="B79" s="23" t="n"/>
-      <c r="C79" s="19" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-      <c r="D79" s="9" t="n"/>
-      <c r="E79" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F79" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G79" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H79" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I79" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K79" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L79" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M79" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N79" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O79" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P79" s="24" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="22" t="n"/>
-      <c r="B80" s="23" t="n"/>
-      <c r="C80" s="19" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-      <c r="D80" s="9" t="n"/>
-      <c r="E80" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F80" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G80" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H80" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I80" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J80" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K80" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L80" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M80" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N80" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O80" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P80" s="24" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="22" t="n"/>
-      <c r="B81" s="23" t="n"/>
-      <c r="C81" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="D81" s="9" t="n"/>
-      <c r="E81" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F81" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G81" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H81" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I81" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K81" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L81" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M81" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N81" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O81" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P81" s="24" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="22" t="n"/>
-      <c r="B82" s="23" t="n"/>
-      <c r="C82" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="D82" s="9" t="n"/>
-      <c r="E82" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F82" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G82" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H82" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I82" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J82" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K82" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L82" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M82" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N82" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O82" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P82" s="24" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="25" t="n"/>
-      <c r="B83" s="26" t="n"/>
-      <c r="C83" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="D83" s="9" t="n"/>
-      <c r="E83" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F83" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G83" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H83" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I83" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J83" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K83" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L83" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M83" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N83" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O83" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P83" s="27" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-      <c r="D84" s="9" t="n"/>
-      <c r="E84" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F84" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G84" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H84" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I84" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K84" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L84" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M84" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N84" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O84" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P84" s="19" t="inlineStr">
-        <is>
-          <t>Nada a apontar</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="22" t="n"/>
-      <c r="B85" s="23" t="n"/>
-      <c r="C85" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="D85" s="9" t="n"/>
-      <c r="E85" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F85" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G85" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H85" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I85" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K85" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L85" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M85" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N85" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O85" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P85" s="24" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="22" t="n"/>
-      <c r="B86" s="23" t="n"/>
-      <c r="C86" s="19" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-      <c r="D86" s="9" t="n"/>
-      <c r="E86" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F86" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G86" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H86" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I86" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K86" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L86" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M86" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N86" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O86" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P86" s="24" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="22" t="n"/>
-      <c r="B87" s="23" t="n"/>
-      <c r="C87" s="19" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-      <c r="D87" s="9" t="n"/>
-      <c r="E87" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F87" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G87" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H87" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I87" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K87" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L87" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M87" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N87" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O87" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P87" s="24" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="22" t="n"/>
-      <c r="B88" s="23" t="n"/>
-      <c r="C88" s="19" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-      <c r="D88" s="9" t="n"/>
-      <c r="E88" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F88" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G88" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H88" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I88" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J88" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K88" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L88" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M88" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N88" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O88" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P88" s="24" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="22" t="n"/>
-      <c r="B89" s="23" t="n"/>
-      <c r="C89" s="19" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-      <c r="D89" s="9" t="n"/>
-      <c r="E89" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F89" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G89" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H89" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I89" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J89" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K89" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L89" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M89" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N89" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O89" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P89" s="24" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="22" t="n"/>
-      <c r="B90" s="23" t="n"/>
-      <c r="C90" s="19" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-      <c r="D90" s="9" t="n"/>
-      <c r="E90" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F90" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G90" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H90" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I90" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J90" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K90" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L90" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M90" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N90" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O90" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P90" s="24" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="22" t="n"/>
-      <c r="B91" s="23" t="n"/>
-      <c r="C91" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="D91" s="9" t="n"/>
-      <c r="E91" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F91" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G91" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H91" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I91" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J91" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K91" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L91" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M91" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N91" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O91" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P91" s="24" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="22" t="n"/>
-      <c r="B92" s="23" t="n"/>
-      <c r="C92" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="D92" s="9" t="n"/>
-      <c r="E92" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F92" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G92" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H92" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I92" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J92" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K92" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L92" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M92" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N92" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O92" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P92" s="24" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="25" t="n"/>
-      <c r="B93" s="26" t="n"/>
-      <c r="C93" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="D93" s="9" t="n"/>
-      <c r="E93" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F93" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G93" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H93" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I93" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K93" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L93" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M93" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N93" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O93" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P93" s="27" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-      <c r="D94" s="9" t="n"/>
-      <c r="E94" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F94" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G94" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H94" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I94" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J94" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K94" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L94" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M94" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N94" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O94" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P94" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Letícia - Tem sido incrível ver uma abordagem tão diferente aos conteúdos das redes sociais. A Letícia é sem dúvida uma rajada de ar fresco a nível de designs e ideias, adoro muito.
-Raquel - Acho que tem muito para dar. Precisa de confiar mais em si e não desistir. Tenho a certeza que aquela cabeça está cheia de ideias inovadoras prontas a serem lançadas ao mundo, se ela deixar.
-Márcia - Adoro trabalhar com ela, acho que está super empenhada e entusiasmada. Espero que mantenha esta proatividade e empenho para tudo, é algo que a distingue.
-Inês Geraldes - Adoro ver as ideias dela, o entusiasmo e empenho em trazer sempre coisas novas. Ela é uma mais valia para TODA a EPIC Júnior.
-Cláudia - É uma pessoa que tanto é profissional, como é uma brincalhona. Ela é o balanço perfeito disso e torna todos os ambientes onde está super tranquilos, adoro trabalhar com a Cláudia (tanto como membro como agora como chefe)
-Mariana - Apesar de que acabou de entrar, desenvolveu já o profissionalismo, a proatividade e interesse dignos de um membro épico 
-Inês Faria - É uma rapariga incrível que eu adoro trabalhar. É super divertida e torna todo o ambiente descontraído e bom de trabalhar. Acho que vai crescer para um membro incrível
-(só não deixo nenhum comentário sobre a Beatriz Simões e a Margarida porque ainda não trabalhei com elas diretamente) </t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="22" t="n"/>
-      <c r="B95" s="23" t="n"/>
-      <c r="C95" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="D95" s="9" t="n"/>
-      <c r="E95" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F95" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G95" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H95" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I95" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J95" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K95" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L95" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M95" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N95" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O95" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P95" s="24" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="22" t="n"/>
-      <c r="B96" s="23" t="n"/>
-      <c r="C96" s="19" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-      <c r="D96" s="9" t="n"/>
-      <c r="E96" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F96" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G96" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H96" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I96" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J96" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K96" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L96" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M96" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N96" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O96" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P96" s="24" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="22" t="n"/>
-      <c r="B97" s="23" t="n"/>
-      <c r="C97" s="19" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-      <c r="D97" s="9" t="n"/>
-      <c r="E97" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F97" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G97" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H97" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I97" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K97" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L97" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M97" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N97" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O97" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P97" s="24" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="22" t="n"/>
-      <c r="B98" s="23" t="n"/>
-      <c r="C98" s="19" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-      <c r="D98" s="9" t="n"/>
-      <c r="E98" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F98" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G98" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H98" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I98" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K98" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L98" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M98" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N98" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O98" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P98" s="24" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="22" t="n"/>
-      <c r="B99" s="23" t="n"/>
-      <c r="C99" s="19" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-      <c r="D99" s="9" t="n"/>
-      <c r="E99" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F99" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G99" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H99" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I99" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J99" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K99" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L99" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M99" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N99" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O99" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P99" s="24" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="22" t="n"/>
-      <c r="B100" s="23" t="n"/>
-      <c r="C100" s="19" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-      <c r="D100" s="9" t="n"/>
-      <c r="E100" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F100" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G100" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H100" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I100" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J100" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K100" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L100" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M100" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N100" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O100" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P100" s="24" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="22" t="n"/>
-      <c r="B101" s="23" t="n"/>
-      <c r="C101" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="D101" s="9" t="n"/>
-      <c r="E101" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F101" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G101" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H101" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I101" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J101" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K101" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L101" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M101" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N101" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O101" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P101" s="24" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="22" t="n"/>
-      <c r="B102" s="23" t="n"/>
-      <c r="C102" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="D102" s="9" t="n"/>
-      <c r="E102" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F102" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G102" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H102" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I102" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J102" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K102" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L102" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M102" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N102" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O102" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P102" s="24" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="25" t="n"/>
-      <c r="B103" s="26" t="n"/>
-      <c r="C103" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="D103" s="9" t="n"/>
-      <c r="E103" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F103" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G103" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H103" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I103" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J103" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K103" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L103" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M103" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N103" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="O103" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P103" s="27" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="19" t="inlineStr">
-        <is>
-          <t>Cláudia Santos</t>
-        </is>
-      </c>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="19" t="inlineStr">
-        <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-      <c r="D104" s="9" t="n"/>
-      <c r="E104" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F104" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G104" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="H104" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J104" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K104" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L104" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M104" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N104" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O104" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P104" s="19" t="inlineStr">
-        <is>
-          <t>Nada a apontar</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="22" t="n"/>
-      <c r="B105" s="23" t="n"/>
-      <c r="C105" s="19" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="D105" s="9" t="n"/>
-      <c r="E105" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F105" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G105" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H105" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I105" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J105" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K105" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L105" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M105" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N105" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O105" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P105" s="24" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="22" t="n"/>
-      <c r="B106" s="23" t="n"/>
-      <c r="C106" s="19" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-      <c r="D106" s="9" t="n"/>
-      <c r="E106" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F106" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G106" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H106" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I106" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J106" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K106" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L106" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M106" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N106" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O106" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P106" s="24" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="22" t="n"/>
-      <c r="B107" s="23" t="n"/>
-      <c r="C107" s="19" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-      <c r="D107" s="9" t="n"/>
-      <c r="E107" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F107" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G107" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H107" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I107" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J107" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K107" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L107" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M107" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N107" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O107" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P107" s="24" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="22" t="n"/>
-      <c r="B108" s="23" t="n"/>
-      <c r="C108" s="19" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-      <c r="D108" s="9" t="n"/>
-      <c r="E108" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F108" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G108" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H108" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I108" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J108" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K108" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L108" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M108" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N108" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O108" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P108" s="24" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="22" t="n"/>
-      <c r="B109" s="23" t="n"/>
-      <c r="C109" s="19" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-      <c r="D109" s="9" t="n"/>
-      <c r="E109" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F109" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G109" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H109" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I109" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J109" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K109" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L109" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M109" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N109" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O109" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P109" s="24" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="22" t="n"/>
-      <c r="B110" s="23" t="n"/>
-      <c r="C110" s="19" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-      <c r="D110" s="9" t="n"/>
-      <c r="E110" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F110" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G110" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H110" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I110" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J110" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K110" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L110" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M110" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N110" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O110" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P110" s="24" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="22" t="n"/>
-      <c r="B111" s="23" t="n"/>
-      <c r="C111" s="19" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-      <c r="D111" s="9" t="n"/>
-      <c r="E111" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F111" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G111" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H111" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I111" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J111" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K111" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L111" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M111" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N111" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O111" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P111" s="24" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="22" t="n"/>
-      <c r="B112" s="23" t="n"/>
-      <c r="C112" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-      <c r="D112" s="9" t="n"/>
-      <c r="E112" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F112" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G112" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H112" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I112" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J112" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K112" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L112" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M112" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N112" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O112" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P112" s="24" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="25" t="n"/>
-      <c r="B113" s="26" t="n"/>
-      <c r="C113" s="19" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-      <c r="D113" s="9" t="n"/>
-      <c r="E113" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F113" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G113" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="H113" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I113" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J113" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K113" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L113" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M113" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N113" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="O113" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P113" s="27" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1357">
-    <mergeCell ref="E70"/>
-    <mergeCell ref="K98"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="J3"/>
-    <mergeCell ref="L59"/>
-    <mergeCell ref="I50"/>
-    <mergeCell ref="L86"/>
-    <mergeCell ref="L61"/>
-    <mergeCell ref="K108"/>
-    <mergeCell ref="I45"/>
-    <mergeCell ref="P34:P43"/>
-    <mergeCell ref="K20"/>
-    <mergeCell ref="I47"/>
-    <mergeCell ref="K109"/>
-    <mergeCell ref="K22"/>
-    <mergeCell ref="M84"/>
-    <mergeCell ref="O113"/>
-    <mergeCell ref="K111"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="M86"/>
-    <mergeCell ref="J41"/>
-    <mergeCell ref="M80"/>
-    <mergeCell ref="J16"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J43"/>
-    <mergeCell ref="L105"/>
-    <mergeCell ref="L99"/>
-    <mergeCell ref="K38"/>
-    <mergeCell ref="N49"/>
-    <mergeCell ref="K4"/>
-    <mergeCell ref="P54:P63"/>
-    <mergeCell ref="J67"/>
-    <mergeCell ref="K33"/>
-    <mergeCell ref="J69"/>
-    <mergeCell ref="K35"/>
-    <mergeCell ref="M70"/>
-    <mergeCell ref="N77"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="J98"/>
-    <mergeCell ref="M99"/>
-    <mergeCell ref="G53"/>
-    <mergeCell ref="I3"/>
-    <mergeCell ref="L4"/>
-    <mergeCell ref="K59"/>
-    <mergeCell ref="O40"/>
-    <mergeCell ref="I5"/>
-    <mergeCell ref="K61"/>
-    <mergeCell ref="H24"/>
-    <mergeCell ref="H18"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="H26"/>
-    <mergeCell ref="J82"/>
-    <mergeCell ref="L57"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="I41"/>
-    <mergeCell ref="I16"/>
-    <mergeCell ref="I43"/>
-    <mergeCell ref="K105"/>
-    <mergeCell ref="K107"/>
-    <mergeCell ref="H37"/>
-    <mergeCell ref="O58"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F61"/>
-    <mergeCell ref="J12"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I69"/>
-    <mergeCell ref="L70"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="I77"/>
-    <mergeCell ref="A104:B113"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="J65"/>
-    <mergeCell ref="I87"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E108"/>
-    <mergeCell ref="G24"/>
-    <mergeCell ref="J25"/>
-    <mergeCell ref="G51"/>
-    <mergeCell ref="G26"/>
-    <mergeCell ref="I88"/>
-    <mergeCell ref="I82"/>
-    <mergeCell ref="K57"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="H20"/>
-    <mergeCell ref="O10"/>
-    <mergeCell ref="J112"/>
-    <mergeCell ref="G42"/>
-    <mergeCell ref="J84"/>
-    <mergeCell ref="J78"/>
-    <mergeCell ref="O39"/>
-    <mergeCell ref="K60"/>
-    <mergeCell ref="O5"/>
-    <mergeCell ref="H51"/>
-    <mergeCell ref="J80"/>
-    <mergeCell ref="J107"/>
-    <mergeCell ref="K75"/>
-    <mergeCell ref="G37"/>
-    <mergeCell ref="N58"/>
-    <mergeCell ref="J79"/>
-    <mergeCell ref="I12"/>
-    <mergeCell ref="I14"/>
-    <mergeCell ref="K70"/>
-    <mergeCell ref="H77"/>
-    <mergeCell ref="J106"/>
-    <mergeCell ref="E32"/>
-    <mergeCell ref="H33"/>
-    <mergeCell ref="O23"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="H35"/>
-    <mergeCell ref="G96"/>
-    <mergeCell ref="F29"/>
-    <mergeCell ref="G98"/>
-    <mergeCell ref="O18"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="H59"/>
-    <mergeCell ref="F24"/>
-    <mergeCell ref="I25"/>
-    <mergeCell ref="H89"/>
-    <mergeCell ref="F32"/>
-    <mergeCell ref="H61"/>
-    <mergeCell ref="F26"/>
-    <mergeCell ref="H88"/>
-    <mergeCell ref="G108"/>
-    <mergeCell ref="H90"/>
-    <mergeCell ref="E45"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="O42"/>
-    <mergeCell ref="G20"/>
-    <mergeCell ref="G109"/>
-    <mergeCell ref="G22"/>
-    <mergeCell ref="I84"/>
-    <mergeCell ref="G111"/>
-    <mergeCell ref="F44"/>
-    <mergeCell ref="I86"/>
-    <mergeCell ref="I80"/>
-    <mergeCell ref="F16"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="M60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="J49"/>
-    <mergeCell ref="O88"/>
-    <mergeCell ref="G33"/>
-    <mergeCell ref="N29"/>
-    <mergeCell ref="G35"/>
-    <mergeCell ref="F96"/>
-    <mergeCell ref="N31"/>
-    <mergeCell ref="F98"/>
-    <mergeCell ref="I99"/>
-    <mergeCell ref="M50"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="G59"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="G67"/>
-    <mergeCell ref="G61"/>
-    <mergeCell ref="O20"/>
-    <mergeCell ref="N42"/>
-    <mergeCell ref="O22"/>
-    <mergeCell ref="F109"/>
-    <mergeCell ref="N44"/>
-    <mergeCell ref="H57"/>
-    <mergeCell ref="F22"/>
-    <mergeCell ref="O51"/>
-    <mergeCell ref="H84"/>
-    <mergeCell ref="J113"/>
-    <mergeCell ref="O47"/>
-    <mergeCell ref="F111"/>
-    <mergeCell ref="H86"/>
-    <mergeCell ref="E41"/>
-    <mergeCell ref="E16"/>
-    <mergeCell ref="O38"/>
-    <mergeCell ref="O76"/>
-    <mergeCell ref="E43"/>
-    <mergeCell ref="E18"/>
-    <mergeCell ref="G105"/>
-    <mergeCell ref="N95"/>
-    <mergeCell ref="I49"/>
-    <mergeCell ref="L32"/>
-    <mergeCell ref="O33"/>
-    <mergeCell ref="G107"/>
-    <mergeCell ref="F40"/>
-    <mergeCell ref="N97"/>
-    <mergeCell ref="A4:B13"/>
-    <mergeCell ref="F12"/>
-    <mergeCell ref="N96"/>
-    <mergeCell ref="F41"/>
-    <mergeCell ref="E69"/>
-    <mergeCell ref="F35"/>
-    <mergeCell ref="H70"/>
-    <mergeCell ref="N98"/>
-    <mergeCell ref="M31"/>
-    <mergeCell ref="E77"/>
-    <mergeCell ref="O59"/>
-    <mergeCell ref="H99"/>
-    <mergeCell ref="O95"/>
-    <mergeCell ref="L50"/>
-    <mergeCell ref="O89"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="O61"/>
-    <mergeCell ref="H101"/>
-    <mergeCell ref="L52"/>
-    <mergeCell ref="N27"/>
-    <mergeCell ref="N20"/>
-    <mergeCell ref="F69"/>
-    <mergeCell ref="F25"/>
-    <mergeCell ref="N109"/>
-    <mergeCell ref="N22"/>
-    <mergeCell ref="E88"/>
-    <mergeCell ref="E82"/>
-    <mergeCell ref="G57"/>
-    <mergeCell ref="N38"/>
-    <mergeCell ref="G58"/>
-    <mergeCell ref="F105"/>
-    <mergeCell ref="K39"/>
-    <mergeCell ref="N40"/>
-    <mergeCell ref="F107"/>
-    <mergeCell ref="F82"/>
-    <mergeCell ref="M103"/>
-    <mergeCell ref="J58"/>
-    <mergeCell ref="E12"/>
-    <mergeCell ref="N35"/>
-    <mergeCell ref="M96"/>
-    <mergeCell ref="E14"/>
-    <mergeCell ref="G70"/>
-    <mergeCell ref="M98"/>
-    <mergeCell ref="N66"/>
-    <mergeCell ref="K21"/>
-    <mergeCell ref="L3"/>
-    <mergeCell ref="N68"/>
-    <mergeCell ref="K50"/>
-    <mergeCell ref="N61"/>
-    <mergeCell ref="K58"/>
-    <mergeCell ref="J86"/>
-    <mergeCell ref="K52"/>
-    <mergeCell ref="M27"/>
-    <mergeCell ref="O91"/>
-    <mergeCell ref="E25"/>
-    <mergeCell ref="O85"/>
-    <mergeCell ref="L21"/>
-    <mergeCell ref="O57"/>
-    <mergeCell ref="L48"/>
-    <mergeCell ref="O86"/>
-    <mergeCell ref="N112"/>
-    <mergeCell ref="L43"/>
-    <mergeCell ref="N105"/>
-    <mergeCell ref="M11"/>
-    <mergeCell ref="E84"/>
-    <mergeCell ref="E78"/>
-    <mergeCell ref="N107"/>
-    <mergeCell ref="L74"/>
-    <mergeCell ref="M40"/>
-    <mergeCell ref="O75"/>
-    <mergeCell ref="M12"/>
-    <mergeCell ref="E86"/>
-    <mergeCell ref="E80"/>
-    <mergeCell ref="L76"/>
-    <mergeCell ref="O104"/>
-    <mergeCell ref="M41"/>
-    <mergeCell ref="L69"/>
-    <mergeCell ref="N9"/>
-    <mergeCell ref="O70"/>
-    <mergeCell ref="E81"/>
-    <mergeCell ref="F49"/>
-    <mergeCell ref="K10"/>
-    <mergeCell ref="M66"/>
-    <mergeCell ref="N4"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F78"/>
-    <mergeCell ref="E106"/>
-    <mergeCell ref="O101"/>
-    <mergeCell ref="J29"/>
-    <mergeCell ref="M68"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="L87"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E107"/>
-    <mergeCell ref="N62"/>
-    <mergeCell ref="J24"/>
-    <mergeCell ref="L89"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="N64"/>
-    <mergeCell ref="J26"/>
-    <mergeCell ref="L88"/>
-    <mergeCell ref="N57"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="K48"/>
-    <mergeCell ref="K23"/>
-    <mergeCell ref="M112"/>
-    <mergeCell ref="J42"/>
-    <mergeCell ref="L17"/>
-    <mergeCell ref="J44"/>
-    <mergeCell ref="L19"/>
-    <mergeCell ref="M107"/>
-    <mergeCell ref="N75"/>
-    <mergeCell ref="J37"/>
-    <mergeCell ref="L12"/>
-    <mergeCell ref="K76"/>
-    <mergeCell ref="L14"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="K67"/>
-    <mergeCell ref="J95"/>
-    <mergeCell ref="E49"/>
-    <mergeCell ref="K77"/>
-    <mergeCell ref="H32"/>
-    <mergeCell ref="G113"/>
-    <mergeCell ref="J96"/>
-    <mergeCell ref="J90"/>
-    <mergeCell ref="I29"/>
-    <mergeCell ref="L65"/>
-    <mergeCell ref="I31"/>
-    <mergeCell ref="K87"/>
-    <mergeCell ref="A74:B83"/>
-    <mergeCell ref="K95"/>
-    <mergeCell ref="H50"/>
-    <mergeCell ref="K89"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="M64"/>
-    <mergeCell ref="I26"/>
-    <mergeCell ref="K88"/>
-    <mergeCell ref="E51"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="M65"/>
-    <mergeCell ref="J20"/>
-    <mergeCell ref="I42"/>
-    <mergeCell ref="J22"/>
-    <mergeCell ref="L84"/>
-    <mergeCell ref="K17"/>
-    <mergeCell ref="I44"/>
-    <mergeCell ref="A94:B103"/>
-    <mergeCell ref="J51"/>
-    <mergeCell ref="L80"/>
-    <mergeCell ref="K19"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="M83"/>
-    <mergeCell ref="J38"/>
-    <mergeCell ref="M49"/>
-    <mergeCell ref="G39"/>
-    <mergeCell ref="J40"/>
-    <mergeCell ref="J77"/>
-    <mergeCell ref="M78"/>
-    <mergeCell ref="L106"/>
-    <mergeCell ref="I103"/>
-    <mergeCell ref="I97"/>
-    <mergeCell ref="J35"/>
-    <mergeCell ref="I96"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="I98"/>
-    <mergeCell ref="G65"/>
-    <mergeCell ref="J66"/>
-    <mergeCell ref="H3"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="G50"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="H5"/>
-    <mergeCell ref="J61"/>
-    <mergeCell ref="J97"/>
-    <mergeCell ref="G52"/>
-    <mergeCell ref="I27"/>
-    <mergeCell ref="O9"/>
-    <mergeCell ref="K91"/>
-    <mergeCell ref="H21"/>
-    <mergeCell ref="I22"/>
-    <mergeCell ref="K84"/>
-    <mergeCell ref="K86"/>
-    <mergeCell ref="L54"/>
-    <mergeCell ref="H16"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="L56"/>
-    <mergeCell ref="J105"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I38"/>
-    <mergeCell ref="L49"/>
-    <mergeCell ref="A54:B63"/>
-    <mergeCell ref="I40"/>
-    <mergeCell ref="N113"/>
-    <mergeCell ref="H67"/>
-    <mergeCell ref="H103"/>
-    <mergeCell ref="K104"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="J9"/>
-    <mergeCell ref="G10"/>
-    <mergeCell ref="H98"/>
-    <mergeCell ref="K99"/>
-    <mergeCell ref="I66"/>
-    <mergeCell ref="L102"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="J4"/>
-    <mergeCell ref="I68"/>
-    <mergeCell ref="F23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G5"/>
-    <mergeCell ref="I67"/>
-    <mergeCell ref="F58"/>
-    <mergeCell ref="H87"/>
-    <mergeCell ref="F52"/>
-    <mergeCell ref="F60"/>
-    <mergeCell ref="F53"/>
-    <mergeCell ref="H82"/>
-    <mergeCell ref="G21"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="J57"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="J93"/>
-    <mergeCell ref="G23"/>
-    <mergeCell ref="H113"/>
-    <mergeCell ref="F42"/>
-    <mergeCell ref="K56"/>
-    <mergeCell ref="N39"/>
-    <mergeCell ref="E99"/>
-    <mergeCell ref="H19"/>
-    <mergeCell ref="I107"/>
-    <mergeCell ref="E101"/>
-    <mergeCell ref="H12"/>
-    <mergeCell ref="O8"/>
-    <mergeCell ref="H48"/>
-    <mergeCell ref="G76"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="H14"/>
-    <mergeCell ref="I9"/>
-    <mergeCell ref="G77"/>
-    <mergeCell ref="H43"/>
-    <mergeCell ref="F10"/>
-    <mergeCell ref="I11"/>
-    <mergeCell ref="N50"/>
-    <mergeCell ref="H74"/>
-    <mergeCell ref="E29"/>
-    <mergeCell ref="H68"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="E31"/>
-    <mergeCell ref="G87"/>
-    <mergeCell ref="O46"/>
-    <mergeCell ref="O21"/>
-    <mergeCell ref="G95"/>
-    <mergeCell ref="G89"/>
-    <mergeCell ref="E26"/>
-    <mergeCell ref="G88"/>
-    <mergeCell ref="O48"/>
-    <mergeCell ref="G90"/>
-    <mergeCell ref="I65"/>
-    <mergeCell ref="H112"/>
-    <mergeCell ref="E42"/>
-    <mergeCell ref="G17"/>
-    <mergeCell ref="M39"/>
-    <mergeCell ref="E44"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F51"/>
-    <mergeCell ref="G19"/>
-    <mergeCell ref="O103"/>
-    <mergeCell ref="N8"/>
-    <mergeCell ref="M28"/>
-    <mergeCell ref="G14"/>
-    <mergeCell ref="N10"/>
-    <mergeCell ref="F67"/>
-    <mergeCell ref="M57"/>
-    <mergeCell ref="F77"/>
-    <mergeCell ref="I78"/>
-    <mergeCell ref="M29"/>
-    <mergeCell ref="M23"/>
-    <mergeCell ref="E97"/>
-    <mergeCell ref="E96"/>
-    <mergeCell ref="M58"/>
-    <mergeCell ref="O87"/>
-    <mergeCell ref="O6"/>
-    <mergeCell ref="E98"/>
-    <mergeCell ref="F59"/>
-    <mergeCell ref="N46"/>
-    <mergeCell ref="N21"/>
-    <mergeCell ref="F95"/>
-    <mergeCell ref="N48"/>
-    <mergeCell ref="N23"/>
-    <mergeCell ref="F97"/>
-    <mergeCell ref="L104"/>
-    <mergeCell ref="H72"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F90"/>
-    <mergeCell ref="M42"/>
-    <mergeCell ref="H65"/>
-    <mergeCell ref="O17"/>
-    <mergeCell ref="O11"/>
-    <mergeCell ref="E22"/>
-    <mergeCell ref="G84"/>
-    <mergeCell ref="N74"/>
-    <mergeCell ref="G86"/>
-    <mergeCell ref="F19"/>
-    <mergeCell ref="N76"/>
-    <mergeCell ref="F108"/>
-    <mergeCell ref="J59"/>
-    <mergeCell ref="H83"/>
-    <mergeCell ref="F20"/>
-    <mergeCell ref="H49"/>
-    <mergeCell ref="M10"/>
-    <mergeCell ref="H85"/>
-    <mergeCell ref="L30"/>
-    <mergeCell ref="N92"/>
-    <mergeCell ref="O74"/>
-    <mergeCell ref="L29"/>
-    <mergeCell ref="H80"/>
-    <mergeCell ref="L31"/>
-    <mergeCell ref="N87"/>
-    <mergeCell ref="N6"/>
-    <mergeCell ref="G99"/>
-    <mergeCell ref="E66"/>
-    <mergeCell ref="N89"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="E68"/>
-    <mergeCell ref="I46"/>
-    <mergeCell ref="E67"/>
-    <mergeCell ref="M48"/>
-    <mergeCell ref="O112"/>
-    <mergeCell ref="L42"/>
-    <mergeCell ref="K106"/>
-    <mergeCell ref="N17"/>
-    <mergeCell ref="F66"/>
-    <mergeCell ref="M81"/>
-    <mergeCell ref="J11"/>
-    <mergeCell ref="N19"/>
-    <mergeCell ref="F93"/>
-    <mergeCell ref="O109"/>
-    <mergeCell ref="L100"/>
-    <mergeCell ref="A84:B93"/>
-    <mergeCell ref="M38"/>
-    <mergeCell ref="M76"/>
-    <mergeCell ref="I59"/>
-    <mergeCell ref="J39"/>
-    <mergeCell ref="L95"/>
-    <mergeCell ref="K34"/>
-    <mergeCell ref="L103"/>
-    <mergeCell ref="L97"/>
-    <mergeCell ref="K36"/>
-    <mergeCell ref="N37"/>
-    <mergeCell ref="I113"/>
-    <mergeCell ref="K29"/>
-    <mergeCell ref="F104"/>
-    <mergeCell ref="M94"/>
-    <mergeCell ref="E9"/>
-    <mergeCell ref="K31"/>
-    <mergeCell ref="F106"/>
-    <mergeCell ref="M6"/>
-    <mergeCell ref="E11"/>
-    <mergeCell ref="M95"/>
-    <mergeCell ref="M89"/>
-    <mergeCell ref="O64"/>
-    <mergeCell ref="M97"/>
-    <mergeCell ref="O72"/>
-    <mergeCell ref="L27"/>
-    <mergeCell ref="N83"/>
-    <mergeCell ref="K49"/>
-    <mergeCell ref="N91"/>
-    <mergeCell ref="N85"/>
-    <mergeCell ref="M113"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="O54"/>
-    <mergeCell ref="M108"/>
-    <mergeCell ref="E65"/>
-    <mergeCell ref="L55"/>
-    <mergeCell ref="N111"/>
-    <mergeCell ref="L38"/>
-    <mergeCell ref="F56"/>
-    <mergeCell ref="I39"/>
-    <mergeCell ref="L40"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="K103"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F57"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="J10"/>
-    <mergeCell ref="L66"/>
-    <mergeCell ref="I57"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="L68"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F75"/>
-    <mergeCell ref="I58"/>
-    <mergeCell ref="K27"/>
-    <mergeCell ref="I83"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="M91"/>
-    <mergeCell ref="J21"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="M93"/>
-    <mergeCell ref="J48"/>
-    <mergeCell ref="J23"/>
-    <mergeCell ref="N54"/>
-    <mergeCell ref="L112"/>
-    <mergeCell ref="K55"/>
-    <mergeCell ref="N56"/>
-    <mergeCell ref="G38"/>
-    <mergeCell ref="K46"/>
-    <mergeCell ref="J74"/>
-    <mergeCell ref="K40"/>
-    <mergeCell ref="M75"/>
-    <mergeCell ref="J103"/>
-    <mergeCell ref="M104"/>
-    <mergeCell ref="K71"/>
-    <mergeCell ref="I8"/>
-    <mergeCell ref="L9"/>
-    <mergeCell ref="M106"/>
-    <mergeCell ref="K73"/>
-    <mergeCell ref="I10"/>
-    <mergeCell ref="L11"/>
-    <mergeCell ref="K66"/>
-    <mergeCell ref="H30"/>
-    <mergeCell ref="J92"/>
-    <mergeCell ref="K74"/>
-    <mergeCell ref="H29"/>
-    <mergeCell ref="K68"/>
-    <mergeCell ref="O19"/>
-    <mergeCell ref="N110"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="H31"/>
-    <mergeCell ref="H58"/>
-    <mergeCell ref="J87"/>
-    <mergeCell ref="J6"/>
-    <mergeCell ref="H60"/>
-    <mergeCell ref="J89"/>
-    <mergeCell ref="I28"/>
-    <mergeCell ref="L64"/>
-    <mergeCell ref="I21"/>
-    <mergeCell ref="E46"/>
-    <mergeCell ref="I48"/>
-    <mergeCell ref="I23"/>
-    <mergeCell ref="K112"/>
-    <mergeCell ref="H42"/>
-    <mergeCell ref="P14:P23"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G106"/>
-    <mergeCell ref="J17"/>
-    <mergeCell ref="M56"/>
-    <mergeCell ref="I81"/>
-    <mergeCell ref="F11"/>
-    <mergeCell ref="J19"/>
-    <mergeCell ref="L75"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="I76"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G34"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E113"/>
-    <mergeCell ref="J47"/>
-    <mergeCell ref="G29"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="I94"/>
-    <mergeCell ref="J76"/>
-    <mergeCell ref="G31"/>
-    <mergeCell ref="I6"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="I95"/>
-    <mergeCell ref="I89"/>
-    <mergeCell ref="P84:P93"/>
-    <mergeCell ref="K64"/>
-    <mergeCell ref="K72"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="G49"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="I17"/>
-    <mergeCell ref="I19"/>
-    <mergeCell ref="P104:P113"/>
-    <mergeCell ref="G75"/>
-    <mergeCell ref="K83"/>
-    <mergeCell ref="J111"/>
-    <mergeCell ref="O34"/>
-    <mergeCell ref="O28"/>
-    <mergeCell ref="E39"/>
-    <mergeCell ref="H40"/>
-    <mergeCell ref="F7"/>
-    <mergeCell ref="O36"/>
-    <mergeCell ref="O30"/>
-    <mergeCell ref="O29"/>
-    <mergeCell ref="G103"/>
-    <mergeCell ref="F36"/>
-    <mergeCell ref="O65"/>
-    <mergeCell ref="N93"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="O31"/>
-    <mergeCell ref="H100"/>
-    <mergeCell ref="H66"/>
-    <mergeCell ref="F31"/>
-    <mergeCell ref="O62"/>
-    <mergeCell ref="O56"/>
-    <mergeCell ref="E57"/>
-    <mergeCell ref="F39"/>
-    <mergeCell ref="H95"/>
-    <mergeCell ref="I63"/>
-    <mergeCell ref="L46"/>
-    <mergeCell ref="E58"/>
-    <mergeCell ref="H97"/>
-    <mergeCell ref="F64"/>
-    <mergeCell ref="N104"/>
-    <mergeCell ref="J72"/>
-    <mergeCell ref="M9"/>
-    <mergeCell ref="E83"/>
-    <mergeCell ref="N106"/>
-    <mergeCell ref="I91"/>
-    <mergeCell ref="F21"/>
-    <mergeCell ref="I93"/>
-    <mergeCell ref="F50"/>
-    <mergeCell ref="J54"/>
-    <mergeCell ref="H27"/>
-    <mergeCell ref="G55"/>
-    <mergeCell ref="J56"/>
-    <mergeCell ref="N34"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="G46"/>
-    <mergeCell ref="G40"/>
-    <mergeCell ref="N36"/>
-    <mergeCell ref="F103"/>
-    <mergeCell ref="I104"/>
-    <mergeCell ref="G71"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="H9"/>
-    <mergeCell ref="I106"/>
-    <mergeCell ref="E10"/>
-    <mergeCell ref="G66"/>
-    <mergeCell ref="G74"/>
-    <mergeCell ref="G68"/>
-    <mergeCell ref="O55"/>
-    <mergeCell ref="O27"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="H91"/>
-    <mergeCell ref="E21"/>
-    <mergeCell ref="O53"/>
-    <mergeCell ref="H93"/>
-    <mergeCell ref="E23"/>
-    <mergeCell ref="I54"/>
-    <mergeCell ref="N102"/>
-    <mergeCell ref="I56"/>
-    <mergeCell ref="M13"/>
-    <mergeCell ref="L39"/>
-    <mergeCell ref="M7"/>
-    <mergeCell ref="F46"/>
-    <mergeCell ref="N103"/>
-    <mergeCell ref="O71"/>
-    <mergeCell ref="M36"/>
-    <mergeCell ref="E110"/>
-    <mergeCell ref="M8"/>
-    <mergeCell ref="F48"/>
-    <mergeCell ref="E76"/>
-    <mergeCell ref="H104"/>
-    <mergeCell ref="L72"/>
-    <mergeCell ref="O73"/>
-    <mergeCell ref="O100"/>
-    <mergeCell ref="G9"/>
-    <mergeCell ref="O66"/>
-    <mergeCell ref="H106"/>
-    <mergeCell ref="F73"/>
-    <mergeCell ref="O102"/>
-    <mergeCell ref="G11"/>
-    <mergeCell ref="O68"/>
-    <mergeCell ref="N7"/>
-    <mergeCell ref="E92"/>
-    <mergeCell ref="F74"/>
-    <mergeCell ref="O97"/>
-    <mergeCell ref="E94"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F76"/>
-    <mergeCell ref="J27"/>
-    <mergeCell ref="L83"/>
-    <mergeCell ref="M21"/>
-    <mergeCell ref="E95"/>
-    <mergeCell ref="E89"/>
-    <mergeCell ref="L85"/>
-    <mergeCell ref="N60"/>
-    <mergeCell ref="F92"/>
-    <mergeCell ref="N55"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F87"/>
-    <mergeCell ref="N47"/>
-    <mergeCell ref="L13"/>
-    <mergeCell ref="F89"/>
-    <mergeCell ref="M110"/>
-    <mergeCell ref="H64"/>
-    <mergeCell ref="E19"/>
-    <mergeCell ref="L15"/>
-    <mergeCell ref="N71"/>
-    <mergeCell ref="L8"/>
-    <mergeCell ref="G83"/>
-    <mergeCell ref="N73"/>
-    <mergeCell ref="L10"/>
-    <mergeCell ref="J91"/>
-    <mergeCell ref="K65"/>
-    <mergeCell ref="E47"/>
-    <mergeCell ref="O98"/>
-    <mergeCell ref="L28"/>
-    <mergeCell ref="N3"/>
-    <mergeCell ref="E63"/>
-    <mergeCell ref="H46"/>
-    <mergeCell ref="K85"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N5"/>
-    <mergeCell ref="O93"/>
-    <mergeCell ref="L23"/>
-    <mergeCell ref="A34:B43"/>
-    <mergeCell ref="A64:B73"/>
-    <mergeCell ref="F72"/>
-    <mergeCell ref="J104"/>
-    <mergeCell ref="L79"/>
-    <mergeCell ref="M45"/>
-    <mergeCell ref="M17"/>
-    <mergeCell ref="L81"/>
-    <mergeCell ref="M47"/>
-    <mergeCell ref="M19"/>
-    <mergeCell ref="K13"/>
-    <mergeCell ref="L110"/>
-    <mergeCell ref="O111"/>
-    <mergeCell ref="K15"/>
-    <mergeCell ref="N16"/>
-    <mergeCell ref="M44"/>
-    <mergeCell ref="N51"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F83"/>
-    <mergeCell ref="M79"/>
-    <mergeCell ref="O108"/>
-    <mergeCell ref="J34"/>
-    <mergeCell ref="M73"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F85"/>
-    <mergeCell ref="J36"/>
-    <mergeCell ref="L92"/>
-    <mergeCell ref="M74"/>
-    <mergeCell ref="L94"/>
-    <mergeCell ref="J31"/>
-    <mergeCell ref="L6"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="J62"/>
-    <mergeCell ref="K28"/>
-    <mergeCell ref="M63"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="P44:P53"/>
-    <mergeCell ref="J64"/>
-    <mergeCell ref="K30"/>
-    <mergeCell ref="M92"/>
-    <mergeCell ref="M5"/>
-    <mergeCell ref="G48"/>
-    <mergeCell ref="I112"/>
-    <mergeCell ref="H17"/>
-    <mergeCell ref="H11"/>
-    <mergeCell ref="A24:B33"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J75"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="N108"/>
-    <mergeCell ref="I34"/>
-    <mergeCell ref="I36"/>
-    <mergeCell ref="L47"/>
-    <mergeCell ref="K100"/>
-    <mergeCell ref="K94"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K102"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="J7"/>
-    <mergeCell ref="I62"/>
-    <mergeCell ref="L63"/>
-    <mergeCell ref="K97"/>
-    <mergeCell ref="I64"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="M72"/>
-    <mergeCell ref="L91"/>
-    <mergeCell ref="K113"/>
-    <mergeCell ref="J60"/>
-    <mergeCell ref="K26"/>
-    <mergeCell ref="M88"/>
-    <mergeCell ref="J53"/>
-    <mergeCell ref="M54"/>
-    <mergeCell ref="M90"/>
-    <mergeCell ref="I75"/>
-    <mergeCell ref="J55"/>
-    <mergeCell ref="F38"/>
-    <mergeCell ref="M85"/>
-    <mergeCell ref="H13"/>
-    <mergeCell ref="I110"/>
-    <mergeCell ref="H15"/>
-    <mergeCell ref="J71"/>
-    <mergeCell ref="K37"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="G72"/>
-    <mergeCell ref="J73"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="H10"/>
-    <mergeCell ref="M111"/>
-    <mergeCell ref="J102"/>
-    <mergeCell ref="H25"/>
-    <mergeCell ref="N53"/>
-    <mergeCell ref="H39"/>
-    <mergeCell ref="J68"/>
-    <mergeCell ref="I7"/>
-    <mergeCell ref="K63"/>
-    <mergeCell ref="O16"/>
-    <mergeCell ref="E27"/>
-    <mergeCell ref="H28"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="G91"/>
-    <mergeCell ref="G85"/>
-    <mergeCell ref="K93"/>
-    <mergeCell ref="I60"/>
-    <mergeCell ref="H23"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="H54"/>
-    <mergeCell ref="H56"/>
-    <mergeCell ref="E38"/>
-    <mergeCell ref="G13"/>
-    <mergeCell ref="H110"/>
-    <mergeCell ref="E40"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="G15"/>
-    <mergeCell ref="G104"/>
-    <mergeCell ref="I79"/>
-    <mergeCell ref="I73"/>
-    <mergeCell ref="F9"/>
-    <mergeCell ref="M24"/>
-    <mergeCell ref="H92"/>
-    <mergeCell ref="P64:P73"/>
-    <mergeCell ref="M53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="I74"/>
-    <mergeCell ref="F65"/>
-    <mergeCell ref="M55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="O83"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="G28"/>
-    <mergeCell ref="N18"/>
-    <mergeCell ref="G30"/>
-    <mergeCell ref="I92"/>
-    <mergeCell ref="F91"/>
-    <mergeCell ref="K8"/>
-    <mergeCell ref="M37"/>
-    <mergeCell ref="O12"/>
-    <mergeCell ref="G54"/>
-    <mergeCell ref="O14"/>
-    <mergeCell ref="E112"/>
-    <mergeCell ref="K62"/>
-    <mergeCell ref="O13"/>
-    <mergeCell ref="O7"/>
-    <mergeCell ref="H53"/>
-    <mergeCell ref="G81"/>
-    <mergeCell ref="G56"/>
-    <mergeCell ref="O15"/>
-    <mergeCell ref="H55"/>
-    <mergeCell ref="F15"/>
-    <mergeCell ref="N72"/>
-    <mergeCell ref="H52"/>
-    <mergeCell ref="I18"/>
-    <mergeCell ref="H79"/>
-    <mergeCell ref="J108"/>
-    <mergeCell ref="E34"/>
-    <mergeCell ref="O69"/>
-    <mergeCell ref="O25"/>
-    <mergeCell ref="H45"/>
-    <mergeCell ref="H81"/>
-    <mergeCell ref="E36"/>
-    <mergeCell ref="N88"/>
-    <mergeCell ref="H47"/>
-    <mergeCell ref="J109"/>
-    <mergeCell ref="G100"/>
-    <mergeCell ref="G94"/>
-    <mergeCell ref="N90"/>
-    <mergeCell ref="H76"/>
-    <mergeCell ref="G102"/>
-    <mergeCell ref="F34"/>
-    <mergeCell ref="E62"/>
-    <mergeCell ref="H63"/>
-    <mergeCell ref="G97"/>
-    <mergeCell ref="E64"/>
-    <mergeCell ref="F30"/>
-    <mergeCell ref="M51"/>
-    <mergeCell ref="I72"/>
-    <mergeCell ref="H94"/>
-    <mergeCell ref="L45"/>
-    <mergeCell ref="N13"/>
-    <mergeCell ref="O110"/>
-    <mergeCell ref="N15"/>
-    <mergeCell ref="K6"/>
-    <mergeCell ref="E75"/>
-    <mergeCell ref="M34"/>
-    <mergeCell ref="L98"/>
-    <mergeCell ref="O92"/>
-    <mergeCell ref="E103"/>
-    <mergeCell ref="L93"/>
-    <mergeCell ref="K32"/>
-    <mergeCell ref="N33"/>
-    <mergeCell ref="F101"/>
-    <mergeCell ref="F100"/>
-    <mergeCell ref="I111"/>
-    <mergeCell ref="N28"/>
-    <mergeCell ref="F102"/>
-    <mergeCell ref="P3"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="N30"/>
-    <mergeCell ref="G63"/>
-    <mergeCell ref="J46"/>
-    <mergeCell ref="L111"/>
-    <mergeCell ref="N86"/>
-    <mergeCell ref="K16"/>
-    <mergeCell ref="O24"/>
-    <mergeCell ref="K9"/>
-    <mergeCell ref="K45"/>
-    <mergeCell ref="N81"/>
-    <mergeCell ref="M20"/>
-    <mergeCell ref="O49"/>
-    <mergeCell ref="K11"/>
-    <mergeCell ref="F113"/>
-    <mergeCell ref="K47"/>
-    <mergeCell ref="M109"/>
-    <mergeCell ref="G93"/>
-    <mergeCell ref="E60"/>
-    <mergeCell ref="M22"/>
-    <mergeCell ref="O84"/>
-    <mergeCell ref="O50"/>
-    <mergeCell ref="M15"/>
-    <mergeCell ref="L41"/>
-    <mergeCell ref="O80"/>
-    <mergeCell ref="F27"/>
-    <mergeCell ref="O52"/>
-    <mergeCell ref="O79"/>
-    <mergeCell ref="L34"/>
-    <mergeCell ref="N99"/>
-    <mergeCell ref="O81"/>
-    <mergeCell ref="L36"/>
-    <mergeCell ref="O37"/>
-    <mergeCell ref="M4"/>
-    <mergeCell ref="N101"/>
-    <mergeCell ref="E71"/>
-    <mergeCell ref="N100"/>
-    <mergeCell ref="J5"/>
-    <mergeCell ref="L67"/>
-    <mergeCell ref="N94"/>
-    <mergeCell ref="E79"/>
-    <mergeCell ref="E73"/>
-    <mergeCell ref="M35"/>
-    <mergeCell ref="F55"/>
-    <mergeCell ref="L62"/>
-    <mergeCell ref="O63"/>
-    <mergeCell ref="F70"/>
-    <mergeCell ref="O99"/>
-    <mergeCell ref="I53"/>
-    <mergeCell ref="E74"/>
-    <mergeCell ref="M30"/>
-    <mergeCell ref="I55"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F71"/>
-    <mergeCell ref="O94"/>
-    <mergeCell ref="M61"/>
-    <mergeCell ref="F37"/>
-    <mergeCell ref="N24"/>
-    <mergeCell ref="P4:P13"/>
-    <mergeCell ref="J18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="N26"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="L107"/>
-    <mergeCell ref="L82"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F68"/>
-    <mergeCell ref="E87"/>
-    <mergeCell ref="K41"/>
-    <mergeCell ref="G62"/>
-    <mergeCell ref="N52"/>
-    <mergeCell ref="K43"/>
-    <mergeCell ref="M105"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="M101"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="M100"/>
-    <mergeCell ref="M102"/>
-    <mergeCell ref="K69"/>
-    <mergeCell ref="N70"/>
-    <mergeCell ref="K25"/>
-    <mergeCell ref="O77"/>
-    <mergeCell ref="L7"/>
-    <mergeCell ref="N63"/>
-    <mergeCell ref="J88"/>
-    <mergeCell ref="K54"/>
-    <mergeCell ref="A14:B23"/>
-    <mergeCell ref="J83"/>
-    <mergeCell ref="L58"/>
-    <mergeCell ref="J85"/>
-    <mergeCell ref="L25"/>
-    <mergeCell ref="I24"/>
-    <mergeCell ref="L60"/>
-    <mergeCell ref="M26"/>
-    <mergeCell ref="I51"/>
-    <mergeCell ref="E72"/>
-    <mergeCell ref="K82"/>
-    <mergeCell ref="O90"/>
-    <mergeCell ref="J14"/>
-    <mergeCell ref="H38"/>
-    <mergeCell ref="J13"/>
-    <mergeCell ref="M52"/>
-    <mergeCell ref="K110"/>
-    <mergeCell ref="L78"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="J15"/>
-    <mergeCell ref="L71"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="I37"/>
-    <mergeCell ref="L73"/>
-    <mergeCell ref="K12"/>
-    <mergeCell ref="K14"/>
-    <mergeCell ref="K7"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G32"/>
-    <mergeCell ref="J33"/>
-    <mergeCell ref="E109"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="M71"/>
-    <mergeCell ref="I90"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E111"/>
-    <mergeCell ref="L101"/>
-    <mergeCell ref="G27"/>
-    <mergeCell ref="J28"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="J30"/>
-    <mergeCell ref="I85"/>
-    <mergeCell ref="L5"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="G45"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="K53"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="I20"/>
-    <mergeCell ref="G47"/>
-    <mergeCell ref="I109"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="J110"/>
-    <mergeCell ref="K78"/>
-    <mergeCell ref="I15"/>
-    <mergeCell ref="L16"/>
-    <mergeCell ref="P94:P103"/>
-    <mergeCell ref="H41"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="K80"/>
-    <mergeCell ref="K79"/>
-    <mergeCell ref="H34"/>
-    <mergeCell ref="J99"/>
-    <mergeCell ref="K81"/>
-    <mergeCell ref="H36"/>
-    <mergeCell ref="O32"/>
-    <mergeCell ref="O26"/>
-    <mergeCell ref="J101"/>
-    <mergeCell ref="J100"/>
-    <mergeCell ref="J94"/>
-    <mergeCell ref="I33"/>
-    <mergeCell ref="L44"/>
-    <mergeCell ref="I35"/>
-    <mergeCell ref="H96"/>
-    <mergeCell ref="P24:P33"/>
-    <mergeCell ref="H62"/>
-    <mergeCell ref="K101"/>
-    <mergeCell ref="E53"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="I30"/>
-    <mergeCell ref="K92"/>
-    <mergeCell ref="E55"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="M67"/>
-    <mergeCell ref="E48"/>
-    <mergeCell ref="I61"/>
-    <mergeCell ref="O45"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="M69"/>
-    <mergeCell ref="G112"/>
-    <mergeCell ref="F18"/>
-    <mergeCell ref="F45"/>
-    <mergeCell ref="F17"/>
-    <mergeCell ref="F47"/>
-    <mergeCell ref="H109"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="H22"/>
-    <mergeCell ref="L113"/>
-    <mergeCell ref="H75"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="H111"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="J50"/>
-    <mergeCell ref="G41"/>
-    <mergeCell ref="G16"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="J52"/>
-    <mergeCell ref="K18"/>
-    <mergeCell ref="L108"/>
-    <mergeCell ref="G43"/>
-    <mergeCell ref="I105"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="J81"/>
-    <mergeCell ref="G36"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="N32"/>
-    <mergeCell ref="I101"/>
-    <mergeCell ref="I100"/>
-    <mergeCell ref="K44"/>
-    <mergeCell ref="I102"/>
-    <mergeCell ref="G69"/>
-    <mergeCell ref="J70"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="H7"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="J63"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="G64"/>
-    <mergeCell ref="I4"/>
-    <mergeCell ref="N45"/>
-    <mergeCell ref="E24"/>
-    <mergeCell ref="F112"/>
-    <mergeCell ref="E17"/>
-    <mergeCell ref="G82"/>
-    <mergeCell ref="K90"/>
-    <mergeCell ref="O41"/>
-    <mergeCell ref="O35"/>
-    <mergeCell ref="O43"/>
-    <mergeCell ref="F13"/>
-    <mergeCell ref="I52"/>
-    <mergeCell ref="G110"/>
-    <mergeCell ref="M3"/>
-    <mergeCell ref="F43"/>
-    <mergeCell ref="H105"/>
-    <mergeCell ref="H71"/>
-    <mergeCell ref="O67"/>
-    <mergeCell ref="M32"/>
-    <mergeCell ref="H107"/>
-    <mergeCell ref="E37"/>
-    <mergeCell ref="G12"/>
-    <mergeCell ref="O96"/>
-    <mergeCell ref="H102"/>
-    <mergeCell ref="I70"/>
-    <mergeCell ref="L53"/>
-    <mergeCell ref="G7"/>
-    <mergeCell ref="F33"/>
-    <mergeCell ref="I71"/>
-    <mergeCell ref="M16"/>
-    <mergeCell ref="F62"/>
-    <mergeCell ref="E90"/>
-    <mergeCell ref="F28"/>
-    <mergeCell ref="M18"/>
-    <mergeCell ref="E91"/>
-    <mergeCell ref="E85"/>
-    <mergeCell ref="G25"/>
-    <mergeCell ref="O82"/>
-    <mergeCell ref="G60"/>
-    <mergeCell ref="E93"/>
-    <mergeCell ref="F88"/>
-    <mergeCell ref="F54"/>
-    <mergeCell ref="N41"/>
-    <mergeCell ref="E20"/>
-    <mergeCell ref="N43"/>
-    <mergeCell ref="E13"/>
-    <mergeCell ref="F110"/>
-    <mergeCell ref="O4"/>
-    <mergeCell ref="G78"/>
-    <mergeCell ref="E15"/>
-    <mergeCell ref="N67"/>
-    <mergeCell ref="G80"/>
-    <mergeCell ref="E104"/>
-    <mergeCell ref="N59"/>
-    <mergeCell ref="G79"/>
-    <mergeCell ref="G73"/>
-    <mergeCell ref="N69"/>
-    <mergeCell ref="P74:P83"/>
-    <mergeCell ref="F14"/>
-    <mergeCell ref="H78"/>
-    <mergeCell ref="E33"/>
-    <mergeCell ref="H44"/>
-    <mergeCell ref="E35"/>
-    <mergeCell ref="H73"/>
-    <mergeCell ref="G101"/>
-    <mergeCell ref="E28"/>
-    <mergeCell ref="L24"/>
-    <mergeCell ref="L18"/>
-    <mergeCell ref="E30"/>
-    <mergeCell ref="G92"/>
-    <mergeCell ref="L51"/>
-    <mergeCell ref="L26"/>
-    <mergeCell ref="E59"/>
-    <mergeCell ref="M46"/>
-    <mergeCell ref="N82"/>
-    <mergeCell ref="E61"/>
-    <mergeCell ref="E54"/>
-    <mergeCell ref="M14"/>
-    <mergeCell ref="O106"/>
-    <mergeCell ref="E56"/>
-    <mergeCell ref="L77"/>
-    <mergeCell ref="M43"/>
-    <mergeCell ref="O78"/>
-    <mergeCell ref="O105"/>
-    <mergeCell ref="N11"/>
-    <mergeCell ref="F84"/>
-    <mergeCell ref="O107"/>
-    <mergeCell ref="L37"/>
-    <mergeCell ref="N12"/>
-    <mergeCell ref="F86"/>
-    <mergeCell ref="F80"/>
-    <mergeCell ref="A44:B53"/>
-    <mergeCell ref="G18"/>
-    <mergeCell ref="F79"/>
-    <mergeCell ref="N14"/>
-    <mergeCell ref="H108"/>
-    <mergeCell ref="E105"/>
-    <mergeCell ref="M25"/>
-    <mergeCell ref="F81"/>
-    <mergeCell ref="M77"/>
-    <mergeCell ref="J32"/>
-    <mergeCell ref="M33"/>
-    <mergeCell ref="E100"/>
-    <mergeCell ref="L96"/>
-    <mergeCell ref="M62"/>
-    <mergeCell ref="L90"/>
-    <mergeCell ref="G44"/>
-    <mergeCell ref="N65"/>
-    <mergeCell ref="E102"/>
-    <mergeCell ref="O3"/>
-    <mergeCell ref="M87"/>
-    <mergeCell ref="I108"/>
-    <mergeCell ref="F63"/>
-    <mergeCell ref="M59"/>
-    <mergeCell ref="K24"/>
-    <mergeCell ref="N25"/>
-    <mergeCell ref="F99"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="K51"/>
-    <mergeCell ref="M82"/>
-    <mergeCell ref="F94"/>
-    <mergeCell ref="J45"/>
-    <mergeCell ref="H69"/>
-    <mergeCell ref="L20"/>
-    <mergeCell ref="L109"/>
-    <mergeCell ref="K42"/>
-    <mergeCell ref="L22"/>
-    <mergeCell ref="N84"/>
-    <mergeCell ref="N78"/>
-    <mergeCell ref="O60"/>
-    <mergeCell ref="N80"/>
-    <mergeCell ref="E50"/>
-    <mergeCell ref="N79"/>
-    <mergeCell ref="E52"/>
-    <mergeCell ref="I32"/>
-    <mergeCell ref="L33"/>
-    <mergeCell ref="O44"/>
-    <mergeCell ref="L35"/>
-    <mergeCell ref="K96"/>
-    <mergeCell ref="C13:D13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>Avaliação Mensal</t>
         </is>
@@ -14703,183 +8229,183 @@
       <c r="S1" s="9" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="inlineStr">
+      <c r="A2" s="19" t="inlineStr">
         <is>
           <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
         </is>
       </c>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="19" t="inlineStr">
         <is>
           <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
         </is>
       </c>
-      <c r="D2" s="29" t="inlineStr">
+      <c r="D2" s="19" t="inlineStr">
         <is>
           <t>4. O membro aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
         </is>
       </c>
-      <c r="E2" s="29" t="inlineStr">
+      <c r="E2" s="19" t="inlineStr">
         <is>
           <t>5. O membro tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
         </is>
       </c>
-      <c r="F2" s="29" t="inlineStr">
+      <c r="F2" s="19" t="inlineStr">
         <is>
           <t>6. O membro procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
         </is>
       </c>
-      <c r="G2" s="29" t="inlineStr">
+      <c r="G2" s="19" t="inlineStr">
         <is>
           <t>1. O membro é capaz planear e organizar de forma eficiente atividades recreativas e/ou formações internas, de forma a que tenham sucesso.</t>
         </is>
       </c>
-      <c r="H2" s="29" t="inlineStr">
+      <c r="H2" s="19" t="inlineStr">
         <is>
           <t>2. O membro consegue elaborar relatórios de avaliações, de questionários de satisfação, etc., de uma forma clara e eficaz.</t>
         </is>
       </c>
-      <c r="I2" s="29" t="inlineStr">
+      <c r="I2" s="19" t="inlineStr">
         <is>
           <t>3. O membro acompanha as suas tarefas individuais recorrentes (p.ex: aniversários, avaliação motivacional, newsletters, etc.) de forma a confirmar que está tudo sob controlo.</t>
         </is>
       </c>
-      <c r="J2" s="29" t="inlineStr">
+      <c r="J2" s="19" t="inlineStr">
         <is>
           <t>4. O membro exibe criatividade durante a elaboração de atividades recreativas, planeamento de Recrutamento e Retiro, iniciativas internas, etc.</t>
         </is>
       </c>
-      <c r="K2" s="29" t="inlineStr">
+      <c r="K2" s="19" t="inlineStr">
         <is>
           <t>5. O membro lida com conflitos internos de uma forma preponderada, tendo em mente o melhor interesse dos membros e a estabilidade da EPIC Júnior.</t>
         </is>
       </c>
-      <c r="L2" s="29" t="inlineStr">
+      <c r="L2" s="19" t="inlineStr">
         <is>
           <t>6. O membro motiva os outros membros a participarem nas atividades internas da EPIC Júnior, bem como nas externas, da JE ou de outras Júnior Empresas.</t>
         </is>
       </c>
-      <c r="M2" s="29" t="inlineStr">
+      <c r="M2" s="19" t="inlineStr">
         <is>
           <t>1. O membro sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
         </is>
       </c>
-      <c r="N2" s="29" t="inlineStr">
+      <c r="N2" s="19" t="inlineStr">
         <is>
           <t>2. O membro respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
         </is>
       </c>
-      <c r="O2" s="29" t="inlineStr">
+      <c r="O2" s="19" t="inlineStr">
         <is>
           <t>1. O membro cumpre os objetivos das tarefas pelos quais é responsável.</t>
         </is>
       </c>
-      <c r="P2" s="29" t="inlineStr">
+      <c r="P2" s="19" t="inlineStr">
         <is>
           <t>2. O membro respeita o prazo de entrega das suas tarefas.</t>
         </is>
       </c>
-      <c r="Q2" s="29" t="inlineStr">
+      <c r="Q2" s="19" t="inlineStr">
         <is>
           <t>3. O membro, caso necessário, desenvolve conhecimento técnico especifico para completar a sua tarefa.</t>
         </is>
       </c>
-      <c r="R2" s="29" t="inlineStr">
+      <c r="R2" s="19" t="inlineStr">
         <is>
           <t>4. Em tarefas de grupo, o membro é capaz de comunicar com os seus colegas de forma clara e concisa, conseguindo defender a sua opinião mas respeitando a opinião dos outros, mantendo uma boa relação interpessoal.</t>
         </is>
       </c>
-      <c r="S2" s="29" t="inlineStr">
+      <c r="S2" s="19" t="inlineStr">
         <is>
           <t>5. O membro é capaz de executar a sua tarefa de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.0", ""),IF(Avaliacao!A1="Ines Cabral", "4.5", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="A3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.0", ""),IF(Avaliacao!A1="Ines Cabral", "4.5", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="B3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.3", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.6", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.6", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="B3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.3", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.6", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.6", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="C3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.8", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="C3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.8", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="D3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.3", ""),IF(Avaliacao!A1="Paulo Vieira", "4.9", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="D3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.3", ""),IF(Avaliacao!A1="Paulo Vieira", "4.9", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="E3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.5", ""),IF(Avaliacao!A1="Ines Cabral", "4.4", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.1", ""),IF(Avaliacao!A1="Paulo Vieira", "4.3", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.3", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="E3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.5", ""),IF(Avaliacao!A1="Ines Cabral", "4.4", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.1", ""),IF(Avaliacao!A1="Paulo Vieira", "4.3", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.3", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="F3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.2", ""),IF(Avaliacao!A1="Ines Cabral", "4.5", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.1", ""),IF(Avaliacao!A1="Paula Ferreira", "4.9", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="F3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.2", ""),IF(Avaliacao!A1="Ines Cabral", "4.5", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.1", ""),IF(Avaliacao!A1="Paula Ferreira", "4.9", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="G3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.5", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.0", ""),IF(Avaliacao!A1="Paulo Vieira", "4.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="G3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.5", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.0", ""),IF(Avaliacao!A1="Paulo Vieira", "4.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="H3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.2", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="H3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.2", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="I3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.8", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="I3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.8", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="J3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "4.9", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.1", ""),IF(Avaliacao!A1="Paula Ferreira", "5.1", ""),IF(Avaliacao!A1="Paulo Vieira", "5.1", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.0", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="J3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "4.9", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.1", ""),IF(Avaliacao!A1="Paula Ferreira", "5.1", ""),IF(Avaliacao!A1="Paulo Vieira", "5.1", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.0", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="K3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.4", ""),IF(Avaliacao!A1="Ines Cabral", "5.3", ""),IF(Avaliacao!A1="Mariana Arezes", "5.4", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.4", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="K3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.4", ""),IF(Avaliacao!A1="Ines Cabral", "5.3", ""),IF(Avaliacao!A1="Mariana Arezes", "5.4", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.4", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="L3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "4.8", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.0", ""),IF(Avaliacao!A1="Ines Cabral", "4.2", ""),IF(Avaliacao!A1="Mariana Arezes", "4.7", ""),IF(Avaliacao!A1="Mariana Oliveira", "4.7", ""),IF(Avaliacao!A1="Paula Ferreira", "4.5", ""),IF(Avaliacao!A1="Paulo Vieira", "4.2", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.3", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="L3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "4.8", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.0", ""),IF(Avaliacao!A1="Ines Cabral", "4.2", ""),IF(Avaliacao!A1="Mariana Arezes", "4.7", ""),IF(Avaliacao!A1="Mariana Oliveira", "4.7", ""),IF(Avaliacao!A1="Paula Ferreira", "4.5", ""),IF(Avaliacao!A1="Paulo Vieira", "4.2", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.3", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="M3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.9", ""),IF(Avaliacao!A1="Ines Cabral", "5.0", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.1", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.1", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="M3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.9", ""),IF(Avaliacao!A1="Ines Cabral", "5.0", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.1", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.1", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="N3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.2", ""),IF(Avaliacao!A1="Ines Cabral", "5.3", ""),IF(Avaliacao!A1="Mariana Arezes", "5.4", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.3", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="N3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.2", ""),IF(Avaliacao!A1="Ines Cabral", "5.3", ""),IF(Avaliacao!A1="Mariana Arezes", "5.4", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.3", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="O3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.3", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.9", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="O3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.3", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.9", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="P3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.9", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.3", ""),IF(Avaliacao!A1="Paulo Vieira", "4.7", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="P3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.9", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.3", ""),IF(Avaliacao!A1="Paulo Vieira", "4.7", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="Q3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.2", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "4.9", ""),IF(Avaliacao!A1="Paulo Vieira", "5.0", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="Q3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.2", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "4.9", ""),IF(Avaliacao!A1="Paulo Vieira", "5.0", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="R3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.0", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "5.2", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.1", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="R3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.0", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "5.2", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.1", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
-      <c r="S3" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.2", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "5.2", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.0", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Beatriz Sousa", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="S3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.2", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "5.2", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.0", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.278947368421052", ""),IF(Avaliacao!A1="Ines Cabral", "4.710526315789474", ""),IF(Avaliacao!A1="Mariana Arezes", "5.094736842105264", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.236842105263158", ""),IF(Avaliacao!A1="Paula Ferreira", "5.194736842105264", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.815789473684211", ""),IF(Avaliacao!A1="Beatriz Sousa", "0.0", ""),IF(Avaliacao!A1="Catarina Oliveira", "0.0", ""),IF(Avaliacao!A1="Claudia Santos", "0.0", ""),IF(Avaliacao!A1="Ines Faria", "0.0", ""),IF(Avaliacao!A1="Ines Geraldes", "0.0", ""),IF(Avaliacao!A1="Leticia Santos", "0.0", ""),IF(Avaliacao!A1="Marcia Costa", "0.0", ""),IF(Avaliacao!A1="Margarida Ribeiro", "0.0", ""),IF(Avaliacao!A1="Mariana Coelho", "0.0", ""),IF(Avaliacao!A1="Raquel Baptista", "0.0", ""),IF(Avaliacao!A1="Pedro Machado", "0.0", ""),)</f>
+      <c r="A4" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.278947368421052", ""),IF(Avaliacao!A1="Ines Cabral", "4.710526315789474", ""),IF(Avaliacao!A1="Mariana Arezes", "5.094736842105264", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.236842105263158", ""),IF(Avaliacao!A1="Paula Ferreira", "5.194736842105264", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.815789473684211", ""),IF(Avaliacao!A1="Pedro Machado", "0.0", ""),)</f>
         <v/>
       </c>
       <c r="B4" s="8" t="n"/>
@@ -14902,7 +8428,7 @@
       <c r="S4" s="9" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="inlineStr">
+      <c r="A6" s="18" t="inlineStr">
         <is>
           <t>Avaliação Mensal</t>
         </is>
@@ -14916,114 +8442,234 @@
       <c r="H6" s="8" t="n"/>
       <c r="I6" s="8" t="n"/>
       <c r="J6" s="8" t="n"/>
-      <c r="K6" s="9" t="n"/>
+      <c r="K6" s="8" t="n"/>
+      <c r="L6" s="8" t="n"/>
+      <c r="M6" s="8" t="n"/>
+      <c r="N6" s="8" t="n"/>
+      <c r="O6" s="8" t="n"/>
+      <c r="P6" s="8" t="n"/>
+      <c r="Q6" s="8" t="n"/>
+      <c r="R6" s="8" t="n"/>
+      <c r="S6" s="8" t="n"/>
+      <c r="T6" s="8" t="n"/>
+      <c r="U6" s="8" t="n"/>
+      <c r="V6" s="8" t="n"/>
+      <c r="W6" s="9" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="inlineStr">
-        <is>
-          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
-        </is>
-      </c>
-      <c r="B7" s="29" t="inlineStr">
-        <is>
-          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
-        </is>
-      </c>
-      <c r="C7" s="29" t="inlineStr">
-        <is>
-          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
-        </is>
-      </c>
-      <c r="D7" s="29" t="inlineStr">
-        <is>
-          <t>4. O membro aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
-        </is>
-      </c>
-      <c r="E7" s="29" t="inlineStr">
-        <is>
-          <t>5. O membro tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
-        </is>
-      </c>
-      <c r="F7" s="29" t="inlineStr">
-        <is>
-          <t>6. O membro procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
-        </is>
-      </c>
-      <c r="G7" s="29" t="inlineStr">
-        <is>
-          <t>1. O membro é capaz de publicitar a EPIC Júnior de uma forma correta e precisa.</t>
-        </is>
-      </c>
-      <c r="H7" s="29" t="inlineStr">
-        <is>
-          <t>2. O membro consegue elaborar designs para diferentes tipos de divulgação, procurando manter os componentes que constroem a imagem pública da EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="I7" s="29" t="inlineStr">
-        <is>
-          <t>1. O membro sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="J7" s="29" t="inlineStr">
-        <is>
-          <t>1. O membro cumpre os objetivos das tarefas pelos quais é responsável.</t>
-        </is>
-      </c>
-      <c r="K7" s="29" t="inlineStr">
-        <is>
-          <t>2. O membro respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
+      <c r="A7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
+        </is>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
+        </is>
+      </c>
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos da júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
+        </is>
+      </c>
+      <c r="D7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
+        </is>
+      </c>
+      <c r="E7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
+        </is>
+      </c>
+      <c r="F7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
+        </is>
+      </c>
+      <c r="G7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE tem em conta as necessidades, requisitos e opiniões do cliente no desenvolvimento de um projeto.</t>
+        </is>
+      </c>
+      <c r="H7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE sabe delegar tarefas de forma produtiva, justa e homogénea. Consegue manter uma dinâmica de departamento saudável e tem como objetivo o trabalho em equipa.</t>
+        </is>
+      </c>
+      <c r="I7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE tenta obter o resultado mais vantajoso possível para os projetos e para a EPIC Júnior sem comprometer padrões éticos, senso comum e a confiança do cliente.</t>
+        </is>
+      </c>
+      <c r="J7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE sabe aproveitar ao máximo e integrar os recursos disponíveis dentro da EPIC Júnior, de forma global. Consegue reavaliar, aprimorar e padronizar os processos de trabalho.</t>
+        </is>
+      </c>
+      <c r="K7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE tem a capacidade de estabelecer uma rede de contactos ou uma conexão a empresas que possam ser futuros clientes.</t>
+        </is>
+      </c>
+      <c r="L7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE tem a capacidade de convencer pessoas, ou mudar a sua perspetiva, usando o seu poder de argumentação, raciocínio e lógica.</t>
+        </is>
+      </c>
+      <c r="M7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE consegue estruturar o seu pensamento de forma coerente, levando a boas conclusões. Sabe desenvolver estratégias ou ideias bem planeadas/estruturadas</t>
+        </is>
+      </c>
+      <c r="N7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE consegue organizar o que faz de forma eficiente e clara, exibindo uma boa gestão de tarefas e tempo.</t>
+        </is>
+      </c>
+      <c r="O7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE participa regularmente em formações internas e noutras atividades recreativas promovidas pelo departamento de Recursos Humanos.</t>
+        </is>
+      </c>
+      <c r="P7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE participa regularmente em reuniões gerais e reuniões de departamento.</t>
+        </is>
+      </c>
+      <c r="Q7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="R7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="S7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE cumpre os objetivos das tarefas pelos quais é responsável.</t>
+        </is>
+      </c>
+      <c r="T7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE respeita o prazo de entrega das suas tarefas.</t>
+        </is>
+      </c>
+      <c r="U7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE, caso necessário, desenvolve conhecimento técnico especifico para completar a sua tarefa.</t>
+        </is>
+      </c>
+      <c r="V7" s="19" t="inlineStr">
+        <is>
+          <t>Em tarefas de grupo, o VPE é capaz de comunicar com os seus membros de forma clara e concisa, conseguindo defender a sua opinião mas respeitando a opinião dos outros, mantendo uma boa relação interpessoal.</t>
+        </is>
+      </c>
+      <c r="W7" s="19" t="inlineStr">
+        <is>
+          <t>O VPE é capaz de executar a sua tarefa de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "4.75", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.25", ""),IF(Avaliacao!A1="Claudia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Ines Faria", "5.333333333333333", ""),IF(Avaliacao!A1="Ines Geraldes", "5.25", ""),IF(Avaliacao!A1="Leticia Santos", "5.25", ""),IF(Avaliacao!A1="Marcia Costa", "5.166666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.916666666666667", ""),IF(Avaliacao!A1="Mariana Coelho", "5.083333333333333", ""),IF(Avaliacao!A1="Raquel Baptista", "4.5", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="A8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
         <v/>
       </c>
-      <c r="B8" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "4.416666666666667", ""),IF(Avaliacao!A1="Catarina Oliveira", "4.833333333333333", ""),IF(Avaliacao!A1="Claudia Santos", "5.166666666666667", ""),IF(Avaliacao!A1="Ines Faria", "4.916666666666667", ""),IF(Avaliacao!A1="Ines Geraldes", "5.333333333333333", ""),IF(Avaliacao!A1="Leticia Santos", "5.083333333333333", ""),IF(Avaliacao!A1="Marcia Costa", "4.666666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.5", ""),IF(Avaliacao!A1="Mariana Coelho", "4.666666666666667", ""),IF(Avaliacao!A1="Raquel Baptista", "4.25", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="B8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.857142857142857", ""),)</f>
         <v/>
       </c>
-      <c r="C8" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.0", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.25", ""),IF(Avaliacao!A1="Claudia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Ines Faria", "5.25", ""),IF(Avaliacao!A1="Ines Geraldes", "5.25", ""),IF(Avaliacao!A1="Leticia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Marcia Costa", "5.166666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "5.083333333333333", ""),IF(Avaliacao!A1="Mariana Coelho", "5.166666666666667", ""),IF(Avaliacao!A1="Raquel Baptista", "4.75", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="C8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
         <v/>
       </c>
-      <c r="D8" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.083333333333333", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.25", ""),IF(Avaliacao!A1="Claudia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Ines Faria", "5.083333333333333", ""),IF(Avaliacao!A1="Ines Geraldes", "5.25", ""),IF(Avaliacao!A1="Leticia Santos", "5.166666666666667", ""),IF(Avaliacao!A1="Marcia Costa", "5.0", ""),IF(Avaliacao!A1="Margarida Ribeiro", "5.083333333333333", ""),IF(Avaliacao!A1="Mariana Coelho", "5.166666666666667", ""),IF(Avaliacao!A1="Raquel Baptista", "4.833333333333333", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="D8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
         <v/>
       </c>
-      <c r="E8" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "4.833333333333333", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.083333333333333", ""),IF(Avaliacao!A1="Claudia Santos", "5.25", ""),IF(Avaliacao!A1="Ines Faria", "5.0", ""),IF(Avaliacao!A1="Ines Geraldes", "5.25", ""),IF(Avaliacao!A1="Leticia Santos", "5.166666666666667", ""),IF(Avaliacao!A1="Marcia Costa", "4.916666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.75", ""),IF(Avaliacao!A1="Mariana Coelho", "4.833333333333333", ""),IF(Avaliacao!A1="Raquel Baptista", "4.333333333333333", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="E8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.714285714285714", ""),)</f>
         <v/>
       </c>
-      <c r="F8" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "4.916666666666667", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.0", ""),IF(Avaliacao!A1="Claudia Santos", "5.083333333333333", ""),IF(Avaliacao!A1="Ines Faria", "4.916666666666667", ""),IF(Avaliacao!A1="Ines Geraldes", "5.166666666666667", ""),IF(Avaliacao!A1="Leticia Santos", "5.166666666666667", ""),IF(Avaliacao!A1="Marcia Costa", "4.916666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.916666666666667", ""),IF(Avaliacao!A1="Mariana Coelho", "5.0", ""),IF(Avaliacao!A1="Raquel Baptista", "4.666666666666667", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="F8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
         <v/>
       </c>
-      <c r="G8" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.416666666666667", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.416666666666667", ""),IF(Avaliacao!A1="Claudia Santos", "5.416666666666667", ""),IF(Avaliacao!A1="Ines Faria", "4.833333333333333", ""),IF(Avaliacao!A1="Ines Geraldes", "5.416666666666667", ""),IF(Avaliacao!A1="Leticia Santos", "5.0", ""),IF(Avaliacao!A1="Marcia Costa", "4.75", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.75", ""),IF(Avaliacao!A1="Mariana Coelho", "4.833333333333333", ""),IF(Avaliacao!A1="Raquel Baptista", "4.75", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="G8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
         <v/>
       </c>
-      <c r="H8" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.333333333333333", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.333333333333333", ""),IF(Avaliacao!A1="Claudia Santos", "5.416666666666667", ""),IF(Avaliacao!A1="Ines Faria", "4.583333333333333", ""),IF(Avaliacao!A1="Ines Geraldes", "5.333333333333333", ""),IF(Avaliacao!A1="Leticia Santos", "5.166666666666667", ""),IF(Avaliacao!A1="Marcia Costa", "4.666666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.666666666666667", ""),IF(Avaliacao!A1="Mariana Coelho", "4.75", ""),IF(Avaliacao!A1="Raquel Baptista", "4.5", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="H8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
         <v/>
       </c>
-      <c r="I8" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.416666666666667", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.5", ""),IF(Avaliacao!A1="Claudia Santos", "5.5", ""),IF(Avaliacao!A1="Ines Faria", "5.25", ""),IF(Avaliacao!A1="Ines Geraldes", "5.5", ""),IF(Avaliacao!A1="Leticia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Marcia Costa", "5.333333333333333", ""),IF(Avaliacao!A1="Margarida Ribeiro", "5.25", ""),IF(Avaliacao!A1="Mariana Coelho", "5.333333333333333", ""),IF(Avaliacao!A1="Raquel Baptista", "5.25", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="I8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
         <v/>
       </c>
-      <c r="J8" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.25", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.416666666666667", ""),IF(Avaliacao!A1="Claudia Santos", "5.416666666666667", ""),IF(Avaliacao!A1="Ines Faria", "5.25", ""),IF(Avaliacao!A1="Ines Geraldes", "5.416666666666667", ""),IF(Avaliacao!A1="Leticia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Marcia Costa", "5.333333333333333", ""),IF(Avaliacao!A1="Margarida Ribeiro", "5.25", ""),IF(Avaliacao!A1="Mariana Coelho", "5.333333333333333", ""),IF(Avaliacao!A1="Raquel Baptista", "4.833333333333333", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="J8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
         <v/>
       </c>
-      <c r="K8" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.416666666666667", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.5", ""),IF(Avaliacao!A1="Claudia Santos", "5.5", ""),IF(Avaliacao!A1="Ines Faria", "5.416666666666667", ""),IF(Avaliacao!A1="Ines Geraldes", "5.5", ""),IF(Avaliacao!A1="Leticia Santos", "5.416666666666667", ""),IF(Avaliacao!A1="Marcia Costa", "5.416666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "5.416666666666667", ""),IF(Avaliacao!A1="Mariana Coelho", "5.416666666666667", ""),IF(Avaliacao!A1="Raquel Baptista", "5.25", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
+      <c r="K8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
         <v/>
       </c>
+      <c r="L8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.428571428571429", ""),)</f>
+        <v/>
+      </c>
+      <c r="M8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.857142857142857", ""),)</f>
+        <v/>
+      </c>
+      <c r="N8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.857142857142857", ""),)</f>
+        <v/>
+      </c>
+      <c r="O8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
+        <v/>
+      </c>
+      <c r="P8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
+        <v/>
+      </c>
+      <c r="R8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
+        <v/>
+      </c>
+      <c r="S8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
+        <v/>
+      </c>
+      <c r="T8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.857142857142857", ""),)</f>
+        <v/>
+      </c>
+      <c r="U8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
+        <v/>
+      </c>
+      <c r="V8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.857142857142857", ""),)</f>
+        <v/>
+      </c>
+      <c r="W8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="29">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "0.0", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "0.0", ""),IF(Avaliacao!A1="Ines Cabral", "0.0", ""),IF(Avaliacao!A1="Mariana Arezes", "0.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "0.0", ""),IF(Avaliacao!A1="Paula Ferreira", "0.0", ""),IF(Avaliacao!A1="Paulo Vieira", "0.0", ""),IF(Avaliacao!A1="Rafaela Carvalho", "0.0", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.075757575757575", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.257575757575757", ""),IF(Avaliacao!A1="Claudia Santos", "5.34090909090909", ""),IF(Avaliacao!A1="Ines Faria", "5.075757575757576", ""),IF(Avaliacao!A1="Ines Geraldes", "5.333333333333333", ""),IF(Avaliacao!A1="Leticia Santos", "5.21969696969697", ""),IF(Avaliacao!A1="Marcia Costa", "5.03030303030303", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.962121212121212", ""),IF(Avaliacao!A1="Mariana Coelho", "5.053030303030304", ""),IF(Avaliacao!A1="Raquel Baptista", "4.71969696969697", ""),IF(Avaliacao!A1="Pedro Machado", "0.0", ""),)</f>
+      <c r="A9" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "0.0", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "0.0", ""),IF(Avaliacao!A1="Ines Cabral", "0.0", ""),IF(Avaliacao!A1="Mariana Arezes", "0.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "0.0", ""),IF(Avaliacao!A1="Paula Ferreira", "0.0", ""),IF(Avaliacao!A1="Paulo Vieira", "0.0", ""),IF(Avaliacao!A1="Rafaela Carvalho", "0.0", ""),IF(Avaliacao!A1="Pedro Machado", "4.987577639751553", ""),)</f>
         <v/>
       </c>
       <c r="B9" s="8" t="n"/>
@@ -15035,86 +8681,122 @@
       <c r="H9" s="8" t="n"/>
       <c r="I9" s="8" t="n"/>
       <c r="J9" s="8" t="n"/>
-      <c r="K9" s="9" t="n"/>
+      <c r="K9" s="8" t="n"/>
+      <c r="L9" s="8" t="n"/>
+      <c r="M9" s="8" t="n"/>
+      <c r="N9" s="8" t="n"/>
+      <c r="O9" s="8" t="n"/>
+      <c r="P9" s="8" t="n"/>
+      <c r="Q9" s="8" t="n"/>
+      <c r="R9" s="8" t="n"/>
+      <c r="S9" s="8" t="n"/>
+      <c r="T9" s="8" t="n"/>
+      <c r="U9" s="8" t="n"/>
+      <c r="V9" s="8" t="n"/>
+      <c r="W9" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="A8"/>
-    <mergeCell ref="C8"/>
+  <mergeCells count="88">
     <mergeCell ref="I8"/>
-    <mergeCell ref="M3"/>
-    <mergeCell ref="D3"/>
+    <mergeCell ref="A9:W9"/>
     <mergeCell ref="P3"/>
+    <mergeCell ref="C7"/>
     <mergeCell ref="H3"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="D8"/>
-    <mergeCell ref="O2"/>
     <mergeCell ref="J3"/>
     <mergeCell ref="E7"/>
-    <mergeCell ref="Q2"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="S3"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="P8"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="L8"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="N8"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="R3"/>
+    <mergeCell ref="T8"/>
+    <mergeCell ref="D3"/>
     <mergeCell ref="K7"/>
     <mergeCell ref="R2"/>
     <mergeCell ref="A4:S4"/>
     <mergeCell ref="J2"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="O3"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="Q3"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="I2"/>
+    <mergeCell ref="O7"/>
+    <mergeCell ref="Q7"/>
     <mergeCell ref="E8"/>
-    <mergeCell ref="F7"/>
     <mergeCell ref="G8"/>
-    <mergeCell ref="S3"/>
     <mergeCell ref="N3"/>
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="Q8"/>
     <mergeCell ref="F3"/>
-    <mergeCell ref="L3"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="B2"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="S8"/>
     <mergeCell ref="S2"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="G7"/>
-    <mergeCell ref="P2"/>
-    <mergeCell ref="I7"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="A3"/>
     <mergeCell ref="G3"/>
-    <mergeCell ref="H2"/>
     <mergeCell ref="I3"/>
     <mergeCell ref="D7"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="H7"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="J7"/>
-    <mergeCell ref="K8"/>
+    <mergeCell ref="P7"/>
     <mergeCell ref="E2"/>
+    <mergeCell ref="M3"/>
+    <mergeCell ref="T7"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="V7"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="O3"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="Q3"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="L3"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="P2"/>
+    <mergeCell ref="S7"/>
+    <mergeCell ref="M7"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="R3"/>
-    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A8"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="U8"/>
+    <mergeCell ref="M8"/>
+    <mergeCell ref="W8"/>
+    <mergeCell ref="O8"/>
+    <mergeCell ref="O2"/>
+    <mergeCell ref="Q2"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="R8"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="L7"/>
+    <mergeCell ref="N7"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="V8"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="R7"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="N2"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="U7"/>
+    <mergeCell ref="W7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15181,76 +8863,6 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Beatriz Sousa</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Claudia Santos</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ines Faria</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ines Geraldes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Leticia Santos</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Marcia Costa</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Margarida Ribeiro</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mariana Coelho</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Raquel Baptista</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
           <t>Pedro Machado</t>
         </is>
       </c>
@@ -15258,7 +8870,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$19</formula1>
+      <formula1>=$B$1:$B$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -8868,9 +8868,57 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="17">
     <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=$B$1:$B$9</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -8868,9 +8868,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="17">
+  <dataValidations count="18">
     <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=$B$1:$B$9</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
     </dataValidation>
     <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=$B$1:$B$0</formula1>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -8,10 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Avaliacao-Vice-Presidente-Externo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Avaliacao-Membro-RH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="resultado" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Avaliacao" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Avaliacao RH" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36,7 +33,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -63,18 +60,8 @@
         <fgColor rgb="00DDDDDD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00cccccc"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -124,152 +111,11 @@
         <color rgb="00CCCCCC"/>
       </bottom>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00CCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="00CCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="00CCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00CCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00CCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00CCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00CCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00CCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00CCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00CCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00CCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -286,22 +132,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -685,904 +515,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Avaliação de desempenho</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="8" t="n"/>
-      <c r="E1" s="8" t="n"/>
-      <c r="F1" s="8" t="n"/>
-      <c r="G1" s="8" t="n"/>
-      <c r="H1" s="8" t="n"/>
-      <c r="I1" s="8" t="n"/>
-      <c r="J1" s="8" t="n"/>
-      <c r="K1" s="8" t="n"/>
-      <c r="L1" s="8" t="n"/>
-      <c r="M1" s="8" t="n"/>
-      <c r="N1" s="8" t="n"/>
-      <c r="O1" s="8" t="n"/>
-      <c r="P1" s="8" t="n"/>
-      <c r="Q1" s="8" t="n"/>
-      <c r="R1" s="8" t="n"/>
-      <c r="S1" s="8" t="n"/>
-      <c r="T1" s="8" t="n"/>
-      <c r="U1" s="8" t="n"/>
-      <c r="V1" s="8" t="n"/>
-      <c r="W1" s="8" t="n"/>
-      <c r="X1" s="8" t="n"/>
-      <c r="Y1" s="8" t="n"/>
-      <c r="Z1" s="8" t="n"/>
-      <c r="AA1" s="8" t="n"/>
-      <c r="AB1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Avaliador</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Avaliado</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>O VPE assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos da júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
-        </is>
-      </c>
-      <c r="H2" s="6" t="inlineStr">
-        <is>
-          <t>O VPE aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
-        </is>
-      </c>
-      <c r="J2" s="6" t="inlineStr">
-        <is>
-          <t>O VPE procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE tem em conta as necessidades, requisitos e opiniões do cliente no desenvolvimento de um projeto.</t>
-        </is>
-      </c>
-      <c r="L2" s="6" t="inlineStr">
-        <is>
-          <t>O VPE sabe delegar tarefas de forma produtiva, justa e homogénea. Consegue manter uma dinâmica de departamento saudável e tem como objetivo o trabalho em equipa.</t>
-        </is>
-      </c>
-      <c r="M2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE tenta obter o resultado mais vantajoso possível para os projetos e para a EPIC Júnior sem comprometer padrões éticos, senso comum e a confiança do cliente.</t>
-        </is>
-      </c>
-      <c r="N2" s="6" t="inlineStr">
-        <is>
-          <t>O VPE sabe aproveitar ao máximo e integrar os recursos disponíveis dentro da EPIC Júnior, de forma global. Consegue reavaliar, aprimorar e padronizar os processos de trabalho.</t>
-        </is>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE tem a capacidade de estabelecer uma rede de contactos ou uma conexão a empresas que possam ser futuros clientes.</t>
-        </is>
-      </c>
-      <c r="P2" s="6" t="inlineStr">
-        <is>
-          <t>O VPE tem a capacidade de convencer pessoas, ou mudar a sua perspetiva, usando o seu poder de argumentação, raciocínio e lógica.</t>
-        </is>
-      </c>
-      <c r="Q2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE consegue estruturar o seu pensamento de forma coerente, levando a boas conclusões. Sabe desenvolver estratégias ou ideias bem planeadas/estruturadas</t>
-        </is>
-      </c>
-      <c r="R2" s="6" t="inlineStr">
-        <is>
-          <t>O VPE consegue organizar o que faz de forma eficiente e clara, exibindo uma boa gestão de tarefas e tempo.</t>
-        </is>
-      </c>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE participa regularmente em formações internas e noutras atividades recreativas promovidas pelo departamento de Recursos Humanos.</t>
-        </is>
-      </c>
-      <c r="T2" s="6" t="inlineStr">
-        <is>
-          <t>O VPE participa regularmente em reuniões gerais e reuniões de departamento.</t>
-        </is>
-      </c>
-      <c r="U2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="V2" s="6" t="inlineStr">
-        <is>
-          <t>O VPE respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="W2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE cumpre os objetivos das tarefas pelos quais é responsável.</t>
-        </is>
-      </c>
-      <c r="X2" s="6" t="inlineStr">
-        <is>
-          <t>O VPE respeita o prazo de entrega das suas tarefas.</t>
-        </is>
-      </c>
-      <c r="Y2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE, caso necessário, desenvolve conhecimento técnico especifico para completar a sua tarefa.</t>
-        </is>
-      </c>
-      <c r="Z2" s="6" t="inlineStr">
-        <is>
-          <t>Em tarefas de grupo, o VPE é capaz de comunicar com os seus membros de forma clara e concisa, conseguindo defender a sua opinião mas respeitando a opinião dos outros, mantendo uma boa relação interpessoal.</t>
-        </is>
-      </c>
-      <c r="AA2" s="5" t="inlineStr">
-        <is>
-          <t>O VPE é capaz de executar a sua tarefa de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
-        </is>
-      </c>
-      <c r="AB2" s="6" t="inlineStr">
-        <is>
-          <t>Observações</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Liliana Freitas</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="n"/>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Pedro Machado</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="S3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="T3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="W3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X3" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="6" t="inlineStr">
-        <is>
-          <t>Nada a apontar</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Francisco Sousa</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Pedro Machado</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="n"/>
-      <c r="E4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="T4" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="U4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V4" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="W4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="6" t="inlineStr">
-        <is>
-          <t>Nada a apontar</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Joana Alves</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n"/>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>Pedro Machado</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="n"/>
-      <c r="E5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="T5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="U5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="W5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="6" t="inlineStr">
-        <is>
-          <t>Nada a apontar</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Pedro Machado</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Pedro Machado</t>
-        </is>
-      </c>
-      <c r="D6" s="10" t="n"/>
-      <c r="E6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="T6" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="U6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V6" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="W6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="6" t="inlineStr">
-        <is>
-          <t>(espero continuar a demonstrar resultados, a melhorar sempre em prol da EPIC Júnior)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Catarina Oliveira</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n"/>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Pedro Machado</t>
-        </is>
-      </c>
-      <c r="D7" s="10" t="n"/>
-      <c r="E7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="T7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="U7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="W7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="6" t="inlineStr">
-        <is>
-          <t>Nada a apontar</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Filipe Araújo</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Pedro Machado</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="n"/>
-      <c r="E8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="P8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="U8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="W8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="6" t="inlineStr">
-        <is>
-          <t>De facto, estou muito satisfeito com o trabalho do Pedro e a minha avaliação transparece esse mesmo reconhecimento. Na questão "O VPE participa regularmente em reuniões gerais e reuniões de departamento.” assumi que fossem reuniões de direção.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="183">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I8"/>
-    <mergeCell ref="P3"/>
-    <mergeCell ref="H3"/>
-    <mergeCell ref="J3"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="T6"/>
-    <mergeCell ref="W2"/>
-    <mergeCell ref="P5"/>
-    <mergeCell ref="H5"/>
-    <mergeCell ref="R5"/>
-    <mergeCell ref="Y8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="AA8"/>
-    <mergeCell ref="N4"/>
-    <mergeCell ref="Z6"/>
-    <mergeCell ref="P4"/>
-    <mergeCell ref="AB6"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="I2"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="R4"/>
-    <mergeCell ref="T4"/>
-    <mergeCell ref="S3"/>
-    <mergeCell ref="V4"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="X7"/>
-    <mergeCell ref="J6"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="Z7"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="P8"/>
-    <mergeCell ref="O5"/>
-    <mergeCell ref="Y5"/>
-    <mergeCell ref="Y2"/>
-    <mergeCell ref="Q5"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="L8"/>
-    <mergeCell ref="N8"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="M6"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="H7"/>
-    <mergeCell ref="J7"/>
-    <mergeCell ref="K8"/>
-    <mergeCell ref="Y6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="R3"/>
-    <mergeCell ref="T8"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="AA3"/>
-    <mergeCell ref="I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K7"/>
-    <mergeCell ref="R2"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4"/>
-    <mergeCell ref="M4"/>
-    <mergeCell ref="AB3"/>
-    <mergeCell ref="T3"/>
-    <mergeCell ref="W4"/>
-    <mergeCell ref="O7"/>
-    <mergeCell ref="V3"/>
-    <mergeCell ref="Y4"/>
-    <mergeCell ref="Q7"/>
-    <mergeCell ref="O6"/>
-    <mergeCell ref="J5"/>
-    <mergeCell ref="AB5"/>
-    <mergeCell ref="T5"/>
-    <mergeCell ref="V5"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="AB4"/>
-    <mergeCell ref="N3"/>
-    <mergeCell ref="Q8"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="S8"/>
-    <mergeCell ref="P6"/>
-    <mergeCell ref="S2"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="L5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N5"/>
-    <mergeCell ref="W3"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="J4"/>
-    <mergeCell ref="V6"/>
-    <mergeCell ref="I3"/>
-    <mergeCell ref="L4"/>
-    <mergeCell ref="X6"/>
-    <mergeCell ref="P7"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="G5"/>
-    <mergeCell ref="I5"/>
-    <mergeCell ref="M3"/>
-    <mergeCell ref="AB8"/>
-    <mergeCell ref="T7"/>
-    <mergeCell ref="V7"/>
-    <mergeCell ref="AA2"/>
-    <mergeCell ref="S5"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="S4"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="U4"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="O3"/>
-    <mergeCell ref="Q3"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="I6"/>
-    <mergeCell ref="V2"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="X2"/>
-    <mergeCell ref="W6"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="L3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AA6"/>
-    <mergeCell ref="G7"/>
-    <mergeCell ref="I7"/>
-    <mergeCell ref="P2"/>
-    <mergeCell ref="S7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="X3"/>
-    <mergeCell ref="Z3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="M7"/>
-    <mergeCell ref="Y7"/>
-    <mergeCell ref="AA7"/>
-    <mergeCell ref="X5"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="Z5"/>
-    <mergeCell ref="U8"/>
-    <mergeCell ref="X4"/>
-    <mergeCell ref="M8"/>
-    <mergeCell ref="Z4"/>
-    <mergeCell ref="W8"/>
-    <mergeCell ref="O8"/>
-    <mergeCell ref="L6"/>
-    <mergeCell ref="O2"/>
-    <mergeCell ref="AB7"/>
-    <mergeCell ref="N6"/>
-    <mergeCell ref="Q2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K6"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="R8"/>
-    <mergeCell ref="Y3"/>
-    <mergeCell ref="L7"/>
-    <mergeCell ref="N7"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="M5"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="W5"/>
-    <mergeCell ref="V8"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F7"/>
-    <mergeCell ref="X8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="R7"/>
-    <mergeCell ref="AA5"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="O4"/>
-    <mergeCell ref="Q4"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="AA4"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="U7"/>
-    <mergeCell ref="Z8"/>
-    <mergeCell ref="Z2"/>
-    <mergeCell ref="W7"/>
-    <mergeCell ref="AB2"/>
-    <mergeCell ref="Q6"/>
-    <mergeCell ref="T2"/>
-    <mergeCell ref="S6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1597,29 +529,29 @@
           <t>Avaliação de desempenho</t>
         </is>
       </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="8" t="n"/>
-      <c r="E1" s="8" t="n"/>
-      <c r="F1" s="8" t="n"/>
-      <c r="G1" s="8" t="n"/>
-      <c r="H1" s="8" t="n"/>
-      <c r="I1" s="8" t="n"/>
-      <c r="J1" s="8" t="n"/>
-      <c r="K1" s="8" t="n"/>
-      <c r="L1" s="8" t="n"/>
-      <c r="M1" s="8" t="n"/>
-      <c r="N1" s="8" t="n"/>
-      <c r="O1" s="8" t="n"/>
-      <c r="P1" s="8" t="n"/>
-      <c r="Q1" s="8" t="n"/>
-      <c r="R1" s="8" t="n"/>
-      <c r="S1" s="8" t="n"/>
-      <c r="T1" s="8" t="n"/>
-      <c r="U1" s="8" t="n"/>
-      <c r="V1" s="8" t="n"/>
-      <c r="W1" s="8" t="n"/>
-      <c r="X1" s="9" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -1627,11 +559,13 @@
           <t>Avaliador</t>
         </is>
       </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Avaliado</t>
         </is>
       </c>
+      <c r="D2" s="4" t="n"/>
       <c r="E2" s="5" t="inlineStr">
         <is>
           <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
@@ -1739,13 +673,13 @@
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n"/>
+      <c r="B3" s="7" t="n"/>
       <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D3" s="10" t="n"/>
+      <c r="D3" s="7" t="n"/>
       <c r="E3" s="5" t="n">
         <v>6</v>
       </c>
@@ -1810,14 +744,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="13" t="n"/>
+      <c r="A4" s="7" t="n"/>
       <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D4" s="10" t="n"/>
+      <c r="D4" s="7" t="n"/>
       <c r="E4" s="5" t="n">
         <v>5</v>
       </c>
@@ -1875,17 +808,16 @@
       <c r="W4" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X4" s="14" t="n"/>
+      <c r="X4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="13" t="n"/>
+      <c r="A5" s="7" t="n"/>
       <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D5" s="10" t="n"/>
+      <c r="D5" s="7" t="n"/>
       <c r="E5" s="5" t="n">
         <v>5</v>
       </c>
@@ -1943,17 +875,16 @@
       <c r="W5" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X5" s="14" t="n"/>
+      <c r="X5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="n"/>
-      <c r="B6" s="13" t="n"/>
+      <c r="A6" s="7" t="n"/>
       <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D6" s="10" t="n"/>
+      <c r="D6" s="7" t="n"/>
       <c r="E6" s="5" t="n">
         <v>6</v>
       </c>
@@ -2011,17 +942,16 @@
       <c r="W6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X6" s="14" t="n"/>
+      <c r="X6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="n"/>
-      <c r="B7" s="13" t="n"/>
+      <c r="A7" s="7" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D7" s="10" t="n"/>
+      <c r="D7" s="7" t="n"/>
       <c r="E7" s="5" t="n">
         <v>6</v>
       </c>
@@ -2079,17 +1009,16 @@
       <c r="W7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X7" s="14" t="n"/>
+      <c r="X7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="n"/>
-      <c r="B8" s="13" t="n"/>
+      <c r="A8" s="7" t="n"/>
       <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D8" s="10" t="n"/>
+      <c r="D8" s="7" t="n"/>
       <c r="E8" s="5" t="n">
         <v>6</v>
       </c>
@@ -2147,17 +1076,16 @@
       <c r="W8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X8" s="14" t="n"/>
+      <c r="X8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="n"/>
-      <c r="B9" s="13" t="n"/>
+      <c r="A9" s="7" t="n"/>
       <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D9" s="10" t="n"/>
+      <c r="D9" s="7" t="n"/>
       <c r="E9" s="5" t="n">
         <v>5</v>
       </c>
@@ -2215,17 +1143,16 @@
       <c r="W9" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X9" s="14" t="n"/>
+      <c r="X9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="n"/>
-      <c r="B10" s="16" t="n"/>
+      <c r="A10" s="7" t="n"/>
       <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D10" s="10" t="n"/>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="5" t="n">
         <v>5</v>
       </c>
@@ -2283,7 +1210,7 @@
       <c r="W10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X10" s="17" t="n"/>
+      <c r="X10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
@@ -2291,13 +1218,13 @@
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="B11" s="11" t="n"/>
+      <c r="B11" s="7" t="n"/>
       <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D11" s="10" t="n"/>
+      <c r="D11" s="7" t="n"/>
       <c r="E11" s="5" t="n">
         <v>6</v>
       </c>
@@ -2362,14 +1289,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="n"/>
-      <c r="B12" s="13" t="n"/>
+      <c r="A12" s="7" t="n"/>
       <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D12" s="10" t="n"/>
+      <c r="D12" s="7" t="n"/>
       <c r="E12" s="5" t="n">
         <v>4</v>
       </c>
@@ -2427,17 +1353,16 @@
       <c r="W12" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X12" s="14" t="n"/>
+      <c r="X12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="n"/>
-      <c r="B13" s="13" t="n"/>
+      <c r="A13" s="7" t="n"/>
       <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D13" s="10" t="n"/>
+      <c r="D13" s="7" t="n"/>
       <c r="E13" s="5" t="n">
         <v>4</v>
       </c>
@@ -2495,17 +1420,16 @@
       <c r="W13" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X13" s="14" t="n"/>
+      <c r="X13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="n"/>
-      <c r="B14" s="13" t="n"/>
+      <c r="A14" s="7" t="n"/>
       <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D14" s="10" t="n"/>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="5" t="n">
         <v>5</v>
       </c>
@@ -2563,17 +1487,16 @@
       <c r="W14" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X14" s="14" t="n"/>
+      <c r="X14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="n"/>
-      <c r="B15" s="13" t="n"/>
+      <c r="A15" s="7" t="n"/>
       <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D15" s="10" t="n"/>
+      <c r="D15" s="7" t="n"/>
       <c r="E15" s="5" t="n">
         <v>6</v>
       </c>
@@ -2631,17 +1554,16 @@
       <c r="W15" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X15" s="14" t="n"/>
+      <c r="X15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="n"/>
-      <c r="B16" s="13" t="n"/>
+      <c r="A16" s="7" t="n"/>
       <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D16" s="10" t="n"/>
+      <c r="D16" s="7" t="n"/>
       <c r="E16" s="5" t="n">
         <v>6</v>
       </c>
@@ -2699,17 +1621,16 @@
       <c r="W16" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X16" s="14" t="n"/>
+      <c r="X16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="n"/>
-      <c r="B17" s="13" t="n"/>
+      <c r="A17" s="7" t="n"/>
       <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D17" s="10" t="n"/>
+      <c r="D17" s="7" t="n"/>
       <c r="E17" s="5" t="n">
         <v>5</v>
       </c>
@@ -2767,17 +1688,16 @@
       <c r="W17" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X17" s="14" t="n"/>
+      <c r="X17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="n"/>
-      <c r="B18" s="16" t="n"/>
+      <c r="A18" s="7" t="n"/>
       <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D18" s="10" t="n"/>
+      <c r="D18" s="7" t="n"/>
       <c r="E18" s="5" t="n">
         <v>6</v>
       </c>
@@ -2835,7 +1755,7 @@
       <c r="W18" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X18" s="17" t="n"/>
+      <c r="X18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
@@ -2843,13 +1763,13 @@
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="B19" s="11" t="n"/>
+      <c r="B19" s="7" t="n"/>
       <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D19" s="10" t="n"/>
+      <c r="D19" s="7" t="n"/>
       <c r="E19" s="5" t="n">
         <v>6</v>
       </c>
@@ -2914,14 +1834,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="n"/>
-      <c r="B20" s="13" t="n"/>
+      <c r="A20" s="7" t="n"/>
       <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D20" s="10" t="n"/>
+      <c r="D20" s="7" t="n"/>
       <c r="E20" s="5" t="n">
         <v>3</v>
       </c>
@@ -2979,17 +1898,16 @@
       <c r="W20" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="X20" s="14" t="n"/>
+      <c r="X20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="n"/>
-      <c r="B21" s="13" t="n"/>
+      <c r="A21" s="7" t="n"/>
       <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D21" s="10" t="n"/>
+      <c r="D21" s="7" t="n"/>
       <c r="E21" s="5" t="n">
         <v>5</v>
       </c>
@@ -3047,17 +1965,16 @@
       <c r="W21" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X21" s="14" t="n"/>
+      <c r="X21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="n"/>
-      <c r="B22" s="13" t="n"/>
+      <c r="A22" s="7" t="n"/>
       <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D22" s="10" t="n"/>
+      <c r="D22" s="7" t="n"/>
       <c r="E22" s="5" t="n">
         <v>6</v>
       </c>
@@ -3115,17 +2032,16 @@
       <c r="W22" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X22" s="14" t="n"/>
+      <c r="X22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="n"/>
-      <c r="B23" s="13" t="n"/>
+      <c r="A23" s="7" t="n"/>
       <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D23" s="10" t="n"/>
+      <c r="D23" s="7" t="n"/>
       <c r="E23" s="5" t="n">
         <v>6</v>
       </c>
@@ -3183,17 +2099,16 @@
       <c r="W23" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X23" s="14" t="n"/>
+      <c r="X23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="n"/>
-      <c r="B24" s="13" t="n"/>
+      <c r="A24" s="7" t="n"/>
       <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D24" s="10" t="n"/>
+      <c r="D24" s="7" t="n"/>
       <c r="E24" s="5" t="n">
         <v>6</v>
       </c>
@@ -3251,17 +2166,16 @@
       <c r="W24" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X24" s="14" t="n"/>
+      <c r="X24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="n"/>
-      <c r="B25" s="13" t="n"/>
+      <c r="A25" s="7" t="n"/>
       <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D25" s="10" t="n"/>
+      <c r="D25" s="7" t="n"/>
       <c r="E25" s="5" t="n">
         <v>6</v>
       </c>
@@ -3319,17 +2233,16 @@
       <c r="W25" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X25" s="14" t="n"/>
+      <c r="X25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="n"/>
-      <c r="B26" s="16" t="n"/>
+      <c r="A26" s="7" t="n"/>
       <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D26" s="10" t="n"/>
+      <c r="D26" s="7" t="n"/>
       <c r="E26" s="5" t="n">
         <v>5</v>
       </c>
@@ -3387,7 +2300,7 @@
       <c r="W26" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X26" s="17" t="n"/>
+      <c r="X26" s="7" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
@@ -3395,13 +2308,13 @@
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="B27" s="11" t="n"/>
+      <c r="B27" s="7" t="n"/>
       <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D27" s="10" t="n"/>
+      <c r="D27" s="7" t="n"/>
       <c r="E27" s="5" t="n">
         <v>6</v>
       </c>
@@ -3466,14 +2379,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="7" t="n"/>
       <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D28" s="10" t="n"/>
+      <c r="D28" s="7" t="n"/>
       <c r="E28" s="5" t="n">
         <v>6</v>
       </c>
@@ -3531,17 +2443,16 @@
       <c r="W28" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X28" s="14" t="n"/>
+      <c r="X28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="n"/>
-      <c r="B29" s="13" t="n"/>
+      <c r="A29" s="7" t="n"/>
       <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D29" s="10" t="n"/>
+      <c r="D29" s="7" t="n"/>
       <c r="E29" s="5" t="n">
         <v>6</v>
       </c>
@@ -3599,17 +2510,16 @@
       <c r="W29" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X29" s="14" t="n"/>
+      <c r="X29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="12" t="n"/>
-      <c r="B30" s="13" t="n"/>
+      <c r="A30" s="7" t="n"/>
       <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D30" s="10" t="n"/>
+      <c r="D30" s="7" t="n"/>
       <c r="E30" s="5" t="n">
         <v>6</v>
       </c>
@@ -3667,17 +2577,16 @@
       <c r="W30" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X30" s="14" t="n"/>
+      <c r="X30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="n"/>
-      <c r="B31" s="13" t="n"/>
+      <c r="A31" s="7" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D31" s="10" t="n"/>
+      <c r="D31" s="7" t="n"/>
       <c r="E31" s="5" t="n">
         <v>6</v>
       </c>
@@ -3735,17 +2644,16 @@
       <c r="W31" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X31" s="14" t="n"/>
+      <c r="X31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="n"/>
-      <c r="B32" s="13" t="n"/>
+      <c r="A32" s="7" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D32" s="10" t="n"/>
+      <c r="D32" s="7" t="n"/>
       <c r="E32" s="5" t="n">
         <v>6</v>
       </c>
@@ -3803,17 +2711,16 @@
       <c r="W32" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X32" s="14" t="n"/>
+      <c r="X32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="n"/>
-      <c r="B33" s="13" t="n"/>
+      <c r="A33" s="7" t="n"/>
       <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D33" s="10" t="n"/>
+      <c r="D33" s="7" t="n"/>
       <c r="E33" s="5" t="n">
         <v>6</v>
       </c>
@@ -3871,17 +2778,16 @@
       <c r="W33" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X33" s="14" t="n"/>
+      <c r="X33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="15" t="n"/>
-      <c r="B34" s="16" t="n"/>
+      <c r="A34" s="7" t="n"/>
       <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D34" s="10" t="n"/>
+      <c r="D34" s="7" t="n"/>
       <c r="E34" s="5" t="n">
         <v>6</v>
       </c>
@@ -3939,7 +2845,7 @@
       <c r="W34" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X34" s="17" t="n"/>
+      <c r="X34" s="7" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
@@ -3947,13 +2853,13 @@
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="B35" s="11" t="n"/>
+      <c r="B35" s="7" t="n"/>
       <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D35" s="10" t="n"/>
+      <c r="D35" s="7" t="n"/>
       <c r="E35" s="5" t="n">
         <v>6</v>
       </c>
@@ -4018,14 +2924,13 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="n"/>
-      <c r="B36" s="13" t="n"/>
+      <c r="A36" s="7" t="n"/>
       <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D36" s="10" t="n"/>
+      <c r="D36" s="7" t="n"/>
       <c r="E36" s="5" t="n">
         <v>5</v>
       </c>
@@ -4083,17 +2988,16 @@
       <c r="W36" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X36" s="14" t="n"/>
+      <c r="X36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="n"/>
-      <c r="B37" s="13" t="n"/>
+      <c r="A37" s="7" t="n"/>
       <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D37" s="10" t="n"/>
+      <c r="D37" s="7" t="n"/>
       <c r="E37" s="5" t="n">
         <v>6</v>
       </c>
@@ -4151,17 +3055,16 @@
       <c r="W37" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X37" s="14" t="n"/>
+      <c r="X37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="n"/>
-      <c r="B38" s="13" t="n"/>
+      <c r="A38" s="7" t="n"/>
       <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D38" s="10" t="n"/>
+      <c r="D38" s="7" t="n"/>
       <c r="E38" s="5" t="n">
         <v>5</v>
       </c>
@@ -4219,17 +3122,16 @@
       <c r="W38" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X38" s="14" t="n"/>
+      <c r="X38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="n"/>
-      <c r="B39" s="13" t="n"/>
+      <c r="A39" s="7" t="n"/>
       <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D39" s="10" t="n"/>
+      <c r="D39" s="7" t="n"/>
       <c r="E39" s="5" t="n">
         <v>6</v>
       </c>
@@ -4287,17 +3189,16 @@
       <c r="W39" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X39" s="14" t="n"/>
+      <c r="X39" s="7" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="12" t="n"/>
-      <c r="B40" s="13" t="n"/>
+      <c r="A40" s="7" t="n"/>
       <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D40" s="10" t="n"/>
+      <c r="D40" s="7" t="n"/>
       <c r="E40" s="5" t="n">
         <v>6</v>
       </c>
@@ -4355,17 +3256,16 @@
       <c r="W40" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X40" s="14" t="n"/>
+      <c r="X40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="12" t="n"/>
-      <c r="B41" s="13" t="n"/>
+      <c r="A41" s="7" t="n"/>
       <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D41" s="10" t="n"/>
+      <c r="D41" s="7" t="n"/>
       <c r="E41" s="5" t="n">
         <v>5</v>
       </c>
@@ -4423,17 +3323,16 @@
       <c r="W41" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X41" s="14" t="n"/>
+      <c r="X41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="n"/>
-      <c r="B42" s="16" t="n"/>
+      <c r="A42" s="7" t="n"/>
       <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D42" s="10" t="n"/>
+      <c r="D42" s="7" t="n"/>
       <c r="E42" s="5" t="n">
         <v>5</v>
       </c>
@@ -4491,7 +3390,7 @@
       <c r="W42" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X42" s="17" t="n"/>
+      <c r="X42" s="7" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="inlineStr">
@@ -4499,13 +3398,13 @@
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="B43" s="11" t="n"/>
+      <c r="B43" s="7" t="n"/>
       <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D43" s="10" t="n"/>
+      <c r="D43" s="7" t="n"/>
       <c r="E43" s="5" t="n">
         <v>6</v>
       </c>
@@ -4570,14 +3469,13 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="12" t="n"/>
-      <c r="B44" s="13" t="n"/>
+      <c r="A44" s="7" t="n"/>
       <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D44" s="10" t="n"/>
+      <c r="D44" s="7" t="n"/>
       <c r="E44" s="5" t="n">
         <v>5</v>
       </c>
@@ -4635,17 +3533,16 @@
       <c r="W44" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X44" s="14" t="n"/>
+      <c r="X44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="12" t="n"/>
-      <c r="B45" s="13" t="n"/>
+      <c r="A45" s="7" t="n"/>
       <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D45" s="10" t="n"/>
+      <c r="D45" s="7" t="n"/>
       <c r="E45" s="5" t="n">
         <v>5</v>
       </c>
@@ -4703,17 +3600,16 @@
       <c r="W45" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X45" s="14" t="n"/>
+      <c r="X45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="12" t="n"/>
-      <c r="B46" s="13" t="n"/>
+      <c r="A46" s="7" t="n"/>
       <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D46" s="10" t="n"/>
+      <c r="D46" s="7" t="n"/>
       <c r="E46" s="5" t="n">
         <v>5</v>
       </c>
@@ -4771,17 +3667,16 @@
       <c r="W46" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X46" s="14" t="n"/>
+      <c r="X46" s="7" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="12" t="n"/>
-      <c r="B47" s="13" t="n"/>
+      <c r="A47" s="7" t="n"/>
       <c r="C47" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D47" s="10" t="n"/>
+      <c r="D47" s="7" t="n"/>
       <c r="E47" s="5" t="n">
         <v>6</v>
       </c>
@@ -4839,17 +3734,16 @@
       <c r="W47" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X47" s="14" t="n"/>
+      <c r="X47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="12" t="n"/>
-      <c r="B48" s="13" t="n"/>
+      <c r="A48" s="7" t="n"/>
       <c r="C48" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D48" s="10" t="n"/>
+      <c r="D48" s="7" t="n"/>
       <c r="E48" s="5" t="n">
         <v>6</v>
       </c>
@@ -4907,17 +3801,16 @@
       <c r="W48" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X48" s="14" t="n"/>
+      <c r="X48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="n"/>
-      <c r="B49" s="13" t="n"/>
+      <c r="A49" s="7" t="n"/>
       <c r="C49" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D49" s="10" t="n"/>
+      <c r="D49" s="7" t="n"/>
       <c r="E49" s="5" t="n">
         <v>5</v>
       </c>
@@ -4975,17 +3868,16 @@
       <c r="W49" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X49" s="14" t="n"/>
+      <c r="X49" s="7" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="15" t="n"/>
-      <c r="B50" s="16" t="n"/>
+      <c r="A50" s="7" t="n"/>
       <c r="C50" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D50" s="10" t="n"/>
+      <c r="D50" s="7" t="n"/>
       <c r="E50" s="5" t="n">
         <v>6</v>
       </c>
@@ -5043,7 +3935,7 @@
       <c r="W50" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X50" s="17" t="n"/>
+      <c r="X50" s="7" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
@@ -5051,13 +3943,13 @@
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="B51" s="11" t="n"/>
+      <c r="B51" s="7" t="n"/>
       <c r="C51" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D51" s="10" t="n"/>
+      <c r="D51" s="7" t="n"/>
       <c r="E51" s="5" t="n">
         <v>6</v>
       </c>
@@ -5122,14 +4014,13 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="12" t="n"/>
-      <c r="B52" s="13" t="n"/>
+      <c r="A52" s="7" t="n"/>
       <c r="C52" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D52" s="10" t="n"/>
+      <c r="D52" s="7" t="n"/>
       <c r="E52" s="5" t="n">
         <v>4</v>
       </c>
@@ -5187,17 +4078,16 @@
       <c r="W52" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X52" s="14" t="n"/>
+      <c r="X52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="12" t="n"/>
-      <c r="B53" s="13" t="n"/>
+      <c r="A53" s="7" t="n"/>
       <c r="C53" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D53" s="10" t="n"/>
+      <c r="D53" s="7" t="n"/>
       <c r="E53" s="5" t="n">
         <v>6</v>
       </c>
@@ -5255,17 +4145,16 @@
       <c r="W53" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X53" s="14" t="n"/>
+      <c r="X53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="12" t="n"/>
-      <c r="B54" s="13" t="n"/>
+      <c r="A54" s="7" t="n"/>
       <c r="C54" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D54" s="10" t="n"/>
+      <c r="D54" s="7" t="n"/>
       <c r="E54" s="5" t="n">
         <v>6</v>
       </c>
@@ -5323,17 +4212,16 @@
       <c r="W54" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X54" s="14" t="n"/>
+      <c r="X54" s="7" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="12" t="n"/>
-      <c r="B55" s="13" t="n"/>
+      <c r="A55" s="7" t="n"/>
       <c r="C55" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D55" s="10" t="n"/>
+      <c r="D55" s="7" t="n"/>
       <c r="E55" s="5" t="n">
         <v>6</v>
       </c>
@@ -5391,17 +4279,16 @@
       <c r="W55" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X55" s="14" t="n"/>
+      <c r="X55" s="7" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="12" t="n"/>
-      <c r="B56" s="13" t="n"/>
+      <c r="A56" s="7" t="n"/>
       <c r="C56" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D56" s="10" t="n"/>
+      <c r="D56" s="7" t="n"/>
       <c r="E56" s="5" t="n">
         <v>6</v>
       </c>
@@ -5459,17 +4346,16 @@
       <c r="W56" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X56" s="14" t="n"/>
+      <c r="X56" s="7" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="12" t="n"/>
-      <c r="B57" s="13" t="n"/>
+      <c r="A57" s="7" t="n"/>
       <c r="C57" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D57" s="10" t="n"/>
+      <c r="D57" s="7" t="n"/>
       <c r="E57" s="5" t="n">
         <v>6</v>
       </c>
@@ -5527,17 +4413,16 @@
       <c r="W57" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X57" s="14" t="n"/>
+      <c r="X57" s="7" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="15" t="n"/>
-      <c r="B58" s="16" t="n"/>
+      <c r="A58" s="7" t="n"/>
       <c r="C58" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D58" s="10" t="n"/>
+      <c r="D58" s="7" t="n"/>
       <c r="E58" s="5" t="n">
         <v>6</v>
       </c>
@@ -5595,7 +4480,7 @@
       <c r="W58" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X58" s="17" t="n"/>
+      <c r="X58" s="7" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="inlineStr">
@@ -5603,13 +4488,13 @@
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="B59" s="11" t="n"/>
+      <c r="B59" s="7" t="n"/>
       <c r="C59" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D59" s="10" t="n"/>
+      <c r="D59" s="7" t="n"/>
       <c r="E59" s="5" t="n">
         <v>6</v>
       </c>
@@ -5674,14 +4559,13 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="12" t="n"/>
-      <c r="B60" s="13" t="n"/>
+      <c r="A60" s="7" t="n"/>
       <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D60" s="10" t="n"/>
+      <c r="D60" s="7" t="n"/>
       <c r="E60" s="5" t="n">
         <v>4</v>
       </c>
@@ -5739,17 +4623,16 @@
       <c r="W60" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="X60" s="14" t="n"/>
+      <c r="X60" s="7" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="12" t="n"/>
-      <c r="B61" s="13" t="n"/>
+      <c r="A61" s="7" t="n"/>
       <c r="C61" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D61" s="10" t="n"/>
+      <c r="D61" s="7" t="n"/>
       <c r="E61" s="5" t="n">
         <v>4</v>
       </c>
@@ -5807,17 +4690,16 @@
       <c r="W61" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X61" s="14" t="n"/>
+      <c r="X61" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="12" t="n"/>
-      <c r="B62" s="13" t="n"/>
+      <c r="A62" s="7" t="n"/>
       <c r="C62" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D62" s="10" t="n"/>
+      <c r="D62" s="7" t="n"/>
       <c r="E62" s="5" t="n">
         <v>6</v>
       </c>
@@ -5875,17 +4757,16 @@
       <c r="W62" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X62" s="14" t="n"/>
+      <c r="X62" s="7" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="12" t="n"/>
-      <c r="B63" s="13" t="n"/>
+      <c r="A63" s="7" t="n"/>
       <c r="C63" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D63" s="10" t="n"/>
+      <c r="D63" s="7" t="n"/>
       <c r="E63" s="5" t="n">
         <v>6</v>
       </c>
@@ -5943,17 +4824,16 @@
       <c r="W63" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X63" s="14" t="n"/>
+      <c r="X63" s="7" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="12" t="n"/>
-      <c r="B64" s="13" t="n"/>
+      <c r="A64" s="7" t="n"/>
       <c r="C64" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D64" s="10" t="n"/>
+      <c r="D64" s="7" t="n"/>
       <c r="E64" s="5" t="n">
         <v>6</v>
       </c>
@@ -6011,17 +4891,16 @@
       <c r="W64" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X64" s="14" t="n"/>
+      <c r="X64" s="7" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="12" t="n"/>
-      <c r="B65" s="13" t="n"/>
+      <c r="A65" s="7" t="n"/>
       <c r="C65" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D65" s="10" t="n"/>
+      <c r="D65" s="7" t="n"/>
       <c r="E65" s="5" t="n">
         <v>5</v>
       </c>
@@ -6079,17 +4958,16 @@
       <c r="W65" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X65" s="14" t="n"/>
+      <c r="X65" s="7" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="15" t="n"/>
-      <c r="B66" s="16" t="n"/>
+      <c r="A66" s="7" t="n"/>
       <c r="C66" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D66" s="10" t="n"/>
+      <c r="D66" s="7" t="n"/>
       <c r="E66" s="5" t="n">
         <v>4</v>
       </c>
@@ -6147,7 +5025,7 @@
       <c r="W66" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X66" s="17" t="n"/>
+      <c r="X66" s="7" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
@@ -6155,13 +5033,13 @@
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="B67" s="11" t="n"/>
+      <c r="B67" s="7" t="n"/>
       <c r="C67" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D67" s="10" t="n"/>
+      <c r="D67" s="7" t="n"/>
       <c r="E67" s="5" t="n">
         <v>6</v>
       </c>
@@ -6226,14 +5104,13 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="12" t="n"/>
-      <c r="B68" s="13" t="n"/>
+      <c r="A68" s="7" t="n"/>
       <c r="C68" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D68" s="10" t="n"/>
+      <c r="D68" s="7" t="n"/>
       <c r="E68" s="5" t="n">
         <v>4</v>
       </c>
@@ -6291,17 +5168,16 @@
       <c r="W68" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X68" s="14" t="n"/>
+      <c r="X68" s="7" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="12" t="n"/>
-      <c r="B69" s="13" t="n"/>
+      <c r="A69" s="7" t="n"/>
       <c r="C69" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D69" s="10" t="n"/>
+      <c r="D69" s="7" t="n"/>
       <c r="E69" s="5" t="n">
         <v>4</v>
       </c>
@@ -6359,17 +5235,16 @@
       <c r="W69" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X69" s="14" t="n"/>
+      <c r="X69" s="7" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="12" t="n"/>
-      <c r="B70" s="13" t="n"/>
+      <c r="A70" s="7" t="n"/>
       <c r="C70" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D70" s="10" t="n"/>
+      <c r="D70" s="7" t="n"/>
       <c r="E70" s="5" t="n">
         <v>6</v>
       </c>
@@ -6427,17 +5302,16 @@
       <c r="W70" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X70" s="14" t="n"/>
+      <c r="X70" s="7" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="12" t="n"/>
-      <c r="B71" s="13" t="n"/>
+      <c r="A71" s="7" t="n"/>
       <c r="C71" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D71" s="10" t="n"/>
+      <c r="D71" s="7" t="n"/>
       <c r="E71" s="5" t="n">
         <v>6</v>
       </c>
@@ -6495,17 +5369,16 @@
       <c r="W71" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X71" s="14" t="n"/>
+      <c r="X71" s="7" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="12" t="n"/>
-      <c r="B72" s="13" t="n"/>
+      <c r="A72" s="7" t="n"/>
       <c r="C72" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D72" s="10" t="n"/>
+      <c r="D72" s="7" t="n"/>
       <c r="E72" s="5" t="n">
         <v>6</v>
       </c>
@@ -6563,17 +5436,16 @@
       <c r="W72" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X72" s="14" t="n"/>
+      <c r="X72" s="7" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="12" t="n"/>
-      <c r="B73" s="13" t="n"/>
+      <c r="A73" s="7" t="n"/>
       <c r="C73" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D73" s="10" t="n"/>
+      <c r="D73" s="7" t="n"/>
       <c r="E73" s="5" t="n">
         <v>5</v>
       </c>
@@ -6631,17 +5503,16 @@
       <c r="W73" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X73" s="14" t="n"/>
+      <c r="X73" s="7" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="15" t="n"/>
-      <c r="B74" s="16" t="n"/>
+      <c r="A74" s="7" t="n"/>
       <c r="C74" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D74" s="10" t="n"/>
+      <c r="D74" s="7" t="n"/>
       <c r="E74" s="5" t="n">
         <v>4</v>
       </c>
@@ -6699,7 +5570,7 @@
       <c r="W74" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X74" s="17" t="n"/>
+      <c r="X74" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1481">
@@ -7828,8 +6699,8 @@
     <mergeCell ref="E60"/>
     <mergeCell ref="M22"/>
     <mergeCell ref="O50"/>
+    <mergeCell ref="M15"/>
     <mergeCell ref="P16"/>
-    <mergeCell ref="M15"/>
     <mergeCell ref="W12"/>
     <mergeCell ref="L41"/>
     <mergeCell ref="F27"/>
@@ -8187,743 +7058,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>Avaliação Mensal</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="8" t="n"/>
-      <c r="E1" s="8" t="n"/>
-      <c r="F1" s="8" t="n"/>
-      <c r="G1" s="8" t="n"/>
-      <c r="H1" s="8" t="n"/>
-      <c r="I1" s="8" t="n"/>
-      <c r="J1" s="8" t="n"/>
-      <c r="K1" s="8" t="n"/>
-      <c r="L1" s="8" t="n"/>
-      <c r="M1" s="8" t="n"/>
-      <c r="N1" s="8" t="n"/>
-      <c r="O1" s="8" t="n"/>
-      <c r="P1" s="8" t="n"/>
-      <c r="Q1" s="8" t="n"/>
-      <c r="R1" s="8" t="n"/>
-      <c r="S1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="19" t="inlineStr">
-        <is>
-          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
-        </is>
-      </c>
-      <c r="B2" s="19" t="inlineStr">
-        <is>
-          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
-        </is>
-      </c>
-      <c r="C2" s="19" t="inlineStr">
-        <is>
-          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
-        </is>
-      </c>
-      <c r="D2" s="19" t="inlineStr">
-        <is>
-          <t>4. O membro aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
-        </is>
-      </c>
-      <c r="E2" s="19" t="inlineStr">
-        <is>
-          <t>5. O membro tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
-        </is>
-      </c>
-      <c r="F2" s="19" t="inlineStr">
-        <is>
-          <t>6. O membro procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
-        </is>
-      </c>
-      <c r="G2" s="19" t="inlineStr">
-        <is>
-          <t>1. O membro é capaz planear e organizar de forma eficiente atividades recreativas e/ou formações internas, de forma a que tenham sucesso.</t>
-        </is>
-      </c>
-      <c r="H2" s="19" t="inlineStr">
-        <is>
-          <t>2. O membro consegue elaborar relatórios de avaliações, de questionários de satisfação, etc., de uma forma clara e eficaz.</t>
-        </is>
-      </c>
-      <c r="I2" s="19" t="inlineStr">
-        <is>
-          <t>3. O membro acompanha as suas tarefas individuais recorrentes (p.ex: aniversários, avaliação motivacional, newsletters, etc.) de forma a confirmar que está tudo sob controlo.</t>
-        </is>
-      </c>
-      <c r="J2" s="19" t="inlineStr">
-        <is>
-          <t>4. O membro exibe criatividade durante a elaboração de atividades recreativas, planeamento de Recrutamento e Retiro, iniciativas internas, etc.</t>
-        </is>
-      </c>
-      <c r="K2" s="19" t="inlineStr">
-        <is>
-          <t>5. O membro lida com conflitos internos de uma forma preponderada, tendo em mente o melhor interesse dos membros e a estabilidade da EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="L2" s="19" t="inlineStr">
-        <is>
-          <t>6. O membro motiva os outros membros a participarem nas atividades internas da EPIC Júnior, bem como nas externas, da JE ou de outras Júnior Empresas.</t>
-        </is>
-      </c>
-      <c r="M2" s="19" t="inlineStr">
-        <is>
-          <t>1. O membro sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="N2" s="19" t="inlineStr">
-        <is>
-          <t>2. O membro respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="O2" s="19" t="inlineStr">
-        <is>
-          <t>1. O membro cumpre os objetivos das tarefas pelos quais é responsável.</t>
-        </is>
-      </c>
-      <c r="P2" s="19" t="inlineStr">
-        <is>
-          <t>2. O membro respeita o prazo de entrega das suas tarefas.</t>
-        </is>
-      </c>
-      <c r="Q2" s="19" t="inlineStr">
-        <is>
-          <t>3. O membro, caso necessário, desenvolve conhecimento técnico especifico para completar a sua tarefa.</t>
-        </is>
-      </c>
-      <c r="R2" s="19" t="inlineStr">
-        <is>
-          <t>4. Em tarefas de grupo, o membro é capaz de comunicar com os seus colegas de forma clara e concisa, conseguindo defender a sua opinião mas respeitando a opinião dos outros, mantendo uma boa relação interpessoal.</t>
-        </is>
-      </c>
-      <c r="S2" s="19" t="inlineStr">
-        <is>
-          <t>5. O membro é capaz de executar a sua tarefa de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.0", ""),IF(Avaliacao!A1="Ines Cabral", "4.5", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="B3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.3", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.6", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.6", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="C3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.8", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="D3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.3", ""),IF(Avaliacao!A1="Paulo Vieira", "4.9", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="E3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.5", ""),IF(Avaliacao!A1="Ines Cabral", "4.4", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.1", ""),IF(Avaliacao!A1="Paulo Vieira", "4.3", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.3", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="F3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.2", ""),IF(Avaliacao!A1="Ines Cabral", "4.5", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.1", ""),IF(Avaliacao!A1="Paula Ferreira", "4.9", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="G3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.5", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.0", ""),IF(Avaliacao!A1="Paulo Vieira", "4.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="H3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.2", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="I3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.8", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="J3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "4.9", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.1", ""),IF(Avaliacao!A1="Paula Ferreira", "5.1", ""),IF(Avaliacao!A1="Paulo Vieira", "5.1", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.0", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="K3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.4", ""),IF(Avaliacao!A1="Ines Cabral", "5.3", ""),IF(Avaliacao!A1="Mariana Arezes", "5.4", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.4", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="L3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "4.8", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.0", ""),IF(Avaliacao!A1="Ines Cabral", "4.2", ""),IF(Avaliacao!A1="Mariana Arezes", "4.7", ""),IF(Avaliacao!A1="Mariana Oliveira", "4.7", ""),IF(Avaliacao!A1="Paula Ferreira", "4.5", ""),IF(Avaliacao!A1="Paulo Vieira", "4.2", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.3", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="M3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.9", ""),IF(Avaliacao!A1="Ines Cabral", "5.0", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.1", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.1", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="N3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.2", ""),IF(Avaliacao!A1="Ines Cabral", "5.3", ""),IF(Avaliacao!A1="Mariana Arezes", "5.4", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.3", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="O3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.3", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.9", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="P3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.9", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.3", ""),IF(Avaliacao!A1="Paulo Vieira", "4.7", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="Q3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.2", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "4.9", ""),IF(Avaliacao!A1="Paulo Vieira", "5.0", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="R3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.0", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "5.2", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.1", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-      <c r="S3" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.2", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "5.2", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.0", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),IF(Avaliacao!A1="Pedro Machado", "-", ""),)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.278947368421052", ""),IF(Avaliacao!A1="Ines Cabral", "4.710526315789474", ""),IF(Avaliacao!A1="Mariana Arezes", "5.094736842105264", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.236842105263158", ""),IF(Avaliacao!A1="Paula Ferreira", "5.194736842105264", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.815789473684211", ""),IF(Avaliacao!A1="Pedro Machado", "0.0", ""),)</f>
-        <v/>
-      </c>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
-      <c r="D4" s="8" t="n"/>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="8" t="n"/>
-      <c r="H4" s="8" t="n"/>
-      <c r="I4" s="8" t="n"/>
-      <c r="J4" s="8" t="n"/>
-      <c r="K4" s="8" t="n"/>
-      <c r="L4" s="8" t="n"/>
-      <c r="M4" s="8" t="n"/>
-      <c r="N4" s="8" t="n"/>
-      <c r="O4" s="8" t="n"/>
-      <c r="P4" s="8" t="n"/>
-      <c r="Q4" s="8" t="n"/>
-      <c r="R4" s="8" t="n"/>
-      <c r="S4" s="9" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="18" t="inlineStr">
-        <is>
-          <t>Avaliação Mensal</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="8" t="n"/>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="8" t="n"/>
-      <c r="G6" s="8" t="n"/>
-      <c r="H6" s="8" t="n"/>
-      <c r="I6" s="8" t="n"/>
-      <c r="J6" s="8" t="n"/>
-      <c r="K6" s="8" t="n"/>
-      <c r="L6" s="8" t="n"/>
-      <c r="M6" s="8" t="n"/>
-      <c r="N6" s="8" t="n"/>
-      <c r="O6" s="8" t="n"/>
-      <c r="P6" s="8" t="n"/>
-      <c r="Q6" s="8" t="n"/>
-      <c r="R6" s="8" t="n"/>
-      <c r="S6" s="8" t="n"/>
-      <c r="T6" s="8" t="n"/>
-      <c r="U6" s="8" t="n"/>
-      <c r="V6" s="8" t="n"/>
-      <c r="W6" s="9" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
-        </is>
-      </c>
-      <c r="B7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
-        </is>
-      </c>
-      <c r="C7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos da júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
-        </is>
-      </c>
-      <c r="D7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
-        </is>
-      </c>
-      <c r="E7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
-        </is>
-      </c>
-      <c r="F7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
-        </is>
-      </c>
-      <c r="G7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE tem em conta as necessidades, requisitos e opiniões do cliente no desenvolvimento de um projeto.</t>
-        </is>
-      </c>
-      <c r="H7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE sabe delegar tarefas de forma produtiva, justa e homogénea. Consegue manter uma dinâmica de departamento saudável e tem como objetivo o trabalho em equipa.</t>
-        </is>
-      </c>
-      <c r="I7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE tenta obter o resultado mais vantajoso possível para os projetos e para a EPIC Júnior sem comprometer padrões éticos, senso comum e a confiança do cliente.</t>
-        </is>
-      </c>
-      <c r="J7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE sabe aproveitar ao máximo e integrar os recursos disponíveis dentro da EPIC Júnior, de forma global. Consegue reavaliar, aprimorar e padronizar os processos de trabalho.</t>
-        </is>
-      </c>
-      <c r="K7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE tem a capacidade de estabelecer uma rede de contactos ou uma conexão a empresas que possam ser futuros clientes.</t>
-        </is>
-      </c>
-      <c r="L7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE tem a capacidade de convencer pessoas, ou mudar a sua perspetiva, usando o seu poder de argumentação, raciocínio e lógica.</t>
-        </is>
-      </c>
-      <c r="M7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE consegue estruturar o seu pensamento de forma coerente, levando a boas conclusões. Sabe desenvolver estratégias ou ideias bem planeadas/estruturadas</t>
-        </is>
-      </c>
-      <c r="N7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE consegue organizar o que faz de forma eficiente e clara, exibindo uma boa gestão de tarefas e tempo.</t>
-        </is>
-      </c>
-      <c r="O7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE participa regularmente em formações internas e noutras atividades recreativas promovidas pelo departamento de Recursos Humanos.</t>
-        </is>
-      </c>
-      <c r="P7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE participa regularmente em reuniões gerais e reuniões de departamento.</t>
-        </is>
-      </c>
-      <c r="Q7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="R7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
-        </is>
-      </c>
-      <c r="S7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE cumpre os objetivos das tarefas pelos quais é responsável.</t>
-        </is>
-      </c>
-      <c r="T7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE respeita o prazo de entrega das suas tarefas.</t>
-        </is>
-      </c>
-      <c r="U7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE, caso necessário, desenvolve conhecimento técnico especifico para completar a sua tarefa.</t>
-        </is>
-      </c>
-      <c r="V7" s="19" t="inlineStr">
-        <is>
-          <t>Em tarefas de grupo, o VPE é capaz de comunicar com os seus membros de forma clara e concisa, conseguindo defender a sua opinião mas respeitando a opinião dos outros, mantendo uma boa relação interpessoal.</t>
-        </is>
-      </c>
-      <c r="W7" s="19" t="inlineStr">
-        <is>
-          <t>O VPE é capaz de executar a sua tarefa de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
-        <v/>
-      </c>
-      <c r="B8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.857142857142857", ""),)</f>
-        <v/>
-      </c>
-      <c r="C8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
-        <v/>
-      </c>
-      <c r="D8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
-        <v/>
-      </c>
-      <c r="E8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.714285714285714", ""),)</f>
-        <v/>
-      </c>
-      <c r="F8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
-        <v/>
-      </c>
-      <c r="G8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
-        <v/>
-      </c>
-      <c r="H8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
-        <v/>
-      </c>
-      <c r="I8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
-        <v/>
-      </c>
-      <c r="J8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
-        <v/>
-      </c>
-      <c r="K8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
-        <v/>
-      </c>
-      <c r="L8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.428571428571429", ""),)</f>
-        <v/>
-      </c>
-      <c r="M8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.857142857142857", ""),)</f>
-        <v/>
-      </c>
-      <c r="N8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.857142857142857", ""),)</f>
-        <v/>
-      </c>
-      <c r="O8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
-        <v/>
-      </c>
-      <c r="P8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
-        <v/>
-      </c>
-      <c r="Q8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
-        <v/>
-      </c>
-      <c r="R8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
-        <v/>
-      </c>
-      <c r="S8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
-        <v/>
-      </c>
-      <c r="T8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.857142857142857", ""),)</f>
-        <v/>
-      </c>
-      <c r="U8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),)</f>
-        <v/>
-      </c>
-      <c r="V8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "4.857142857142857", ""),)</f>
-        <v/>
-      </c>
-      <c r="W8" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "-", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "-", ""),IF(Avaliacao!A1="Ines Cabral", "-", ""),IF(Avaliacao!A1="Mariana Arezes", "-", ""),IF(Avaliacao!A1="Mariana Oliveira", "-", ""),IF(Avaliacao!A1="Paula Ferreira", "-", ""),IF(Avaliacao!A1="Paulo Vieira", "-", ""),IF(Avaliacao!A1="Rafaela Carvalho", "-", ""),IF(Avaliacao!A1="Pedro Machado", "5.0", ""),)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="19">
-        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "0.0", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "0.0", ""),IF(Avaliacao!A1="Ines Cabral", "0.0", ""),IF(Avaliacao!A1="Mariana Arezes", "0.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "0.0", ""),IF(Avaliacao!A1="Paula Ferreira", "0.0", ""),IF(Avaliacao!A1="Paulo Vieira", "0.0", ""),IF(Avaliacao!A1="Rafaela Carvalho", "0.0", ""),IF(Avaliacao!A1="Pedro Machado", "4.987577639751553", ""),)</f>
-        <v/>
-      </c>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="8" t="n"/>
-      <c r="F9" s="8" t="n"/>
-      <c r="G9" s="8" t="n"/>
-      <c r="H9" s="8" t="n"/>
-      <c r="I9" s="8" t="n"/>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
-      <c r="Q9" s="8" t="n"/>
-      <c r="R9" s="8" t="n"/>
-      <c r="S9" s="8" t="n"/>
-      <c r="T9" s="8" t="n"/>
-      <c r="U9" s="8" t="n"/>
-      <c r="V9" s="8" t="n"/>
-      <c r="W9" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="I8"/>
-    <mergeCell ref="A9:W9"/>
-    <mergeCell ref="P3"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="H3"/>
-    <mergeCell ref="J3"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="I2"/>
-    <mergeCell ref="S3"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="P8"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="L8"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="N8"/>
-    <mergeCell ref="H7"/>
-    <mergeCell ref="J7"/>
-    <mergeCell ref="K8"/>
-    <mergeCell ref="R3"/>
-    <mergeCell ref="T8"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="K7"/>
-    <mergeCell ref="R2"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="O7"/>
-    <mergeCell ref="Q7"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="N3"/>
-    <mergeCell ref="Q8"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="S8"/>
-    <mergeCell ref="S2"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="I3"/>
-    <mergeCell ref="D7"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="P7"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="M3"/>
-    <mergeCell ref="T7"/>
-    <mergeCell ref="D8"/>
-    <mergeCell ref="V7"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="O3"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="Q3"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="L3"/>
-    <mergeCell ref="G7"/>
-    <mergeCell ref="I7"/>
-    <mergeCell ref="P2"/>
-    <mergeCell ref="S7"/>
-    <mergeCell ref="M7"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="U8"/>
-    <mergeCell ref="M8"/>
-    <mergeCell ref="W8"/>
-    <mergeCell ref="O8"/>
-    <mergeCell ref="O2"/>
-    <mergeCell ref="Q2"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="R8"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="L7"/>
-    <mergeCell ref="N7"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="V8"/>
-    <mergeCell ref="F7"/>
-    <mergeCell ref="R7"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="U7"/>
-    <mergeCell ref="W7"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Goncalo Figueiredo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ines Cabral</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mariana Arezes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mariana Oliveira</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Paula Ferreira</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Paulo Vieira</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rafaela Carvalho</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pedro Machado</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="18">
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$9</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=$B$1:$B$0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Avaliacao RH" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="rh" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="resultado" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Avaliacao" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vpe" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mkt" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,7 +37,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -60,8 +64,18 @@
         <fgColor rgb="00DDDDDD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cccccc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -111,11 +125,216 @@
         <color rgb="00CCCCCC"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +351,38 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -529,29 +780,29 @@
           <t>Avaliação de desempenho</t>
         </is>
       </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="8" t="n"/>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="8" t="n"/>
+      <c r="O1" s="8" t="n"/>
+      <c r="P1" s="8" t="n"/>
+      <c r="Q1" s="8" t="n"/>
+      <c r="R1" s="8" t="n"/>
+      <c r="S1" s="8" t="n"/>
+      <c r="T1" s="8" t="n"/>
+      <c r="U1" s="8" t="n"/>
+      <c r="V1" s="8" t="n"/>
+      <c r="W1" s="8" t="n"/>
+      <c r="X1" s="9" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -559,13 +810,11 @@
           <t>Avaliador</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Avaliado</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n"/>
       <c r="E2" s="5" t="inlineStr">
         <is>
           <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
@@ -673,13 +922,13 @@
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="B3" s="7" t="n"/>
+      <c r="B3" s="10" t="n"/>
       <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D3" s="7" t="n"/>
+      <c r="D3" s="11" t="n"/>
       <c r="E3" s="5" t="n">
         <v>6</v>
       </c>
@@ -744,13 +993,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n"/>
+      <c r="A4" s="12" t="n"/>
+      <c r="B4" s="13" t="n"/>
       <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D4" s="7" t="n"/>
+      <c r="D4" s="11" t="n"/>
       <c r="E4" s="5" t="n">
         <v>5</v>
       </c>
@@ -808,16 +1058,17 @@
       <c r="W4" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X4" s="7" t="n"/>
+      <c r="X4" s="14" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n"/>
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="13" t="n"/>
       <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D5" s="7" t="n"/>
+      <c r="D5" s="11" t="n"/>
       <c r="E5" s="5" t="n">
         <v>5</v>
       </c>
@@ -875,16 +1126,17 @@
       <c r="W5" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X5" s="7" t="n"/>
+      <c r="X5" s="14" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n"/>
+      <c r="A6" s="12" t="n"/>
+      <c r="B6" s="13" t="n"/>
       <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D6" s="7" t="n"/>
+      <c r="D6" s="11" t="n"/>
       <c r="E6" s="5" t="n">
         <v>6</v>
       </c>
@@ -942,16 +1194,17 @@
       <c r="W6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X6" s="7" t="n"/>
+      <c r="X6" s="14" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="13" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D7" s="7" t="n"/>
+      <c r="D7" s="11" t="n"/>
       <c r="E7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1009,16 +1262,17 @@
       <c r="W7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X7" s="7" t="n"/>
+      <c r="X7" s="14" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n"/>
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="13" t="n"/>
       <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="11" t="n"/>
       <c r="E8" s="5" t="n">
         <v>6</v>
       </c>
@@ -1076,16 +1330,17 @@
       <c r="W8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X8" s="7" t="n"/>
+      <c r="X8" s="14" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n"/>
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="13" t="n"/>
       <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D9" s="7" t="n"/>
+      <c r="D9" s="11" t="n"/>
       <c r="E9" s="5" t="n">
         <v>5</v>
       </c>
@@ -1143,16 +1398,17 @@
       <c r="W9" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X9" s="7" t="n"/>
+      <c r="X9" s="14" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
+      <c r="A10" s="15" t="n"/>
+      <c r="B10" s="16" t="n"/>
       <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D10" s="7" t="n"/>
+      <c r="D10" s="11" t="n"/>
       <c r="E10" s="5" t="n">
         <v>5</v>
       </c>
@@ -1210,7 +1466,7 @@
       <c r="W10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X10" s="7" t="n"/>
+      <c r="X10" s="17" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
@@ -1218,13 +1474,13 @@
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
+      <c r="B11" s="10" t="n"/>
       <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="11" t="n"/>
       <c r="E11" s="5" t="n">
         <v>6</v>
       </c>
@@ -1289,13 +1545,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="12" t="n"/>
+      <c r="B12" s="13" t="n"/>
       <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="11" t="n"/>
       <c r="E12" s="5" t="n">
         <v>4</v>
       </c>
@@ -1353,16 +1610,17 @@
       <c r="W12" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X12" s="7" t="n"/>
+      <c r="X12" s="14" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n"/>
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="13" t="n"/>
       <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D13" s="7" t="n"/>
+      <c r="D13" s="11" t="n"/>
       <c r="E13" s="5" t="n">
         <v>4</v>
       </c>
@@ -1420,16 +1678,17 @@
       <c r="W13" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X13" s="7" t="n"/>
+      <c r="X13" s="14" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
+      <c r="A14" s="12" t="n"/>
+      <c r="B14" s="13" t="n"/>
       <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D14" s="7" t="n"/>
+      <c r="D14" s="11" t="n"/>
       <c r="E14" s="5" t="n">
         <v>5</v>
       </c>
@@ -1487,16 +1746,17 @@
       <c r="W14" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X14" s="7" t="n"/>
+      <c r="X14" s="14" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n"/>
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="13" t="n"/>
       <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D15" s="7" t="n"/>
+      <c r="D15" s="11" t="n"/>
       <c r="E15" s="5" t="n">
         <v>6</v>
       </c>
@@ -1554,16 +1814,17 @@
       <c r="W15" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X15" s="7" t="n"/>
+      <c r="X15" s="14" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n"/>
+      <c r="A16" s="12" t="n"/>
+      <c r="B16" s="13" t="n"/>
       <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D16" s="7" t="n"/>
+      <c r="D16" s="11" t="n"/>
       <c r="E16" s="5" t="n">
         <v>6</v>
       </c>
@@ -1621,16 +1882,17 @@
       <c r="W16" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X16" s="7" t="n"/>
+      <c r="X16" s="14" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n"/>
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="13" t="n"/>
       <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D17" s="7" t="n"/>
+      <c r="D17" s="11" t="n"/>
       <c r="E17" s="5" t="n">
         <v>5</v>
       </c>
@@ -1688,16 +1950,17 @@
       <c r="W17" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X17" s="7" t="n"/>
+      <c r="X17" s="14" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n"/>
+      <c r="A18" s="15" t="n"/>
+      <c r="B18" s="16" t="n"/>
       <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D18" s="7" t="n"/>
+      <c r="D18" s="11" t="n"/>
       <c r="E18" s="5" t="n">
         <v>6</v>
       </c>
@@ -1755,7 +2018,7 @@
       <c r="W18" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X18" s="7" t="n"/>
+      <c r="X18" s="17" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
@@ -1763,13 +2026,13 @@
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="B19" s="7" t="n"/>
+      <c r="B19" s="10" t="n"/>
       <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D19" s="7" t="n"/>
+      <c r="D19" s="11" t="n"/>
       <c r="E19" s="5" t="n">
         <v>6</v>
       </c>
@@ -1834,13 +2097,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n"/>
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="13" t="n"/>
       <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D20" s="7" t="n"/>
+      <c r="D20" s="11" t="n"/>
       <c r="E20" s="5" t="n">
         <v>3</v>
       </c>
@@ -1898,16 +2162,17 @@
       <c r="W20" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="X20" s="7" t="n"/>
+      <c r="X20" s="14" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n"/>
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="13" t="n"/>
       <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D21" s="7" t="n"/>
+      <c r="D21" s="11" t="n"/>
       <c r="E21" s="5" t="n">
         <v>5</v>
       </c>
@@ -1965,16 +2230,17 @@
       <c r="W21" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X21" s="7" t="n"/>
+      <c r="X21" s="14" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n"/>
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="13" t="n"/>
       <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D22" s="7" t="n"/>
+      <c r="D22" s="11" t="n"/>
       <c r="E22" s="5" t="n">
         <v>6</v>
       </c>
@@ -2032,16 +2298,17 @@
       <c r="W22" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X22" s="7" t="n"/>
+      <c r="X22" s="14" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n"/>
+      <c r="A23" s="12" t="n"/>
+      <c r="B23" s="13" t="n"/>
       <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D23" s="7" t="n"/>
+      <c r="D23" s="11" t="n"/>
       <c r="E23" s="5" t="n">
         <v>6</v>
       </c>
@@ -2099,16 +2366,17 @@
       <c r="W23" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X23" s="7" t="n"/>
+      <c r="X23" s="14" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n"/>
+      <c r="A24" s="12" t="n"/>
+      <c r="B24" s="13" t="n"/>
       <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D24" s="7" t="n"/>
+      <c r="D24" s="11" t="n"/>
       <c r="E24" s="5" t="n">
         <v>6</v>
       </c>
@@ -2166,16 +2434,17 @@
       <c r="W24" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X24" s="7" t="n"/>
+      <c r="X24" s="14" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n"/>
+      <c r="A25" s="12" t="n"/>
+      <c r="B25" s="13" t="n"/>
       <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D25" s="7" t="n"/>
+      <c r="D25" s="11" t="n"/>
       <c r="E25" s="5" t="n">
         <v>6</v>
       </c>
@@ -2233,16 +2502,17 @@
       <c r="W25" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X25" s="7" t="n"/>
+      <c r="X25" s="14" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n"/>
+      <c r="A26" s="15" t="n"/>
+      <c r="B26" s="16" t="n"/>
       <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D26" s="7" t="n"/>
+      <c r="D26" s="11" t="n"/>
       <c r="E26" s="5" t="n">
         <v>5</v>
       </c>
@@ -2300,7 +2570,7 @@
       <c r="W26" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X26" s="7" t="n"/>
+      <c r="X26" s="17" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
@@ -2308,13 +2578,13 @@
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="B27" s="7" t="n"/>
+      <c r="B27" s="10" t="n"/>
       <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D27" s="7" t="n"/>
+      <c r="D27" s="11" t="n"/>
       <c r="E27" s="5" t="n">
         <v>6</v>
       </c>
@@ -2379,13 +2649,14 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n"/>
+      <c r="A28" s="12" t="n"/>
+      <c r="B28" s="13" t="n"/>
       <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D28" s="7" t="n"/>
+      <c r="D28" s="11" t="n"/>
       <c r="E28" s="5" t="n">
         <v>6</v>
       </c>
@@ -2443,16 +2714,17 @@
       <c r="W28" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X28" s="7" t="n"/>
+      <c r="X28" s="14" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n"/>
+      <c r="A29" s="12" t="n"/>
+      <c r="B29" s="13" t="n"/>
       <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D29" s="7" t="n"/>
+      <c r="D29" s="11" t="n"/>
       <c r="E29" s="5" t="n">
         <v>6</v>
       </c>
@@ -2510,16 +2782,17 @@
       <c r="W29" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X29" s="7" t="n"/>
+      <c r="X29" s="14" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="n"/>
+      <c r="A30" s="12" t="n"/>
+      <c r="B30" s="13" t="n"/>
       <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D30" s="7" t="n"/>
+      <c r="D30" s="11" t="n"/>
       <c r="E30" s="5" t="n">
         <v>6</v>
       </c>
@@ -2577,16 +2850,17 @@
       <c r="W30" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X30" s="7" t="n"/>
+      <c r="X30" s="14" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="n"/>
+      <c r="A31" s="12" t="n"/>
+      <c r="B31" s="13" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D31" s="7" t="n"/>
+      <c r="D31" s="11" t="n"/>
       <c r="E31" s="5" t="n">
         <v>6</v>
       </c>
@@ -2644,16 +2918,17 @@
       <c r="W31" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X31" s="7" t="n"/>
+      <c r="X31" s="14" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="n"/>
+      <c r="A32" s="12" t="n"/>
+      <c r="B32" s="13" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D32" s="7" t="n"/>
+      <c r="D32" s="11" t="n"/>
       <c r="E32" s="5" t="n">
         <v>6</v>
       </c>
@@ -2711,16 +2986,17 @@
       <c r="W32" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X32" s="7" t="n"/>
+      <c r="X32" s="14" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="n"/>
+      <c r="A33" s="12" t="n"/>
+      <c r="B33" s="13" t="n"/>
       <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D33" s="7" t="n"/>
+      <c r="D33" s="11" t="n"/>
       <c r="E33" s="5" t="n">
         <v>6</v>
       </c>
@@ -2778,16 +3054,17 @@
       <c r="W33" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X33" s="7" t="n"/>
+      <c r="X33" s="14" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="n"/>
+      <c r="A34" s="15" t="n"/>
+      <c r="B34" s="16" t="n"/>
       <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D34" s="7" t="n"/>
+      <c r="D34" s="11" t="n"/>
       <c r="E34" s="5" t="n">
         <v>6</v>
       </c>
@@ -2845,7 +3122,7 @@
       <c r="W34" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X34" s="7" t="n"/>
+      <c r="X34" s="17" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
@@ -2853,13 +3130,13 @@
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="B35" s="7" t="n"/>
+      <c r="B35" s="10" t="n"/>
       <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D35" s="7" t="n"/>
+      <c r="D35" s="11" t="n"/>
       <c r="E35" s="5" t="n">
         <v>6</v>
       </c>
@@ -2924,13 +3201,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="n"/>
+      <c r="A36" s="12" t="n"/>
+      <c r="B36" s="13" t="n"/>
       <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D36" s="7" t="n"/>
+      <c r="D36" s="11" t="n"/>
       <c r="E36" s="5" t="n">
         <v>5</v>
       </c>
@@ -2988,16 +3266,17 @@
       <c r="W36" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X36" s="7" t="n"/>
+      <c r="X36" s="14" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="n"/>
+      <c r="A37" s="12" t="n"/>
+      <c r="B37" s="13" t="n"/>
       <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D37" s="7" t="n"/>
+      <c r="D37" s="11" t="n"/>
       <c r="E37" s="5" t="n">
         <v>6</v>
       </c>
@@ -3055,16 +3334,17 @@
       <c r="W37" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X37" s="7" t="n"/>
+      <c r="X37" s="14" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="n"/>
+      <c r="A38" s="12" t="n"/>
+      <c r="B38" s="13" t="n"/>
       <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D38" s="7" t="n"/>
+      <c r="D38" s="11" t="n"/>
       <c r="E38" s="5" t="n">
         <v>5</v>
       </c>
@@ -3122,16 +3402,17 @@
       <c r="W38" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X38" s="7" t="n"/>
+      <c r="X38" s="14" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="n"/>
+      <c r="A39" s="12" t="n"/>
+      <c r="B39" s="13" t="n"/>
       <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D39" s="7" t="n"/>
+      <c r="D39" s="11" t="n"/>
       <c r="E39" s="5" t="n">
         <v>6</v>
       </c>
@@ -3189,16 +3470,17 @@
       <c r="W39" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X39" s="7" t="n"/>
+      <c r="X39" s="14" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="n"/>
+      <c r="A40" s="12" t="n"/>
+      <c r="B40" s="13" t="n"/>
       <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D40" s="7" t="n"/>
+      <c r="D40" s="11" t="n"/>
       <c r="E40" s="5" t="n">
         <v>6</v>
       </c>
@@ -3256,16 +3538,17 @@
       <c r="W40" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X40" s="7" t="n"/>
+      <c r="X40" s="14" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="n"/>
+      <c r="A41" s="12" t="n"/>
+      <c r="B41" s="13" t="n"/>
       <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D41" s="7" t="n"/>
+      <c r="D41" s="11" t="n"/>
       <c r="E41" s="5" t="n">
         <v>5</v>
       </c>
@@ -3323,16 +3606,17 @@
       <c r="W41" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X41" s="7" t="n"/>
+      <c r="X41" s="14" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="n"/>
+      <c r="A42" s="15" t="n"/>
+      <c r="B42" s="16" t="n"/>
       <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D42" s="7" t="n"/>
+      <c r="D42" s="11" t="n"/>
       <c r="E42" s="5" t="n">
         <v>5</v>
       </c>
@@ -3390,7 +3674,7 @@
       <c r="W42" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X42" s="7" t="n"/>
+      <c r="X42" s="17" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="inlineStr">
@@ -3398,13 +3682,13 @@
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="B43" s="7" t="n"/>
+      <c r="B43" s="10" t="n"/>
       <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D43" s="7" t="n"/>
+      <c r="D43" s="11" t="n"/>
       <c r="E43" s="5" t="n">
         <v>6</v>
       </c>
@@ -3469,13 +3753,14 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="n"/>
+      <c r="A44" s="12" t="n"/>
+      <c r="B44" s="13" t="n"/>
       <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D44" s="7" t="n"/>
+      <c r="D44" s="11" t="n"/>
       <c r="E44" s="5" t="n">
         <v>5</v>
       </c>
@@ -3533,16 +3818,17 @@
       <c r="W44" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X44" s="7" t="n"/>
+      <c r="X44" s="14" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="n"/>
+      <c r="A45" s="12" t="n"/>
+      <c r="B45" s="13" t="n"/>
       <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D45" s="7" t="n"/>
+      <c r="D45" s="11" t="n"/>
       <c r="E45" s="5" t="n">
         <v>5</v>
       </c>
@@ -3600,16 +3886,17 @@
       <c r="W45" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X45" s="7" t="n"/>
+      <c r="X45" s="14" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="n"/>
+      <c r="A46" s="12" t="n"/>
+      <c r="B46" s="13" t="n"/>
       <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D46" s="7" t="n"/>
+      <c r="D46" s="11" t="n"/>
       <c r="E46" s="5" t="n">
         <v>5</v>
       </c>
@@ -3667,16 +3954,17 @@
       <c r="W46" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X46" s="7" t="n"/>
+      <c r="X46" s="14" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="n"/>
+      <c r="A47" s="12" t="n"/>
+      <c r="B47" s="13" t="n"/>
       <c r="C47" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D47" s="7" t="n"/>
+      <c r="D47" s="11" t="n"/>
       <c r="E47" s="5" t="n">
         <v>6</v>
       </c>
@@ -3734,16 +4022,17 @@
       <c r="W47" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X47" s="7" t="n"/>
+      <c r="X47" s="14" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="n"/>
+      <c r="A48" s="12" t="n"/>
+      <c r="B48" s="13" t="n"/>
       <c r="C48" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D48" s="7" t="n"/>
+      <c r="D48" s="11" t="n"/>
       <c r="E48" s="5" t="n">
         <v>6</v>
       </c>
@@ -3801,16 +4090,17 @@
       <c r="W48" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X48" s="7" t="n"/>
+      <c r="X48" s="14" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="n"/>
+      <c r="A49" s="12" t="n"/>
+      <c r="B49" s="13" t="n"/>
       <c r="C49" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D49" s="7" t="n"/>
+      <c r="D49" s="11" t="n"/>
       <c r="E49" s="5" t="n">
         <v>5</v>
       </c>
@@ -3868,16 +4158,17 @@
       <c r="W49" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X49" s="7" t="n"/>
+      <c r="X49" s="14" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="n"/>
+      <c r="A50" s="15" t="n"/>
+      <c r="B50" s="16" t="n"/>
       <c r="C50" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D50" s="7" t="n"/>
+      <c r="D50" s="11" t="n"/>
       <c r="E50" s="5" t="n">
         <v>6</v>
       </c>
@@ -3935,7 +4226,7 @@
       <c r="W50" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="X50" s="7" t="n"/>
+      <c r="X50" s="17" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
@@ -3943,13 +4234,13 @@
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="B51" s="7" t="n"/>
+      <c r="B51" s="10" t="n"/>
       <c r="C51" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D51" s="7" t="n"/>
+      <c r="D51" s="11" t="n"/>
       <c r="E51" s="5" t="n">
         <v>6</v>
       </c>
@@ -4014,13 +4305,14 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="n"/>
+      <c r="A52" s="12" t="n"/>
+      <c r="B52" s="13" t="n"/>
       <c r="C52" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D52" s="7" t="n"/>
+      <c r="D52" s="11" t="n"/>
       <c r="E52" s="5" t="n">
         <v>4</v>
       </c>
@@ -4078,16 +4370,17 @@
       <c r="W52" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X52" s="7" t="n"/>
+      <c r="X52" s="14" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="n"/>
+      <c r="A53" s="12" t="n"/>
+      <c r="B53" s="13" t="n"/>
       <c r="C53" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D53" s="7" t="n"/>
+      <c r="D53" s="11" t="n"/>
       <c r="E53" s="5" t="n">
         <v>6</v>
       </c>
@@ -4145,16 +4438,17 @@
       <c r="W53" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X53" s="7" t="n"/>
+      <c r="X53" s="14" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="n"/>
+      <c r="A54" s="12" t="n"/>
+      <c r="B54" s="13" t="n"/>
       <c r="C54" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D54" s="7" t="n"/>
+      <c r="D54" s="11" t="n"/>
       <c r="E54" s="5" t="n">
         <v>6</v>
       </c>
@@ -4212,16 +4506,17 @@
       <c r="W54" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X54" s="7" t="n"/>
+      <c r="X54" s="14" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="n"/>
+      <c r="A55" s="12" t="n"/>
+      <c r="B55" s="13" t="n"/>
       <c r="C55" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D55" s="7" t="n"/>
+      <c r="D55" s="11" t="n"/>
       <c r="E55" s="5" t="n">
         <v>6</v>
       </c>
@@ -4279,16 +4574,17 @@
       <c r="W55" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X55" s="7" t="n"/>
+      <c r="X55" s="14" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="n"/>
+      <c r="A56" s="12" t="n"/>
+      <c r="B56" s="13" t="n"/>
       <c r="C56" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D56" s="7" t="n"/>
+      <c r="D56" s="11" t="n"/>
       <c r="E56" s="5" t="n">
         <v>6</v>
       </c>
@@ -4346,16 +4642,17 @@
       <c r="W56" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X56" s="7" t="n"/>
+      <c r="X56" s="14" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="n"/>
+      <c r="A57" s="12" t="n"/>
+      <c r="B57" s="13" t="n"/>
       <c r="C57" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D57" s="7" t="n"/>
+      <c r="D57" s="11" t="n"/>
       <c r="E57" s="5" t="n">
         <v>6</v>
       </c>
@@ -4413,16 +4710,17 @@
       <c r="W57" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X57" s="7" t="n"/>
+      <c r="X57" s="14" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="n"/>
+      <c r="A58" s="15" t="n"/>
+      <c r="B58" s="16" t="n"/>
       <c r="C58" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D58" s="7" t="n"/>
+      <c r="D58" s="11" t="n"/>
       <c r="E58" s="5" t="n">
         <v>6</v>
       </c>
@@ -4480,7 +4778,7 @@
       <c r="W58" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X58" s="7" t="n"/>
+      <c r="X58" s="17" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="inlineStr">
@@ -4488,13 +4786,13 @@
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="B59" s="7" t="n"/>
+      <c r="B59" s="10" t="n"/>
       <c r="C59" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D59" s="7" t="n"/>
+      <c r="D59" s="11" t="n"/>
       <c r="E59" s="5" t="n">
         <v>6</v>
       </c>
@@ -4559,13 +4857,14 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="n"/>
+      <c r="A60" s="12" t="n"/>
+      <c r="B60" s="13" t="n"/>
       <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D60" s="7" t="n"/>
+      <c r="D60" s="11" t="n"/>
       <c r="E60" s="5" t="n">
         <v>4</v>
       </c>
@@ -4623,16 +4922,17 @@
       <c r="W60" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="X60" s="7" t="n"/>
+      <c r="X60" s="14" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="n"/>
+      <c r="A61" s="12" t="n"/>
+      <c r="B61" s="13" t="n"/>
       <c r="C61" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D61" s="7" t="n"/>
+      <c r="D61" s="11" t="n"/>
       <c r="E61" s="5" t="n">
         <v>4</v>
       </c>
@@ -4690,16 +4990,17 @@
       <c r="W61" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X61" s="7" t="n"/>
+      <c r="X61" s="14" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="n"/>
+      <c r="A62" s="12" t="n"/>
+      <c r="B62" s="13" t="n"/>
       <c r="C62" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D62" s="7" t="n"/>
+      <c r="D62" s="11" t="n"/>
       <c r="E62" s="5" t="n">
         <v>6</v>
       </c>
@@ -4757,16 +5058,17 @@
       <c r="W62" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X62" s="7" t="n"/>
+      <c r="X62" s="14" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="n"/>
+      <c r="A63" s="12" t="n"/>
+      <c r="B63" s="13" t="n"/>
       <c r="C63" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D63" s="7" t="n"/>
+      <c r="D63" s="11" t="n"/>
       <c r="E63" s="5" t="n">
         <v>6</v>
       </c>
@@ -4824,16 +5126,17 @@
       <c r="W63" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X63" s="7" t="n"/>
+      <c r="X63" s="14" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="n"/>
+      <c r="A64" s="12" t="n"/>
+      <c r="B64" s="13" t="n"/>
       <c r="C64" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D64" s="7" t="n"/>
+      <c r="D64" s="11" t="n"/>
       <c r="E64" s="5" t="n">
         <v>6</v>
       </c>
@@ -4891,16 +5194,17 @@
       <c r="W64" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X64" s="7" t="n"/>
+      <c r="X64" s="14" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="n"/>
+      <c r="A65" s="12" t="n"/>
+      <c r="B65" s="13" t="n"/>
       <c r="C65" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D65" s="7" t="n"/>
+      <c r="D65" s="11" t="n"/>
       <c r="E65" s="5" t="n">
         <v>5</v>
       </c>
@@ -4958,16 +5262,17 @@
       <c r="W65" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X65" s="7" t="n"/>
+      <c r="X65" s="14" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="n"/>
+      <c r="A66" s="15" t="n"/>
+      <c r="B66" s="16" t="n"/>
       <c r="C66" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D66" s="7" t="n"/>
+      <c r="D66" s="11" t="n"/>
       <c r="E66" s="5" t="n">
         <v>4</v>
       </c>
@@ -5025,7 +5330,7 @@
       <c r="W66" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="X66" s="7" t="n"/>
+      <c r="X66" s="17" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
@@ -5033,13 +5338,13 @@
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="B67" s="7" t="n"/>
+      <c r="B67" s="10" t="n"/>
       <c r="C67" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D67" s="7" t="n"/>
+      <c r="D67" s="11" t="n"/>
       <c r="E67" s="5" t="n">
         <v>6</v>
       </c>
@@ -5104,13 +5409,14 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="n"/>
+      <c r="A68" s="12" t="n"/>
+      <c r="B68" s="13" t="n"/>
       <c r="C68" s="5" t="inlineStr">
         <is>
           <t>Goncalo Figueiredo</t>
         </is>
       </c>
-      <c r="D68" s="7" t="n"/>
+      <c r="D68" s="11" t="n"/>
       <c r="E68" s="5" t="n">
         <v>4</v>
       </c>
@@ -5168,16 +5474,17 @@
       <c r="W68" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X68" s="7" t="n"/>
+      <c r="X68" s="14" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="n"/>
+      <c r="A69" s="12" t="n"/>
+      <c r="B69" s="13" t="n"/>
       <c r="C69" s="5" t="inlineStr">
         <is>
           <t>Ines Cabral</t>
         </is>
       </c>
-      <c r="D69" s="7" t="n"/>
+      <c r="D69" s="11" t="n"/>
       <c r="E69" s="5" t="n">
         <v>4</v>
       </c>
@@ -5235,16 +5542,17 @@
       <c r="W69" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X69" s="7" t="n"/>
+      <c r="X69" s="14" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="n"/>
+      <c r="A70" s="12" t="n"/>
+      <c r="B70" s="13" t="n"/>
       <c r="C70" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D70" s="7" t="n"/>
+      <c r="D70" s="11" t="n"/>
       <c r="E70" s="5" t="n">
         <v>6</v>
       </c>
@@ -5302,16 +5610,17 @@
       <c r="W70" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X70" s="7" t="n"/>
+      <c r="X70" s="14" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="n"/>
+      <c r="A71" s="12" t="n"/>
+      <c r="B71" s="13" t="n"/>
       <c r="C71" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D71" s="7" t="n"/>
+      <c r="D71" s="11" t="n"/>
       <c r="E71" s="5" t="n">
         <v>6</v>
       </c>
@@ -5369,16 +5678,17 @@
       <c r="W71" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X71" s="7" t="n"/>
+      <c r="X71" s="14" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="n"/>
+      <c r="A72" s="12" t="n"/>
+      <c r="B72" s="13" t="n"/>
       <c r="C72" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D72" s="7" t="n"/>
+      <c r="D72" s="11" t="n"/>
       <c r="E72" s="5" t="n">
         <v>6</v>
       </c>
@@ -5436,16 +5746,17 @@
       <c r="W72" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X72" s="7" t="n"/>
+      <c r="X72" s="14" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="n"/>
+      <c r="A73" s="12" t="n"/>
+      <c r="B73" s="13" t="n"/>
       <c r="C73" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D73" s="7" t="n"/>
+      <c r="D73" s="11" t="n"/>
       <c r="E73" s="5" t="n">
         <v>5</v>
       </c>
@@ -5503,16 +5814,17 @@
       <c r="W73" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X73" s="7" t="n"/>
+      <c r="X73" s="14" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="n"/>
+      <c r="A74" s="15" t="n"/>
+      <c r="B74" s="16" t="n"/>
       <c r="C74" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D74" s="7" t="n"/>
+      <c r="D74" s="11" t="n"/>
       <c r="E74" s="5" t="n">
         <v>4</v>
       </c>
@@ -5570,7 +5882,7 @@
       <c r="W74" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X74" s="7" t="n"/>
+      <c r="X74" s="17" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1481">
@@ -6699,8 +7011,8 @@
     <mergeCell ref="E60"/>
     <mergeCell ref="M22"/>
     <mergeCell ref="O50"/>
+    <mergeCell ref="P16"/>
     <mergeCell ref="M15"/>
-    <mergeCell ref="P16"/>
     <mergeCell ref="W12"/>
     <mergeCell ref="L41"/>
     <mergeCell ref="F27"/>
@@ -7058,4 +7370,7828 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="18" t="inlineStr">
+        <is>
+          <t>Avaliação Mensal</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="8" t="n"/>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="8" t="n"/>
+      <c r="O1" s="8" t="n"/>
+      <c r="P1" s="8" t="n"/>
+      <c r="Q1" s="8" t="n"/>
+      <c r="R1" s="8" t="n"/>
+      <c r="S1" s="9" t="n"/>
+      <c r="T1" s="8" t="n"/>
+      <c r="U1" s="8" t="n"/>
+      <c r="V1" s="8" t="n"/>
+      <c r="W1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="19" t="inlineStr">
+        <is>
+          <t>O VPE coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
+        </is>
+      </c>
+      <c r="B2" s="19" t="inlineStr">
+        <is>
+          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
+        </is>
+      </c>
+      <c r="C2" s="19" t="inlineStr">
+        <is>
+          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
+        </is>
+      </c>
+      <c r="D2" s="19" t="inlineStr">
+        <is>
+          <t>4. O membro aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
+        </is>
+      </c>
+      <c r="E2" s="19" t="inlineStr">
+        <is>
+          <t>5. O membro tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
+        </is>
+      </c>
+      <c r="F2" s="19" t="inlineStr">
+        <is>
+          <t>6. O membro procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
+        </is>
+      </c>
+      <c r="G2" s="19" t="inlineStr">
+        <is>
+          <t>1. O membro é capaz planear e organizar de forma eficiente atividades recreativas e/ou formações internas, de forma a que tenham sucesso.</t>
+        </is>
+      </c>
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>2. O membro consegue elaborar relatórios de avaliações, de questionários de satisfação, etc., de uma forma clara e eficaz.</t>
+        </is>
+      </c>
+      <c r="I2" s="19" t="inlineStr">
+        <is>
+          <t>3. O membro acompanha as suas tarefas individuais recorrentes (p.ex: aniversários, avaliação motivacional, newsletters, etc.) de forma a confirmar que está tudo sob controlo.</t>
+        </is>
+      </c>
+      <c r="J2" s="19" t="inlineStr">
+        <is>
+          <t>4. O membro exibe criatividade durante a elaboração de atividades recreativas, planeamento de Recrutamento e Retiro, iniciativas internas, etc.</t>
+        </is>
+      </c>
+      <c r="K2" s="19" t="inlineStr">
+        <is>
+          <t>5. O membro lida com conflitos internos de uma forma preponderada, tendo em mente o melhor interesse dos membros e a estabilidade da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="L2" s="19" t="inlineStr">
+        <is>
+          <t>6. O membro motiva os outros membros a participarem nas atividades internas da EPIC Júnior, bem como nas externas, da JE ou de outras Júnior Empresas.</t>
+        </is>
+      </c>
+      <c r="M2" s="19" t="inlineStr">
+        <is>
+          <t>1. O membro sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="N2" s="19" t="inlineStr">
+        <is>
+          <t>2. O membro respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="O2" s="19" t="inlineStr">
+        <is>
+          <t>1. O membro cumpre os objetivos das tarefas pelos quais é responsável.</t>
+        </is>
+      </c>
+      <c r="P2" s="19" t="inlineStr">
+        <is>
+          <t>2. O membro respeita o prazo de entrega das suas tarefas.</t>
+        </is>
+      </c>
+      <c r="Q2" s="19" t="inlineStr">
+        <is>
+          <t>3. O membro, caso necessário, desenvolve conhecimento técnico especifico para completar a sua tarefa.</t>
+        </is>
+      </c>
+      <c r="R2" s="19" t="inlineStr">
+        <is>
+          <t>4. Em tarefas de grupo, o membro é capaz de comunicar com os seus colegas de forma clara e concisa, conseguindo defender a sua opinião mas respeitando a opinião dos outros, mantendo uma boa relação interpessoal.</t>
+        </is>
+      </c>
+      <c r="S2" s="19" t="inlineStr">
+        <is>
+          <t>5. O membro é capaz de executar a sua tarefa de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
+        </is>
+      </c>
+      <c r="T2" s="19" t="n"/>
+      <c r="U2" s="19" t="n"/>
+      <c r="V2" s="19" t="n"/>
+      <c r="W2" s="19" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "5.142857142857143", ""),IF(Avaliacao!A1="Catarina Oliveira", "-", ""),IF(Avaliacao!A1="Claudia Santos", "-", ""),IF(Avaliacao!A1="Ines Faria", "-", ""),IF(Avaliacao!A1="Ines Geraldes", "-", ""),IF(Avaliacao!A1="Leticia Santos", "-", ""),IF(Avaliacao!A1="Marcia Costa", "-", ""),IF(Avaliacao!A1="Margarida Ribeiro", "-", ""),IF(Avaliacao!A1="Mariana Coelho", "-", ""),IF(Avaliacao!A1="Raquel Baptista", "-", ""),)</f>
+        <v/>
+      </c>
+      <c r="B3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.3", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.6", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.6", ""),)</f>
+        <v/>
+      </c>
+      <c r="C3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.8", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),)</f>
+        <v/>
+      </c>
+      <c r="D3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.3", ""),IF(Avaliacao!A1="Paulo Vieira", "4.9", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),)</f>
+        <v/>
+      </c>
+      <c r="E3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.5", ""),IF(Avaliacao!A1="Ines Cabral", "4.4", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.1", ""),IF(Avaliacao!A1="Paulo Vieira", "4.3", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.3", ""),)</f>
+        <v/>
+      </c>
+      <c r="F3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.2", ""),IF(Avaliacao!A1="Ines Cabral", "4.5", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.1", ""),IF(Avaliacao!A1="Paula Ferreira", "4.9", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),)</f>
+        <v/>
+      </c>
+      <c r="G3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.5", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.0", ""),IF(Avaliacao!A1="Paulo Vieira", "4.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),)</f>
+        <v/>
+      </c>
+      <c r="H3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.1", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.2", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),)</f>
+        <v/>
+      </c>
+      <c r="I3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.8", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "4.5", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),)</f>
+        <v/>
+      </c>
+      <c r="J3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "4.9", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.1", ""),IF(Avaliacao!A1="Paula Ferreira", "5.1", ""),IF(Avaliacao!A1="Paulo Vieira", "5.1", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.0", ""),)</f>
+        <v/>
+      </c>
+      <c r="K3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.4", ""),IF(Avaliacao!A1="Ines Cabral", "5.3", ""),IF(Avaliacao!A1="Mariana Arezes", "5.4", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.4", ""),)</f>
+        <v/>
+      </c>
+      <c r="L3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "4.8", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.0", ""),IF(Avaliacao!A1="Ines Cabral", "4.2", ""),IF(Avaliacao!A1="Mariana Arezes", "4.7", ""),IF(Avaliacao!A1="Mariana Oliveira", "4.7", ""),IF(Avaliacao!A1="Paula Ferreira", "4.5", ""),IF(Avaliacao!A1="Paulo Vieira", "4.2", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.3", ""),)</f>
+        <v/>
+      </c>
+      <c r="M3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.9", ""),IF(Avaliacao!A1="Ines Cabral", "5.0", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.1", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.1", ""),)</f>
+        <v/>
+      </c>
+      <c r="N3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.2", ""),IF(Avaliacao!A1="Ines Cabral", "5.3", ""),IF(Avaliacao!A1="Mariana Arezes", "5.4", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.4", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.3", ""),)</f>
+        <v/>
+      </c>
+      <c r="O3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.3", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.1", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "4.8", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.9", ""),)</f>
+        <v/>
+      </c>
+      <c r="P3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "3.9", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "4.9", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "5.3", ""),IF(Avaliacao!A1="Paulo Vieira", "4.7", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.8", ""),)</f>
+        <v/>
+      </c>
+      <c r="Q3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.2", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.6", ""),IF(Avaliacao!A1="Ines Cabral", "4.7", ""),IF(Avaliacao!A1="Mariana Arezes", "5.0", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.2", ""),IF(Avaliacao!A1="Paula Ferreira", "4.9", ""),IF(Avaliacao!A1="Paulo Vieira", "5.0", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),)</f>
+        <v/>
+      </c>
+      <c r="R3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.3", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "5.0", ""),IF(Avaliacao!A1="Ines Cabral", "4.9", ""),IF(Avaliacao!A1="Mariana Arezes", "5.3", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.4", ""),IF(Avaliacao!A1="Paula Ferreira", "5.2", ""),IF(Avaliacao!A1="Paulo Vieira", "5.2", ""),IF(Avaliacao!A1="Rafaela Carvalho", "5.1", ""),)</f>
+        <v/>
+      </c>
+      <c r="S3" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Catarina Milheiro", "5.4", ""),IF(Avaliacao!A1="Goncalo Figueiredo", "4.2", ""),IF(Avaliacao!A1="Ines Cabral", "4.6", ""),IF(Avaliacao!A1="Mariana Arezes", "5.2", ""),IF(Avaliacao!A1="Mariana Oliveira", "5.3", ""),IF(Avaliacao!A1="Paula Ferreira", "5.4", ""),IF(Avaliacao!A1="Paulo Vieira", "5.0", ""),IF(Avaliacao!A1="Rafaela Carvalho", "4.7", ""),)</f>
+        <v/>
+      </c>
+      <c r="T3" s="19" t="n"/>
+      <c r="U3" s="19" t="n"/>
+      <c r="V3" s="19" t="n"/>
+      <c r="W3" s="19" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "4.987577639751553", ""),IF(Avaliacao!A1="Catarina Oliveira", "0.0", ""),IF(Avaliacao!A1="Claudia Santos", "0.0", ""),IF(Avaliacao!A1="Ines Faria", "0.0", ""),IF(Avaliacao!A1="Ines Geraldes", "0.0", ""),IF(Avaliacao!A1="Leticia Santos", "0.0", ""),IF(Avaliacao!A1="Marcia Costa", "0.0", ""),IF(Avaliacao!A1="Margarida Ribeiro", "0.0", ""),IF(Avaliacao!A1="Mariana Coelho", "0.0", ""),IF(Avaliacao!A1="Raquel Baptista", "0.0", ""),)</f>
+        <v/>
+      </c>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="n"/>
+      <c r="H4" s="8" t="n"/>
+      <c r="I4" s="8" t="n"/>
+      <c r="J4" s="8" t="n"/>
+      <c r="K4" s="8" t="n"/>
+      <c r="L4" s="8" t="n"/>
+      <c r="M4" s="8" t="n"/>
+      <c r="N4" s="8" t="n"/>
+      <c r="O4" s="8" t="n"/>
+      <c r="P4" s="8" t="n"/>
+      <c r="Q4" s="8" t="n"/>
+      <c r="R4" s="8" t="n"/>
+      <c r="S4" s="8" t="n"/>
+      <c r="T4" s="8" t="n"/>
+      <c r="U4" s="8" t="n"/>
+      <c r="V4" s="8" t="n"/>
+      <c r="W4" s="9" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="18" t="inlineStr">
+        <is>
+          <t>Avaliação Mensal</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="8" t="n"/>
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="8" t="n"/>
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="8" t="n"/>
+      <c r="I6" s="8" t="n"/>
+      <c r="J6" s="8" t="n"/>
+      <c r="K6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="inlineStr">
+        <is>
+          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
+        </is>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
+        </is>
+      </c>
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
+        </is>
+      </c>
+      <c r="D7" s="19" t="inlineStr">
+        <is>
+          <t>4. O membro aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
+        </is>
+      </c>
+      <c r="E7" s="19" t="inlineStr">
+        <is>
+          <t>5. O membro tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
+        </is>
+      </c>
+      <c r="F7" s="19" t="inlineStr">
+        <is>
+          <t>6. O membro procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
+        </is>
+      </c>
+      <c r="G7" s="19" t="inlineStr">
+        <is>
+          <t>1. O membro é capaz de publicitar a EPIC Júnior de uma forma correta e precisa.</t>
+        </is>
+      </c>
+      <c r="H7" s="19" t="inlineStr">
+        <is>
+          <t>2. O membro consegue elaborar designs para diferentes tipos de divulgação, procurando manter os componentes que constroem a imagem pública da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="I7" s="19" t="inlineStr">
+        <is>
+          <t>1. O membro sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="J7" s="19" t="inlineStr">
+        <is>
+          <t>1. O membro cumpre os objetivos das tarefas pelos quais é responsável.</t>
+        </is>
+      </c>
+      <c r="K7" s="19" t="inlineStr">
+        <is>
+          <t>2. O membro respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "-", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.25", ""),IF(Avaliacao!A1="Claudia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Ines Faria", "5.333333333333333", ""),IF(Avaliacao!A1="Ines Geraldes", "5.25", ""),IF(Avaliacao!A1="Leticia Santos", "5.25", ""),IF(Avaliacao!A1="Marcia Costa", "5.166666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.916666666666667", ""),IF(Avaliacao!A1="Mariana Coelho", "5.083333333333333", ""),IF(Avaliacao!A1="Raquel Baptista", "4.5", ""),)</f>
+        <v/>
+      </c>
+      <c r="B8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "4.416666666666667", ""),IF(Avaliacao!A1="Catarina Oliveira", "4.833333333333333", ""),IF(Avaliacao!A1="Claudia Santos", "5.166666666666667", ""),IF(Avaliacao!A1="Ines Faria", "4.916666666666667", ""),IF(Avaliacao!A1="Ines Geraldes", "5.333333333333333", ""),IF(Avaliacao!A1="Leticia Santos", "5.083333333333333", ""),IF(Avaliacao!A1="Marcia Costa", "4.666666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.5", ""),IF(Avaliacao!A1="Mariana Coelho", "4.666666666666667", ""),IF(Avaliacao!A1="Raquel Baptista", "4.25", ""),)</f>
+        <v/>
+      </c>
+      <c r="C8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.0", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.25", ""),IF(Avaliacao!A1="Claudia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Ines Faria", "5.25", ""),IF(Avaliacao!A1="Ines Geraldes", "5.25", ""),IF(Avaliacao!A1="Leticia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Marcia Costa", "5.166666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "5.083333333333333", ""),IF(Avaliacao!A1="Mariana Coelho", "5.166666666666667", ""),IF(Avaliacao!A1="Raquel Baptista", "4.75", ""),)</f>
+        <v/>
+      </c>
+      <c r="D8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.083333333333333", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.25", ""),IF(Avaliacao!A1="Claudia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Ines Faria", "5.083333333333333", ""),IF(Avaliacao!A1="Ines Geraldes", "5.25", ""),IF(Avaliacao!A1="Leticia Santos", "5.166666666666667", ""),IF(Avaliacao!A1="Marcia Costa", "5.0", ""),IF(Avaliacao!A1="Margarida Ribeiro", "5.083333333333333", ""),IF(Avaliacao!A1="Mariana Coelho", "5.166666666666667", ""),IF(Avaliacao!A1="Raquel Baptista", "4.833333333333333", ""),)</f>
+        <v/>
+      </c>
+      <c r="E8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "4.833333333333333", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.083333333333333", ""),IF(Avaliacao!A1="Claudia Santos", "5.25", ""),IF(Avaliacao!A1="Ines Faria", "5.0", ""),IF(Avaliacao!A1="Ines Geraldes", "5.25", ""),IF(Avaliacao!A1="Leticia Santos", "5.166666666666667", ""),IF(Avaliacao!A1="Marcia Costa", "4.916666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.75", ""),IF(Avaliacao!A1="Mariana Coelho", "4.833333333333333", ""),IF(Avaliacao!A1="Raquel Baptista", "4.333333333333333", ""),)</f>
+        <v/>
+      </c>
+      <c r="F8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "4.916666666666667", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.0", ""),IF(Avaliacao!A1="Claudia Santos", "5.083333333333333", ""),IF(Avaliacao!A1="Ines Faria", "4.916666666666667", ""),IF(Avaliacao!A1="Ines Geraldes", "5.166666666666667", ""),IF(Avaliacao!A1="Leticia Santos", "5.166666666666667", ""),IF(Avaliacao!A1="Marcia Costa", "4.916666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.916666666666667", ""),IF(Avaliacao!A1="Mariana Coelho", "5.0", ""),IF(Avaliacao!A1="Raquel Baptista", "4.666666666666667", ""),)</f>
+        <v/>
+      </c>
+      <c r="G8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.416666666666667", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.416666666666667", ""),IF(Avaliacao!A1="Claudia Santos", "5.416666666666667", ""),IF(Avaliacao!A1="Ines Faria", "4.833333333333333", ""),IF(Avaliacao!A1="Ines Geraldes", "5.416666666666667", ""),IF(Avaliacao!A1="Leticia Santos", "5.0", ""),IF(Avaliacao!A1="Marcia Costa", "4.75", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.75", ""),IF(Avaliacao!A1="Mariana Coelho", "4.833333333333333", ""),IF(Avaliacao!A1="Raquel Baptista", "4.75", ""),)</f>
+        <v/>
+      </c>
+      <c r="H8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.333333333333333", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.333333333333333", ""),IF(Avaliacao!A1="Claudia Santos", "5.416666666666667", ""),IF(Avaliacao!A1="Ines Faria", "4.583333333333333", ""),IF(Avaliacao!A1="Ines Geraldes", "5.333333333333333", ""),IF(Avaliacao!A1="Leticia Santos", "5.166666666666667", ""),IF(Avaliacao!A1="Marcia Costa", "4.666666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.666666666666667", ""),IF(Avaliacao!A1="Mariana Coelho", "4.75", ""),IF(Avaliacao!A1="Raquel Baptista", "4.5", ""),)</f>
+        <v/>
+      </c>
+      <c r="I8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.416666666666667", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.5", ""),IF(Avaliacao!A1="Claudia Santos", "5.5", ""),IF(Avaliacao!A1="Ines Faria", "5.25", ""),IF(Avaliacao!A1="Ines Geraldes", "5.5", ""),IF(Avaliacao!A1="Leticia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Marcia Costa", "5.333333333333333", ""),IF(Avaliacao!A1="Margarida Ribeiro", "5.25", ""),IF(Avaliacao!A1="Mariana Coelho", "5.333333333333333", ""),IF(Avaliacao!A1="Raquel Baptista", "5.25", ""),)</f>
+        <v/>
+      </c>
+      <c r="J8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.25", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.416666666666667", ""),IF(Avaliacao!A1="Claudia Santos", "5.416666666666667", ""),IF(Avaliacao!A1="Ines Faria", "5.25", ""),IF(Avaliacao!A1="Ines Geraldes", "5.416666666666667", ""),IF(Avaliacao!A1="Leticia Santos", "5.333333333333333", ""),IF(Avaliacao!A1="Marcia Costa", "5.333333333333333", ""),IF(Avaliacao!A1="Margarida Ribeiro", "5.25", ""),IF(Avaliacao!A1="Mariana Coelho", "5.333333333333333", ""),IF(Avaliacao!A1="Raquel Baptista", "4.833333333333333", ""),)</f>
+        <v/>
+      </c>
+      <c r="K8" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "-", ""),IF(Avaliacao!A1="Beatriz Sousa", "5.416666666666667", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.5", ""),IF(Avaliacao!A1="Claudia Santos", "5.5", ""),IF(Avaliacao!A1="Ines Faria", "5.416666666666667", ""),IF(Avaliacao!A1="Ines Geraldes", "5.5", ""),IF(Avaliacao!A1="Leticia Santos", "5.416666666666667", ""),IF(Avaliacao!A1="Marcia Costa", "5.416666666666667", ""),IF(Avaliacao!A1="Margarida Ribeiro", "5.416666666666667", ""),IF(Avaliacao!A1="Mariana Coelho", "5.416666666666667", ""),IF(Avaliacao!A1="Raquel Baptista", "5.25", ""),)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19">
+        <f>CONCATENAR(IF(Avaliacao!A1="Pedro Machado", "0.0", ""),IF(Avaliacao!A1="Catarina Oliveira", "5.257575757575757", ""),IF(Avaliacao!A1="Claudia Santos", "5.34090909090909", ""),IF(Avaliacao!A1="Ines Faria", "5.075757575757576", ""),IF(Avaliacao!A1="Ines Geraldes", "5.333333333333333", ""),IF(Avaliacao!A1="Leticia Santos", "5.21969696969697", ""),IF(Avaliacao!A1="Marcia Costa", "5.03030303030303", ""),IF(Avaliacao!A1="Margarida Ribeiro", "4.962121212121212", ""),IF(Avaliacao!A1="Mariana Coelho", "5.053030303030304", ""),IF(Avaliacao!A1="Raquel Baptista", "4.71969696969697", ""),)</f>
+        <v/>
+      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="8" t="n"/>
+      <c r="F9" s="8" t="n"/>
+      <c r="G9" s="8" t="n"/>
+      <c r="H9" s="8" t="n"/>
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="8" t="n"/>
+      <c r="K9" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="A8"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="M3"/>
+    <mergeCell ref="I8"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="P3"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="O2"/>
+    <mergeCell ref="J3"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="Q2"/>
+    <mergeCell ref="W2"/>
+    <mergeCell ref="K7"/>
+    <mergeCell ref="R2"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="T3"/>
+    <mergeCell ref="O3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="V3"/>
+    <mergeCell ref="Q3"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="V2"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="S3"/>
+    <mergeCell ref="N3"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="L3"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="S2"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="U2"/>
+    <mergeCell ref="P2"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="N2"/>
+    <mergeCell ref="W3"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="T2"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="R3"/>
+    <mergeCell ref="A9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Pedro Machado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$8</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$11</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$10</formula1>
+    </dataValidation>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=$B$1:$B$0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Avaliação de desempenho</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="8" t="n"/>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="8" t="n"/>
+      <c r="O1" s="8" t="n"/>
+      <c r="P1" s="8" t="n"/>
+      <c r="Q1" s="8" t="n"/>
+      <c r="R1" s="8" t="n"/>
+      <c r="S1" s="8" t="n"/>
+      <c r="T1" s="8" t="n"/>
+      <c r="U1" s="8" t="n"/>
+      <c r="V1" s="8" t="n"/>
+      <c r="W1" s="8" t="n"/>
+      <c r="X1" s="8" t="n"/>
+      <c r="Y1" s="8" t="n"/>
+      <c r="Z1" s="8" t="n"/>
+      <c r="AA1" s="8" t="n"/>
+      <c r="AB1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Avaliador</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Avaliado</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>O VPE assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos da júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>O VPE aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
+        </is>
+      </c>
+      <c r="J2" s="6" t="inlineStr">
+        <is>
+          <t>O VPE procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE tem em conta as necessidades, requisitos e opiniões do cliente no desenvolvimento de um projeto.</t>
+        </is>
+      </c>
+      <c r="L2" s="6" t="inlineStr">
+        <is>
+          <t>O VPE sabe delegar tarefas de forma produtiva, justa e homogénea. Consegue manter uma dinâmica de departamento saudável e tem como objetivo o trabalho em equipa.</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE tenta obter o resultado mais vantajoso possível para os projetos e para a EPIC Júnior sem comprometer padrões éticos, senso comum e a confiança do cliente.</t>
+        </is>
+      </c>
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>O VPE sabe aproveitar ao máximo e integrar os recursos disponíveis dentro da EPIC Júnior, de forma global. Consegue reavaliar, aprimorar e padronizar os processos de trabalho.</t>
+        </is>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE tem a capacidade de estabelecer uma rede de contactos ou uma conexão a empresas que possam ser futuros clientes.</t>
+        </is>
+      </c>
+      <c r="P2" s="6" t="inlineStr">
+        <is>
+          <t>O VPE tem a capacidade de convencer pessoas, ou mudar a sua perspetiva, usando o seu poder de argumentação, raciocínio e lógica.</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE consegue estruturar o seu pensamento de forma coerente, levando a boas conclusões. Sabe desenvolver estratégias ou ideias bem planeadas/estruturadas</t>
+        </is>
+      </c>
+      <c r="R2" s="6" t="inlineStr">
+        <is>
+          <t>O VPE consegue organizar o que faz de forma eficiente e clara, exibindo uma boa gestão de tarefas e tempo.</t>
+        </is>
+      </c>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE participa regularmente em formações internas e noutras atividades recreativas promovidas pelo departamento de Recursos Humanos.</t>
+        </is>
+      </c>
+      <c r="T2" s="6" t="inlineStr">
+        <is>
+          <t>O VPE participa regularmente em reuniões gerais e reuniões de departamento.</t>
+        </is>
+      </c>
+      <c r="U2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="V2" s="6" t="inlineStr">
+        <is>
+          <t>O VPE respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="W2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE cumpre os objetivos das tarefas pelos quais é responsável.</t>
+        </is>
+      </c>
+      <c r="X2" s="6" t="inlineStr">
+        <is>
+          <t>O VPE respeita o prazo de entrega das suas tarefas.</t>
+        </is>
+      </c>
+      <c r="Y2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE, caso necessário, desenvolve conhecimento técnico especifico para completar a sua tarefa.</t>
+        </is>
+      </c>
+      <c r="Z2" s="6" t="inlineStr">
+        <is>
+          <t>Em tarefas de grupo, o VPE é capaz de comunicar com os seus membros de forma clara e concisa, conseguindo defender a sua opinião mas respeitando a opinião dos outros, mantendo uma boa relação interpessoal.</t>
+        </is>
+      </c>
+      <c r="AA2" s="5" t="inlineStr">
+        <is>
+          <t>O VPE é capaz de executar a sua tarefa de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
+        </is>
+      </c>
+      <c r="AB2" s="6" t="inlineStr">
+        <is>
+          <t>Observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Liliana Freitas</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="n"/>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Pedro Machado</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="n"/>
+      <c r="E3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="6" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Francisco Sousa</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Pedro Machado</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="6" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Joana Alves</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="n"/>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Pedro Machado</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="6" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Pedro Machado</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="n"/>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Pedro Machado</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="6" t="inlineStr">
+        <is>
+          <t>(espero continuar a demonstrar resultados, a melhorar sempre em prol da EPIC Júnior)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Pedro Machado</t>
+        </is>
+      </c>
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="6" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Filipe Araújo</t>
+        </is>
+      </c>
+      <c r="B8" s="11" t="n"/>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Pedro Machado</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="6" t="inlineStr">
+        <is>
+          <t>De facto, estou muito satisfeito com o trabalho do Pedro e a minha avaliação transparece esse mesmo reconhecimento. Na questão "O VPE participa regularmente em reuniões gerais e reuniões de departamento.” assumi que fossem reuniões de direção.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="183">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I8"/>
+    <mergeCell ref="P3"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="J3"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="T6"/>
+    <mergeCell ref="W2"/>
+    <mergeCell ref="P5"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="R5"/>
+    <mergeCell ref="Y8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="AA8"/>
+    <mergeCell ref="N4"/>
+    <mergeCell ref="Z6"/>
+    <mergeCell ref="P4"/>
+    <mergeCell ref="AB6"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="R4"/>
+    <mergeCell ref="T4"/>
+    <mergeCell ref="S3"/>
+    <mergeCell ref="V4"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="X7"/>
+    <mergeCell ref="J6"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="Z7"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="P8"/>
+    <mergeCell ref="O5"/>
+    <mergeCell ref="Y5"/>
+    <mergeCell ref="Y2"/>
+    <mergeCell ref="Q5"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="L8"/>
+    <mergeCell ref="N8"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="M6"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="Y6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="R3"/>
+    <mergeCell ref="T8"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="AA3"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K7"/>
+    <mergeCell ref="R2"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="M4"/>
+    <mergeCell ref="AB3"/>
+    <mergeCell ref="T3"/>
+    <mergeCell ref="W4"/>
+    <mergeCell ref="O7"/>
+    <mergeCell ref="V3"/>
+    <mergeCell ref="Y4"/>
+    <mergeCell ref="Q7"/>
+    <mergeCell ref="O6"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="AB5"/>
+    <mergeCell ref="T5"/>
+    <mergeCell ref="V5"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="AB4"/>
+    <mergeCell ref="N3"/>
+    <mergeCell ref="Q8"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="S8"/>
+    <mergeCell ref="P6"/>
+    <mergeCell ref="S2"/>
+    <mergeCell ref="R6"/>
+    <mergeCell ref="U2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="L5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N5"/>
+    <mergeCell ref="W3"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="J4"/>
+    <mergeCell ref="V6"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="L4"/>
+    <mergeCell ref="X6"/>
+    <mergeCell ref="P7"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="M3"/>
+    <mergeCell ref="AB8"/>
+    <mergeCell ref="T7"/>
+    <mergeCell ref="V7"/>
+    <mergeCell ref="AA2"/>
+    <mergeCell ref="S5"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="S4"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="O3"/>
+    <mergeCell ref="Q3"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="V2"/>
+    <mergeCell ref="U6"/>
+    <mergeCell ref="X2"/>
+    <mergeCell ref="W6"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="L3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AA6"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="P2"/>
+    <mergeCell ref="S7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="X3"/>
+    <mergeCell ref="Z3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M7"/>
+    <mergeCell ref="Y7"/>
+    <mergeCell ref="AA7"/>
+    <mergeCell ref="X5"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="Z5"/>
+    <mergeCell ref="U8"/>
+    <mergeCell ref="X4"/>
+    <mergeCell ref="M8"/>
+    <mergeCell ref="Z4"/>
+    <mergeCell ref="W8"/>
+    <mergeCell ref="O8"/>
+    <mergeCell ref="L6"/>
+    <mergeCell ref="O2"/>
+    <mergeCell ref="AB7"/>
+    <mergeCell ref="N6"/>
+    <mergeCell ref="Q2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="R8"/>
+    <mergeCell ref="Y3"/>
+    <mergeCell ref="L7"/>
+    <mergeCell ref="N7"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="M5"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="W5"/>
+    <mergeCell ref="V8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="X8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="R7"/>
+    <mergeCell ref="AA5"/>
+    <mergeCell ref="N2"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="O4"/>
+    <mergeCell ref="Q4"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="AA4"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="U7"/>
+    <mergeCell ref="Z8"/>
+    <mergeCell ref="Z2"/>
+    <mergeCell ref="W7"/>
+    <mergeCell ref="AB2"/>
+    <mergeCell ref="Q6"/>
+    <mergeCell ref="T2"/>
+    <mergeCell ref="S6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="20" t="inlineStr">
+        <is>
+          <t>Avaliação de desempenho</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Avaliador</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Avaliado</t>
+        </is>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
+        </is>
+      </c>
+      <c r="F3" s="21" t="inlineStr">
+        <is>
+          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
+        </is>
+      </c>
+      <c r="G3" s="21" t="inlineStr">
+        <is>
+          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
+        </is>
+      </c>
+      <c r="H3" s="21" t="inlineStr">
+        <is>
+          <t>4. O membro aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
+        </is>
+      </c>
+      <c r="I3" s="21" t="inlineStr">
+        <is>
+          <t>5. O membro tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
+        </is>
+      </c>
+      <c r="J3" s="21" t="inlineStr">
+        <is>
+          <t>6. O membro procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
+        </is>
+      </c>
+      <c r="K3" s="22" t="inlineStr">
+        <is>
+          <t>1. O membro é capaz de publicitar a EPIC Júnior de uma forma correta e precisa.</t>
+        </is>
+      </c>
+      <c r="L3" s="22" t="inlineStr">
+        <is>
+          <t>2. O membro consegue elaborar designs para diferentes tipos de divulgação, procurando manter os componentes que constroem a imagem pública da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="M3" s="21" t="inlineStr">
+        <is>
+          <t>1. O membro sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="N3" s="22" t="inlineStr">
+        <is>
+          <t>1. O membro cumpre os objetivos das tarefas pelos quais é responsável.</t>
+        </is>
+      </c>
+      <c r="O3" s="22" t="inlineStr">
+        <is>
+          <t>2. O membro respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="P3" s="21" t="inlineStr">
+        <is>
+          <t>Observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="inlineStr">
+        <is>
+          <t>Letícia Santos</t>
+        </is>
+      </c>
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="21" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="n"/>
+      <c r="E4" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="21" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="24" t="n"/>
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="26" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="24" t="n"/>
+      <c r="B6" s="25" t="n"/>
+      <c r="C6" s="21" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" s="26" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="24" t="n"/>
+      <c r="B7" s="25" t="n"/>
+      <c r="C7" s="21" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" s="26" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="24" t="n"/>
+      <c r="B8" s="25" t="n"/>
+      <c r="C8" s="21" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" s="26" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="n"/>
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="21" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" s="26" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="24" t="n"/>
+      <c r="B10" s="25" t="n"/>
+      <c r="C10" s="21" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="26" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="24" t="n"/>
+      <c r="B11" s="25" t="n"/>
+      <c r="C11" s="21" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" s="26" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="24" t="n"/>
+      <c r="B12" s="25" t="n"/>
+      <c r="C12" s="21" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="n"/>
+      <c r="E12" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" s="26" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="29" t="n"/>
+      <c r="B13" s="25" t="n"/>
+      <c r="C13" s="21" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n"/>
+      <c r="E13" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" s="29" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="24" t="n"/>
+      <c r="B14" s="25" t="n"/>
+      <c r="C14" s="21" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n"/>
+      <c r="E14" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" s="26" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="n"/>
+      <c r="B15" s="25" t="n"/>
+      <c r="C15" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="n"/>
+      <c r="E15" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" s="26" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="24" t="n"/>
+      <c r="B16" s="25" t="n"/>
+      <c r="C16" s="21" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" s="26" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="24" t="n"/>
+      <c r="B17" s="25" t="n"/>
+      <c r="C17" s="21" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="26" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="24" t="n"/>
+      <c r="B18" s="25" t="n"/>
+      <c r="C18" s="21" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" s="26" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="24" t="n"/>
+      <c r="B19" s="25" t="n"/>
+      <c r="C19" s="21" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" s="26" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="24" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M20" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" s="26" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="27" t="n"/>
+      <c r="B21" s="28" t="n"/>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O21" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" s="26" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="24" t="n"/>
+      <c r="B22" s="25" t="n"/>
+      <c r="C22" s="21" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" s="26" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="24" t="n"/>
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="21" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" s="26" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="26" t="n"/>
+      <c r="B24" s="25" t="n"/>
+      <c r="C24" s="21" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L24" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M24" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" s="26" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="24" t="n"/>
+      <c r="B25" s="25" t="n"/>
+      <c r="C25" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n"/>
+      <c r="E25" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" s="26" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="24" t="n"/>
+      <c r="B26" s="25" t="n"/>
+      <c r="C26" s="21" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n"/>
+      <c r="E26" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L26" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M26" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O26" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" s="26" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="24" t="n"/>
+      <c r="B27" s="25" t="n"/>
+      <c r="C27" s="21" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n"/>
+      <c r="E27" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M27" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" s="26" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="24" t="n"/>
+      <c r="B28" s="25" t="n"/>
+      <c r="C28" s="21" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="n"/>
+      <c r="E28" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M28" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" s="26" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="24" t="n"/>
+      <c r="B29" s="25" t="n"/>
+      <c r="C29" s="21" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D29" s="9" t="n"/>
+      <c r="E29" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M29" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N29" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" s="26" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="24" t="n"/>
+      <c r="B30" s="25" t="n"/>
+      <c r="C30" s="21" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M30" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N30" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" s="26" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="26" t="n"/>
+      <c r="B31" s="25" t="n"/>
+      <c r="C31" s="21" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n"/>
+      <c r="E31" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N31" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P31" s="26" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="24" t="n"/>
+      <c r="B32" s="25" t="n"/>
+      <c r="C32" s="21" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n"/>
+      <c r="E32" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O32" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" s="26" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="24" t="n"/>
+      <c r="B33" s="25" t="n"/>
+      <c r="C33" s="21" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n"/>
+      <c r="E33" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N33" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" s="26" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="24" t="n"/>
+      <c r="B34" s="25" t="n"/>
+      <c r="C34" s="21" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n"/>
+      <c r="E34" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F34" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L34" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M34" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N34" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O34" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" s="26" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="24" t="n"/>
+      <c r="B35" s="25" t="n"/>
+      <c r="C35" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n"/>
+      <c r="E35" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I35" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L35" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M35" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N35" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O35" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" s="26" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="24" t="n"/>
+      <c r="B36" s="25" t="n"/>
+      <c r="C36" s="21" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n"/>
+      <c r="E36" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L36" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M36" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N36" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O36" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" s="26" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="24" t="n"/>
+      <c r="B37" s="25" t="n"/>
+      <c r="C37" s="21" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n"/>
+      <c r="E37" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M37" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O37" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" s="26" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="24" t="n"/>
+      <c r="B38" s="25" t="n"/>
+      <c r="C38" s="21" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n"/>
+      <c r="E38" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F38" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" s="26" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="24" t="n"/>
+      <c r="B39" s="25" t="n"/>
+      <c r="C39" s="21" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n"/>
+      <c r="E39" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F39" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K39" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M39" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" s="26" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="26" t="n"/>
+      <c r="B40" s="25" t="n"/>
+      <c r="C40" s="21" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n"/>
+      <c r="E40" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H40" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J40" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K40" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" s="26" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="24" t="n"/>
+      <c r="B41" s="25" t="n"/>
+      <c r="C41" s="21" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n"/>
+      <c r="E41" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I41" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K41" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L41" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M41" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O41" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" s="26" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="24" t="n"/>
+      <c r="B42" s="25" t="n"/>
+      <c r="C42" s="21" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="n"/>
+      <c r="E42" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M42" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N42" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O42" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" s="26" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="24" t="n"/>
+      <c r="B43" s="25" t="n"/>
+      <c r="C43" s="21" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H43" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M43" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O43" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P43" s="26" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="26" t="n"/>
+      <c r="B44" s="25" t="n"/>
+      <c r="C44" s="21" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M44" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P44" s="26" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="24" t="n"/>
+      <c r="B45" s="25" t="n"/>
+      <c r="C45" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="n"/>
+      <c r="E45" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L45" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M45" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N45" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O45" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P45" s="26" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="24" t="n"/>
+      <c r="B46" s="25" t="n"/>
+      <c r="C46" s="21" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I46" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J46" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M46" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N46" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P46" s="26" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="24" t="n"/>
+      <c r="B47" s="25" t="n"/>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="n"/>
+      <c r="E47" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L47" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O47" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P47" s="26" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="24" t="n"/>
+      <c r="B48" s="25" t="n"/>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="n"/>
+      <c r="E48" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I48" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M48" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N48" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O48" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P48" s="26" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="24" t="n"/>
+      <c r="B49" s="25" t="n"/>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="n"/>
+      <c r="E49" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J49" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L49" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M49" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P49" s="26" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="24" t="n"/>
+      <c r="B50" s="25" t="n"/>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n"/>
+      <c r="E50" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L50" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M50" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P50" s="26" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="24" t="n"/>
+      <c r="B51" s="25" t="n"/>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L51" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M51" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O51" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P51" s="26" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="24" t="n"/>
+      <c r="B52" s="25" t="n"/>
+      <c r="C52" s="21" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n"/>
+      <c r="E52" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J52" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K52" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L52" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O52" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P52" s="26" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="24" t="n"/>
+      <c r="B53" s="25" t="n"/>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G53" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I53" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K53" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L53" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M53" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P53" s="26" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="24" t="n"/>
+      <c r="B54" s="25" t="n"/>
+      <c r="C54" s="21" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I54" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K54" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L54" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M54" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O54" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P54" s="26" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="24" t="n"/>
+      <c r="B55" s="25" t="n"/>
+      <c r="C55" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D55" s="9" t="n"/>
+      <c r="E55" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H55" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L55" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M55" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O55" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P55" s="26" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="n"/>
+      <c r="B56" s="25" t="n"/>
+      <c r="C56" s="21" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D56" s="9" t="n"/>
+      <c r="E56" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G56" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L56" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M56" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O56" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P56" s="26" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="24" t="n"/>
+      <c r="B57" s="25" t="n"/>
+      <c r="C57" s="21" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="n"/>
+      <c r="E57" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F57" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H57" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I57" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L57" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M57" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O57" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P57" s="26" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="26" t="n"/>
+      <c r="B58" s="25" t="n"/>
+      <c r="C58" s="21" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n"/>
+      <c r="E58" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F58" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G58" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I58" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J58" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K58" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L58" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M58" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N58" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O58" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P58" s="26" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="24" t="n"/>
+      <c r="B59" s="25" t="n"/>
+      <c r="C59" s="21" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n"/>
+      <c r="E59" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F59" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G59" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J59" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K59" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L59" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M59" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N59" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O59" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P59" s="26" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="24" t="n"/>
+      <c r="B60" s="25" t="n"/>
+      <c r="C60" s="21" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n"/>
+      <c r="E60" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G60" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H60" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I60" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K60" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L60" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M60" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O60" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P60" s="26" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="24" t="n"/>
+      <c r="B61" s="25" t="n"/>
+      <c r="C61" s="21" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n"/>
+      <c r="E61" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I61" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K61" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L61" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M61" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O61" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P61" s="26" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="24" t="n"/>
+      <c r="B62" s="25" t="n"/>
+      <c r="C62" s="21" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n"/>
+      <c r="E62" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G62" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I62" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J62" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K62" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L62" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M62" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O62" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P62" s="26" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="24" t="n"/>
+      <c r="B63" s="25" t="n"/>
+      <c r="C63" s="21" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n"/>
+      <c r="E63" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I63" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L63" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M63" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="P63" s="26" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="24" t="n"/>
+      <c r="B64" s="25" t="n"/>
+      <c r="C64" s="21" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n"/>
+      <c r="E64" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F64" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G64" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H64" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I64" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J64" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K64" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L64" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M64" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N64" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O64" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P64" s="26" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="24" t="n"/>
+      <c r="B65" s="25" t="n"/>
+      <c r="C65" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n"/>
+      <c r="E65" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F65" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K65" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L65" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M65" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N65" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O65" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P65" s="26" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="24" t="n"/>
+      <c r="B66" s="25" t="n"/>
+      <c r="C66" s="21" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n"/>
+      <c r="E66" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G66" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H66" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I66" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K66" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L66" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M66" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N66" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O66" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P66" s="26" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="26" t="n"/>
+      <c r="B67" s="25" t="n"/>
+      <c r="C67" s="21" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="n"/>
+      <c r="E67" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F67" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G67" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I67" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K67" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L67" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O67" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P67" s="26" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="24" t="n"/>
+      <c r="B68" s="25" t="n"/>
+      <c r="C68" s="21" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D68" s="9" t="n"/>
+      <c r="E68" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F68" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G68" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H68" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I68" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J68" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K68" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L68" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M68" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N68" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O68" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P68" s="26" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="24" t="n"/>
+      <c r="B69" s="25" t="n"/>
+      <c r="C69" s="21" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D69" s="9" t="n"/>
+      <c r="E69" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F69" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G69" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H69" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I69" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J69" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K69" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L69" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M69" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N69" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O69" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P69" s="26" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="24" t="n"/>
+      <c r="B70" s="25" t="n"/>
+      <c r="C70" s="21" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D70" s="9" t="n"/>
+      <c r="E70" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F70" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G70" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H70" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I70" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K70" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L70" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M70" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O70" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P70" s="26" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="24" t="n"/>
+      <c r="B71" s="25" t="n"/>
+      <c r="C71" s="21" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D71" s="9" t="n"/>
+      <c r="E71" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F71" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G71" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H71" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K71" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L71" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M71" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N71" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O71" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P71" s="26" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="24" t="n"/>
+      <c r="B72" s="25" t="n"/>
+      <c r="C72" s="21" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D72" s="9" t="n"/>
+      <c r="E72" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F72" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G72" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I72" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J72" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K72" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L72" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M72" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N72" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O72" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P72" s="26" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="24" t="n"/>
+      <c r="B73" s="25" t="n"/>
+      <c r="C73" s="21" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D73" s="9" t="n"/>
+      <c r="E73" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F73" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G73" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K73" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L73" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M73" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N73" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O73" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P73" s="26" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="24" t="n"/>
+      <c r="B74" s="25" t="n"/>
+      <c r="C74" s="21" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D74" s="9" t="n"/>
+      <c r="E74" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F74" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G74" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H74" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K74" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L74" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M74" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N74" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O74" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P74" s="26" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="24" t="n"/>
+      <c r="B75" s="25" t="n"/>
+      <c r="C75" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="n"/>
+      <c r="E75" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F75" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G75" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H75" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I75" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J75" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K75" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L75" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M75" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N75" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O75" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P75" s="26" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="26" t="n"/>
+      <c r="B76" s="25" t="n"/>
+      <c r="C76" s="21" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="n"/>
+      <c r="E76" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G76" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H76" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I76" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K76" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L76" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M76" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N76" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O76" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P76" s="26" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="24" t="n"/>
+      <c r="B77" s="25" t="n"/>
+      <c r="C77" s="21" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D77" s="9" t="n"/>
+      <c r="E77" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F77" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H77" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K77" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L77" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M77" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N77" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O77" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P77" s="26" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="24" t="n"/>
+      <c r="B78" s="25" t="n"/>
+      <c r="C78" s="21" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D78" s="9" t="n"/>
+      <c r="E78" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F78" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G78" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H78" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I78" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K78" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L78" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M78" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N78" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O78" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P78" s="26" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="24" t="n"/>
+      <c r="B79" s="25" t="n"/>
+      <c r="C79" s="21" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="n"/>
+      <c r="E79" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F79" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G79" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H79" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I79" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J79" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K79" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L79" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M79" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N79" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O79" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P79" s="26" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="24" t="n"/>
+      <c r="B80" s="25" t="n"/>
+      <c r="C80" s="21" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D80" s="9" t="n"/>
+      <c r="E80" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F80" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G80" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H80" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I80" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K80" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L80" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M80" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N80" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O80" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P80" s="26" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="24" t="n"/>
+      <c r="B81" s="25" t="n"/>
+      <c r="C81" s="21" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D81" s="9" t="n"/>
+      <c r="E81" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F81" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H81" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I81" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K81" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L81" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M81" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N81" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O81" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P81" s="26" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="24" t="n"/>
+      <c r="B82" s="25" t="n"/>
+      <c r="C82" s="21" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D82" s="9" t="n"/>
+      <c r="E82" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F82" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G82" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H82" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I82" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K82" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L82" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M82" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N82" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O82" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P82" s="26" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="24" t="n"/>
+      <c r="B83" s="25" t="n"/>
+      <c r="C83" s="21" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D83" s="9" t="n"/>
+      <c r="E83" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F83" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H83" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I83" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J83" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K83" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L83" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M83" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N83" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O83" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P83" s="26" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="29" t="n"/>
+      <c r="B84" s="25" t="n"/>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D84" s="9" t="n"/>
+      <c r="E84" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F84" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I84" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J84" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K84" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L84" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M84" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N84" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O84" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P84" s="29" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="24" t="n"/>
+      <c r="B85" s="25" t="n"/>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D85" s="9" t="n"/>
+      <c r="E85" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F85" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G85" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H85" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I85" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K85" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L85" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M85" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N85" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O85" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P85" s="26" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="24" t="n"/>
+      <c r="B86" s="25" t="n"/>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D86" s="9" t="n"/>
+      <c r="E86" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G86" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H86" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I86" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K86" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L86" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M86" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N86" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O86" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P86" s="26" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="24" t="n"/>
+      <c r="B87" s="25" t="n"/>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D87" s="9" t="n"/>
+      <c r="E87" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F87" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G87" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H87" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I87" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J87" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K87" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L87" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M87" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N87" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O87" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P87" s="26" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="24" t="n"/>
+      <c r="B88" s="25" t="n"/>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D88" s="9" t="n"/>
+      <c r="E88" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F88" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G88" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H88" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I88" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J88" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L88" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M88" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N88" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O88" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P88" s="26" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="24" t="n"/>
+      <c r="B89" s="25" t="n"/>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D89" s="9" t="n"/>
+      <c r="E89" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F89" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G89" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H89" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I89" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J89" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K89" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L89" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M89" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O89" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P89" s="26" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="24" t="n"/>
+      <c r="B90" s="25" t="n"/>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D90" s="9" t="n"/>
+      <c r="E90" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F90" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G90" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I90" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J90" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K90" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L90" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M90" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N90" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O90" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P90" s="26" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="24" t="n"/>
+      <c r="B91" s="25" t="n"/>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D91" s="9" t="n"/>
+      <c r="E91" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F91" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H91" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I91" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J91" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K91" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L91" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M91" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O91" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P91" s="26" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="24" t="n"/>
+      <c r="B92" s="25" t="n"/>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="n"/>
+      <c r="E92" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H92" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I92" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J92" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K92" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L92" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M92" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O92" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P92" s="26" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="27" t="n"/>
+      <c r="B93" s="28" t="n"/>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D93" s="9" t="n"/>
+      <c r="E93" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H93" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I93" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J93" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K93" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L93" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M93" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O93" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P93" s="29" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="B94" s="23" t="n"/>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D94" s="9" t="n"/>
+      <c r="E94" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G94" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H94" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I94" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J94" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K94" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L94" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M94" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O94" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P94" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Letícia - Tem sido incrível ver uma abordagem tão diferente aos conteúdos das redes sociais. A Letícia é sem dúvida uma rajada de ar fresco a nível de designs e ideias, adoro muito.
+Raquel - Acho que tem muito para dar. Precisa de confiar mais em si e não desistir. Tenho a certeza que aquela cabeça está cheia de ideias inovadoras prontas a serem lançadas ao mundo, se ela deixar.
+Márcia - Adoro trabalhar com ela, acho que está super empenhada e entusiasmada. Espero que mantenha esta proatividade e empenho para tudo, é algo que a distingue.
+Inês Geraldes - Adoro ver as ideias dela, o entusiasmo e empenho em trazer sempre coisas novas. Ela é uma mais valia para TODA a EPIC Júnior.
+Cláudia - É uma pessoa que tanto é profissional, como é uma brincalhona. Ela é o balanço perfeito disso e torna todos os ambientes onde está super tranquilos, adoro trabalhar com a Cláudia (tanto como membro como agora como chefe)
+Mariana - Apesar de que acabou de entrar, desenvolveu já o profissionalismo, a proatividade e interesse dignos de um membro épico 
+Inês Faria - É uma rapariga incrível que eu adoro trabalhar. É super divertida e torna todo o ambiente descontraído e bom de trabalhar. Acho que vai crescer para um membro incrível
+(só não deixo nenhum comentário sobre a Beatriz Simões e a Margarida porque ainda não trabalhei com elas diretamente) </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="24" t="n"/>
+      <c r="B95" s="25" t="n"/>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D95" s="9" t="n"/>
+      <c r="E95" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F95" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G95" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H95" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I95" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J95" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K95" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L95" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M95" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N95" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O95" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P95" s="26" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="24" t="n"/>
+      <c r="B96" s="25" t="n"/>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="n"/>
+      <c r="E96" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G96" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H96" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I96" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J96" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K96" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L96" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M96" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O96" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P96" s="26" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="24" t="n"/>
+      <c r="B97" s="25" t="n"/>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D97" s="9" t="n"/>
+      <c r="E97" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F97" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G97" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H97" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I97" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J97" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K97" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L97" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M97" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O97" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P97" s="26" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="24" t="n"/>
+      <c r="B98" s="25" t="n"/>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="n"/>
+      <c r="E98" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F98" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G98" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H98" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I98" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K98" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L98" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M98" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N98" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O98" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P98" s="26" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="24" t="n"/>
+      <c r="B99" s="25" t="n"/>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D99" s="9" t="n"/>
+      <c r="E99" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F99" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G99" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H99" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I99" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K99" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L99" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M99" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O99" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P99" s="26" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="24" t="n"/>
+      <c r="B100" s="25" t="n"/>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="n"/>
+      <c r="E100" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F100" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G100" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H100" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I100" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J100" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K100" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L100" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M100" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O100" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P100" s="26" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="24" t="n"/>
+      <c r="B101" s="25" t="n"/>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D101" s="9" t="n"/>
+      <c r="E101" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F101" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G101" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H101" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I101" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K101" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L101" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M101" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O101" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P101" s="26" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="24" t="n"/>
+      <c r="B102" s="25" t="n"/>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="n"/>
+      <c r="E102" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F102" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I102" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J102" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K102" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L102" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M102" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O102" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P102" s="26" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="27" t="n"/>
+      <c r="B103" s="28" t="n"/>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D103" s="9" t="n"/>
+      <c r="E103" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F103" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G103" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H103" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I103" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J103" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K103" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L103" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M103" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P103" s="29" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>Cláudia Santos</t>
+        </is>
+      </c>
+      <c r="B104" s="23" t="n"/>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>Beatriz Sousa</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="n"/>
+      <c r="E104" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J104" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K104" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L104" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M104" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O104" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P104" s="21" t="inlineStr">
+        <is>
+          <t>Nada a apontar</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="24" t="n"/>
+      <c r="B105" s="25" t="n"/>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>Catarina Oliveira</t>
+        </is>
+      </c>
+      <c r="D105" s="9" t="n"/>
+      <c r="E105" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H105" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I105" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J105" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K105" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L105" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M105" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O105" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P105" s="26" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="24" t="n"/>
+      <c r="B106" s="25" t="n"/>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>Claudia Santos</t>
+        </is>
+      </c>
+      <c r="D106" s="9" t="n"/>
+      <c r="E106" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F106" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G106" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H106" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I106" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J106" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K106" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L106" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M106" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O106" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P106" s="26" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="24" t="n"/>
+      <c r="B107" s="25" t="n"/>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>Ines Faria</t>
+        </is>
+      </c>
+      <c r="D107" s="9" t="n"/>
+      <c r="E107" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G107" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H107" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I107" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J107" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K107" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L107" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M107" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N107" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O107" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P107" s="26" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="24" t="n"/>
+      <c r="B108" s="25" t="n"/>
+      <c r="C108" s="21" t="inlineStr">
+        <is>
+          <t>Ines Geraldes</t>
+        </is>
+      </c>
+      <c r="D108" s="9" t="n"/>
+      <c r="E108" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G108" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H108" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I108" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J108" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K108" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L108" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M108" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N108" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O108" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P108" s="26" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="24" t="n"/>
+      <c r="B109" s="25" t="n"/>
+      <c r="C109" s="21" t="inlineStr">
+        <is>
+          <t>Leticia Santos</t>
+        </is>
+      </c>
+      <c r="D109" s="9" t="n"/>
+      <c r="E109" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F109" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G109" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H109" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I109" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J109" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K109" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L109" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M109" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N109" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O109" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P109" s="26" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="24" t="n"/>
+      <c r="B110" s="25" t="n"/>
+      <c r="C110" s="21" t="inlineStr">
+        <is>
+          <t>Marcia Costa</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="n"/>
+      <c r="E110" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F110" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G110" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H110" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I110" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J110" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K110" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L110" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M110" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N110" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O110" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P110" s="26" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="24" t="n"/>
+      <c r="B111" s="25" t="n"/>
+      <c r="C111" s="21" t="inlineStr">
+        <is>
+          <t>Margarida Ribeiro</t>
+        </is>
+      </c>
+      <c r="D111" s="9" t="n"/>
+      <c r="E111" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G111" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H111" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I111" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J111" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K111" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L111" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M111" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N111" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O111" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P111" s="26" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="24" t="n"/>
+      <c r="B112" s="25" t="n"/>
+      <c r="C112" s="21" t="inlineStr">
+        <is>
+          <t>Mariana Coelho</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="n"/>
+      <c r="E112" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F112" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H112" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I112" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J112" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K112" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L112" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M112" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N112" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O112" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P112" s="26" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="27" t="n"/>
+      <c r="B113" s="28" t="n"/>
+      <c r="C113" s="21" t="inlineStr">
+        <is>
+          <t>Raquel Baptista</t>
+        </is>
+      </c>
+      <c r="D113" s="9" t="n"/>
+      <c r="E113" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F113" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G113" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I113" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J113" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K113" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L113" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M113" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N113" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O113" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P113" s="29" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1373">
+    <mergeCell ref="E70"/>
+    <mergeCell ref="K98"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="J3"/>
+    <mergeCell ref="L59"/>
+    <mergeCell ref="I50"/>
+    <mergeCell ref="L86"/>
+    <mergeCell ref="L61"/>
+    <mergeCell ref="K108"/>
+    <mergeCell ref="I45"/>
+    <mergeCell ref="P34:P43"/>
+    <mergeCell ref="K20"/>
+    <mergeCell ref="I47"/>
+    <mergeCell ref="K109"/>
+    <mergeCell ref="K22"/>
+    <mergeCell ref="M84"/>
+    <mergeCell ref="O113"/>
+    <mergeCell ref="K111"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="M86"/>
+    <mergeCell ref="J41"/>
+    <mergeCell ref="M80"/>
+    <mergeCell ref="J16"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J43"/>
+    <mergeCell ref="L105"/>
+    <mergeCell ref="L99"/>
+    <mergeCell ref="K38"/>
+    <mergeCell ref="N49"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="P54:P63"/>
+    <mergeCell ref="J67"/>
+    <mergeCell ref="K33"/>
+    <mergeCell ref="J69"/>
+    <mergeCell ref="K35"/>
+    <mergeCell ref="M70"/>
+    <mergeCell ref="N77"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="J98"/>
+    <mergeCell ref="M99"/>
+    <mergeCell ref="G53"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="L4"/>
+    <mergeCell ref="K59"/>
+    <mergeCell ref="O40"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="K61"/>
+    <mergeCell ref="H24"/>
+    <mergeCell ref="H18"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="H26"/>
+    <mergeCell ref="J82"/>
+    <mergeCell ref="L57"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="I41"/>
+    <mergeCell ref="I16"/>
+    <mergeCell ref="I43"/>
+    <mergeCell ref="K105"/>
+    <mergeCell ref="K107"/>
+    <mergeCell ref="H37"/>
+    <mergeCell ref="O58"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F61"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I69"/>
+    <mergeCell ref="L70"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="I77"/>
+    <mergeCell ref="A104:B113"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="J65"/>
+    <mergeCell ref="I87"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E108"/>
+    <mergeCell ref="G24"/>
+    <mergeCell ref="J25"/>
+    <mergeCell ref="G51"/>
+    <mergeCell ref="G26"/>
+    <mergeCell ref="I88"/>
+    <mergeCell ref="I82"/>
+    <mergeCell ref="K57"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="H20"/>
+    <mergeCell ref="O10"/>
+    <mergeCell ref="J112"/>
+    <mergeCell ref="G42"/>
+    <mergeCell ref="J84"/>
+    <mergeCell ref="J78"/>
+    <mergeCell ref="O39"/>
+    <mergeCell ref="K60"/>
+    <mergeCell ref="O5"/>
+    <mergeCell ref="H51"/>
+    <mergeCell ref="J80"/>
+    <mergeCell ref="J107"/>
+    <mergeCell ref="K75"/>
+    <mergeCell ref="G37"/>
+    <mergeCell ref="N58"/>
+    <mergeCell ref="J79"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="I14"/>
+    <mergeCell ref="K70"/>
+    <mergeCell ref="H77"/>
+    <mergeCell ref="J106"/>
+    <mergeCell ref="E32"/>
+    <mergeCell ref="H33"/>
+    <mergeCell ref="O23"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="H35"/>
+    <mergeCell ref="G96"/>
+    <mergeCell ref="F29"/>
+    <mergeCell ref="G98"/>
+    <mergeCell ref="O18"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="H59"/>
+    <mergeCell ref="F24"/>
+    <mergeCell ref="I25"/>
+    <mergeCell ref="H89"/>
+    <mergeCell ref="F32"/>
+    <mergeCell ref="H61"/>
+    <mergeCell ref="F26"/>
+    <mergeCell ref="H88"/>
+    <mergeCell ref="G108"/>
+    <mergeCell ref="H90"/>
+    <mergeCell ref="E45"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="O42"/>
+    <mergeCell ref="G20"/>
+    <mergeCell ref="G109"/>
+    <mergeCell ref="G22"/>
+    <mergeCell ref="I84"/>
+    <mergeCell ref="G111"/>
+    <mergeCell ref="F44"/>
+    <mergeCell ref="I86"/>
+    <mergeCell ref="I80"/>
+    <mergeCell ref="F16"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="M60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="J49"/>
+    <mergeCell ref="O88"/>
+    <mergeCell ref="G33"/>
+    <mergeCell ref="N29"/>
+    <mergeCell ref="G35"/>
+    <mergeCell ref="F96"/>
+    <mergeCell ref="N31"/>
+    <mergeCell ref="F98"/>
+    <mergeCell ref="I99"/>
+    <mergeCell ref="M50"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="G59"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="G67"/>
+    <mergeCell ref="G61"/>
+    <mergeCell ref="O20"/>
+    <mergeCell ref="N42"/>
+    <mergeCell ref="O22"/>
+    <mergeCell ref="F109"/>
+    <mergeCell ref="N44"/>
+    <mergeCell ref="H57"/>
+    <mergeCell ref="F22"/>
+    <mergeCell ref="O51"/>
+    <mergeCell ref="H84"/>
+    <mergeCell ref="J113"/>
+    <mergeCell ref="O47"/>
+    <mergeCell ref="F111"/>
+    <mergeCell ref="H86"/>
+    <mergeCell ref="E41"/>
+    <mergeCell ref="E16"/>
+    <mergeCell ref="O38"/>
+    <mergeCell ref="O76"/>
+    <mergeCell ref="E43"/>
+    <mergeCell ref="E18"/>
+    <mergeCell ref="G105"/>
+    <mergeCell ref="N95"/>
+    <mergeCell ref="I49"/>
+    <mergeCell ref="L32"/>
+    <mergeCell ref="O33"/>
+    <mergeCell ref="G107"/>
+    <mergeCell ref="F40"/>
+    <mergeCell ref="N97"/>
+    <mergeCell ref="A4:B13"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="N96"/>
+    <mergeCell ref="F41"/>
+    <mergeCell ref="E69"/>
+    <mergeCell ref="F35"/>
+    <mergeCell ref="H70"/>
+    <mergeCell ref="N98"/>
+    <mergeCell ref="M31"/>
+    <mergeCell ref="E77"/>
+    <mergeCell ref="O59"/>
+    <mergeCell ref="H99"/>
+    <mergeCell ref="O95"/>
+    <mergeCell ref="L50"/>
+    <mergeCell ref="O89"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="O61"/>
+    <mergeCell ref="H101"/>
+    <mergeCell ref="L52"/>
+    <mergeCell ref="N27"/>
+    <mergeCell ref="N20"/>
+    <mergeCell ref="F69"/>
+    <mergeCell ref="F25"/>
+    <mergeCell ref="N109"/>
+    <mergeCell ref="N22"/>
+    <mergeCell ref="E88"/>
+    <mergeCell ref="E82"/>
+    <mergeCell ref="G57"/>
+    <mergeCell ref="N38"/>
+    <mergeCell ref="G58"/>
+    <mergeCell ref="F105"/>
+    <mergeCell ref="K39"/>
+    <mergeCell ref="N40"/>
+    <mergeCell ref="F107"/>
+    <mergeCell ref="F82"/>
+    <mergeCell ref="M103"/>
+    <mergeCell ref="J58"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="N35"/>
+    <mergeCell ref="M96"/>
+    <mergeCell ref="E14"/>
+    <mergeCell ref="G70"/>
+    <mergeCell ref="M98"/>
+    <mergeCell ref="N66"/>
+    <mergeCell ref="K21"/>
+    <mergeCell ref="L3"/>
+    <mergeCell ref="N68"/>
+    <mergeCell ref="K50"/>
+    <mergeCell ref="N61"/>
+    <mergeCell ref="K58"/>
+    <mergeCell ref="J86"/>
+    <mergeCell ref="K52"/>
+    <mergeCell ref="M27"/>
+    <mergeCell ref="O91"/>
+    <mergeCell ref="E25"/>
+    <mergeCell ref="O85"/>
+    <mergeCell ref="L21"/>
+    <mergeCell ref="O57"/>
+    <mergeCell ref="L48"/>
+    <mergeCell ref="O86"/>
+    <mergeCell ref="N112"/>
+    <mergeCell ref="L43"/>
+    <mergeCell ref="N105"/>
+    <mergeCell ref="M11"/>
+    <mergeCell ref="E84"/>
+    <mergeCell ref="E78"/>
+    <mergeCell ref="N107"/>
+    <mergeCell ref="L74"/>
+    <mergeCell ref="M40"/>
+    <mergeCell ref="O75"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="E86"/>
+    <mergeCell ref="E80"/>
+    <mergeCell ref="L76"/>
+    <mergeCell ref="O104"/>
+    <mergeCell ref="M41"/>
+    <mergeCell ref="L69"/>
+    <mergeCell ref="N9"/>
+    <mergeCell ref="O70"/>
+    <mergeCell ref="E81"/>
+    <mergeCell ref="F49"/>
+    <mergeCell ref="K10"/>
+    <mergeCell ref="M66"/>
+    <mergeCell ref="N4"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F78"/>
+    <mergeCell ref="E106"/>
+    <mergeCell ref="O101"/>
+    <mergeCell ref="J29"/>
+    <mergeCell ref="M68"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="L87"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E107"/>
+    <mergeCell ref="N62"/>
+    <mergeCell ref="J24"/>
+    <mergeCell ref="L89"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="N64"/>
+    <mergeCell ref="J26"/>
+    <mergeCell ref="L88"/>
+    <mergeCell ref="N57"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="K48"/>
+    <mergeCell ref="K23"/>
+    <mergeCell ref="M112"/>
+    <mergeCell ref="J42"/>
+    <mergeCell ref="L17"/>
+    <mergeCell ref="J44"/>
+    <mergeCell ref="L19"/>
+    <mergeCell ref="M107"/>
+    <mergeCell ref="N75"/>
+    <mergeCell ref="J37"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="K76"/>
+    <mergeCell ref="L14"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="K67"/>
+    <mergeCell ref="J95"/>
+    <mergeCell ref="E49"/>
+    <mergeCell ref="K77"/>
+    <mergeCell ref="H32"/>
+    <mergeCell ref="G113"/>
+    <mergeCell ref="J96"/>
+    <mergeCell ref="J90"/>
+    <mergeCell ref="I29"/>
+    <mergeCell ref="L65"/>
+    <mergeCell ref="I31"/>
+    <mergeCell ref="K87"/>
+    <mergeCell ref="P13:P21"/>
+    <mergeCell ref="A74:B83"/>
+    <mergeCell ref="K95"/>
+    <mergeCell ref="H50"/>
+    <mergeCell ref="K89"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="M64"/>
+    <mergeCell ref="I26"/>
+    <mergeCell ref="K88"/>
+    <mergeCell ref="E51"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M65"/>
+    <mergeCell ref="J20"/>
+    <mergeCell ref="I42"/>
+    <mergeCell ref="J22"/>
+    <mergeCell ref="L84"/>
+    <mergeCell ref="K17"/>
+    <mergeCell ref="I44"/>
+    <mergeCell ref="A94:B103"/>
+    <mergeCell ref="J51"/>
+    <mergeCell ref="L80"/>
+    <mergeCell ref="K19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="M83"/>
+    <mergeCell ref="J38"/>
+    <mergeCell ref="M49"/>
+    <mergeCell ref="G39"/>
+    <mergeCell ref="J40"/>
+    <mergeCell ref="J77"/>
+    <mergeCell ref="M78"/>
+    <mergeCell ref="L106"/>
+    <mergeCell ref="I103"/>
+    <mergeCell ref="I97"/>
+    <mergeCell ref="J35"/>
+    <mergeCell ref="I96"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="I98"/>
+    <mergeCell ref="G65"/>
+    <mergeCell ref="J66"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="G50"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="J61"/>
+    <mergeCell ref="J97"/>
+    <mergeCell ref="G52"/>
+    <mergeCell ref="I27"/>
+    <mergeCell ref="O9"/>
+    <mergeCell ref="K91"/>
+    <mergeCell ref="H21"/>
+    <mergeCell ref="I22"/>
+    <mergeCell ref="K84"/>
+    <mergeCell ref="K86"/>
+    <mergeCell ref="L54"/>
+    <mergeCell ref="H16"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="L56"/>
+    <mergeCell ref="J105"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I38"/>
+    <mergeCell ref="L49"/>
+    <mergeCell ref="A54:B63"/>
+    <mergeCell ref="I40"/>
+    <mergeCell ref="N113"/>
+    <mergeCell ref="H67"/>
+    <mergeCell ref="A49:B57"/>
+    <mergeCell ref="H103"/>
+    <mergeCell ref="K104"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="J9"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="H98"/>
+    <mergeCell ref="K99"/>
+    <mergeCell ref="I66"/>
+    <mergeCell ref="L102"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="J4"/>
+    <mergeCell ref="I68"/>
+    <mergeCell ref="F23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="I67"/>
+    <mergeCell ref="F58"/>
+    <mergeCell ref="H87"/>
+    <mergeCell ref="F52"/>
+    <mergeCell ref="F60"/>
+    <mergeCell ref="F53"/>
+    <mergeCell ref="H82"/>
+    <mergeCell ref="G21"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="J57"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="J93"/>
+    <mergeCell ref="G23"/>
+    <mergeCell ref="H113"/>
+    <mergeCell ref="F42"/>
+    <mergeCell ref="K56"/>
+    <mergeCell ref="N39"/>
+    <mergeCell ref="E99"/>
+    <mergeCell ref="H19"/>
+    <mergeCell ref="I107"/>
+    <mergeCell ref="E101"/>
+    <mergeCell ref="H12"/>
+    <mergeCell ref="O8"/>
+    <mergeCell ref="H48"/>
+    <mergeCell ref="G76"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="I9"/>
+    <mergeCell ref="G77"/>
+    <mergeCell ref="H43"/>
+    <mergeCell ref="F10"/>
+    <mergeCell ref="I11"/>
+    <mergeCell ref="N50"/>
+    <mergeCell ref="H74"/>
+    <mergeCell ref="E29"/>
+    <mergeCell ref="H68"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="E31"/>
+    <mergeCell ref="G87"/>
+    <mergeCell ref="A76:B84"/>
+    <mergeCell ref="O46"/>
+    <mergeCell ref="O21"/>
+    <mergeCell ref="G95"/>
+    <mergeCell ref="G89"/>
+    <mergeCell ref="E26"/>
+    <mergeCell ref="G88"/>
+    <mergeCell ref="O48"/>
+    <mergeCell ref="G90"/>
+    <mergeCell ref="I65"/>
+    <mergeCell ref="H112"/>
+    <mergeCell ref="E42"/>
+    <mergeCell ref="G17"/>
+    <mergeCell ref="M39"/>
+    <mergeCell ref="E44"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F51"/>
+    <mergeCell ref="G19"/>
+    <mergeCell ref="O103"/>
+    <mergeCell ref="N8"/>
+    <mergeCell ref="M28"/>
+    <mergeCell ref="G14"/>
+    <mergeCell ref="N10"/>
+    <mergeCell ref="F67"/>
+    <mergeCell ref="M57"/>
+    <mergeCell ref="F77"/>
+    <mergeCell ref="I78"/>
+    <mergeCell ref="M29"/>
+    <mergeCell ref="M23"/>
+    <mergeCell ref="E97"/>
+    <mergeCell ref="E96"/>
+    <mergeCell ref="M58"/>
+    <mergeCell ref="O87"/>
+    <mergeCell ref="O6"/>
+    <mergeCell ref="E98"/>
+    <mergeCell ref="F59"/>
+    <mergeCell ref="N46"/>
+    <mergeCell ref="N21"/>
+    <mergeCell ref="F95"/>
+    <mergeCell ref="N48"/>
+    <mergeCell ref="N23"/>
+    <mergeCell ref="F97"/>
+    <mergeCell ref="L104"/>
+    <mergeCell ref="H72"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F90"/>
+    <mergeCell ref="M42"/>
+    <mergeCell ref="H65"/>
+    <mergeCell ref="O17"/>
+    <mergeCell ref="O11"/>
+    <mergeCell ref="E22"/>
+    <mergeCell ref="G84"/>
+    <mergeCell ref="N74"/>
+    <mergeCell ref="G86"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="N76"/>
+    <mergeCell ref="F108"/>
+    <mergeCell ref="J59"/>
+    <mergeCell ref="H83"/>
+    <mergeCell ref="F20"/>
+    <mergeCell ref="H49"/>
+    <mergeCell ref="M10"/>
+    <mergeCell ref="H85"/>
+    <mergeCell ref="L30"/>
+    <mergeCell ref="N92"/>
+    <mergeCell ref="O74"/>
+    <mergeCell ref="L29"/>
+    <mergeCell ref="H80"/>
+    <mergeCell ref="L31"/>
+    <mergeCell ref="N87"/>
+    <mergeCell ref="N6"/>
+    <mergeCell ref="G99"/>
+    <mergeCell ref="E66"/>
+    <mergeCell ref="N89"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="E68"/>
+    <mergeCell ref="I46"/>
+    <mergeCell ref="E67"/>
+    <mergeCell ref="M48"/>
+    <mergeCell ref="O112"/>
+    <mergeCell ref="L42"/>
+    <mergeCell ref="K106"/>
+    <mergeCell ref="N17"/>
+    <mergeCell ref="F66"/>
+    <mergeCell ref="M81"/>
+    <mergeCell ref="J11"/>
+    <mergeCell ref="N19"/>
+    <mergeCell ref="F93"/>
+    <mergeCell ref="O109"/>
+    <mergeCell ref="L100"/>
+    <mergeCell ref="A84:B93"/>
+    <mergeCell ref="M38"/>
+    <mergeCell ref="M76"/>
+    <mergeCell ref="I59"/>
+    <mergeCell ref="J39"/>
+    <mergeCell ref="L95"/>
+    <mergeCell ref="K34"/>
+    <mergeCell ref="L103"/>
+    <mergeCell ref="L97"/>
+    <mergeCell ref="K36"/>
+    <mergeCell ref="N37"/>
+    <mergeCell ref="I113"/>
+    <mergeCell ref="K29"/>
+    <mergeCell ref="F104"/>
+    <mergeCell ref="M94"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="K31"/>
+    <mergeCell ref="F106"/>
+    <mergeCell ref="M6"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="M95"/>
+    <mergeCell ref="M89"/>
+    <mergeCell ref="O64"/>
+    <mergeCell ref="M97"/>
+    <mergeCell ref="O72"/>
+    <mergeCell ref="L27"/>
+    <mergeCell ref="N83"/>
+    <mergeCell ref="K49"/>
+    <mergeCell ref="N91"/>
+    <mergeCell ref="N85"/>
+    <mergeCell ref="M113"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="O54"/>
+    <mergeCell ref="M108"/>
+    <mergeCell ref="E65"/>
+    <mergeCell ref="L55"/>
+    <mergeCell ref="N111"/>
+    <mergeCell ref="L38"/>
+    <mergeCell ref="F56"/>
+    <mergeCell ref="I39"/>
+    <mergeCell ref="L40"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="K103"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F57"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="J10"/>
+    <mergeCell ref="L66"/>
+    <mergeCell ref="I57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="L68"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F75"/>
+    <mergeCell ref="I58"/>
+    <mergeCell ref="K27"/>
+    <mergeCell ref="I83"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="M91"/>
+    <mergeCell ref="J21"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="P67:P75"/>
+    <mergeCell ref="M93"/>
+    <mergeCell ref="J48"/>
+    <mergeCell ref="J23"/>
+    <mergeCell ref="N54"/>
+    <mergeCell ref="L112"/>
+    <mergeCell ref="K55"/>
+    <mergeCell ref="N56"/>
+    <mergeCell ref="G38"/>
+    <mergeCell ref="K46"/>
+    <mergeCell ref="J74"/>
+    <mergeCell ref="K40"/>
+    <mergeCell ref="M75"/>
+    <mergeCell ref="J103"/>
+    <mergeCell ref="M104"/>
+    <mergeCell ref="K71"/>
+    <mergeCell ref="A22:B30"/>
+    <mergeCell ref="I8"/>
+    <mergeCell ref="L9"/>
+    <mergeCell ref="M106"/>
+    <mergeCell ref="K73"/>
+    <mergeCell ref="I10"/>
+    <mergeCell ref="L11"/>
+    <mergeCell ref="K66"/>
+    <mergeCell ref="H30"/>
+    <mergeCell ref="J92"/>
+    <mergeCell ref="K74"/>
+    <mergeCell ref="H29"/>
+    <mergeCell ref="K68"/>
+    <mergeCell ref="O19"/>
+    <mergeCell ref="N110"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="H31"/>
+    <mergeCell ref="H58"/>
+    <mergeCell ref="J87"/>
+    <mergeCell ref="J6"/>
+    <mergeCell ref="H60"/>
+    <mergeCell ref="J89"/>
+    <mergeCell ref="I28"/>
+    <mergeCell ref="L64"/>
+    <mergeCell ref="I21"/>
+    <mergeCell ref="E46"/>
+    <mergeCell ref="I48"/>
+    <mergeCell ref="I23"/>
+    <mergeCell ref="K112"/>
+    <mergeCell ref="H42"/>
+    <mergeCell ref="P14:P23"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G106"/>
+    <mergeCell ref="J17"/>
+    <mergeCell ref="M56"/>
+    <mergeCell ref="I81"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="J19"/>
+    <mergeCell ref="L75"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="I76"/>
+    <mergeCell ref="P58:P66"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G34"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E113"/>
+    <mergeCell ref="J47"/>
+    <mergeCell ref="G29"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I94"/>
+    <mergeCell ref="J76"/>
+    <mergeCell ref="G31"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="I95"/>
+    <mergeCell ref="I89"/>
+    <mergeCell ref="P84:P93"/>
+    <mergeCell ref="K64"/>
+    <mergeCell ref="K72"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="G49"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="I17"/>
+    <mergeCell ref="I19"/>
+    <mergeCell ref="P104:P113"/>
+    <mergeCell ref="G75"/>
+    <mergeCell ref="K83"/>
+    <mergeCell ref="J111"/>
+    <mergeCell ref="O34"/>
+    <mergeCell ref="O28"/>
+    <mergeCell ref="E39"/>
+    <mergeCell ref="H40"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="O36"/>
+    <mergeCell ref="O30"/>
+    <mergeCell ref="O29"/>
+    <mergeCell ref="G103"/>
+    <mergeCell ref="F36"/>
+    <mergeCell ref="O65"/>
+    <mergeCell ref="N93"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="O31"/>
+    <mergeCell ref="H100"/>
+    <mergeCell ref="H66"/>
+    <mergeCell ref="F31"/>
+    <mergeCell ref="O62"/>
+    <mergeCell ref="P31:P39"/>
+    <mergeCell ref="O56"/>
+    <mergeCell ref="E57"/>
+    <mergeCell ref="F39"/>
+    <mergeCell ref="H95"/>
+    <mergeCell ref="I63"/>
+    <mergeCell ref="L46"/>
+    <mergeCell ref="E58"/>
+    <mergeCell ref="H97"/>
+    <mergeCell ref="F64"/>
+    <mergeCell ref="N104"/>
+    <mergeCell ref="J72"/>
+    <mergeCell ref="M9"/>
+    <mergeCell ref="E83"/>
+    <mergeCell ref="N106"/>
+    <mergeCell ref="I91"/>
+    <mergeCell ref="F21"/>
+    <mergeCell ref="I93"/>
+    <mergeCell ref="F50"/>
+    <mergeCell ref="J54"/>
+    <mergeCell ref="H27"/>
+    <mergeCell ref="G55"/>
+    <mergeCell ref="J56"/>
+    <mergeCell ref="N34"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="G46"/>
+    <mergeCell ref="G40"/>
+    <mergeCell ref="N36"/>
+    <mergeCell ref="F103"/>
+    <mergeCell ref="I104"/>
+    <mergeCell ref="G71"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="H9"/>
+    <mergeCell ref="I106"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="G66"/>
+    <mergeCell ref="G74"/>
+    <mergeCell ref="G68"/>
+    <mergeCell ref="O55"/>
+    <mergeCell ref="O27"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="H91"/>
+    <mergeCell ref="E21"/>
+    <mergeCell ref="O53"/>
+    <mergeCell ref="H93"/>
+    <mergeCell ref="E23"/>
+    <mergeCell ref="I54"/>
+    <mergeCell ref="N102"/>
+    <mergeCell ref="I56"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="L39"/>
+    <mergeCell ref="M7"/>
+    <mergeCell ref="F46"/>
+    <mergeCell ref="N103"/>
+    <mergeCell ref="O71"/>
+    <mergeCell ref="M36"/>
+    <mergeCell ref="P40:P48"/>
+    <mergeCell ref="E110"/>
+    <mergeCell ref="M8"/>
+    <mergeCell ref="F48"/>
+    <mergeCell ref="E76"/>
+    <mergeCell ref="H104"/>
+    <mergeCell ref="L72"/>
+    <mergeCell ref="O73"/>
+    <mergeCell ref="O100"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="O66"/>
+    <mergeCell ref="H106"/>
+    <mergeCell ref="F73"/>
+    <mergeCell ref="O102"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="O68"/>
+    <mergeCell ref="N7"/>
+    <mergeCell ref="E92"/>
+    <mergeCell ref="F74"/>
+    <mergeCell ref="O97"/>
+    <mergeCell ref="E94"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F76"/>
+    <mergeCell ref="J27"/>
+    <mergeCell ref="L83"/>
+    <mergeCell ref="M21"/>
+    <mergeCell ref="E95"/>
+    <mergeCell ref="E89"/>
+    <mergeCell ref="L85"/>
+    <mergeCell ref="N60"/>
+    <mergeCell ref="F92"/>
+    <mergeCell ref="N55"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F87"/>
+    <mergeCell ref="N47"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="F89"/>
+    <mergeCell ref="M110"/>
+    <mergeCell ref="H64"/>
+    <mergeCell ref="E19"/>
+    <mergeCell ref="L15"/>
+    <mergeCell ref="N71"/>
+    <mergeCell ref="L8"/>
+    <mergeCell ref="G83"/>
+    <mergeCell ref="N73"/>
+    <mergeCell ref="L10"/>
+    <mergeCell ref="J91"/>
+    <mergeCell ref="K65"/>
+    <mergeCell ref="E47"/>
+    <mergeCell ref="O98"/>
+    <mergeCell ref="L28"/>
+    <mergeCell ref="N3"/>
+    <mergeCell ref="E63"/>
+    <mergeCell ref="H46"/>
+    <mergeCell ref="K85"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N5"/>
+    <mergeCell ref="O93"/>
+    <mergeCell ref="L23"/>
+    <mergeCell ref="A34:B43"/>
+    <mergeCell ref="A64:B73"/>
+    <mergeCell ref="F72"/>
+    <mergeCell ref="J104"/>
+    <mergeCell ref="L79"/>
+    <mergeCell ref="M45"/>
+    <mergeCell ref="M17"/>
+    <mergeCell ref="L81"/>
+    <mergeCell ref="M47"/>
+    <mergeCell ref="M19"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="L110"/>
+    <mergeCell ref="O111"/>
+    <mergeCell ref="K15"/>
+    <mergeCell ref="N16"/>
+    <mergeCell ref="M44"/>
+    <mergeCell ref="N51"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F83"/>
+    <mergeCell ref="M79"/>
+    <mergeCell ref="O108"/>
+    <mergeCell ref="J34"/>
+    <mergeCell ref="M73"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F85"/>
+    <mergeCell ref="J36"/>
+    <mergeCell ref="L92"/>
+    <mergeCell ref="M74"/>
+    <mergeCell ref="L94"/>
+    <mergeCell ref="J31"/>
+    <mergeCell ref="L6"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="J62"/>
+    <mergeCell ref="K28"/>
+    <mergeCell ref="M63"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="P44:P53"/>
+    <mergeCell ref="J64"/>
+    <mergeCell ref="K30"/>
+    <mergeCell ref="M92"/>
+    <mergeCell ref="M5"/>
+    <mergeCell ref="G48"/>
+    <mergeCell ref="I112"/>
+    <mergeCell ref="H17"/>
+    <mergeCell ref="H11"/>
+    <mergeCell ref="A24:B33"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J75"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="N108"/>
+    <mergeCell ref="I34"/>
+    <mergeCell ref="I36"/>
+    <mergeCell ref="L47"/>
+    <mergeCell ref="K100"/>
+    <mergeCell ref="K94"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K102"/>
+    <mergeCell ref="P22:P30"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="I62"/>
+    <mergeCell ref="L63"/>
+    <mergeCell ref="K97"/>
+    <mergeCell ref="I64"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M72"/>
+    <mergeCell ref="L91"/>
+    <mergeCell ref="K113"/>
+    <mergeCell ref="J60"/>
+    <mergeCell ref="K26"/>
+    <mergeCell ref="M88"/>
+    <mergeCell ref="J53"/>
+    <mergeCell ref="M54"/>
+    <mergeCell ref="M90"/>
+    <mergeCell ref="I75"/>
+    <mergeCell ref="J55"/>
+    <mergeCell ref="F38"/>
+    <mergeCell ref="M85"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="I110"/>
+    <mergeCell ref="H15"/>
+    <mergeCell ref="J71"/>
+    <mergeCell ref="K37"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="G72"/>
+    <mergeCell ref="J73"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="H10"/>
+    <mergeCell ref="M111"/>
+    <mergeCell ref="J102"/>
+    <mergeCell ref="H25"/>
+    <mergeCell ref="N53"/>
+    <mergeCell ref="H39"/>
+    <mergeCell ref="J68"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="K63"/>
+    <mergeCell ref="O16"/>
+    <mergeCell ref="E27"/>
+    <mergeCell ref="H28"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="G91"/>
+    <mergeCell ref="G85"/>
+    <mergeCell ref="K93"/>
+    <mergeCell ref="I60"/>
+    <mergeCell ref="H23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="H54"/>
+    <mergeCell ref="H56"/>
+    <mergeCell ref="E38"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="H110"/>
+    <mergeCell ref="E40"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="G15"/>
+    <mergeCell ref="G104"/>
+    <mergeCell ref="I79"/>
+    <mergeCell ref="I73"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="M24"/>
+    <mergeCell ref="H92"/>
+    <mergeCell ref="P64:P73"/>
+    <mergeCell ref="M53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="I74"/>
+    <mergeCell ref="F65"/>
+    <mergeCell ref="M55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="O83"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="G28"/>
+    <mergeCell ref="N18"/>
+    <mergeCell ref="G30"/>
+    <mergeCell ref="I92"/>
+    <mergeCell ref="F91"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="M37"/>
+    <mergeCell ref="O12"/>
+    <mergeCell ref="G54"/>
+    <mergeCell ref="O14"/>
+    <mergeCell ref="E112"/>
+    <mergeCell ref="K62"/>
+    <mergeCell ref="O13"/>
+    <mergeCell ref="O7"/>
+    <mergeCell ref="H53"/>
+    <mergeCell ref="G81"/>
+    <mergeCell ref="G56"/>
+    <mergeCell ref="O15"/>
+    <mergeCell ref="H55"/>
+    <mergeCell ref="F15"/>
+    <mergeCell ref="N72"/>
+    <mergeCell ref="H52"/>
+    <mergeCell ref="I18"/>
+    <mergeCell ref="H79"/>
+    <mergeCell ref="J108"/>
+    <mergeCell ref="E34"/>
+    <mergeCell ref="O69"/>
+    <mergeCell ref="O25"/>
+    <mergeCell ref="H45"/>
+    <mergeCell ref="H81"/>
+    <mergeCell ref="E36"/>
+    <mergeCell ref="N88"/>
+    <mergeCell ref="H47"/>
+    <mergeCell ref="J109"/>
+    <mergeCell ref="G100"/>
+    <mergeCell ref="G94"/>
+    <mergeCell ref="N90"/>
+    <mergeCell ref="H76"/>
+    <mergeCell ref="G102"/>
+    <mergeCell ref="F34"/>
+    <mergeCell ref="E62"/>
+    <mergeCell ref="H63"/>
+    <mergeCell ref="G97"/>
+    <mergeCell ref="E64"/>
+    <mergeCell ref="F30"/>
+    <mergeCell ref="M51"/>
+    <mergeCell ref="I72"/>
+    <mergeCell ref="H94"/>
+    <mergeCell ref="L45"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="O110"/>
+    <mergeCell ref="N15"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="E75"/>
+    <mergeCell ref="M34"/>
+    <mergeCell ref="L98"/>
+    <mergeCell ref="O92"/>
+    <mergeCell ref="E103"/>
+    <mergeCell ref="L93"/>
+    <mergeCell ref="K32"/>
+    <mergeCell ref="N33"/>
+    <mergeCell ref="F101"/>
+    <mergeCell ref="F100"/>
+    <mergeCell ref="I111"/>
+    <mergeCell ref="N28"/>
+    <mergeCell ref="F102"/>
+    <mergeCell ref="P3"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="N30"/>
+    <mergeCell ref="G63"/>
+    <mergeCell ref="J46"/>
+    <mergeCell ref="L111"/>
+    <mergeCell ref="N86"/>
+    <mergeCell ref="K16"/>
+    <mergeCell ref="O24"/>
+    <mergeCell ref="K9"/>
+    <mergeCell ref="K45"/>
+    <mergeCell ref="N81"/>
+    <mergeCell ref="M20"/>
+    <mergeCell ref="O49"/>
+    <mergeCell ref="K11"/>
+    <mergeCell ref="F113"/>
+    <mergeCell ref="K47"/>
+    <mergeCell ref="M109"/>
+    <mergeCell ref="G93"/>
+    <mergeCell ref="E60"/>
+    <mergeCell ref="M22"/>
+    <mergeCell ref="O84"/>
+    <mergeCell ref="O50"/>
+    <mergeCell ref="M15"/>
+    <mergeCell ref="L41"/>
+    <mergeCell ref="O80"/>
+    <mergeCell ref="F27"/>
+    <mergeCell ref="O52"/>
+    <mergeCell ref="O79"/>
+    <mergeCell ref="L34"/>
+    <mergeCell ref="N99"/>
+    <mergeCell ref="O81"/>
+    <mergeCell ref="L36"/>
+    <mergeCell ref="O37"/>
+    <mergeCell ref="M4"/>
+    <mergeCell ref="N101"/>
+    <mergeCell ref="E71"/>
+    <mergeCell ref="N100"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="L67"/>
+    <mergeCell ref="N94"/>
+    <mergeCell ref="E79"/>
+    <mergeCell ref="E73"/>
+    <mergeCell ref="M35"/>
+    <mergeCell ref="F55"/>
+    <mergeCell ref="L62"/>
+    <mergeCell ref="O63"/>
+    <mergeCell ref="F70"/>
+    <mergeCell ref="O99"/>
+    <mergeCell ref="I53"/>
+    <mergeCell ref="E74"/>
+    <mergeCell ref="M30"/>
+    <mergeCell ref="I55"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F71"/>
+    <mergeCell ref="O94"/>
+    <mergeCell ref="M61"/>
+    <mergeCell ref="F37"/>
+    <mergeCell ref="N24"/>
+    <mergeCell ref="P4:P13"/>
+    <mergeCell ref="J18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="N26"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="L107"/>
+    <mergeCell ref="L82"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F68"/>
+    <mergeCell ref="E87"/>
+    <mergeCell ref="K41"/>
+    <mergeCell ref="G62"/>
+    <mergeCell ref="N52"/>
+    <mergeCell ref="K43"/>
+    <mergeCell ref="M105"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="M101"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="M100"/>
+    <mergeCell ref="M102"/>
+    <mergeCell ref="K69"/>
+    <mergeCell ref="N70"/>
+    <mergeCell ref="K25"/>
+    <mergeCell ref="O77"/>
+    <mergeCell ref="L7"/>
+    <mergeCell ref="N63"/>
+    <mergeCell ref="J88"/>
+    <mergeCell ref="K54"/>
+    <mergeCell ref="A14:B23"/>
+    <mergeCell ref="J83"/>
+    <mergeCell ref="L58"/>
+    <mergeCell ref="J85"/>
+    <mergeCell ref="L25"/>
+    <mergeCell ref="I24"/>
+    <mergeCell ref="L60"/>
+    <mergeCell ref="M26"/>
+    <mergeCell ref="I51"/>
+    <mergeCell ref="E72"/>
+    <mergeCell ref="K82"/>
+    <mergeCell ref="O90"/>
+    <mergeCell ref="J14"/>
+    <mergeCell ref="H38"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="M52"/>
+    <mergeCell ref="K110"/>
+    <mergeCell ref="L78"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="J15"/>
+    <mergeCell ref="L71"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="I37"/>
+    <mergeCell ref="L73"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="K14"/>
+    <mergeCell ref="K7"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G32"/>
+    <mergeCell ref="J33"/>
+    <mergeCell ref="E109"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="M71"/>
+    <mergeCell ref="I90"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E111"/>
+    <mergeCell ref="L101"/>
+    <mergeCell ref="G27"/>
+    <mergeCell ref="J28"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="J30"/>
+    <mergeCell ref="I85"/>
+    <mergeCell ref="L5"/>
+    <mergeCell ref="P76:P84"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="G45"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="K53"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="I20"/>
+    <mergeCell ref="G47"/>
+    <mergeCell ref="I109"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J110"/>
+    <mergeCell ref="K78"/>
+    <mergeCell ref="I15"/>
+    <mergeCell ref="A31:B39"/>
+    <mergeCell ref="L16"/>
+    <mergeCell ref="A58:B66"/>
+    <mergeCell ref="P94:P103"/>
+    <mergeCell ref="H41"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="K80"/>
+    <mergeCell ref="K79"/>
+    <mergeCell ref="H34"/>
+    <mergeCell ref="J99"/>
+    <mergeCell ref="K81"/>
+    <mergeCell ref="H36"/>
+    <mergeCell ref="O32"/>
+    <mergeCell ref="O26"/>
+    <mergeCell ref="J101"/>
+    <mergeCell ref="J100"/>
+    <mergeCell ref="J94"/>
+    <mergeCell ref="I33"/>
+    <mergeCell ref="L44"/>
+    <mergeCell ref="I35"/>
+    <mergeCell ref="H96"/>
+    <mergeCell ref="P24:P33"/>
+    <mergeCell ref="H62"/>
+    <mergeCell ref="K101"/>
+    <mergeCell ref="E53"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I30"/>
+    <mergeCell ref="K92"/>
+    <mergeCell ref="E55"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="M67"/>
+    <mergeCell ref="E48"/>
+    <mergeCell ref="I61"/>
+    <mergeCell ref="O45"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="M69"/>
+    <mergeCell ref="G112"/>
+    <mergeCell ref="F18"/>
+    <mergeCell ref="F45"/>
+    <mergeCell ref="F17"/>
+    <mergeCell ref="F47"/>
+    <mergeCell ref="H109"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="H22"/>
+    <mergeCell ref="L113"/>
+    <mergeCell ref="H75"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="H111"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="J50"/>
+    <mergeCell ref="G41"/>
+    <mergeCell ref="G16"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="J52"/>
+    <mergeCell ref="K18"/>
+    <mergeCell ref="L108"/>
+    <mergeCell ref="G43"/>
+    <mergeCell ref="I105"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="J81"/>
+    <mergeCell ref="G36"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="N32"/>
+    <mergeCell ref="I101"/>
+    <mergeCell ref="I100"/>
+    <mergeCell ref="K44"/>
+    <mergeCell ref="I102"/>
+    <mergeCell ref="G69"/>
+    <mergeCell ref="J70"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="J63"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="G64"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="N45"/>
+    <mergeCell ref="A40:B48"/>
+    <mergeCell ref="A67:B75"/>
+    <mergeCell ref="E24"/>
+    <mergeCell ref="F112"/>
+    <mergeCell ref="E17"/>
+    <mergeCell ref="G82"/>
+    <mergeCell ref="K90"/>
+    <mergeCell ref="O41"/>
+    <mergeCell ref="O35"/>
+    <mergeCell ref="O43"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="I52"/>
+    <mergeCell ref="G110"/>
+    <mergeCell ref="M3"/>
+    <mergeCell ref="F43"/>
+    <mergeCell ref="H105"/>
+    <mergeCell ref="H71"/>
+    <mergeCell ref="O67"/>
+    <mergeCell ref="M32"/>
+    <mergeCell ref="H107"/>
+    <mergeCell ref="E37"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="O96"/>
+    <mergeCell ref="H102"/>
+    <mergeCell ref="I70"/>
+    <mergeCell ref="L53"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="F33"/>
+    <mergeCell ref="I71"/>
+    <mergeCell ref="M16"/>
+    <mergeCell ref="F62"/>
+    <mergeCell ref="E90"/>
+    <mergeCell ref="F28"/>
+    <mergeCell ref="M18"/>
+    <mergeCell ref="P49:P57"/>
+    <mergeCell ref="E91"/>
+    <mergeCell ref="E85"/>
+    <mergeCell ref="G25"/>
+    <mergeCell ref="O82"/>
+    <mergeCell ref="G60"/>
+    <mergeCell ref="E93"/>
+    <mergeCell ref="F88"/>
+    <mergeCell ref="F54"/>
+    <mergeCell ref="N41"/>
+    <mergeCell ref="E20"/>
+    <mergeCell ref="N43"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F110"/>
+    <mergeCell ref="O4"/>
+    <mergeCell ref="G78"/>
+    <mergeCell ref="E15"/>
+    <mergeCell ref="N67"/>
+    <mergeCell ref="G80"/>
+    <mergeCell ref="E104"/>
+    <mergeCell ref="N59"/>
+    <mergeCell ref="G79"/>
+    <mergeCell ref="G73"/>
+    <mergeCell ref="N69"/>
+    <mergeCell ref="P74:P83"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="H78"/>
+    <mergeCell ref="E33"/>
+    <mergeCell ref="H44"/>
+    <mergeCell ref="E35"/>
+    <mergeCell ref="H73"/>
+    <mergeCell ref="G101"/>
+    <mergeCell ref="E28"/>
+    <mergeCell ref="L24"/>
+    <mergeCell ref="L18"/>
+    <mergeCell ref="E30"/>
+    <mergeCell ref="G92"/>
+    <mergeCell ref="L51"/>
+    <mergeCell ref="L26"/>
+    <mergeCell ref="E59"/>
+    <mergeCell ref="M46"/>
+    <mergeCell ref="N82"/>
+    <mergeCell ref="E61"/>
+    <mergeCell ref="E54"/>
+    <mergeCell ref="M14"/>
+    <mergeCell ref="O106"/>
+    <mergeCell ref="E56"/>
+    <mergeCell ref="L77"/>
+    <mergeCell ref="M43"/>
+    <mergeCell ref="O78"/>
+    <mergeCell ref="O105"/>
+    <mergeCell ref="N11"/>
+    <mergeCell ref="F84"/>
+    <mergeCell ref="O107"/>
+    <mergeCell ref="L37"/>
+    <mergeCell ref="N12"/>
+    <mergeCell ref="F86"/>
+    <mergeCell ref="F80"/>
+    <mergeCell ref="A44:B53"/>
+    <mergeCell ref="G18"/>
+    <mergeCell ref="F79"/>
+    <mergeCell ref="N14"/>
+    <mergeCell ref="H108"/>
+    <mergeCell ref="E105"/>
+    <mergeCell ref="M25"/>
+    <mergeCell ref="F81"/>
+    <mergeCell ref="M77"/>
+    <mergeCell ref="J32"/>
+    <mergeCell ref="M33"/>
+    <mergeCell ref="E100"/>
+    <mergeCell ref="L96"/>
+    <mergeCell ref="M62"/>
+    <mergeCell ref="L90"/>
+    <mergeCell ref="G44"/>
+    <mergeCell ref="N65"/>
+    <mergeCell ref="E102"/>
+    <mergeCell ref="O3"/>
+    <mergeCell ref="M87"/>
+    <mergeCell ref="I108"/>
+    <mergeCell ref="F63"/>
+    <mergeCell ref="M59"/>
+    <mergeCell ref="K24"/>
+    <mergeCell ref="N25"/>
+    <mergeCell ref="F99"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="K51"/>
+    <mergeCell ref="M82"/>
+    <mergeCell ref="F94"/>
+    <mergeCell ref="J45"/>
+    <mergeCell ref="H69"/>
+    <mergeCell ref="L20"/>
+    <mergeCell ref="L109"/>
+    <mergeCell ref="K42"/>
+    <mergeCell ref="L22"/>
+    <mergeCell ref="N84"/>
+    <mergeCell ref="N78"/>
+    <mergeCell ref="O60"/>
+    <mergeCell ref="A13:B21"/>
+    <mergeCell ref="N80"/>
+    <mergeCell ref="E50"/>
+    <mergeCell ref="N79"/>
+    <mergeCell ref="E52"/>
+    <mergeCell ref="I32"/>
+    <mergeCell ref="L33"/>
+    <mergeCell ref="O44"/>
+    <mergeCell ref="L35"/>
+    <mergeCell ref="K96"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>